--- a/BDSM-Basic.xlsx
+++ b/BDSM-Basic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\XP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AF12FF-A972-4BDF-983D-4E2EA33E5AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96D9E8F-7BD2-478C-BCBC-AFD4DF1D10EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="319">
   <si>
     <t>分类1</t>
   </si>
@@ -866,12 +866,6 @@
   </si>
   <si>
     <t>ftm</t>
-  </si>
-  <si>
-    <t>制作不易，请关注我！！
-推特：@xiyumomo02
-github：https://github.com/XiyuMomo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>含义</t>
@@ -1225,6 +1219,17 @@
   <si>
     <t>XP统计表-BDSM基础版    ver1.0.0    220817</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作不易，请关注我！！
+推特：@xiyumomo02
+github：https://github.com/XiyuMomo
+excel版本下载：https://github.com/XiyuMomo/XP/blob/main/BDSM-Basic.xlsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>私家车内</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1997,7 +2002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2136,6 +2141,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2172,49 +2186,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2226,8 +2207,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2256,16 +2243,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2276,6 +2260,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2607,142 +2621,142 @@
     <row r="1" spans="1:3" ht="16.2" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="49"/>
+      <c r="B2" s="5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="50"/>
+      <c r="B3" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:3" ht="16.2" thickBot="1">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="52" t="s">
+      <c r="B6" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="56"/>
+      <c r="B7" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="56"/>
+      <c r="B8" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="56"/>
+      <c r="B9" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="56"/>
+      <c r="B10" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="56"/>
+      <c r="B11" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A12" s="57"/>
+      <c r="B12" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="C11" s="16"/>
-    </row>
-    <row r="12" spans="1:3" ht="16.2" thickBot="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="C12" s="17"/>
-    </row>
-    <row r="13" spans="1:3" ht="16.2" thickBot="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="52" t="s">
+      <c r="B14" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="56"/>
+      <c r="B15" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="56"/>
+      <c r="B16" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="56"/>
+      <c r="B17" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="56"/>
+      <c r="B18" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="53"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:3" ht="16.2" thickBot="1">
+      <c r="A20" s="57"/>
+      <c r="B20" s="9" t="s">
         <v>293</v>
-      </c>
-      <c r="C19" s="16"/>
-    </row>
-    <row r="20" spans="1:3" ht="16.2" thickBot="1">
-      <c r="A20" s="54"/>
-      <c r="B20" s="9" t="s">
-        <v>294</v>
       </c>
       <c r="C20" s="17"/>
     </row>
@@ -2762,11 +2776,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA356"/>
+  <dimension ref="A1:AA369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I267"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F195" sqref="F195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2784,17 +2798,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.600000000000001" thickBot="1">
-      <c r="A1" s="58" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
+      <c r="A1" s="86" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
@@ -2815,17 +2829,17 @@
       <c r="AA1" s="18"/>
     </row>
     <row r="2" spans="1:27" ht="36" customHeight="1" thickBot="1">
-      <c r="A2" s="61" t="s">
-        <v>312</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63"/>
+      <c r="A2" s="89" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
@@ -2858,12 +2872,12 @@
       <c r="D3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
       <c r="I3" s="34" t="s">
         <v>5</v>
       </c>
@@ -2887,17 +2901,17 @@
       <c r="AA3" s="18"/>
     </row>
     <row r="4" spans="1:27" ht="17.399999999999999">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>315</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>316</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>127</v>
@@ -2906,7 +2920,7 @@
         <v>128</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
@@ -2928,11 +2942,11 @@
       <c r="AA4" s="18"/>
     </row>
     <row r="5" spans="1:27" ht="17.399999999999999">
-      <c r="A5" s="74"/>
-      <c r="B5" s="76" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="65"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="29" t="s">
         <v>9</v>
       </c>
@@ -2961,9 +2975,9 @@
       <c r="AA5" s="18"/>
     </row>
     <row r="6" spans="1:27" ht="17.399999999999999">
-      <c r="A6" s="74"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="29" t="s">
         <v>10</v>
       </c>
@@ -2992,9 +3006,9 @@
       <c r="AA6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="17.399999999999999">
-      <c r="A7" s="74"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="29" t="s">
         <v>11</v>
       </c>
@@ -3023,9 +3037,9 @@
       <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="1:27" ht="17.399999999999999">
-      <c r="A8" s="74"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
@@ -3054,9 +3068,9 @@
       <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="1:27" ht="17.399999999999999">
-      <c r="A9" s="74"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="29" t="s">
         <v>13</v>
       </c>
@@ -3085,9 +3099,9 @@
       <c r="AA9" s="18"/>
     </row>
     <row r="10" spans="1:27" ht="17.399999999999999">
-      <c r="A10" s="74"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="29" t="s">
         <v>14</v>
       </c>
@@ -3116,9 +3130,9 @@
       <c r="AA10" s="18"/>
     </row>
     <row r="11" spans="1:27" ht="17.399999999999999">
-      <c r="A11" s="74"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="29" t="s">
         <v>15</v>
       </c>
@@ -3147,9 +3161,9 @@
       <c r="AA11" s="18"/>
     </row>
     <row r="12" spans="1:27" ht="17.399999999999999">
-      <c r="A12" s="74"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="29" t="s">
         <v>16</v>
       </c>
@@ -3178,9 +3192,9 @@
       <c r="AA12" s="18"/>
     </row>
     <row r="13" spans="1:27" ht="17.399999999999999">
-      <c r="A13" s="74"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="29" t="s">
         <v>17</v>
       </c>
@@ -3209,9 +3223,9 @@
       <c r="AA13" s="18"/>
     </row>
     <row r="14" spans="1:27" ht="17.399999999999999">
-      <c r="A14" s="74"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="29" t="s">
         <v>18</v>
       </c>
@@ -3240,9 +3254,9 @@
       <c r="AA14" s="18"/>
     </row>
     <row r="15" spans="1:27" ht="17.399999999999999">
-      <c r="A15" s="74"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="29" t="s">
         <v>19</v>
       </c>
@@ -3271,9 +3285,9 @@
       <c r="AA15" s="18"/>
     </row>
     <row r="16" spans="1:27" ht="17.399999999999999">
-      <c r="A16" s="74"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="29" t="s">
         <v>20</v>
       </c>
@@ -3302,9 +3316,9 @@
       <c r="AA16" s="18"/>
     </row>
     <row r="17" spans="1:27" ht="17.399999999999999">
-      <c r="A17" s="74"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="29" t="s">
         <v>21</v>
       </c>
@@ -3333,9 +3347,9 @@
       <c r="AA17" s="18"/>
     </row>
     <row r="18" spans="1:27" ht="17.399999999999999">
-      <c r="A18" s="74"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="29" t="s">
         <v>22</v>
       </c>
@@ -3364,9 +3378,9 @@
       <c r="AA18" s="18"/>
     </row>
     <row r="19" spans="1:27" ht="17.399999999999999">
-      <c r="A19" s="74"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="29" t="s">
         <v>23</v>
       </c>
@@ -3395,9 +3409,9 @@
       <c r="AA19" s="18"/>
     </row>
     <row r="20" spans="1:27" ht="17.399999999999999">
-      <c r="A20" s="74"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="29" t="s">
         <v>24</v>
       </c>
@@ -3426,9 +3440,9 @@
       <c r="AA20" s="18"/>
     </row>
     <row r="21" spans="1:27" ht="17.399999999999999">
-      <c r="A21" s="74"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="29" t="s">
         <v>25</v>
       </c>
@@ -3457,9 +3471,9 @@
       <c r="AA21" s="18"/>
     </row>
     <row r="22" spans="1:27" ht="17.399999999999999">
-      <c r="A22" s="74"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="29" t="s">
         <v>26</v>
       </c>
@@ -3488,9 +3502,9 @@
       <c r="AA22" s="18"/>
     </row>
     <row r="23" spans="1:27" ht="17.399999999999999">
-      <c r="A23" s="74"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="29" t="s">
         <v>27</v>
       </c>
@@ -3519,9 +3533,9 @@
       <c r="AA23" s="18"/>
     </row>
     <row r="24" spans="1:27" ht="17.399999999999999">
-      <c r="A24" s="74"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="29" t="s">
         <v>28</v>
       </c>
@@ -3550,9 +3564,9 @@
       <c r="AA24" s="18"/>
     </row>
     <row r="25" spans="1:27" ht="17.399999999999999">
-      <c r="A25" s="74"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="29" t="s">
         <v>29</v>
       </c>
@@ -3581,9 +3595,9 @@
       <c r="AA25" s="18"/>
     </row>
     <row r="26" spans="1:27" ht="17.399999999999999">
-      <c r="A26" s="74"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="29" t="s">
         <v>30</v>
       </c>
@@ -3612,9 +3626,9 @@
       <c r="AA26" s="18"/>
     </row>
     <row r="27" spans="1:27" ht="17.399999999999999">
-      <c r="A27" s="74"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="29" t="s">
         <v>31</v>
       </c>
@@ -3643,11 +3657,11 @@
       <c r="AA27" s="18"/>
     </row>
     <row r="28" spans="1:27" ht="17.399999999999999">
-      <c r="A28" s="74"/>
-      <c r="B28" s="76" t="s">
+      <c r="A28" s="66"/>
+      <c r="B28" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="61" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="29" t="s">
@@ -3678,9 +3692,9 @@
       <c r="AA28" s="18"/>
     </row>
     <row r="29" spans="1:27" ht="17.399999999999999">
-      <c r="A29" s="74"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="29" t="s">
         <v>35</v>
       </c>
@@ -3709,11 +3723,11 @@
       <c r="AA29" s="18"/>
     </row>
     <row r="30" spans="1:27" ht="17.399999999999999">
-      <c r="A30" s="74"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E30" s="41"/>
       <c r="F30" s="22"/>
@@ -3740,9 +3754,9 @@
       <c r="AA30" s="18"/>
     </row>
     <row r="31" spans="1:27" ht="17.399999999999999">
-      <c r="A31" s="74"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="29" t="s">
         <v>36</v>
       </c>
@@ -3771,9 +3785,9 @@
       <c r="AA31" s="18"/>
     </row>
     <row r="32" spans="1:27" ht="17.399999999999999">
-      <c r="A32" s="74"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="29" t="s">
         <v>37</v>
       </c>
@@ -3802,9 +3816,9 @@
       <c r="AA32" s="18"/>
     </row>
     <row r="33" spans="1:27" ht="17.399999999999999">
-      <c r="A33" s="74"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="64" t="s">
+      <c r="A33" s="66"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="61" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="29" t="s">
@@ -3835,9 +3849,9 @@
       <c r="AA33" s="18"/>
     </row>
     <row r="34" spans="1:27" ht="17.399999999999999">
-      <c r="A34" s="74"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="29" t="s">
         <v>40</v>
       </c>
@@ -3866,9 +3880,9 @@
       <c r="AA34" s="18"/>
     </row>
     <row r="35" spans="1:27" ht="17.399999999999999">
-      <c r="A35" s="74"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="29" t="s">
         <v>41</v>
       </c>
@@ -3897,9 +3911,9 @@
       <c r="AA35" s="18"/>
     </row>
     <row r="36" spans="1:27" ht="17.399999999999999">
-      <c r="A36" s="74"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="64" t="s">
+      <c r="A36" s="66"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="61" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="29" t="s">
@@ -3930,9 +3944,9 @@
       <c r="AA36" s="18"/>
     </row>
     <row r="37" spans="1:27" ht="17.399999999999999">
-      <c r="A37" s="74"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="29" t="s">
         <v>44</v>
       </c>
@@ -3961,9 +3975,9 @@
       <c r="AA37" s="18"/>
     </row>
     <row r="38" spans="1:27" ht="17.399999999999999">
-      <c r="A38" s="74"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="29" t="s">
         <v>45</v>
       </c>
@@ -3992,9 +4006,9 @@
       <c r="AA38" s="18"/>
     </row>
     <row r="39" spans="1:27" ht="17.399999999999999">
-      <c r="A39" s="74"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="29" t="s">
         <v>46</v>
       </c>
@@ -4023,9 +4037,9 @@
       <c r="AA39" s="18"/>
     </row>
     <row r="40" spans="1:27" ht="17.399999999999999">
-      <c r="A40" s="74"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="64" t="s">
+      <c r="A40" s="66"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="61" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="29" t="s">
@@ -4056,9 +4070,9 @@
       <c r="AA40" s="18"/>
     </row>
     <row r="41" spans="1:27" ht="17.399999999999999">
-      <c r="A41" s="74"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="29" t="s">
         <v>49</v>
       </c>
@@ -4087,9 +4101,9 @@
       <c r="AA41" s="18"/>
     </row>
     <row r="42" spans="1:27" ht="17.399999999999999">
-      <c r="A42" s="74"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="29" t="s">
         <v>50</v>
       </c>
@@ -4118,9 +4132,9 @@
       <c r="AA42" s="18"/>
     </row>
     <row r="43" spans="1:27" ht="17.399999999999999">
-      <c r="A43" s="74"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="64" t="s">
+      <c r="A43" s="66"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="61" t="s">
         <v>51</v>
       </c>
       <c r="D43" s="29" t="s">
@@ -4151,9 +4165,9 @@
       <c r="AA43" s="18"/>
     </row>
     <row r="44" spans="1:27" ht="17.399999999999999">
-      <c r="A44" s="74"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="29" t="s">
         <v>53</v>
       </c>
@@ -4182,9 +4196,9 @@
       <c r="AA44" s="18"/>
     </row>
     <row r="45" spans="1:27" ht="17.399999999999999">
-      <c r="A45" s="74"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="29" t="s">
         <v>54</v>
       </c>
@@ -4213,9 +4227,9 @@
       <c r="AA45" s="18"/>
     </row>
     <row r="46" spans="1:27" ht="17.399999999999999">
-      <c r="A46" s="74"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="64" t="s">
+      <c r="A46" s="66"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="61" t="s">
         <v>55</v>
       </c>
       <c r="D46" s="29" t="s">
@@ -4246,9 +4260,9 @@
       <c r="AA46" s="18"/>
     </row>
     <row r="47" spans="1:27" ht="17.399999999999999">
-      <c r="A47" s="74"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="29" t="s">
         <v>57</v>
       </c>
@@ -4277,9 +4291,9 @@
       <c r="AA47" s="18"/>
     </row>
     <row r="48" spans="1:27" ht="17.399999999999999">
-      <c r="A48" s="74"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="29" t="s">
         <v>58</v>
       </c>
@@ -4308,9 +4322,9 @@
       <c r="AA48" s="18"/>
     </row>
     <row r="49" spans="1:27" ht="17.399999999999999">
-      <c r="A49" s="74"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="29" t="s">
         <v>59</v>
       </c>
@@ -4339,9 +4353,9 @@
       <c r="AA49" s="18"/>
     </row>
     <row r="50" spans="1:27" ht="17.399999999999999">
-      <c r="A50" s="74"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="29" t="s">
         <v>60</v>
       </c>
@@ -4370,9 +4384,9 @@
       <c r="AA50" s="18"/>
     </row>
     <row r="51" spans="1:27" ht="17.399999999999999">
-      <c r="A51" s="74"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="29" t="s">
         <v>61</v>
       </c>
@@ -4401,9 +4415,9 @@
       <c r="AA51" s="18"/>
     </row>
     <row r="52" spans="1:27" ht="17.399999999999999">
-      <c r="A52" s="74"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="29" t="s">
         <v>62</v>
       </c>
@@ -4432,9 +4446,9 @@
       <c r="AA52" s="18"/>
     </row>
     <row r="53" spans="1:27" ht="17.399999999999999">
-      <c r="A53" s="74"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="29" t="s">
         <v>63</v>
       </c>
@@ -4463,9 +4477,9 @@
       <c r="AA53" s="18"/>
     </row>
     <row r="54" spans="1:27" ht="17.399999999999999">
-      <c r="A54" s="74"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="64" t="s">
+      <c r="A54" s="66"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="61" t="s">
         <v>64</v>
       </c>
       <c r="D54" s="29" t="s">
@@ -4496,9 +4510,9 @@
       <c r="AA54" s="18"/>
     </row>
     <row r="55" spans="1:27" ht="17.399999999999999">
-      <c r="A55" s="74"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="29" t="s">
         <v>66</v>
       </c>
@@ -4527,11 +4541,11 @@
       <c r="AA55" s="18"/>
     </row>
     <row r="56" spans="1:27" ht="17.399999999999999">
-      <c r="A56" s="74"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
       <c r="D56" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E56" s="41"/>
       <c r="F56" s="22"/>
@@ -4558,9 +4572,9 @@
       <c r="AA56" s="18"/>
     </row>
     <row r="57" spans="1:27" ht="17.399999999999999">
-      <c r="A57" s="74"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
       <c r="D57" s="29" t="s">
         <v>67</v>
       </c>
@@ -4589,9 +4603,9 @@
       <c r="AA57" s="18"/>
     </row>
     <row r="58" spans="1:27" ht="17.399999999999999">
-      <c r="A58" s="74"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="64" t="s">
+      <c r="A58" s="66"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="61" t="s">
         <v>68</v>
       </c>
       <c r="D58" s="29" t="s">
@@ -4622,9 +4636,9 @@
       <c r="AA58" s="18"/>
     </row>
     <row r="59" spans="1:27" ht="17.399999999999999">
-      <c r="A59" s="74"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="29" t="s">
         <v>70</v>
       </c>
@@ -4653,9 +4667,9 @@
       <c r="AA59" s="18"/>
     </row>
     <row r="60" spans="1:27" ht="17.399999999999999">
-      <c r="A60" s="74"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
       <c r="D60" s="29" t="s">
         <v>71</v>
       </c>
@@ -4684,9 +4698,9 @@
       <c r="AA60" s="18"/>
     </row>
     <row r="61" spans="1:27" ht="17.399999999999999">
-      <c r="A61" s="74"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
+      <c r="A61" s="66"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="29" t="s">
         <v>72</v>
       </c>
@@ -4715,11 +4729,11 @@
       <c r="AA61" s="18"/>
     </row>
     <row r="62" spans="1:27" ht="17.399999999999999">
-      <c r="A62" s="74"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="62"/>
       <c r="D62" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E62" s="41"/>
       <c r="F62" s="22"/>
@@ -4746,11 +4760,11 @@
       <c r="AA62" s="18"/>
     </row>
     <row r="63" spans="1:27" ht="17.399999999999999">
-      <c r="A63" s="74"/>
-      <c r="B63" s="64" t="s">
+      <c r="A63" s="66"/>
+      <c r="B63" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="64" t="s">
+      <c r="C63" s="61" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="29" t="s">
@@ -4781,9 +4795,9 @@
       <c r="AA63" s="18"/>
     </row>
     <row r="64" spans="1:27" ht="17.399999999999999">
-      <c r="A64" s="74"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
+      <c r="A64" s="66"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
       <c r="D64" s="29" t="s">
         <v>75</v>
       </c>
@@ -4812,9 +4826,9 @@
       <c r="AA64" s="18"/>
     </row>
     <row r="65" spans="1:27" ht="17.399999999999999">
-      <c r="A65" s="74"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
+      <c r="A65" s="66"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="62"/>
       <c r="D65" s="29" t="s">
         <v>76</v>
       </c>
@@ -4843,9 +4857,9 @@
       <c r="AA65" s="18"/>
     </row>
     <row r="66" spans="1:27" ht="17.399999999999999">
-      <c r="A66" s="74"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
+      <c r="A66" s="66"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
       <c r="D66" s="29" t="s">
         <v>77</v>
       </c>
@@ -4874,9 +4888,9 @@
       <c r="AA66" s="18"/>
     </row>
     <row r="67" spans="1:27" ht="17.399999999999999">
-      <c r="A67" s="74"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
+      <c r="A67" s="66"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
       <c r="D67" s="29" t="s">
         <v>78</v>
       </c>
@@ -4905,9 +4919,9 @@
       <c r="AA67" s="18"/>
     </row>
     <row r="68" spans="1:27" ht="17.399999999999999">
-      <c r="A68" s="74"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
+      <c r="A68" s="66"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
       <c r="D68" s="29" t="s">
         <v>79</v>
       </c>
@@ -4936,9 +4950,9 @@
       <c r="AA68" s="18"/>
     </row>
     <row r="69" spans="1:27" ht="17.399999999999999">
-      <c r="A69" s="74"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
+      <c r="A69" s="66"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
       <c r="D69" s="29" t="s">
         <v>80</v>
       </c>
@@ -4967,9 +4981,9 @@
       <c r="AA69" s="18"/>
     </row>
     <row r="70" spans="1:27" ht="17.399999999999999">
-      <c r="A70" s="74"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
+      <c r="A70" s="66"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="62"/>
       <c r="D70" s="29" t="s">
         <v>81</v>
       </c>
@@ -4998,9 +5012,9 @@
       <c r="AA70" s="18"/>
     </row>
     <row r="71" spans="1:27" ht="17.399999999999999">
-      <c r="A71" s="74"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
+      <c r="A71" s="66"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="62"/>
       <c r="D71" s="29" t="s">
         <v>82</v>
       </c>
@@ -5029,9 +5043,9 @@
       <c r="AA71" s="18"/>
     </row>
     <row r="72" spans="1:27" ht="17.399999999999999">
-      <c r="A72" s="74"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="64" t="s">
+      <c r="A72" s="66"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="61" t="s">
         <v>83</v>
       </c>
       <c r="D72" s="29" t="s">
@@ -5062,9 +5076,9 @@
       <c r="AA72" s="18"/>
     </row>
     <row r="73" spans="1:27" ht="17.399999999999999">
-      <c r="A73" s="74"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
+      <c r="A73" s="66"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
       <c r="D73" s="29" t="s">
         <v>85</v>
       </c>
@@ -5093,9 +5107,9 @@
       <c r="AA73" s="18"/>
     </row>
     <row r="74" spans="1:27" ht="17.399999999999999">
-      <c r="A74" s="74"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="64" t="s">
+      <c r="A74" s="66"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="61" t="s">
         <v>86</v>
       </c>
       <c r="D74" s="29" t="s">
@@ -5126,9 +5140,9 @@
       <c r="AA74" s="18"/>
     </row>
     <row r="75" spans="1:27" ht="17.399999999999999">
-      <c r="A75" s="74"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
+      <c r="A75" s="66"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
       <c r="D75" s="29" t="s">
         <v>88</v>
       </c>
@@ -5157,9 +5171,9 @@
       <c r="AA75" s="18"/>
     </row>
     <row r="76" spans="1:27" ht="17.399999999999999">
-      <c r="A76" s="74"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
+      <c r="A76" s="66"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="62"/>
       <c r="D76" s="29" t="s">
         <v>89</v>
       </c>
@@ -5188,9 +5202,9 @@
       <c r="AA76" s="18"/>
     </row>
     <row r="77" spans="1:27" ht="17.399999999999999">
-      <c r="A77" s="74"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
+      <c r="A77" s="66"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="62"/>
       <c r="D77" s="29" t="s">
         <v>90</v>
       </c>
@@ -5219,9 +5233,9 @@
       <c r="AA77" s="18"/>
     </row>
     <row r="78" spans="1:27" ht="17.399999999999999">
-      <c r="A78" s="74"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
+      <c r="A78" s="66"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="62"/>
       <c r="D78" s="29" t="s">
         <v>91</v>
       </c>
@@ -5250,9 +5264,9 @@
       <c r="AA78" s="18"/>
     </row>
     <row r="79" spans="1:27" ht="17.399999999999999">
-      <c r="A79" s="74"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
+      <c r="A79" s="66"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="62"/>
       <c r="D79" s="29" t="s">
         <v>92</v>
       </c>
@@ -5281,9 +5295,9 @@
       <c r="AA79" s="18"/>
     </row>
     <row r="80" spans="1:27" ht="17.399999999999999">
-      <c r="A80" s="74"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
+      <c r="A80" s="66"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="62"/>
       <c r="D80" s="29" t="s">
         <v>93</v>
       </c>
@@ -5312,9 +5326,9 @@
       <c r="AA80" s="18"/>
     </row>
     <row r="81" spans="1:27" ht="17.399999999999999">
-      <c r="A81" s="74"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
+      <c r="A81" s="66"/>
+      <c r="B81" s="62"/>
+      <c r="C81" s="62"/>
       <c r="D81" s="29" t="s">
         <v>94</v>
       </c>
@@ -5343,9 +5357,9 @@
       <c r="AA81" s="18"/>
     </row>
     <row r="82" spans="1:27" ht="17.399999999999999">
-      <c r="A82" s="74"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
+      <c r="A82" s="66"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
       <c r="D82" s="29" t="s">
         <v>95</v>
       </c>
@@ -5374,9 +5388,9 @@
       <c r="AA82" s="18"/>
     </row>
     <row r="83" spans="1:27" ht="17.399999999999999">
-      <c r="A83" s="74"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
+      <c r="A83" s="66"/>
+      <c r="B83" s="62"/>
+      <c r="C83" s="62"/>
       <c r="D83" s="29" t="s">
         <v>96</v>
       </c>
@@ -5405,9 +5419,9 @@
       <c r="AA83" s="18"/>
     </row>
     <row r="84" spans="1:27" ht="17.399999999999999">
-      <c r="A84" s="74"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
+      <c r="A84" s="66"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="62"/>
       <c r="D84" s="29" t="s">
         <v>97</v>
       </c>
@@ -5436,8 +5450,8 @@
       <c r="AA84" s="18"/>
     </row>
     <row r="85" spans="1:27" ht="17.399999999999999">
-      <c r="A85" s="74"/>
-      <c r="B85" s="65"/>
+      <c r="A85" s="66"/>
+      <c r="B85" s="62"/>
       <c r="C85" s="21" t="s">
         <v>98</v>
       </c>
@@ -5469,9 +5483,9 @@
       <c r="AA85" s="18"/>
     </row>
     <row r="86" spans="1:27" ht="17.399999999999999">
-      <c r="A86" s="74"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="64" t="s">
+      <c r="A86" s="66"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="61" t="s">
         <v>100</v>
       </c>
       <c r="D86" s="29" t="s">
@@ -5502,9 +5516,9 @@
       <c r="AA86" s="18"/>
     </row>
     <row r="87" spans="1:27" ht="17.399999999999999">
-      <c r="A87" s="74"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="65"/>
+      <c r="A87" s="66"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="62"/>
       <c r="D87" s="29" t="s">
         <v>102</v>
       </c>
@@ -5533,9 +5547,9 @@
       <c r="AA87" s="18"/>
     </row>
     <row r="88" spans="1:27" ht="17.399999999999999">
-      <c r="A88" s="74"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="64" t="s">
+      <c r="A88" s="66"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="61" t="s">
         <v>103</v>
       </c>
       <c r="D88" s="29" t="s">
@@ -5566,9 +5580,9 @@
       <c r="AA88" s="18"/>
     </row>
     <row r="89" spans="1:27" ht="17.399999999999999">
-      <c r="A89" s="74"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
+      <c r="A89" s="66"/>
+      <c r="B89" s="62"/>
+      <c r="C89" s="62"/>
       <c r="D89" s="29" t="s">
         <v>105</v>
       </c>
@@ -5597,9 +5611,9 @@
       <c r="AA89" s="18"/>
     </row>
     <row r="90" spans="1:27" ht="17.399999999999999">
-      <c r="A90" s="74"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="64" t="s">
+      <c r="A90" s="66"/>
+      <c r="B90" s="62"/>
+      <c r="C90" s="61" t="s">
         <v>106</v>
       </c>
       <c r="D90" s="29" t="s">
@@ -5630,9 +5644,9 @@
       <c r="AA90" s="18"/>
     </row>
     <row r="91" spans="1:27" ht="17.399999999999999">
-      <c r="A91" s="74"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="65"/>
+      <c r="A91" s="66"/>
+      <c r="B91" s="62"/>
+      <c r="C91" s="62"/>
       <c r="D91" s="29" t="s">
         <v>108</v>
       </c>
@@ -5661,9 +5675,9 @@
       <c r="AA91" s="18"/>
     </row>
     <row r="92" spans="1:27" ht="17.399999999999999">
-      <c r="A92" s="74"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="64" t="s">
+      <c r="A92" s="66"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="61" t="s">
         <v>109</v>
       </c>
       <c r="D92" s="29" t="s">
@@ -5694,9 +5708,9 @@
       <c r="AA92" s="18"/>
     </row>
     <row r="93" spans="1:27" ht="17.399999999999999">
-      <c r="A93" s="74"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="65"/>
+      <c r="A93" s="66"/>
+      <c r="B93" s="62"/>
+      <c r="C93" s="62"/>
       <c r="D93" s="29" t="s">
         <v>111</v>
       </c>
@@ -5725,9 +5739,9 @@
       <c r="AA93" s="18"/>
     </row>
     <row r="94" spans="1:27" ht="17.399999999999999">
-      <c r="A94" s="74"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
+      <c r="A94" s="66"/>
+      <c r="B94" s="62"/>
+      <c r="C94" s="62"/>
       <c r="D94" s="29" t="s">
         <v>112</v>
       </c>
@@ -5756,9 +5770,9 @@
       <c r="AA94" s="18"/>
     </row>
     <row r="95" spans="1:27" ht="17.399999999999999">
-      <c r="A95" s="74"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="65"/>
+      <c r="A95" s="66"/>
+      <c r="B95" s="62"/>
+      <c r="C95" s="62"/>
       <c r="D95" s="29" t="s">
         <v>113</v>
       </c>
@@ -5787,9 +5801,9 @@
       <c r="AA95" s="18"/>
     </row>
     <row r="96" spans="1:27" ht="17.399999999999999">
-      <c r="A96" s="74"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
+      <c r="A96" s="66"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="62"/>
       <c r="D96" s="29" t="s">
         <v>114</v>
       </c>
@@ -5818,11 +5832,11 @@
       <c r="AA96" s="18"/>
     </row>
     <row r="97" spans="1:27" ht="17.399999999999999">
-      <c r="A97" s="74"/>
-      <c r="B97" s="64" t="s">
+      <c r="A97" s="66"/>
+      <c r="B97" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="C97" s="64" t="s">
+      <c r="C97" s="61" t="s">
         <v>116</v>
       </c>
       <c r="D97" s="29" t="s">
@@ -5853,9 +5867,9 @@
       <c r="AA97" s="18"/>
     </row>
     <row r="98" spans="1:27" ht="17.399999999999999">
-      <c r="A98" s="74"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
+      <c r="A98" s="66"/>
+      <c r="B98" s="62"/>
+      <c r="C98" s="62"/>
       <c r="D98" s="29" t="s">
         <v>118</v>
       </c>
@@ -5884,9 +5898,9 @@
       <c r="AA98" s="18"/>
     </row>
     <row r="99" spans="1:27" ht="17.399999999999999">
-      <c r="A99" s="74"/>
-      <c r="B99" s="65"/>
-      <c r="C99" s="64" t="s">
+      <c r="A99" s="66"/>
+      <c r="B99" s="62"/>
+      <c r="C99" s="61" t="s">
         <v>119</v>
       </c>
       <c r="D99" s="29" t="s">
@@ -5917,9 +5931,9 @@
       <c r="AA99" s="18"/>
     </row>
     <row r="100" spans="1:27" ht="17.399999999999999">
-      <c r="A100" s="74"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
+      <c r="A100" s="66"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="62"/>
       <c r="D100" s="29" t="s">
         <v>121</v>
       </c>
@@ -5948,9 +5962,9 @@
       <c r="AA100" s="18"/>
     </row>
     <row r="101" spans="1:27" ht="17.399999999999999">
-      <c r="A101" s="74"/>
-      <c r="B101" s="65"/>
-      <c r="C101" s="65"/>
+      <c r="A101" s="66"/>
+      <c r="B101" s="62"/>
+      <c r="C101" s="62"/>
       <c r="D101" s="29" t="s">
         <v>122</v>
       </c>
@@ -5979,9 +5993,9 @@
       <c r="AA101" s="18"/>
     </row>
     <row r="102" spans="1:27" ht="17.399999999999999">
-      <c r="A102" s="74"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="64" t="s">
+      <c r="A102" s="66"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="61" t="s">
         <v>6</v>
       </c>
       <c r="D102" s="29" t="s">
@@ -6012,9 +6026,9 @@
       <c r="AA102" s="18"/>
     </row>
     <row r="103" spans="1:27" ht="17.399999999999999">
-      <c r="A103" s="74"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
+      <c r="A103" s="66"/>
+      <c r="B103" s="62"/>
+      <c r="C103" s="62"/>
       <c r="D103" s="29" t="s">
         <v>124</v>
       </c>
@@ -6043,11 +6057,11 @@
       <c r="AA103" s="18"/>
     </row>
     <row r="104" spans="1:27" ht="18" thickBot="1">
-      <c r="A104" s="75"/>
-      <c r="B104" s="89" t="s">
+      <c r="A104" s="67"/>
+      <c r="B104" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="86"/>
+      <c r="C104" s="64"/>
       <c r="D104" s="43" t="s">
         <v>125</v>
       </c>
@@ -6076,17 +6090,17 @@
       <c r="AA104" s="18"/>
     </row>
     <row r="105" spans="1:27" ht="17.399999999999999">
-      <c r="A105" s="73" t="s">
+      <c r="A105" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="B105" s="70"/>
-      <c r="C105" s="71"/>
-      <c r="D105" s="72"/>
+      <c r="B105" s="68"/>
+      <c r="C105" s="69"/>
+      <c r="D105" s="70"/>
       <c r="E105" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="F105" s="20" t="s">
         <v>315</v>
-      </c>
-      <c r="F105" s="20" t="s">
-        <v>316</v>
       </c>
       <c r="G105" s="20" t="s">
         <v>127</v>
@@ -6095,7 +6109,7 @@
         <v>128</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J105" s="18"/>
       <c r="K105" s="18"/>
@@ -6117,11 +6131,11 @@
       <c r="AA105" s="18"/>
     </row>
     <row r="106" spans="1:27" ht="17.399999999999999">
-      <c r="A106" s="74"/>
-      <c r="B106" s="64" t="s">
+      <c r="A106" s="66"/>
+      <c r="B106" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="C106" s="64" t="s">
+      <c r="C106" s="61" t="s">
         <v>130</v>
       </c>
       <c r="D106" s="29" t="s">
@@ -6152,9 +6166,9 @@
       <c r="AA106" s="18"/>
     </row>
     <row r="107" spans="1:27" ht="17.399999999999999">
-      <c r="A107" s="74"/>
-      <c r="B107" s="65"/>
-      <c r="C107" s="65"/>
+      <c r="A107" s="66"/>
+      <c r="B107" s="62"/>
+      <c r="C107" s="62"/>
       <c r="D107" s="29" t="s">
         <v>132</v>
       </c>
@@ -6183,9 +6197,9 @@
       <c r="AA107" s="18"/>
     </row>
     <row r="108" spans="1:27" ht="17.399999999999999">
-      <c r="A108" s="74"/>
-      <c r="B108" s="65"/>
-      <c r="C108" s="64" t="s">
+      <c r="A108" s="66"/>
+      <c r="B108" s="62"/>
+      <c r="C108" s="61" t="s">
         <v>133</v>
       </c>
       <c r="D108" s="29" t="s">
@@ -6216,9 +6230,9 @@
       <c r="AA108" s="18"/>
     </row>
     <row r="109" spans="1:27" ht="17.399999999999999">
-      <c r="A109" s="74"/>
-      <c r="B109" s="65"/>
-      <c r="C109" s="65"/>
+      <c r="A109" s="66"/>
+      <c r="B109" s="62"/>
+      <c r="C109" s="62"/>
       <c r="D109" s="29" t="s">
         <v>135</v>
       </c>
@@ -6247,8 +6261,8 @@
       <c r="AA109" s="18"/>
     </row>
     <row r="110" spans="1:27" ht="17.399999999999999">
-      <c r="A110" s="74"/>
-      <c r="B110" s="65"/>
+      <c r="A110" s="66"/>
+      <c r="B110" s="62"/>
       <c r="C110" s="21" t="s">
         <v>136</v>
       </c>
@@ -6280,9 +6294,9 @@
       <c r="AA110" s="18"/>
     </row>
     <row r="111" spans="1:27" ht="17.399999999999999">
-      <c r="A111" s="74"/>
-      <c r="B111" s="65"/>
-      <c r="C111" s="64" t="s">
+      <c r="A111" s="66"/>
+      <c r="B111" s="62"/>
+      <c r="C111" s="61" t="s">
         <v>138</v>
       </c>
       <c r="D111" s="29" t="s">
@@ -6313,9 +6327,9 @@
       <c r="AA111" s="18"/>
     </row>
     <row r="112" spans="1:27" ht="17.399999999999999">
-      <c r="A112" s="74"/>
-      <c r="B112" s="65"/>
-      <c r="C112" s="65"/>
+      <c r="A112" s="66"/>
+      <c r="B112" s="62"/>
+      <c r="C112" s="62"/>
       <c r="D112" s="29" t="s">
         <v>140</v>
       </c>
@@ -6344,9 +6358,9 @@
       <c r="AA112" s="18"/>
     </row>
     <row r="113" spans="1:27" ht="17.399999999999999">
-      <c r="A113" s="74"/>
-      <c r="B113" s="65"/>
-      <c r="C113" s="65"/>
+      <c r="A113" s="66"/>
+      <c r="B113" s="62"/>
+      <c r="C113" s="62"/>
       <c r="D113" s="29" t="s">
         <v>141</v>
       </c>
@@ -6375,9 +6389,9 @@
       <c r="AA113" s="18"/>
     </row>
     <row r="114" spans="1:27" ht="17.399999999999999">
-      <c r="A114" s="74"/>
-      <c r="B114" s="65"/>
-      <c r="C114" s="65"/>
+      <c r="A114" s="66"/>
+      <c r="B114" s="62"/>
+      <c r="C114" s="62"/>
       <c r="D114" s="29" t="s">
         <v>142</v>
       </c>
@@ -6406,9 +6420,9 @@
       <c r="AA114" s="18"/>
     </row>
     <row r="115" spans="1:27" ht="17.399999999999999">
-      <c r="A115" s="74"/>
-      <c r="B115" s="65"/>
-      <c r="C115" s="64" t="s">
+      <c r="A115" s="66"/>
+      <c r="B115" s="62"/>
+      <c r="C115" s="61" t="s">
         <v>42</v>
       </c>
       <c r="D115" s="29" t="s">
@@ -6439,9 +6453,9 @@
       <c r="AA115" s="18"/>
     </row>
     <row r="116" spans="1:27" ht="17.399999999999999">
-      <c r="A116" s="74"/>
-      <c r="B116" s="65"/>
-      <c r="C116" s="65"/>
+      <c r="A116" s="66"/>
+      <c r="B116" s="62"/>
+      <c r="C116" s="62"/>
       <c r="D116" s="29" t="s">
         <v>144</v>
       </c>
@@ -6470,9 +6484,9 @@
       <c r="AA116" s="18"/>
     </row>
     <row r="117" spans="1:27" ht="17.399999999999999">
-      <c r="A117" s="74"/>
-      <c r="B117" s="65"/>
-      <c r="C117" s="65"/>
+      <c r="A117" s="66"/>
+      <c r="B117" s="62"/>
+      <c r="C117" s="62"/>
       <c r="D117" s="29" t="s">
         <v>145</v>
       </c>
@@ -6501,9 +6515,9 @@
       <c r="AA117" s="18"/>
     </row>
     <row r="118" spans="1:27" ht="17.399999999999999">
-      <c r="A118" s="74"/>
-      <c r="B118" s="65"/>
-      <c r="C118" s="64" t="s">
+      <c r="A118" s="66"/>
+      <c r="B118" s="62"/>
+      <c r="C118" s="61" t="s">
         <v>146</v>
       </c>
       <c r="D118" s="29" t="s">
@@ -6534,9 +6548,9 @@
       <c r="AA118" s="18"/>
     </row>
     <row r="119" spans="1:27" ht="17.399999999999999">
-      <c r="A119" s="74"/>
-      <c r="B119" s="65"/>
-      <c r="C119" s="65"/>
+      <c r="A119" s="66"/>
+      <c r="B119" s="62"/>
+      <c r="C119" s="62"/>
       <c r="D119" s="29" t="s">
         <v>148</v>
       </c>
@@ -6565,9 +6579,9 @@
       <c r="AA119" s="18"/>
     </row>
     <row r="120" spans="1:27" ht="17.399999999999999">
-      <c r="A120" s="74"/>
-      <c r="B120" s="65"/>
-      <c r="C120" s="65"/>
+      <c r="A120" s="66"/>
+      <c r="B120" s="62"/>
+      <c r="C120" s="62"/>
       <c r="D120" s="29" t="s">
         <v>149</v>
       </c>
@@ -6596,9 +6610,9 @@
       <c r="AA120" s="18"/>
     </row>
     <row r="121" spans="1:27" ht="17.399999999999999">
-      <c r="A121" s="74"/>
-      <c r="B121" s="65"/>
-      <c r="C121" s="65"/>
+      <c r="A121" s="66"/>
+      <c r="B121" s="62"/>
+      <c r="C121" s="62"/>
       <c r="D121" s="29" t="s">
         <v>150</v>
       </c>
@@ -6627,9 +6641,9 @@
       <c r="AA121" s="18"/>
     </row>
     <row r="122" spans="1:27" ht="17.399999999999999">
-      <c r="A122" s="74"/>
-      <c r="B122" s="65"/>
-      <c r="C122" s="65"/>
+      <c r="A122" s="66"/>
+      <c r="B122" s="62"/>
+      <c r="C122" s="62"/>
       <c r="D122" s="29" t="s">
         <v>151</v>
       </c>
@@ -6658,9 +6672,9 @@
       <c r="AA122" s="18"/>
     </row>
     <row r="123" spans="1:27" ht="17.399999999999999">
-      <c r="A123" s="74"/>
-      <c r="B123" s="65"/>
-      <c r="C123" s="64" t="s">
+      <c r="A123" s="66"/>
+      <c r="B123" s="62"/>
+      <c r="C123" s="61" t="s">
         <v>152</v>
       </c>
       <c r="D123" s="29" t="s">
@@ -6691,9 +6705,9 @@
       <c r="AA123" s="18"/>
     </row>
     <row r="124" spans="1:27" ht="17.399999999999999">
-      <c r="A124" s="74"/>
-      <c r="B124" s="65"/>
-      <c r="C124" s="65"/>
+      <c r="A124" s="66"/>
+      <c r="B124" s="62"/>
+      <c r="C124" s="62"/>
       <c r="D124" s="29" t="s">
         <v>154</v>
       </c>
@@ -6722,9 +6736,9 @@
       <c r="AA124" s="18"/>
     </row>
     <row r="125" spans="1:27" ht="17.399999999999999">
-      <c r="A125" s="74"/>
-      <c r="B125" s="65"/>
-      <c r="C125" s="65"/>
+      <c r="A125" s="66"/>
+      <c r="B125" s="62"/>
+      <c r="C125" s="62"/>
       <c r="D125" s="29" t="s">
         <v>155</v>
       </c>
@@ -6753,9 +6767,9 @@
       <c r="AA125" s="18"/>
     </row>
     <row r="126" spans="1:27" ht="17.399999999999999">
-      <c r="A126" s="74"/>
-      <c r="B126" s="65"/>
-      <c r="C126" s="65"/>
+      <c r="A126" s="66"/>
+      <c r="B126" s="62"/>
+      <c r="C126" s="62"/>
       <c r="D126" s="29" t="s">
         <v>156</v>
       </c>
@@ -6784,9 +6798,9 @@
       <c r="AA126" s="18"/>
     </row>
     <row r="127" spans="1:27" ht="17.399999999999999">
-      <c r="A127" s="74"/>
-      <c r="B127" s="65"/>
-      <c r="C127" s="65"/>
+      <c r="A127" s="66"/>
+      <c r="B127" s="62"/>
+      <c r="C127" s="62"/>
       <c r="D127" s="29" t="s">
         <v>157</v>
       </c>
@@ -6815,9 +6829,9 @@
       <c r="AA127" s="18"/>
     </row>
     <row r="128" spans="1:27" ht="17.399999999999999">
-      <c r="A128" s="74"/>
-      <c r="B128" s="65"/>
-      <c r="C128" s="65"/>
+      <c r="A128" s="66"/>
+      <c r="B128" s="62"/>
+      <c r="C128" s="62"/>
       <c r="D128" s="29" t="s">
         <v>151</v>
       </c>
@@ -6846,9 +6860,9 @@
       <c r="AA128" s="18"/>
     </row>
     <row r="129" spans="1:27" ht="17.399999999999999">
-      <c r="A129" s="74"/>
-      <c r="B129" s="65"/>
-      <c r="C129" s="64" t="s">
+      <c r="A129" s="66"/>
+      <c r="B129" s="62"/>
+      <c r="C129" s="61" t="s">
         <v>158</v>
       </c>
       <c r="D129" s="29" t="s">
@@ -6879,9 +6893,9 @@
       <c r="AA129" s="18"/>
     </row>
     <row r="130" spans="1:27" ht="17.399999999999999">
-      <c r="A130" s="74"/>
-      <c r="B130" s="65"/>
-      <c r="C130" s="65"/>
+      <c r="A130" s="66"/>
+      <c r="B130" s="62"/>
+      <c r="C130" s="62"/>
       <c r="D130" s="29" t="s">
         <v>160</v>
       </c>
@@ -6910,9 +6924,9 @@
       <c r="AA130" s="18"/>
     </row>
     <row r="131" spans="1:27" ht="17.399999999999999">
-      <c r="A131" s="74"/>
-      <c r="B131" s="65"/>
-      <c r="C131" s="64" t="s">
+      <c r="A131" s="66"/>
+      <c r="B131" s="62"/>
+      <c r="C131" s="61" t="s">
         <v>161</v>
       </c>
       <c r="D131" s="29" t="s">
@@ -6943,9 +6957,9 @@
       <c r="AA131" s="18"/>
     </row>
     <row r="132" spans="1:27" ht="17.399999999999999">
-      <c r="A132" s="74"/>
-      <c r="B132" s="65"/>
-      <c r="C132" s="65"/>
+      <c r="A132" s="66"/>
+      <c r="B132" s="62"/>
+      <c r="C132" s="62"/>
       <c r="D132" s="29" t="s">
         <v>163</v>
       </c>
@@ -6974,9 +6988,9 @@
       <c r="AA132" s="18"/>
     </row>
     <row r="133" spans="1:27" ht="17.399999999999999">
-      <c r="A133" s="74"/>
-      <c r="B133" s="65"/>
-      <c r="C133" s="65"/>
+      <c r="A133" s="66"/>
+      <c r="B133" s="62"/>
+      <c r="C133" s="62"/>
       <c r="D133" s="29" t="s">
         <v>164</v>
       </c>
@@ -7005,9 +7019,9 @@
       <c r="AA133" s="18"/>
     </row>
     <row r="134" spans="1:27" ht="17.399999999999999">
-      <c r="A134" s="74"/>
-      <c r="B134" s="65"/>
-      <c r="C134" s="65"/>
+      <c r="A134" s="66"/>
+      <c r="B134" s="62"/>
+      <c r="C134" s="62"/>
       <c r="D134" s="29" t="s">
         <v>165</v>
       </c>
@@ -7036,9 +7050,9 @@
       <c r="AA134" s="18"/>
     </row>
     <row r="135" spans="1:27" ht="17.399999999999999">
-      <c r="A135" s="74"/>
-      <c r="B135" s="65"/>
-      <c r="C135" s="65"/>
+      <c r="A135" s="66"/>
+      <c r="B135" s="62"/>
+      <c r="C135" s="62"/>
       <c r="D135" s="29" t="s">
         <v>155</v>
       </c>
@@ -7067,9 +7081,9 @@
       <c r="AA135" s="18"/>
     </row>
     <row r="136" spans="1:27" ht="17.399999999999999">
-      <c r="A136" s="74"/>
-      <c r="B136" s="65"/>
-      <c r="C136" s="65"/>
+      <c r="A136" s="66"/>
+      <c r="B136" s="62"/>
+      <c r="C136" s="62"/>
       <c r="D136" s="29" t="s">
         <v>156</v>
       </c>
@@ -7098,8 +7112,8 @@
       <c r="AA136" s="18"/>
     </row>
     <row r="137" spans="1:27" ht="17.399999999999999">
-      <c r="A137" s="74"/>
-      <c r="B137" s="65"/>
+      <c r="A137" s="66"/>
+      <c r="B137" s="62"/>
       <c r="C137" s="21" t="s">
         <v>109</v>
       </c>
@@ -7131,11 +7145,11 @@
       <c r="AA137" s="18"/>
     </row>
     <row r="138" spans="1:27" ht="17.399999999999999">
-      <c r="A138" s="74"/>
-      <c r="B138" s="64" t="s">
+      <c r="A138" s="66"/>
+      <c r="B138" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="C138" s="65"/>
+      <c r="C138" s="62"/>
       <c r="D138" s="29" t="s">
         <v>168</v>
       </c>
@@ -7164,9 +7178,9 @@
       <c r="AA138" s="18"/>
     </row>
     <row r="139" spans="1:27" ht="17.399999999999999">
-      <c r="A139" s="74"/>
-      <c r="B139" s="65"/>
-      <c r="C139" s="65"/>
+      <c r="A139" s="66"/>
+      <c r="B139" s="62"/>
+      <c r="C139" s="62"/>
       <c r="D139" s="29" t="s">
         <v>169</v>
       </c>
@@ -7195,9 +7209,9 @@
       <c r="AA139" s="18"/>
     </row>
     <row r="140" spans="1:27" ht="17.399999999999999">
-      <c r="A140" s="74"/>
-      <c r="B140" s="65"/>
-      <c r="C140" s="65"/>
+      <c r="A140" s="66"/>
+      <c r="B140" s="62"/>
+      <c r="C140" s="62"/>
       <c r="D140" s="29" t="s">
         <v>170</v>
       </c>
@@ -7226,9 +7240,9 @@
       <c r="AA140" s="18"/>
     </row>
     <row r="141" spans="1:27" ht="17.399999999999999">
-      <c r="A141" s="74"/>
-      <c r="B141" s="65"/>
-      <c r="C141" s="65"/>
+      <c r="A141" s="66"/>
+      <c r="B141" s="62"/>
+      <c r="C141" s="62"/>
       <c r="D141" s="29" t="s">
         <v>171</v>
       </c>
@@ -7257,9 +7271,9 @@
       <c r="AA141" s="18"/>
     </row>
     <row r="142" spans="1:27" ht="17.399999999999999">
-      <c r="A142" s="74"/>
-      <c r="B142" s="65"/>
-      <c r="C142" s="65"/>
+      <c r="A142" s="66"/>
+      <c r="B142" s="62"/>
+      <c r="C142" s="62"/>
       <c r="D142" s="29" t="s">
         <v>172</v>
       </c>
@@ -7288,9 +7302,9 @@
       <c r="AA142" s="18"/>
     </row>
     <row r="143" spans="1:27" ht="17.399999999999999">
-      <c r="A143" s="74"/>
-      <c r="B143" s="65"/>
-      <c r="C143" s="65"/>
+      <c r="A143" s="66"/>
+      <c r="B143" s="62"/>
+      <c r="C143" s="62"/>
       <c r="D143" s="29" t="s">
         <v>173</v>
       </c>
@@ -7319,9 +7333,9 @@
       <c r="AA143" s="18"/>
     </row>
     <row r="144" spans="1:27" ht="17.399999999999999">
-      <c r="A144" s="74"/>
-      <c r="B144" s="65"/>
-      <c r="C144" s="65"/>
+      <c r="A144" s="66"/>
+      <c r="B144" s="62"/>
+      <c r="C144" s="62"/>
       <c r="D144" s="29" t="s">
         <v>174</v>
       </c>
@@ -7350,9 +7364,9 @@
       <c r="AA144" s="18"/>
     </row>
     <row r="145" spans="1:27" ht="17.399999999999999">
-      <c r="A145" s="74"/>
-      <c r="B145" s="65"/>
-      <c r="C145" s="65"/>
+      <c r="A145" s="66"/>
+      <c r="B145" s="62"/>
+      <c r="C145" s="62"/>
       <c r="D145" s="29" t="s">
         <v>175</v>
       </c>
@@ -7381,9 +7395,9 @@
       <c r="AA145" s="18"/>
     </row>
     <row r="146" spans="1:27" ht="17.399999999999999">
-      <c r="A146" s="74"/>
-      <c r="B146" s="65"/>
-      <c r="C146" s="65"/>
+      <c r="A146" s="66"/>
+      <c r="B146" s="62"/>
+      <c r="C146" s="62"/>
       <c r="D146" s="29" t="s">
         <v>176</v>
       </c>
@@ -7412,9 +7426,9 @@
       <c r="AA146" s="18"/>
     </row>
     <row r="147" spans="1:27" ht="17.399999999999999">
-      <c r="A147" s="74"/>
-      <c r="B147" s="65"/>
-      <c r="C147" s="65"/>
+      <c r="A147" s="66"/>
+      <c r="B147" s="62"/>
+      <c r="C147" s="62"/>
       <c r="D147" s="29" t="s">
         <v>177</v>
       </c>
@@ -7443,9 +7457,9 @@
       <c r="AA147" s="18"/>
     </row>
     <row r="148" spans="1:27" ht="17.399999999999999">
-      <c r="A148" s="74"/>
-      <c r="B148" s="65"/>
-      <c r="C148" s="65"/>
+      <c r="A148" s="66"/>
+      <c r="B148" s="62"/>
+      <c r="C148" s="62"/>
       <c r="D148" s="29" t="s">
         <v>178</v>
       </c>
@@ -7474,9 +7488,9 @@
       <c r="AA148" s="18"/>
     </row>
     <row r="149" spans="1:27" ht="17.399999999999999">
-      <c r="A149" s="74"/>
-      <c r="B149" s="65"/>
-      <c r="C149" s="65"/>
+      <c r="A149" s="66"/>
+      <c r="B149" s="62"/>
+      <c r="C149" s="62"/>
       <c r="D149" s="29" t="s">
         <v>179</v>
       </c>
@@ -7505,9 +7519,9 @@
       <c r="AA149" s="18"/>
     </row>
     <row r="150" spans="1:27" ht="17.399999999999999">
-      <c r="A150" s="74"/>
-      <c r="B150" s="65"/>
-      <c r="C150" s="65"/>
+      <c r="A150" s="66"/>
+      <c r="B150" s="62"/>
+      <c r="C150" s="62"/>
       <c r="D150" s="29" t="s">
         <v>180</v>
       </c>
@@ -7536,9 +7550,9 @@
       <c r="AA150" s="18"/>
     </row>
     <row r="151" spans="1:27" ht="17.399999999999999">
-      <c r="A151" s="74"/>
-      <c r="B151" s="65"/>
-      <c r="C151" s="65"/>
+      <c r="A151" s="66"/>
+      <c r="B151" s="62"/>
+      <c r="C151" s="62"/>
       <c r="D151" s="29" t="s">
         <v>181</v>
       </c>
@@ -7567,9 +7581,9 @@
       <c r="AA151" s="18"/>
     </row>
     <row r="152" spans="1:27" ht="17.399999999999999">
-      <c r="A152" s="74"/>
-      <c r="B152" s="65"/>
-      <c r="C152" s="65"/>
+      <c r="A152" s="66"/>
+      <c r="B152" s="62"/>
+      <c r="C152" s="62"/>
       <c r="D152" s="29" t="s">
         <v>182</v>
       </c>
@@ -7598,9 +7612,9 @@
       <c r="AA152" s="18"/>
     </row>
     <row r="153" spans="1:27" ht="17.399999999999999">
-      <c r="A153" s="74"/>
-      <c r="B153" s="65"/>
-      <c r="C153" s="65"/>
+      <c r="A153" s="66"/>
+      <c r="B153" s="62"/>
+      <c r="C153" s="62"/>
       <c r="D153" s="29" t="s">
         <v>183</v>
       </c>
@@ -7629,9 +7643,9 @@
       <c r="AA153" s="18"/>
     </row>
     <row r="154" spans="1:27" ht="17.399999999999999">
-      <c r="A154" s="74"/>
-      <c r="B154" s="65"/>
-      <c r="C154" s="65"/>
+      <c r="A154" s="66"/>
+      <c r="B154" s="62"/>
+      <c r="C154" s="62"/>
       <c r="D154" s="29" t="s">
         <v>184</v>
       </c>
@@ -7660,9 +7674,9 @@
       <c r="AA154" s="18"/>
     </row>
     <row r="155" spans="1:27" ht="17.399999999999999">
-      <c r="A155" s="74"/>
-      <c r="B155" s="65"/>
-      <c r="C155" s="65"/>
+      <c r="A155" s="66"/>
+      <c r="B155" s="62"/>
+      <c r="C155" s="62"/>
       <c r="D155" s="29" t="s">
         <v>185</v>
       </c>
@@ -7691,9 +7705,9 @@
       <c r="AA155" s="18"/>
     </row>
     <row r="156" spans="1:27" ht="17.399999999999999">
-      <c r="A156" s="74"/>
-      <c r="B156" s="65"/>
-      <c r="C156" s="65"/>
+      <c r="A156" s="66"/>
+      <c r="B156" s="62"/>
+      <c r="C156" s="62"/>
       <c r="D156" s="29" t="s">
         <v>186</v>
       </c>
@@ -7722,9 +7736,9 @@
       <c r="AA156" s="18"/>
     </row>
     <row r="157" spans="1:27" ht="17.399999999999999">
-      <c r="A157" s="74"/>
-      <c r="B157" s="65"/>
-      <c r="C157" s="65"/>
+      <c r="A157" s="66"/>
+      <c r="B157" s="62"/>
+      <c r="C157" s="62"/>
       <c r="D157" s="29" t="s">
         <v>187</v>
       </c>
@@ -7753,9 +7767,9 @@
       <c r="AA157" s="18"/>
     </row>
     <row r="158" spans="1:27" ht="17.399999999999999">
-      <c r="A158" s="74"/>
-      <c r="B158" s="65"/>
-      <c r="C158" s="65"/>
+      <c r="A158" s="66"/>
+      <c r="B158" s="62"/>
+      <c r="C158" s="62"/>
       <c r="D158" s="29" t="s">
         <v>188</v>
       </c>
@@ -7784,9 +7798,9 @@
       <c r="AA158" s="18"/>
     </row>
     <row r="159" spans="1:27" ht="17.399999999999999">
-      <c r="A159" s="74"/>
-      <c r="B159" s="65"/>
-      <c r="C159" s="65"/>
+      <c r="A159" s="66"/>
+      <c r="B159" s="62"/>
+      <c r="C159" s="62"/>
       <c r="D159" s="29" t="s">
         <v>189</v>
       </c>
@@ -7815,9 +7829,9 @@
       <c r="AA159" s="18"/>
     </row>
     <row r="160" spans="1:27" ht="17.399999999999999">
-      <c r="A160" s="74"/>
-      <c r="B160" s="65"/>
-      <c r="C160" s="65"/>
+      <c r="A160" s="66"/>
+      <c r="B160" s="62"/>
+      <c r="C160" s="62"/>
       <c r="D160" s="29" t="s">
         <v>190</v>
       </c>
@@ -7846,9 +7860,9 @@
       <c r="AA160" s="18"/>
     </row>
     <row r="161" spans="1:27" ht="17.399999999999999">
-      <c r="A161" s="74"/>
-      <c r="B161" s="65"/>
-      <c r="C161" s="65"/>
+      <c r="A161" s="66"/>
+      <c r="B161" s="62"/>
+      <c r="C161" s="62"/>
       <c r="D161" s="29" t="s">
         <v>191</v>
       </c>
@@ -7877,9 +7891,9 @@
       <c r="AA161" s="18"/>
     </row>
     <row r="162" spans="1:27" ht="17.399999999999999">
-      <c r="A162" s="74"/>
-      <c r="B162" s="65"/>
-      <c r="C162" s="65"/>
+      <c r="A162" s="66"/>
+      <c r="B162" s="62"/>
+      <c r="C162" s="62"/>
       <c r="D162" s="29" t="s">
         <v>192</v>
       </c>
@@ -7908,9 +7922,9 @@
       <c r="AA162" s="18"/>
     </row>
     <row r="163" spans="1:27" ht="17.399999999999999">
-      <c r="A163" s="74"/>
-      <c r="B163" s="65"/>
-      <c r="C163" s="65"/>
+      <c r="A163" s="66"/>
+      <c r="B163" s="62"/>
+      <c r="C163" s="62"/>
       <c r="D163" s="29" t="s">
         <v>193</v>
       </c>
@@ -7939,9 +7953,9 @@
       <c r="AA163" s="18"/>
     </row>
     <row r="164" spans="1:27" ht="17.399999999999999">
-      <c r="A164" s="74"/>
-      <c r="B164" s="65"/>
-      <c r="C164" s="65"/>
+      <c r="A164" s="66"/>
+      <c r="B164" s="62"/>
+      <c r="C164" s="62"/>
       <c r="D164" s="29" t="s">
         <v>194</v>
       </c>
@@ -7970,9 +7984,9 @@
       <c r="AA164" s="18"/>
     </row>
     <row r="165" spans="1:27" ht="17.399999999999999">
-      <c r="A165" s="74"/>
-      <c r="B165" s="65"/>
-      <c r="C165" s="65"/>
+      <c r="A165" s="66"/>
+      <c r="B165" s="62"/>
+      <c r="C165" s="62"/>
       <c r="D165" s="29" t="s">
         <v>195</v>
       </c>
@@ -8001,9 +8015,9 @@
       <c r="AA165" s="18"/>
     </row>
     <row r="166" spans="1:27" ht="17.399999999999999">
-      <c r="A166" s="74"/>
-      <c r="B166" s="65"/>
-      <c r="C166" s="65"/>
+      <c r="A166" s="66"/>
+      <c r="B166" s="62"/>
+      <c r="C166" s="62"/>
       <c r="D166" s="29" t="s">
         <v>196</v>
       </c>
@@ -8032,11 +8046,11 @@
       <c r="AA166" s="18"/>
     </row>
     <row r="167" spans="1:27" ht="17.399999999999999">
-      <c r="A167" s="74"/>
-      <c r="B167" s="65"/>
-      <c r="C167" s="65"/>
+      <c r="A167" s="66"/>
+      <c r="B167" s="62"/>
+      <c r="C167" s="62"/>
       <c r="D167" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E167" s="41"/>
       <c r="F167" s="22"/>
@@ -8063,9 +8077,9 @@
       <c r="AA167" s="18"/>
     </row>
     <row r="168" spans="1:27" ht="17.399999999999999">
-      <c r="A168" s="74"/>
-      <c r="B168" s="65"/>
-      <c r="C168" s="65"/>
+      <c r="A168" s="66"/>
+      <c r="B168" s="62"/>
+      <c r="C168" s="62"/>
       <c r="D168" s="29" t="s">
         <v>197</v>
       </c>
@@ -8094,11 +8108,11 @@
       <c r="AA168" s="18"/>
     </row>
     <row r="169" spans="1:27" ht="17.399999999999999">
-      <c r="A169" s="74"/>
-      <c r="B169" s="64" t="s">
+      <c r="A169" s="66"/>
+      <c r="B169" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="C169" s="64" t="s">
+      <c r="C169" s="61" t="s">
         <v>199</v>
       </c>
       <c r="D169" s="29" t="s">
@@ -8129,9 +8143,9 @@
       <c r="AA169" s="18"/>
     </row>
     <row r="170" spans="1:27" ht="17.399999999999999">
-      <c r="A170" s="74"/>
-      <c r="B170" s="65"/>
-      <c r="C170" s="65"/>
+      <c r="A170" s="66"/>
+      <c r="B170" s="62"/>
+      <c r="C170" s="62"/>
       <c r="D170" s="29" t="s">
         <v>201</v>
       </c>
@@ -8160,9 +8174,9 @@
       <c r="AA170" s="18"/>
     </row>
     <row r="171" spans="1:27" ht="17.399999999999999">
-      <c r="A171" s="74"/>
-      <c r="B171" s="65"/>
-      <c r="C171" s="65"/>
+      <c r="A171" s="66"/>
+      <c r="B171" s="62"/>
+      <c r="C171" s="62"/>
       <c r="D171" s="29" t="s">
         <v>202</v>
       </c>
@@ -8191,9 +8205,9 @@
       <c r="AA171" s="18"/>
     </row>
     <row r="172" spans="1:27" ht="17.399999999999999">
-      <c r="A172" s="74"/>
-      <c r="B172" s="65"/>
-      <c r="C172" s="65"/>
+      <c r="A172" s="66"/>
+      <c r="B172" s="62"/>
+      <c r="C172" s="62"/>
       <c r="D172" s="29" t="s">
         <v>203</v>
       </c>
@@ -8222,9 +8236,9 @@
       <c r="AA172" s="18"/>
     </row>
     <row r="173" spans="1:27" ht="17.399999999999999">
-      <c r="A173" s="74"/>
-      <c r="B173" s="65"/>
-      <c r="C173" s="65"/>
+      <c r="A173" s="66"/>
+      <c r="B173" s="62"/>
+      <c r="C173" s="62"/>
       <c r="D173" s="29" t="s">
         <v>176</v>
       </c>
@@ -8253,9 +8267,9 @@
       <c r="AA173" s="18"/>
     </row>
     <row r="174" spans="1:27" ht="17.399999999999999">
-      <c r="A174" s="74"/>
-      <c r="B174" s="65"/>
-      <c r="C174" s="65"/>
+      <c r="A174" s="66"/>
+      <c r="B174" s="62"/>
+      <c r="C174" s="62"/>
       <c r="D174" s="29" t="s">
         <v>204</v>
       </c>
@@ -8284,11 +8298,11 @@
       <c r="AA174" s="18"/>
     </row>
     <row r="175" spans="1:27" ht="17.399999999999999">
-      <c r="A175" s="74"/>
-      <c r="B175" s="65"/>
-      <c r="C175" s="65"/>
+      <c r="A175" s="66"/>
+      <c r="B175" s="62"/>
+      <c r="C175" s="62"/>
       <c r="D175" s="45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E175" s="41"/>
       <c r="F175" s="22"/>
@@ -8315,11 +8329,11 @@
       <c r="AA175" s="18"/>
     </row>
     <row r="176" spans="1:27" ht="17.399999999999999">
-      <c r="A176" s="74"/>
-      <c r="B176" s="65"/>
-      <c r="C176" s="65"/>
+      <c r="A176" s="66"/>
+      <c r="B176" s="62"/>
+      <c r="C176" s="62"/>
       <c r="D176" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E176" s="41"/>
       <c r="F176" s="22"/>
@@ -8346,11 +8360,11 @@
       <c r="AA176" s="18"/>
     </row>
     <row r="177" spans="1:27" ht="17.399999999999999">
-      <c r="A177" s="74"/>
-      <c r="B177" s="65"/>
-      <c r="C177" s="65"/>
+      <c r="A177" s="66"/>
+      <c r="B177" s="62"/>
+      <c r="C177" s="62"/>
       <c r="D177" s="45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E177" s="41"/>
       <c r="F177" s="22"/>
@@ -8377,11 +8391,11 @@
       <c r="AA177" s="18"/>
     </row>
     <row r="178" spans="1:27" ht="17.399999999999999">
-      <c r="A178" s="74"/>
-      <c r="B178" s="65"/>
-      <c r="C178" s="65"/>
+      <c r="A178" s="66"/>
+      <c r="B178" s="62"/>
+      <c r="C178" s="62"/>
       <c r="D178" s="45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E178" s="41"/>
       <c r="F178" s="22"/>
@@ -8408,11 +8422,11 @@
       <c r="AA178" s="18"/>
     </row>
     <row r="179" spans="1:27" ht="17.399999999999999">
-      <c r="A179" s="74"/>
-      <c r="B179" s="65"/>
-      <c r="C179" s="65"/>
+      <c r="A179" s="66"/>
+      <c r="B179" s="62"/>
+      <c r="C179" s="62"/>
       <c r="D179" s="45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E179" s="41"/>
       <c r="F179" s="22"/>
@@ -8439,11 +8453,11 @@
       <c r="AA179" s="18"/>
     </row>
     <row r="180" spans="1:27" ht="17.399999999999999">
-      <c r="A180" s="74"/>
-      <c r="B180" s="65"/>
-      <c r="C180" s="65"/>
+      <c r="A180" s="66"/>
+      <c r="B180" s="62"/>
+      <c r="C180" s="62"/>
       <c r="D180" s="45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E180" s="41"/>
       <c r="F180" s="22"/>
@@ -8470,9 +8484,9 @@
       <c r="AA180" s="18"/>
     </row>
     <row r="181" spans="1:27" ht="17.399999999999999">
-      <c r="A181" s="74"/>
-      <c r="B181" s="65"/>
-      <c r="C181" s="65"/>
+      <c r="A181" s="66"/>
+      <c r="B181" s="62"/>
+      <c r="C181" s="62"/>
       <c r="D181" s="29" t="s">
         <v>205</v>
       </c>
@@ -8501,18 +8515,18 @@
       <c r="AA181" s="18"/>
     </row>
     <row r="182" spans="1:27" ht="17.399999999999999">
-      <c r="A182" s="74"/>
-      <c r="B182" s="65"/>
-      <c r="C182" s="64" t="s">
-        <v>206</v>
+      <c r="A182" s="66"/>
+      <c r="B182" s="62"/>
+      <c r="C182" s="61" t="s">
+        <v>318</v>
       </c>
       <c r="D182" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="E182" s="41"/>
-      <c r="F182" s="22"/>
-      <c r="G182" s="22"/>
-      <c r="H182" s="31"/>
+      <c r="E182" s="46"/>
+      <c r="F182" s="47"/>
+      <c r="G182" s="47"/>
+      <c r="H182" s="48"/>
       <c r="I182" s="36"/>
       <c r="J182" s="18"/>
       <c r="K182" s="18"/>
@@ -8534,16 +8548,16 @@
       <c r="AA182" s="18"/>
     </row>
     <row r="183" spans="1:27" ht="17.399999999999999">
-      <c r="A183" s="74"/>
-      <c r="B183" s="65"/>
-      <c r="C183" s="65"/>
+      <c r="A183" s="66"/>
+      <c r="B183" s="62"/>
+      <c r="C183" s="62"/>
       <c r="D183" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="E183" s="41"/>
-      <c r="F183" s="22"/>
-      <c r="G183" s="22"/>
-      <c r="H183" s="31"/>
+      <c r="E183" s="46"/>
+      <c r="F183" s="47"/>
+      <c r="G183" s="47"/>
+      <c r="H183" s="48"/>
       <c r="I183" s="36"/>
       <c r="J183" s="18"/>
       <c r="K183" s="18"/>
@@ -8565,16 +8579,16 @@
       <c r="AA183" s="18"/>
     </row>
     <row r="184" spans="1:27" ht="17.399999999999999">
-      <c r="A184" s="74"/>
-      <c r="B184" s="65"/>
-      <c r="C184" s="65"/>
+      <c r="A184" s="66"/>
+      <c r="B184" s="62"/>
+      <c r="C184" s="62"/>
       <c r="D184" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="E184" s="41"/>
-      <c r="F184" s="22"/>
-      <c r="G184" s="22"/>
-      <c r="H184" s="31"/>
+      <c r="E184" s="46"/>
+      <c r="F184" s="47"/>
+      <c r="G184" s="47"/>
+      <c r="H184" s="48"/>
       <c r="I184" s="36"/>
       <c r="J184" s="18"/>
       <c r="K184" s="18"/>
@@ -8596,16 +8610,16 @@
       <c r="AA184" s="18"/>
     </row>
     <row r="185" spans="1:27" ht="17.399999999999999">
-      <c r="A185" s="74"/>
-      <c r="B185" s="65"/>
-      <c r="C185" s="65"/>
+      <c r="A185" s="66"/>
+      <c r="B185" s="62"/>
+      <c r="C185" s="62"/>
       <c r="D185" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E185" s="41"/>
-      <c r="F185" s="22"/>
-      <c r="G185" s="22"/>
-      <c r="H185" s="31"/>
+      <c r="E185" s="46"/>
+      <c r="F185" s="47"/>
+      <c r="G185" s="47"/>
+      <c r="H185" s="48"/>
       <c r="I185" s="36"/>
       <c r="J185" s="18"/>
       <c r="K185" s="18"/>
@@ -8627,16 +8641,16 @@
       <c r="AA185" s="18"/>
     </row>
     <row r="186" spans="1:27" ht="17.399999999999999">
-      <c r="A186" s="74"/>
-      <c r="B186" s="65"/>
-      <c r="C186" s="65"/>
+      <c r="A186" s="66"/>
+      <c r="B186" s="62"/>
+      <c r="C186" s="62"/>
       <c r="D186" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="E186" s="41"/>
-      <c r="F186" s="22"/>
-      <c r="G186" s="22"/>
-      <c r="H186" s="31"/>
+      <c r="E186" s="46"/>
+      <c r="F186" s="47"/>
+      <c r="G186" s="47"/>
+      <c r="H186" s="48"/>
       <c r="I186" s="36"/>
       <c r="J186" s="18"/>
       <c r="K186" s="18"/>
@@ -8658,16 +8672,16 @@
       <c r="AA186" s="18"/>
     </row>
     <row r="187" spans="1:27" ht="17.399999999999999">
-      <c r="A187" s="74"/>
-      <c r="B187" s="65"/>
-      <c r="C187" s="65"/>
+      <c r="A187" s="66"/>
+      <c r="B187" s="62"/>
+      <c r="C187" s="62"/>
       <c r="D187" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="E187" s="41"/>
-      <c r="F187" s="22"/>
-      <c r="G187" s="22"/>
-      <c r="H187" s="31"/>
+      <c r="E187" s="46"/>
+      <c r="F187" s="47"/>
+      <c r="G187" s="47"/>
+      <c r="H187" s="48"/>
       <c r="I187" s="36"/>
       <c r="J187" s="18"/>
       <c r="K187" s="18"/>
@@ -8689,16 +8703,16 @@
       <c r="AA187" s="18"/>
     </row>
     <row r="188" spans="1:27" ht="17.399999999999999">
-      <c r="A188" s="74"/>
-      <c r="B188" s="65"/>
-      <c r="C188" s="65"/>
+      <c r="A188" s="66"/>
+      <c r="B188" s="62"/>
+      <c r="C188" s="62"/>
       <c r="D188" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="E188" s="41"/>
-      <c r="F188" s="22"/>
-      <c r="G188" s="22"/>
-      <c r="H188" s="31"/>
+        <v>300</v>
+      </c>
+      <c r="E188" s="46"/>
+      <c r="F188" s="47"/>
+      <c r="G188" s="47"/>
+      <c r="H188" s="48"/>
       <c r="I188" s="36"/>
       <c r="J188" s="18"/>
       <c r="K188" s="18"/>
@@ -8720,16 +8734,16 @@
       <c r="AA188" s="18"/>
     </row>
     <row r="189" spans="1:27" ht="17.399999999999999">
-      <c r="A189" s="74"/>
-      <c r="B189" s="65"/>
-      <c r="C189" s="65"/>
+      <c r="A189" s="66"/>
+      <c r="B189" s="62"/>
+      <c r="C189" s="62"/>
       <c r="D189" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="E189" s="41"/>
-      <c r="F189" s="22"/>
-      <c r="G189" s="22"/>
-      <c r="H189" s="31"/>
+        <v>301</v>
+      </c>
+      <c r="E189" s="46"/>
+      <c r="F189" s="47"/>
+      <c r="G189" s="47"/>
+      <c r="H189" s="48"/>
       <c r="I189" s="36"/>
       <c r="J189" s="18"/>
       <c r="K189" s="18"/>
@@ -8751,16 +8765,16 @@
       <c r="AA189" s="18"/>
     </row>
     <row r="190" spans="1:27" ht="17.399999999999999">
-      <c r="A190" s="74"/>
-      <c r="B190" s="65"/>
-      <c r="C190" s="65"/>
+      <c r="A190" s="66"/>
+      <c r="B190" s="62"/>
+      <c r="C190" s="62"/>
       <c r="D190" s="45" t="s">
-        <v>303</v>
-      </c>
-      <c r="E190" s="41"/>
-      <c r="F190" s="22"/>
-      <c r="G190" s="22"/>
-      <c r="H190" s="31"/>
+        <v>302</v>
+      </c>
+      <c r="E190" s="46"/>
+      <c r="F190" s="47"/>
+      <c r="G190" s="47"/>
+      <c r="H190" s="48"/>
       <c r="I190" s="36"/>
       <c r="J190" s="18"/>
       <c r="K190" s="18"/>
@@ -8782,16 +8796,16 @@
       <c r="AA190" s="18"/>
     </row>
     <row r="191" spans="1:27" ht="17.399999999999999">
-      <c r="A191" s="74"/>
-      <c r="B191" s="65"/>
-      <c r="C191" s="65"/>
+      <c r="A191" s="66"/>
+      <c r="B191" s="62"/>
+      <c r="C191" s="62"/>
       <c r="D191" s="45" t="s">
-        <v>304</v>
-      </c>
-      <c r="E191" s="41"/>
-      <c r="F191" s="22"/>
-      <c r="G191" s="22"/>
-      <c r="H191" s="31"/>
+        <v>303</v>
+      </c>
+      <c r="E191" s="46"/>
+      <c r="F191" s="47"/>
+      <c r="G191" s="47"/>
+      <c r="H191" s="48"/>
       <c r="I191" s="36"/>
       <c r="J191" s="18"/>
       <c r="K191" s="18"/>
@@ -8813,16 +8827,16 @@
       <c r="AA191" s="18"/>
     </row>
     <row r="192" spans="1:27" ht="17.399999999999999">
-      <c r="A192" s="74"/>
-      <c r="B192" s="65"/>
-      <c r="C192" s="65"/>
+      <c r="A192" s="66"/>
+      <c r="B192" s="62"/>
+      <c r="C192" s="62"/>
       <c r="D192" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="E192" s="41"/>
-      <c r="F192" s="22"/>
-      <c r="G192" s="22"/>
-      <c r="H192" s="31"/>
+        <v>304</v>
+      </c>
+      <c r="E192" s="46"/>
+      <c r="F192" s="47"/>
+      <c r="G192" s="47"/>
+      <c r="H192" s="48"/>
       <c r="I192" s="36"/>
       <c r="J192" s="18"/>
       <c r="K192" s="18"/>
@@ -8844,16 +8858,16 @@
       <c r="AA192" s="18"/>
     </row>
     <row r="193" spans="1:27" ht="17.399999999999999">
-      <c r="A193" s="74"/>
-      <c r="B193" s="65"/>
-      <c r="C193" s="65"/>
+      <c r="A193" s="66"/>
+      <c r="B193" s="62"/>
+      <c r="C193" s="62"/>
       <c r="D193" s="45" t="s">
-        <v>306</v>
-      </c>
-      <c r="E193" s="41"/>
-      <c r="F193" s="22"/>
-      <c r="G193" s="22"/>
-      <c r="H193" s="31"/>
+        <v>305</v>
+      </c>
+      <c r="E193" s="46"/>
+      <c r="F193" s="47"/>
+      <c r="G193" s="47"/>
+      <c r="H193" s="48"/>
       <c r="I193" s="36"/>
       <c r="J193" s="18"/>
       <c r="K193" s="18"/>
@@ -8875,16 +8889,16 @@
       <c r="AA193" s="18"/>
     </row>
     <row r="194" spans="1:27" ht="17.399999999999999">
-      <c r="A194" s="74"/>
-      <c r="B194" s="65"/>
-      <c r="C194" s="65"/>
+      <c r="A194" s="66"/>
+      <c r="B194" s="62"/>
+      <c r="C194" s="62"/>
       <c r="D194" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="E194" s="41"/>
-      <c r="F194" s="22"/>
-      <c r="G194" s="22"/>
-      <c r="H194" s="31"/>
+      <c r="E194" s="46"/>
+      <c r="F194" s="47"/>
+      <c r="G194" s="47"/>
+      <c r="H194" s="48"/>
       <c r="I194" s="36"/>
       <c r="J194" s="18"/>
       <c r="K194" s="18"/>
@@ -8906,10 +8920,10 @@
       <c r="AA194" s="18"/>
     </row>
     <row r="195" spans="1:27" ht="17.399999999999999">
-      <c r="A195" s="74"/>
-      <c r="B195" s="65"/>
-      <c r="C195" s="64" t="s">
-        <v>207</v>
+      <c r="A195" s="66"/>
+      <c r="B195" s="62"/>
+      <c r="C195" s="61" t="s">
+        <v>206</v>
       </c>
       <c r="D195" s="29" t="s">
         <v>200</v>
@@ -8939,9 +8953,9 @@
       <c r="AA195" s="18"/>
     </row>
     <row r="196" spans="1:27" ht="17.399999999999999">
-      <c r="A196" s="74"/>
-      <c r="B196" s="65"/>
-      <c r="C196" s="65"/>
+      <c r="A196" s="66"/>
+      <c r="B196" s="62"/>
+      <c r="C196" s="62"/>
       <c r="D196" s="29" t="s">
         <v>201</v>
       </c>
@@ -8970,9 +8984,9 @@
       <c r="AA196" s="18"/>
     </row>
     <row r="197" spans="1:27" ht="17.399999999999999">
-      <c r="A197" s="74"/>
-      <c r="B197" s="65"/>
-      <c r="C197" s="65"/>
+      <c r="A197" s="66"/>
+      <c r="B197" s="62"/>
+      <c r="C197" s="62"/>
       <c r="D197" s="29" t="s">
         <v>202</v>
       </c>
@@ -9001,9 +9015,9 @@
       <c r="AA197" s="18"/>
     </row>
     <row r="198" spans="1:27" ht="17.399999999999999">
-      <c r="A198" s="74"/>
-      <c r="B198" s="65"/>
-      <c r="C198" s="65"/>
+      <c r="A198" s="66"/>
+      <c r="B198" s="62"/>
+      <c r="C198" s="62"/>
       <c r="D198" s="29" t="s">
         <v>203</v>
       </c>
@@ -9032,9 +9046,9 @@
       <c r="AA198" s="18"/>
     </row>
     <row r="199" spans="1:27" ht="17.399999999999999">
-      <c r="A199" s="74"/>
-      <c r="B199" s="65"/>
-      <c r="C199" s="65"/>
+      <c r="A199" s="66"/>
+      <c r="B199" s="62"/>
+      <c r="C199" s="62"/>
       <c r="D199" s="29" t="s">
         <v>176</v>
       </c>
@@ -9063,9 +9077,9 @@
       <c r="AA199" s="18"/>
     </row>
     <row r="200" spans="1:27" ht="17.399999999999999">
-      <c r="A200" s="74"/>
-      <c r="B200" s="65"/>
-      <c r="C200" s="65"/>
+      <c r="A200" s="66"/>
+      <c r="B200" s="62"/>
+      <c r="C200" s="62"/>
       <c r="D200" s="29" t="s">
         <v>204</v>
       </c>
@@ -9094,11 +9108,11 @@
       <c r="AA200" s="18"/>
     </row>
     <row r="201" spans="1:27" ht="17.399999999999999">
-      <c r="A201" s="74"/>
-      <c r="B201" s="65"/>
-      <c r="C201" s="65"/>
+      <c r="A201" s="66"/>
+      <c r="B201" s="62"/>
+      <c r="C201" s="62"/>
       <c r="D201" s="45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E201" s="41"/>
       <c r="F201" s="22"/>
@@ -9125,11 +9139,11 @@
       <c r="AA201" s="18"/>
     </row>
     <row r="202" spans="1:27" ht="17.399999999999999">
-      <c r="A202" s="74"/>
-      <c r="B202" s="65"/>
-      <c r="C202" s="65"/>
+      <c r="A202" s="66"/>
+      <c r="B202" s="62"/>
+      <c r="C202" s="62"/>
       <c r="D202" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E202" s="41"/>
       <c r="F202" s="22"/>
@@ -9156,11 +9170,11 @@
       <c r="AA202" s="18"/>
     </row>
     <row r="203" spans="1:27" ht="17.399999999999999">
-      <c r="A203" s="74"/>
-      <c r="B203" s="65"/>
-      <c r="C203" s="65"/>
+      <c r="A203" s="66"/>
+      <c r="B203" s="62"/>
+      <c r="C203" s="62"/>
       <c r="D203" s="45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E203" s="41"/>
       <c r="F203" s="22"/>
@@ -9187,11 +9201,11 @@
       <c r="AA203" s="18"/>
     </row>
     <row r="204" spans="1:27" ht="17.399999999999999">
-      <c r="A204" s="74"/>
-      <c r="B204" s="65"/>
-      <c r="C204" s="65"/>
+      <c r="A204" s="66"/>
+      <c r="B204" s="62"/>
+      <c r="C204" s="62"/>
       <c r="D204" s="45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E204" s="41"/>
       <c r="F204" s="22"/>
@@ -9218,11 +9232,11 @@
       <c r="AA204" s="18"/>
     </row>
     <row r="205" spans="1:27" ht="17.399999999999999">
-      <c r="A205" s="74"/>
-      <c r="B205" s="65"/>
-      <c r="C205" s="65"/>
+      <c r="A205" s="66"/>
+      <c r="B205" s="62"/>
+      <c r="C205" s="62"/>
       <c r="D205" s="45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E205" s="41"/>
       <c r="F205" s="22"/>
@@ -9249,11 +9263,11 @@
       <c r="AA205" s="18"/>
     </row>
     <row r="206" spans="1:27" ht="17.399999999999999">
-      <c r="A206" s="74"/>
-      <c r="B206" s="65"/>
-      <c r="C206" s="65"/>
+      <c r="A206" s="66"/>
+      <c r="B206" s="62"/>
+      <c r="C206" s="62"/>
       <c r="D206" s="45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E206" s="41"/>
       <c r="F206" s="22"/>
@@ -9280,9 +9294,9 @@
       <c r="AA206" s="18"/>
     </row>
     <row r="207" spans="1:27" ht="17.399999999999999">
-      <c r="A207" s="74"/>
-      <c r="B207" s="65"/>
-      <c r="C207" s="65"/>
+      <c r="A207" s="66"/>
+      <c r="B207" s="62"/>
+      <c r="C207" s="62"/>
       <c r="D207" s="29" t="s">
         <v>205</v>
       </c>
@@ -9311,15 +9325,13 @@
       <c r="AA207" s="18"/>
     </row>
     <row r="208" spans="1:27" ht="17.399999999999999">
-      <c r="A208" s="74"/>
-      <c r="B208" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C208" s="64" t="s">
-        <v>209</v>
+      <c r="A208" s="66"/>
+      <c r="B208" s="62"/>
+      <c r="C208" s="61" t="s">
+        <v>207</v>
       </c>
       <c r="D208" s="29" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E208" s="41"/>
       <c r="F208" s="22"/>
@@ -9346,19 +9358,17 @@
       <c r="AA208" s="18"/>
     </row>
     <row r="209" spans="1:27" ht="17.399999999999999">
-      <c r="A209" s="74"/>
-      <c r="B209" s="65"/>
-      <c r="C209" s="65"/>
+      <c r="A209" s="66"/>
+      <c r="B209" s="62"/>
+      <c r="C209" s="62"/>
       <c r="D209" s="29" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E209" s="41"/>
       <c r="F209" s="22"/>
       <c r="G209" s="22"/>
       <c r="H209" s="31"/>
-      <c r="I209" s="39" t="s">
-        <v>212</v>
-      </c>
+      <c r="I209" s="36"/>
       <c r="J209" s="18"/>
       <c r="K209" s="18"/>
       <c r="L209" s="18"/>
@@ -9379,19 +9389,17 @@
       <c r="AA209" s="18"/>
     </row>
     <row r="210" spans="1:27" ht="17.399999999999999">
-      <c r="A210" s="74"/>
-      <c r="B210" s="65"/>
-      <c r="C210" s="65"/>
+      <c r="A210" s="66"/>
+      <c r="B210" s="62"/>
+      <c r="C210" s="62"/>
       <c r="D210" s="29" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E210" s="41"/>
       <c r="F210" s="22"/>
       <c r="G210" s="22"/>
       <c r="H210" s="31"/>
-      <c r="I210" s="39" t="s">
-        <v>214</v>
-      </c>
+      <c r="I210" s="36"/>
       <c r="J210" s="18"/>
       <c r="K210" s="18"/>
       <c r="L210" s="18"/>
@@ -9412,11 +9420,11 @@
       <c r="AA210" s="18"/>
     </row>
     <row r="211" spans="1:27" ht="17.399999999999999">
-      <c r="A211" s="74"/>
-      <c r="B211" s="65"/>
-      <c r="C211" s="65"/>
+      <c r="A211" s="66"/>
+      <c r="B211" s="62"/>
+      <c r="C211" s="62"/>
       <c r="D211" s="29" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E211" s="41"/>
       <c r="F211" s="22"/>
@@ -9443,11 +9451,11 @@
       <c r="AA211" s="18"/>
     </row>
     <row r="212" spans="1:27" ht="17.399999999999999">
-      <c r="A212" s="74"/>
-      <c r="B212" s="65"/>
-      <c r="C212" s="65"/>
+      <c r="A212" s="66"/>
+      <c r="B212" s="62"/>
+      <c r="C212" s="62"/>
       <c r="D212" s="29" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="E212" s="41"/>
       <c r="F212" s="22"/>
@@ -9474,13 +9482,11 @@
       <c r="AA212" s="18"/>
     </row>
     <row r="213" spans="1:27" ht="17.399999999999999">
-      <c r="A213" s="74"/>
-      <c r="B213" s="65"/>
-      <c r="C213" s="64" t="s">
-        <v>217</v>
-      </c>
+      <c r="A213" s="66"/>
+      <c r="B213" s="62"/>
+      <c r="C213" s="62"/>
       <c r="D213" s="29" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E213" s="41"/>
       <c r="F213" s="22"/>
@@ -9507,11 +9513,11 @@
       <c r="AA213" s="18"/>
     </row>
     <row r="214" spans="1:27" ht="17.399999999999999">
-      <c r="A214" s="74"/>
-      <c r="B214" s="65"/>
-      <c r="C214" s="65"/>
-      <c r="D214" s="29" t="s">
-        <v>219</v>
+      <c r="A214" s="66"/>
+      <c r="B214" s="62"/>
+      <c r="C214" s="62"/>
+      <c r="D214" s="45" t="s">
+        <v>300</v>
       </c>
       <c r="E214" s="41"/>
       <c r="F214" s="22"/>
@@ -9538,11 +9544,11 @@
       <c r="AA214" s="18"/>
     </row>
     <row r="215" spans="1:27" ht="17.399999999999999">
-      <c r="A215" s="74"/>
-      <c r="B215" s="65"/>
-      <c r="C215" s="65"/>
-      <c r="D215" s="29" t="s">
-        <v>139</v>
+      <c r="A215" s="66"/>
+      <c r="B215" s="62"/>
+      <c r="C215" s="62"/>
+      <c r="D215" s="45" t="s">
+        <v>301</v>
       </c>
       <c r="E215" s="41"/>
       <c r="F215" s="22"/>
@@ -9569,11 +9575,11 @@
       <c r="AA215" s="18"/>
     </row>
     <row r="216" spans="1:27" ht="17.399999999999999">
-      <c r="A216" s="74"/>
-      <c r="B216" s="65"/>
-      <c r="C216" s="65"/>
-      <c r="D216" s="29" t="s">
-        <v>220</v>
+      <c r="A216" s="66"/>
+      <c r="B216" s="62"/>
+      <c r="C216" s="62"/>
+      <c r="D216" s="45" t="s">
+        <v>302</v>
       </c>
       <c r="E216" s="41"/>
       <c r="F216" s="22"/>
@@ -9600,11 +9606,11 @@
       <c r="AA216" s="18"/>
     </row>
     <row r="217" spans="1:27" ht="17.399999999999999">
-      <c r="A217" s="74"/>
-      <c r="B217" s="65"/>
-      <c r="C217" s="65"/>
-      <c r="D217" s="29" t="s">
-        <v>221</v>
+      <c r="A217" s="66"/>
+      <c r="B217" s="62"/>
+      <c r="C217" s="62"/>
+      <c r="D217" s="45" t="s">
+        <v>303</v>
       </c>
       <c r="E217" s="41"/>
       <c r="F217" s="22"/>
@@ -9631,11 +9637,11 @@
       <c r="AA217" s="18"/>
     </row>
     <row r="218" spans="1:27" ht="17.399999999999999">
-      <c r="A218" s="74"/>
-      <c r="B218" s="65"/>
-      <c r="C218" s="65"/>
-      <c r="D218" s="29" t="s">
-        <v>222</v>
+      <c r="A218" s="66"/>
+      <c r="B218" s="62"/>
+      <c r="C218" s="62"/>
+      <c r="D218" s="45" t="s">
+        <v>304</v>
       </c>
       <c r="E218" s="41"/>
       <c r="F218" s="22"/>
@@ -9662,13 +9668,11 @@
       <c r="AA218" s="18"/>
     </row>
     <row r="219" spans="1:27" ht="17.399999999999999">
-      <c r="A219" s="74"/>
-      <c r="B219" s="65"/>
-      <c r="C219" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="D219" s="29" t="s">
-        <v>224</v>
+      <c r="A219" s="66"/>
+      <c r="B219" s="62"/>
+      <c r="C219" s="62"/>
+      <c r="D219" s="45" t="s">
+        <v>305</v>
       </c>
       <c r="E219" s="41"/>
       <c r="F219" s="22"/>
@@ -9695,11 +9699,11 @@
       <c r="AA219" s="18"/>
     </row>
     <row r="220" spans="1:27" ht="17.399999999999999">
-      <c r="A220" s="74"/>
-      <c r="B220" s="65"/>
-      <c r="C220" s="81"/>
+      <c r="A220" s="66"/>
+      <c r="B220" s="62"/>
+      <c r="C220" s="62"/>
       <c r="D220" s="29" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="E220" s="41"/>
       <c r="F220" s="22"/>
@@ -9726,13 +9730,15 @@
       <c r="AA220" s="18"/>
     </row>
     <row r="221" spans="1:27" ht="17.399999999999999">
-      <c r="A221" s="74"/>
-      <c r="B221" s="65"/>
-      <c r="C221" s="64" t="s">
-        <v>226</v>
+      <c r="A221" s="66"/>
+      <c r="B221" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="C221" s="61" t="s">
+        <v>209</v>
       </c>
       <c r="D221" s="29" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="E221" s="41"/>
       <c r="F221" s="22"/>
@@ -9759,17 +9765,19 @@
       <c r="AA221" s="18"/>
     </row>
     <row r="222" spans="1:27" ht="17.399999999999999">
-      <c r="A222" s="74"/>
-      <c r="B222" s="65"/>
-      <c r="C222" s="65"/>
+      <c r="A222" s="66"/>
+      <c r="B222" s="62"/>
+      <c r="C222" s="62"/>
       <c r="D222" s="29" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E222" s="41"/>
       <c r="F222" s="22"/>
       <c r="G222" s="22"/>
       <c r="H222" s="31"/>
-      <c r="I222" s="36"/>
+      <c r="I222" s="39" t="s">
+        <v>212</v>
+      </c>
       <c r="J222" s="18"/>
       <c r="K222" s="18"/>
       <c r="L222" s="18"/>
@@ -9790,17 +9798,19 @@
       <c r="AA222" s="18"/>
     </row>
     <row r="223" spans="1:27" ht="17.399999999999999">
-      <c r="A223" s="74"/>
-      <c r="B223" s="65"/>
-      <c r="C223" s="65"/>
+      <c r="A223" s="66"/>
+      <c r="B223" s="62"/>
+      <c r="C223" s="62"/>
       <c r="D223" s="29" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E223" s="41"/>
       <c r="F223" s="22"/>
       <c r="G223" s="22"/>
       <c r="H223" s="31"/>
-      <c r="I223" s="36"/>
+      <c r="I223" s="39" t="s">
+        <v>214</v>
+      </c>
       <c r="J223" s="18"/>
       <c r="K223" s="18"/>
       <c r="L223" s="18"/>
@@ -9821,11 +9831,11 @@
       <c r="AA223" s="18"/>
     </row>
     <row r="224" spans="1:27" ht="17.399999999999999">
-      <c r="A224" s="74"/>
-      <c r="B224" s="65"/>
-      <c r="C224" s="65"/>
+      <c r="A224" s="66"/>
+      <c r="B224" s="62"/>
+      <c r="C224" s="62"/>
       <c r="D224" s="29" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E224" s="41"/>
       <c r="F224" s="22"/>
@@ -9852,13 +9862,11 @@
       <c r="AA224" s="18"/>
     </row>
     <row r="225" spans="1:27" ht="17.399999999999999">
-      <c r="A225" s="74"/>
-      <c r="B225" s="65"/>
-      <c r="C225" s="64" t="s">
-        <v>231</v>
-      </c>
+      <c r="A225" s="66"/>
+      <c r="B225" s="62"/>
+      <c r="C225" s="62"/>
       <c r="D225" s="29" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="E225" s="41"/>
       <c r="F225" s="22"/>
@@ -9885,11 +9893,13 @@
       <c r="AA225" s="18"/>
     </row>
     <row r="226" spans="1:27" ht="17.399999999999999">
-      <c r="A226" s="74"/>
-      <c r="B226" s="65"/>
-      <c r="C226" s="65"/>
+      <c r="A226" s="66"/>
+      <c r="B226" s="62"/>
+      <c r="C226" s="61" t="s">
+        <v>217</v>
+      </c>
       <c r="D226" s="29" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E226" s="41"/>
       <c r="F226" s="22"/>
@@ -9916,19 +9926,17 @@
       <c r="AA226" s="18"/>
     </row>
     <row r="227" spans="1:27" ht="17.399999999999999">
-      <c r="A227" s="74"/>
-      <c r="B227" s="65"/>
-      <c r="C227" s="65"/>
+      <c r="A227" s="66"/>
+      <c r="B227" s="62"/>
+      <c r="C227" s="62"/>
       <c r="D227" s="29" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E227" s="41"/>
       <c r="F227" s="22"/>
       <c r="G227" s="22"/>
       <c r="H227" s="31"/>
-      <c r="I227" s="39" t="s">
-        <v>235</v>
-      </c>
+      <c r="I227" s="36"/>
       <c r="J227" s="18"/>
       <c r="K227" s="18"/>
       <c r="L227" s="18"/>
@@ -9949,19 +9957,17 @@
       <c r="AA227" s="18"/>
     </row>
     <row r="228" spans="1:27" ht="17.399999999999999">
-      <c r="A228" s="74"/>
-      <c r="B228" s="65"/>
-      <c r="C228" s="65"/>
+      <c r="A228" s="66"/>
+      <c r="B228" s="62"/>
+      <c r="C228" s="62"/>
       <c r="D228" s="29" t="s">
-        <v>236</v>
+        <v>139</v>
       </c>
       <c r="E228" s="41"/>
       <c r="F228" s="22"/>
       <c r="G228" s="22"/>
       <c r="H228" s="31"/>
-      <c r="I228" s="39" t="s">
-        <v>237</v>
-      </c>
+      <c r="I228" s="36"/>
       <c r="J228" s="18"/>
       <c r="K228" s="18"/>
       <c r="L228" s="18"/>
@@ -9982,13 +9988,11 @@
       <c r="AA228" s="18"/>
     </row>
     <row r="229" spans="1:27" ht="17.399999999999999">
-      <c r="A229" s="74"/>
-      <c r="B229" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="C229" s="65"/>
+      <c r="A229" s="66"/>
+      <c r="B229" s="62"/>
+      <c r="C229" s="62"/>
       <c r="D229" s="29" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="E229" s="41"/>
       <c r="F229" s="22"/>
@@ -10015,11 +10019,11 @@
       <c r="AA229" s="18"/>
     </row>
     <row r="230" spans="1:27" ht="17.399999999999999">
-      <c r="A230" s="74"/>
-      <c r="B230" s="65"/>
-      <c r="C230" s="65"/>
+      <c r="A230" s="66"/>
+      <c r="B230" s="62"/>
+      <c r="C230" s="62"/>
       <c r="D230" s="29" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="E230" s="41"/>
       <c r="F230" s="22"/>
@@ -10046,11 +10050,11 @@
       <c r="AA230" s="18"/>
     </row>
     <row r="231" spans="1:27" ht="17.399999999999999">
-      <c r="A231" s="74"/>
-      <c r="B231" s="65"/>
-      <c r="C231" s="65"/>
+      <c r="A231" s="66"/>
+      <c r="B231" s="62"/>
+      <c r="C231" s="62"/>
       <c r="D231" s="29" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="E231" s="41"/>
       <c r="F231" s="22"/>
@@ -10077,11 +10081,13 @@
       <c r="AA231" s="18"/>
     </row>
     <row r="232" spans="1:27" ht="17.399999999999999">
-      <c r="A232" s="74"/>
-      <c r="B232" s="65"/>
-      <c r="C232" s="65"/>
+      <c r="A232" s="66"/>
+      <c r="B232" s="62"/>
+      <c r="C232" s="61" t="s">
+        <v>223</v>
+      </c>
       <c r="D232" s="29" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="E232" s="41"/>
       <c r="F232" s="22"/>
@@ -10108,11 +10114,11 @@
       <c r="AA232" s="18"/>
     </row>
     <row r="233" spans="1:27" ht="17.399999999999999">
-      <c r="A233" s="74"/>
-      <c r="B233" s="65"/>
-      <c r="C233" s="65"/>
+      <c r="A233" s="66"/>
+      <c r="B233" s="62"/>
+      <c r="C233" s="75"/>
       <c r="D233" s="29" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="E233" s="41"/>
       <c r="F233" s="22"/>
@@ -10139,11 +10145,13 @@
       <c r="AA233" s="18"/>
     </row>
     <row r="234" spans="1:27" ht="17.399999999999999">
-      <c r="A234" s="74"/>
-      <c r="B234" s="65"/>
-      <c r="C234" s="65"/>
+      <c r="A234" s="66"/>
+      <c r="B234" s="62"/>
+      <c r="C234" s="61" t="s">
+        <v>226</v>
+      </c>
       <c r="D234" s="29" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E234" s="41"/>
       <c r="F234" s="22"/>
@@ -10170,11 +10178,11 @@
       <c r="AA234" s="18"/>
     </row>
     <row r="235" spans="1:27" ht="17.399999999999999">
-      <c r="A235" s="74"/>
-      <c r="B235" s="65"/>
-      <c r="C235" s="65"/>
+      <c r="A235" s="66"/>
+      <c r="B235" s="62"/>
+      <c r="C235" s="62"/>
       <c r="D235" s="29" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E235" s="41"/>
       <c r="F235" s="22"/>
@@ -10201,13 +10209,11 @@
       <c r="AA235" s="18"/>
     </row>
     <row r="236" spans="1:27" ht="17.399999999999999">
-      <c r="A236" s="74"/>
-      <c r="B236" s="64" t="s">
-        <v>246</v>
-      </c>
-      <c r="C236" s="65"/>
+      <c r="A236" s="66"/>
+      <c r="B236" s="62"/>
+      <c r="C236" s="62"/>
       <c r="D236" s="29" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="E236" s="41"/>
       <c r="F236" s="22"/>
@@ -10234,11 +10240,11 @@
       <c r="AA236" s="18"/>
     </row>
     <row r="237" spans="1:27" ht="17.399999999999999">
-      <c r="A237" s="74"/>
-      <c r="B237" s="65"/>
-      <c r="C237" s="65"/>
+      <c r="A237" s="66"/>
+      <c r="B237" s="62"/>
+      <c r="C237" s="62"/>
       <c r="D237" s="29" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="E237" s="41"/>
       <c r="F237" s="22"/>
@@ -10265,11 +10271,13 @@
       <c r="AA237" s="18"/>
     </row>
     <row r="238" spans="1:27" ht="17.399999999999999">
-      <c r="A238" s="74"/>
-      <c r="B238" s="65"/>
-      <c r="C238" s="65"/>
+      <c r="A238" s="66"/>
+      <c r="B238" s="62"/>
+      <c r="C238" s="61" t="s">
+        <v>231</v>
+      </c>
       <c r="D238" s="29" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="E238" s="41"/>
       <c r="F238" s="22"/>
@@ -10296,11 +10304,11 @@
       <c r="AA238" s="18"/>
     </row>
     <row r="239" spans="1:27" ht="17.399999999999999">
-      <c r="A239" s="74"/>
-      <c r="B239" s="65"/>
-      <c r="C239" s="65"/>
+      <c r="A239" s="66"/>
+      <c r="B239" s="62"/>
+      <c r="C239" s="62"/>
       <c r="D239" s="29" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="E239" s="41"/>
       <c r="F239" s="22"/>
@@ -10327,17 +10335,19 @@
       <c r="AA239" s="18"/>
     </row>
     <row r="240" spans="1:27" ht="17.399999999999999">
-      <c r="A240" s="74"/>
-      <c r="B240" s="65"/>
-      <c r="C240" s="65"/>
+      <c r="A240" s="66"/>
+      <c r="B240" s="62"/>
+      <c r="C240" s="62"/>
       <c r="D240" s="29" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E240" s="41"/>
       <c r="F240" s="22"/>
       <c r="G240" s="22"/>
       <c r="H240" s="31"/>
-      <c r="I240" s="36"/>
+      <c r="I240" s="39" t="s">
+        <v>235</v>
+      </c>
       <c r="J240" s="18"/>
       <c r="K240" s="18"/>
       <c r="L240" s="18"/>
@@ -10358,19 +10368,19 @@
       <c r="AA240" s="18"/>
     </row>
     <row r="241" spans="1:27" ht="17.399999999999999">
-      <c r="A241" s="74"/>
-      <c r="B241" s="64" t="s">
-        <v>252</v>
-      </c>
-      <c r="C241" s="65"/>
+      <c r="A241" s="66"/>
+      <c r="B241" s="62"/>
+      <c r="C241" s="62"/>
       <c r="D241" s="29" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="E241" s="41"/>
       <c r="F241" s="22"/>
       <c r="G241" s="22"/>
       <c r="H241" s="31"/>
-      <c r="I241" s="36"/>
+      <c r="I241" s="39" t="s">
+        <v>237</v>
+      </c>
       <c r="J241" s="18"/>
       <c r="K241" s="18"/>
       <c r="L241" s="18"/>
@@ -10391,11 +10401,13 @@
       <c r="AA241" s="18"/>
     </row>
     <row r="242" spans="1:27" ht="17.399999999999999">
-      <c r="A242" s="74"/>
-      <c r="B242" s="65"/>
-      <c r="C242" s="65"/>
+      <c r="A242" s="66"/>
+      <c r="B242" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="C242" s="62"/>
       <c r="D242" s="29" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E242" s="41"/>
       <c r="F242" s="22"/>
@@ -10422,11 +10434,11 @@
       <c r="AA242" s="18"/>
     </row>
     <row r="243" spans="1:27" ht="17.399999999999999">
-      <c r="A243" s="74"/>
-      <c r="B243" s="65"/>
-      <c r="C243" s="65"/>
+      <c r="A243" s="66"/>
+      <c r="B243" s="62"/>
+      <c r="C243" s="62"/>
       <c r="D243" s="29" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E243" s="41"/>
       <c r="F243" s="22"/>
@@ -10453,11 +10465,11 @@
       <c r="AA243" s="18"/>
     </row>
     <row r="244" spans="1:27" ht="17.399999999999999">
-      <c r="A244" s="74"/>
-      <c r="B244" s="65"/>
-      <c r="C244" s="65"/>
+      <c r="A244" s="66"/>
+      <c r="B244" s="62"/>
+      <c r="C244" s="62"/>
       <c r="D244" s="29" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E244" s="41"/>
       <c r="F244" s="22"/>
@@ -10484,11 +10496,11 @@
       <c r="AA244" s="18"/>
     </row>
     <row r="245" spans="1:27" ht="17.399999999999999">
-      <c r="A245" s="74"/>
-      <c r="B245" s="65"/>
-      <c r="C245" s="65"/>
+      <c r="A245" s="66"/>
+      <c r="B245" s="62"/>
+      <c r="C245" s="62"/>
       <c r="D245" s="29" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E245" s="41"/>
       <c r="F245" s="22"/>
@@ -10515,13 +10527,11 @@
       <c r="AA245" s="18"/>
     </row>
     <row r="246" spans="1:27" ht="17.399999999999999">
-      <c r="A246" s="74"/>
-      <c r="B246" s="64" t="s">
-        <v>258</v>
-      </c>
-      <c r="C246" s="65"/>
+      <c r="A246" s="66"/>
+      <c r="B246" s="62"/>
+      <c r="C246" s="62"/>
       <c r="D246" s="29" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E246" s="41"/>
       <c r="F246" s="22"/>
@@ -10548,11 +10558,11 @@
       <c r="AA246" s="18"/>
     </row>
     <row r="247" spans="1:27" ht="17.399999999999999">
-      <c r="A247" s="74"/>
-      <c r="B247" s="65"/>
-      <c r="C247" s="65"/>
+      <c r="A247" s="66"/>
+      <c r="B247" s="62"/>
+      <c r="C247" s="62"/>
       <c r="D247" s="29" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E247" s="41"/>
       <c r="F247" s="22"/>
@@ -10579,11 +10589,11 @@
       <c r="AA247" s="18"/>
     </row>
     <row r="248" spans="1:27" ht="17.399999999999999">
-      <c r="A248" s="74"/>
-      <c r="B248" s="65"/>
-      <c r="C248" s="65"/>
+      <c r="A248" s="66"/>
+      <c r="B248" s="62"/>
+      <c r="C248" s="62"/>
       <c r="D248" s="29" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E248" s="41"/>
       <c r="F248" s="22"/>
@@ -10610,11 +10620,13 @@
       <c r="AA248" s="18"/>
     </row>
     <row r="249" spans="1:27" ht="17.399999999999999">
-      <c r="A249" s="74"/>
-      <c r="B249" s="65"/>
-      <c r="C249" s="65"/>
+      <c r="A249" s="66"/>
+      <c r="B249" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="C249" s="62"/>
       <c r="D249" s="29" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E249" s="41"/>
       <c r="F249" s="22"/>
@@ -10641,11 +10653,11 @@
       <c r="AA249" s="18"/>
     </row>
     <row r="250" spans="1:27" ht="17.399999999999999">
-      <c r="A250" s="74"/>
-      <c r="B250" s="65"/>
-      <c r="C250" s="65"/>
+      <c r="A250" s="66"/>
+      <c r="B250" s="62"/>
+      <c r="C250" s="62"/>
       <c r="D250" s="29" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E250" s="41"/>
       <c r="F250" s="22"/>
@@ -10672,13 +10684,11 @@
       <c r="AA250" s="18"/>
     </row>
     <row r="251" spans="1:27" ht="17.399999999999999">
-      <c r="A251" s="74"/>
-      <c r="B251" s="76" t="s">
-        <v>264</v>
-      </c>
-      <c r="C251" s="65"/>
+      <c r="A251" s="66"/>
+      <c r="B251" s="62"/>
+      <c r="C251" s="62"/>
       <c r="D251" s="29" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="E251" s="41"/>
       <c r="F251" s="22"/>
@@ -10705,11 +10715,11 @@
       <c r="AA251" s="18"/>
     </row>
     <row r="252" spans="1:27" ht="17.399999999999999">
-      <c r="A252" s="74"/>
-      <c r="B252" s="65"/>
-      <c r="C252" s="65"/>
+      <c r="A252" s="66"/>
+      <c r="B252" s="62"/>
+      <c r="C252" s="62"/>
       <c r="D252" s="29" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E252" s="41"/>
       <c r="F252" s="22"/>
@@ -10736,11 +10746,11 @@
       <c r="AA252" s="18"/>
     </row>
     <row r="253" spans="1:27" ht="17.399999999999999">
-      <c r="A253" s="74"/>
-      <c r="B253" s="65"/>
-      <c r="C253" s="65"/>
+      <c r="A253" s="66"/>
+      <c r="B253" s="62"/>
+      <c r="C253" s="62"/>
       <c r="D253" s="29" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="E253" s="41"/>
       <c r="F253" s="22"/>
@@ -10767,11 +10777,13 @@
       <c r="AA253" s="18"/>
     </row>
     <row r="254" spans="1:27" ht="17.399999999999999">
-      <c r="A254" s="74"/>
-      <c r="B254" s="65"/>
-      <c r="C254" s="65"/>
+      <c r="A254" s="66"/>
+      <c r="B254" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="C254" s="62"/>
       <c r="D254" s="29" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="E254" s="41"/>
       <c r="F254" s="22"/>
@@ -10798,11 +10810,11 @@
       <c r="AA254" s="18"/>
     </row>
     <row r="255" spans="1:27" ht="17.399999999999999">
-      <c r="A255" s="74"/>
-      <c r="B255" s="65"/>
-      <c r="C255" s="65"/>
+      <c r="A255" s="66"/>
+      <c r="B255" s="62"/>
+      <c r="C255" s="62"/>
       <c r="D255" s="29" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E255" s="41"/>
       <c r="F255" s="22"/>
@@ -10829,11 +10841,11 @@
       <c r="AA255" s="18"/>
     </row>
     <row r="256" spans="1:27" ht="17.399999999999999">
-      <c r="A256" s="74"/>
-      <c r="B256" s="65"/>
-      <c r="C256" s="65"/>
+      <c r="A256" s="66"/>
+      <c r="B256" s="62"/>
+      <c r="C256" s="62"/>
       <c r="D256" s="29" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E256" s="41"/>
       <c r="F256" s="22"/>
@@ -10860,11 +10872,11 @@
       <c r="AA256" s="18"/>
     </row>
     <row r="257" spans="1:27" ht="17.399999999999999">
-      <c r="A257" s="74"/>
-      <c r="B257" s="65"/>
-      <c r="C257" s="65"/>
+      <c r="A257" s="66"/>
+      <c r="B257" s="62"/>
+      <c r="C257" s="62"/>
       <c r="D257" s="29" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E257" s="41"/>
       <c r="F257" s="22"/>
@@ -10891,11 +10903,11 @@
       <c r="AA257" s="18"/>
     </row>
     <row r="258" spans="1:27" ht="17.399999999999999">
-      <c r="A258" s="74"/>
-      <c r="B258" s="65"/>
-      <c r="C258" s="65"/>
+      <c r="A258" s="66"/>
+      <c r="B258" s="62"/>
+      <c r="C258" s="62"/>
       <c r="D258" s="29" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E258" s="41"/>
       <c r="F258" s="22"/>
@@ -10921,18 +10933,20 @@
       <c r="Z258" s="18"/>
       <c r="AA258" s="18"/>
     </row>
-    <row r="259" spans="1:27" ht="18" thickBot="1">
-      <c r="A259" s="75"/>
-      <c r="B259" s="86"/>
-      <c r="C259" s="86"/>
-      <c r="D259" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="E259" s="42"/>
-      <c r="F259" s="23"/>
-      <c r="G259" s="23"/>
-      <c r="H259" s="32"/>
-      <c r="I259" s="37"/>
+    <row r="259" spans="1:27" ht="17.399999999999999">
+      <c r="A259" s="66"/>
+      <c r="B259" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="C259" s="62"/>
+      <c r="D259" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="E259" s="41"/>
+      <c r="F259" s="22"/>
+      <c r="G259" s="22"/>
+      <c r="H259" s="31"/>
+      <c r="I259" s="36"/>
       <c r="J259" s="18"/>
       <c r="K259" s="18"/>
       <c r="L259" s="18"/>
@@ -10953,19 +10967,17 @@
       <c r="AA259" s="18"/>
     </row>
     <row r="260" spans="1:27" ht="17.399999999999999">
-      <c r="A260" s="73" t="s">
-        <v>274</v>
-      </c>
-      <c r="B260" s="70"/>
-      <c r="C260" s="70"/>
-      <c r="D260" s="24"/>
-      <c r="E260" s="90" t="s">
-        <v>311</v>
-      </c>
-      <c r="F260" s="91"/>
-      <c r="G260" s="91"/>
-      <c r="H260" s="92"/>
-      <c r="I260" s="38"/>
+      <c r="A260" s="66"/>
+      <c r="B260" s="62"/>
+      <c r="C260" s="62"/>
+      <c r="D260" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="E260" s="41"/>
+      <c r="F260" s="22"/>
+      <c r="G260" s="22"/>
+      <c r="H260" s="31"/>
+      <c r="I260" s="36"/>
       <c r="J260" s="18"/>
       <c r="K260" s="18"/>
       <c r="L260" s="18"/>
@@ -10986,16 +10998,16 @@
       <c r="AA260" s="18"/>
     </row>
     <row r="261" spans="1:27" ht="17.399999999999999">
-      <c r="A261" s="87"/>
-      <c r="B261" s="64"/>
-      <c r="C261" s="64"/>
+      <c r="A261" s="66"/>
+      <c r="B261" s="62"/>
+      <c r="C261" s="62"/>
       <c r="D261" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="E261" s="80"/>
-      <c r="F261" s="81"/>
-      <c r="G261" s="81"/>
-      <c r="H261" s="82"/>
+        <v>261</v>
+      </c>
+      <c r="E261" s="41"/>
+      <c r="F261" s="22"/>
+      <c r="G261" s="22"/>
+      <c r="H261" s="31"/>
       <c r="I261" s="36"/>
       <c r="J261" s="18"/>
       <c r="K261" s="18"/>
@@ -11017,16 +11029,16 @@
       <c r="AA261" s="18"/>
     </row>
     <row r="262" spans="1:27" ht="17.399999999999999">
-      <c r="A262" s="87"/>
-      <c r="B262" s="64"/>
-      <c r="C262" s="64"/>
+      <c r="A262" s="66"/>
+      <c r="B262" s="62"/>
+      <c r="C262" s="62"/>
       <c r="D262" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="E262" s="80"/>
-      <c r="F262" s="81"/>
-      <c r="G262" s="81"/>
-      <c r="H262" s="82"/>
+        <v>262</v>
+      </c>
+      <c r="E262" s="41"/>
+      <c r="F262" s="22"/>
+      <c r="G262" s="22"/>
+      <c r="H262" s="31"/>
       <c r="I262" s="36"/>
       <c r="J262" s="18"/>
       <c r="K262" s="18"/>
@@ -11048,16 +11060,16 @@
       <c r="AA262" s="18"/>
     </row>
     <row r="263" spans="1:27" ht="17.399999999999999">
-      <c r="A263" s="87"/>
-      <c r="B263" s="64"/>
-      <c r="C263" s="64"/>
+      <c r="A263" s="66"/>
+      <c r="B263" s="62"/>
+      <c r="C263" s="62"/>
       <c r="D263" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="E263" s="80"/>
-      <c r="F263" s="81"/>
-      <c r="G263" s="81"/>
-      <c r="H263" s="82"/>
+        <v>263</v>
+      </c>
+      <c r="E263" s="41"/>
+      <c r="F263" s="22"/>
+      <c r="G263" s="22"/>
+      <c r="H263" s="31"/>
       <c r="I263" s="36"/>
       <c r="J263" s="18"/>
       <c r="K263" s="18"/>
@@ -11079,16 +11091,18 @@
       <c r="AA263" s="18"/>
     </row>
     <row r="264" spans="1:27" ht="17.399999999999999">
-      <c r="A264" s="87"/>
-      <c r="B264" s="64"/>
-      <c r="C264" s="64"/>
+      <c r="A264" s="66"/>
+      <c r="B264" s="80" t="s">
+        <v>264</v>
+      </c>
+      <c r="C264" s="62"/>
       <c r="D264" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="E264" s="80"/>
-      <c r="F264" s="81"/>
-      <c r="G264" s="81"/>
-      <c r="H264" s="82"/>
+        <v>265</v>
+      </c>
+      <c r="E264" s="41"/>
+      <c r="F264" s="22"/>
+      <c r="G264" s="22"/>
+      <c r="H264" s="31"/>
       <c r="I264" s="36"/>
       <c r="J264" s="18"/>
       <c r="K264" s="18"/>
@@ -11110,16 +11124,16 @@
       <c r="AA264" s="18"/>
     </row>
     <row r="265" spans="1:27" ht="17.399999999999999">
-      <c r="A265" s="87"/>
-      <c r="B265" s="64"/>
-      <c r="C265" s="64"/>
+      <c r="A265" s="66"/>
+      <c r="B265" s="62"/>
+      <c r="C265" s="62"/>
       <c r="D265" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="E265" s="80"/>
-      <c r="F265" s="81"/>
-      <c r="G265" s="81"/>
-      <c r="H265" s="82"/>
+        <v>266</v>
+      </c>
+      <c r="E265" s="41"/>
+      <c r="F265" s="22"/>
+      <c r="G265" s="22"/>
+      <c r="H265" s="31"/>
       <c r="I265" s="36"/>
       <c r="J265" s="18"/>
       <c r="K265" s="18"/>
@@ -11140,18 +11154,18 @@
       <c r="Z265" s="18"/>
       <c r="AA265" s="18"/>
     </row>
-    <row r="266" spans="1:27" ht="18" thickBot="1">
-      <c r="A266" s="88"/>
-      <c r="B266" s="89"/>
-      <c r="C266" s="89"/>
-      <c r="D266" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="E266" s="83"/>
-      <c r="F266" s="84"/>
-      <c r="G266" s="84"/>
-      <c r="H266" s="85"/>
-      <c r="I266" s="37"/>
+    <row r="266" spans="1:27" ht="17.399999999999999">
+      <c r="A266" s="66"/>
+      <c r="B266" s="62"/>
+      <c r="C266" s="62"/>
+      <c r="D266" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="E266" s="41"/>
+      <c r="F266" s="22"/>
+      <c r="G266" s="22"/>
+      <c r="H266" s="31"/>
+      <c r="I266" s="36"/>
       <c r="J266" s="18"/>
       <c r="K266" s="18"/>
       <c r="L266" s="18"/>
@@ -11171,18 +11185,18 @@
       <c r="Z266" s="18"/>
       <c r="AA266" s="18"/>
     </row>
-    <row r="267" spans="1:27" ht="63.6" customHeight="1" thickBot="1">
-      <c r="A267" s="77" t="s">
-        <v>281</v>
-      </c>
-      <c r="B267" s="78"/>
-      <c r="C267" s="78"/>
-      <c r="D267" s="78"/>
-      <c r="E267" s="78"/>
-      <c r="F267" s="78"/>
-      <c r="G267" s="78"/>
-      <c r="H267" s="78"/>
-      <c r="I267" s="79"/>
+    <row r="267" spans="1:27" ht="17.399999999999999">
+      <c r="A267" s="66"/>
+      <c r="B267" s="62"/>
+      <c r="C267" s="62"/>
+      <c r="D267" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="E267" s="41"/>
+      <c r="F267" s="22"/>
+      <c r="G267" s="22"/>
+      <c r="H267" s="31"/>
+      <c r="I267" s="36"/>
       <c r="J267" s="18"/>
       <c r="K267" s="18"/>
       <c r="L267" s="18"/>
@@ -11203,15 +11217,17 @@
       <c r="AA267" s="18"/>
     </row>
     <row r="268" spans="1:27" ht="17.399999999999999">
-      <c r="A268" s="18"/>
-      <c r="B268" s="18"/>
-      <c r="C268" s="18"/>
-      <c r="D268" s="18"/>
-      <c r="E268" s="18"/>
-      <c r="F268" s="18"/>
-      <c r="G268" s="18"/>
-      <c r="H268" s="18"/>
-      <c r="I268" s="18"/>
+      <c r="A268" s="66"/>
+      <c r="B268" s="62"/>
+      <c r="C268" s="62"/>
+      <c r="D268" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="E268" s="41"/>
+      <c r="F268" s="22"/>
+      <c r="G268" s="22"/>
+      <c r="H268" s="31"/>
+      <c r="I268" s="36"/>
       <c r="J268" s="18"/>
       <c r="K268" s="18"/>
       <c r="L268" s="18"/>
@@ -11232,15 +11248,17 @@
       <c r="AA268" s="18"/>
     </row>
     <row r="269" spans="1:27" ht="17.399999999999999">
-      <c r="A269" s="18"/>
-      <c r="B269" s="18"/>
-      <c r="C269" s="18"/>
-      <c r="D269" s="18"/>
-      <c r="E269" s="18"/>
-      <c r="F269" s="18"/>
-      <c r="G269" s="18"/>
-      <c r="H269" s="18"/>
-      <c r="I269" s="18"/>
+      <c r="A269" s="66"/>
+      <c r="B269" s="62"/>
+      <c r="C269" s="62"/>
+      <c r="D269" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="E269" s="41"/>
+      <c r="F269" s="22"/>
+      <c r="G269" s="22"/>
+      <c r="H269" s="31"/>
+      <c r="I269" s="36"/>
       <c r="J269" s="18"/>
       <c r="K269" s="18"/>
       <c r="L269" s="18"/>
@@ -11261,15 +11279,17 @@
       <c r="AA269" s="18"/>
     </row>
     <row r="270" spans="1:27" ht="17.399999999999999">
-      <c r="A270" s="18"/>
-      <c r="B270" s="18"/>
-      <c r="C270" s="18"/>
-      <c r="D270" s="18"/>
-      <c r="E270" s="18"/>
-      <c r="F270" s="18"/>
-      <c r="G270" s="18"/>
-      <c r="H270" s="18"/>
-      <c r="I270" s="18"/>
+      <c r="A270" s="66"/>
+      <c r="B270" s="62"/>
+      <c r="C270" s="62"/>
+      <c r="D270" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="E270" s="41"/>
+      <c r="F270" s="22"/>
+      <c r="G270" s="22"/>
+      <c r="H270" s="31"/>
+      <c r="I270" s="36"/>
       <c r="J270" s="18"/>
       <c r="K270" s="18"/>
       <c r="L270" s="18"/>
@@ -11290,15 +11310,17 @@
       <c r="AA270" s="18"/>
     </row>
     <row r="271" spans="1:27" ht="17.399999999999999">
-      <c r="A271" s="18"/>
-      <c r="B271" s="18"/>
-      <c r="C271" s="18"/>
-      <c r="D271" s="18"/>
-      <c r="E271" s="18"/>
-      <c r="F271" s="18"/>
-      <c r="G271" s="18"/>
-      <c r="H271" s="18"/>
-      <c r="I271" s="18"/>
+      <c r="A271" s="66"/>
+      <c r="B271" s="62"/>
+      <c r="C271" s="62"/>
+      <c r="D271" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="E271" s="41"/>
+      <c r="F271" s="22"/>
+      <c r="G271" s="22"/>
+      <c r="H271" s="31"/>
+      <c r="I271" s="36"/>
       <c r="J271" s="18"/>
       <c r="K271" s="18"/>
       <c r="L271" s="18"/>
@@ -11318,16 +11340,18 @@
       <c r="Z271" s="18"/>
       <c r="AA271" s="18"/>
     </row>
-    <row r="272" spans="1:27" ht="17.399999999999999">
-      <c r="A272" s="18"/>
-      <c r="B272" s="18"/>
-      <c r="C272" s="18"/>
-      <c r="D272" s="18"/>
-      <c r="E272" s="18"/>
-      <c r="F272" s="18"/>
-      <c r="G272" s="18"/>
-      <c r="H272" s="18"/>
-      <c r="I272" s="18"/>
+    <row r="272" spans="1:27" ht="18" thickBot="1">
+      <c r="A272" s="67"/>
+      <c r="B272" s="64"/>
+      <c r="C272" s="64"/>
+      <c r="D272" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="E272" s="42"/>
+      <c r="F272" s="23"/>
+      <c r="G272" s="23"/>
+      <c r="H272" s="32"/>
+      <c r="I272" s="37"/>
       <c r="J272" s="18"/>
       <c r="K272" s="18"/>
       <c r="L272" s="18"/>
@@ -11348,15 +11372,19 @@
       <c r="AA272" s="18"/>
     </row>
     <row r="273" spans="1:27" ht="17.399999999999999">
-      <c r="A273" s="18"/>
-      <c r="B273" s="18"/>
-      <c r="C273" s="18"/>
-      <c r="D273" s="18"/>
-      <c r="E273" s="18"/>
-      <c r="F273" s="18"/>
-      <c r="G273" s="18"/>
-      <c r="H273" s="18"/>
-      <c r="I273" s="18"/>
+      <c r="A273" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273" s="68"/>
+      <c r="C273" s="68"/>
+      <c r="D273" s="24"/>
+      <c r="E273" s="83" t="s">
+        <v>310</v>
+      </c>
+      <c r="F273" s="84"/>
+      <c r="G273" s="84"/>
+      <c r="H273" s="85"/>
+      <c r="I273" s="38"/>
       <c r="J273" s="18"/>
       <c r="K273" s="18"/>
       <c r="L273" s="18"/>
@@ -11377,15 +11405,17 @@
       <c r="AA273" s="18"/>
     </row>
     <row r="274" spans="1:27" ht="17.399999999999999">
-      <c r="A274" s="18"/>
-      <c r="B274" s="18"/>
-      <c r="C274" s="18"/>
-      <c r="D274" s="18"/>
-      <c r="E274" s="18"/>
-      <c r="F274" s="18"/>
-      <c r="G274" s="18"/>
-      <c r="H274" s="18"/>
-      <c r="I274" s="18"/>
+      <c r="A274" s="81"/>
+      <c r="B274" s="61"/>
+      <c r="C274" s="61"/>
+      <c r="D274" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="E274" s="74"/>
+      <c r="F274" s="75"/>
+      <c r="G274" s="75"/>
+      <c r="H274" s="76"/>
+      <c r="I274" s="36"/>
       <c r="J274" s="18"/>
       <c r="K274" s="18"/>
       <c r="L274" s="18"/>
@@ -11406,15 +11436,17 @@
       <c r="AA274" s="18"/>
     </row>
     <row r="275" spans="1:27" ht="17.399999999999999">
-      <c r="A275" s="18"/>
-      <c r="B275" s="18"/>
-      <c r="C275" s="18"/>
-      <c r="D275" s="18"/>
-      <c r="E275" s="18"/>
-      <c r="F275" s="18"/>
-      <c r="G275" s="18"/>
-      <c r="H275" s="18"/>
-      <c r="I275" s="18"/>
+      <c r="A275" s="81"/>
+      <c r="B275" s="61"/>
+      <c r="C275" s="61"/>
+      <c r="D275" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="E275" s="74"/>
+      <c r="F275" s="75"/>
+      <c r="G275" s="75"/>
+      <c r="H275" s="76"/>
+      <c r="I275" s="36"/>
       <c r="J275" s="18"/>
       <c r="K275" s="18"/>
       <c r="L275" s="18"/>
@@ -11435,15 +11467,17 @@
       <c r="AA275" s="18"/>
     </row>
     <row r="276" spans="1:27" ht="17.399999999999999">
-      <c r="A276" s="18"/>
-      <c r="B276" s="18"/>
-      <c r="C276" s="18"/>
-      <c r="D276" s="18"/>
-      <c r="E276" s="18"/>
-      <c r="F276" s="18"/>
-      <c r="G276" s="18"/>
-      <c r="H276" s="18"/>
-      <c r="I276" s="18"/>
+      <c r="A276" s="81"/>
+      <c r="B276" s="61"/>
+      <c r="C276" s="61"/>
+      <c r="D276" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="E276" s="74"/>
+      <c r="F276" s="75"/>
+      <c r="G276" s="75"/>
+      <c r="H276" s="76"/>
+      <c r="I276" s="36"/>
       <c r="J276" s="18"/>
       <c r="K276" s="18"/>
       <c r="L276" s="18"/>
@@ -11464,15 +11498,17 @@
       <c r="AA276" s="18"/>
     </row>
     <row r="277" spans="1:27" ht="17.399999999999999">
-      <c r="A277" s="18"/>
-      <c r="B277" s="18"/>
-      <c r="C277" s="18"/>
-      <c r="D277" s="18"/>
-      <c r="E277" s="18"/>
-      <c r="F277" s="18"/>
-      <c r="G277" s="18"/>
-      <c r="H277" s="18"/>
-      <c r="I277" s="18"/>
+      <c r="A277" s="81"/>
+      <c r="B277" s="61"/>
+      <c r="C277" s="61"/>
+      <c r="D277" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="E277" s="74"/>
+      <c r="F277" s="75"/>
+      <c r="G277" s="75"/>
+      <c r="H277" s="76"/>
+      <c r="I277" s="36"/>
       <c r="J277" s="18"/>
       <c r="K277" s="18"/>
       <c r="L277" s="18"/>
@@ -11493,15 +11529,17 @@
       <c r="AA277" s="18"/>
     </row>
     <row r="278" spans="1:27" ht="17.399999999999999">
-      <c r="A278" s="18"/>
-      <c r="B278" s="18"/>
-      <c r="C278" s="18"/>
-      <c r="D278" s="18"/>
-      <c r="E278" s="18"/>
-      <c r="F278" s="18"/>
-      <c r="G278" s="18"/>
-      <c r="H278" s="18"/>
-      <c r="I278" s="18"/>
+      <c r="A278" s="81"/>
+      <c r="B278" s="61"/>
+      <c r="C278" s="61"/>
+      <c r="D278" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="E278" s="74"/>
+      <c r="F278" s="75"/>
+      <c r="G278" s="75"/>
+      <c r="H278" s="76"/>
+      <c r="I278" s="36"/>
       <c r="J278" s="18"/>
       <c r="K278" s="18"/>
       <c r="L278" s="18"/>
@@ -11521,16 +11559,18 @@
       <c r="Z278" s="18"/>
       <c r="AA278" s="18"/>
     </row>
-    <row r="279" spans="1:27" ht="17.399999999999999">
-      <c r="A279" s="18"/>
-      <c r="B279" s="18"/>
-      <c r="C279" s="18"/>
-      <c r="D279" s="18"/>
-      <c r="E279" s="18"/>
-      <c r="F279" s="18"/>
-      <c r="G279" s="18"/>
-      <c r="H279" s="18"/>
-      <c r="I279" s="18"/>
+    <row r="279" spans="1:27" ht="18" thickBot="1">
+      <c r="A279" s="82"/>
+      <c r="B279" s="63"/>
+      <c r="C279" s="63"/>
+      <c r="D279" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="E279" s="77"/>
+      <c r="F279" s="78"/>
+      <c r="G279" s="78"/>
+      <c r="H279" s="79"/>
+      <c r="I279" s="37"/>
       <c r="J279" s="18"/>
       <c r="K279" s="18"/>
       <c r="L279" s="18"/>
@@ -11550,16 +11590,18 @@
       <c r="Z279" s="18"/>
       <c r="AA279" s="18"/>
     </row>
-    <row r="280" spans="1:27" ht="17.399999999999999">
-      <c r="A280" s="18"/>
-      <c r="B280" s="18"/>
-      <c r="C280" s="18"/>
-      <c r="D280" s="18"/>
-      <c r="E280" s="18"/>
-      <c r="F280" s="18"/>
-      <c r="G280" s="18"/>
-      <c r="H280" s="18"/>
-      <c r="I280" s="18"/>
+    <row r="280" spans="1:27" ht="75" customHeight="1" thickBot="1">
+      <c r="A280" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="B280" s="72"/>
+      <c r="C280" s="72"/>
+      <c r="D280" s="72"/>
+      <c r="E280" s="72"/>
+      <c r="F280" s="72"/>
+      <c r="G280" s="72"/>
+      <c r="H280" s="72"/>
+      <c r="I280" s="73"/>
       <c r="J280" s="18"/>
       <c r="K280" s="18"/>
       <c r="L280" s="18"/>
@@ -13783,56 +13825,385 @@
       <c r="Z356" s="18"/>
       <c r="AA356" s="18"/>
     </row>
+    <row r="357" spans="1:27" ht="17.399999999999999">
+      <c r="A357" s="18"/>
+      <c r="B357" s="18"/>
+      <c r="C357" s="18"/>
+      <c r="D357" s="18"/>
+      <c r="E357" s="18"/>
+      <c r="F357" s="18"/>
+      <c r="G357" s="18"/>
+      <c r="H357" s="18"/>
+      <c r="I357" s="18"/>
+      <c r="J357" s="18"/>
+      <c r="K357" s="18"/>
+      <c r="L357" s="18"/>
+      <c r="M357" s="18"/>
+      <c r="N357" s="18"/>
+      <c r="O357" s="18"/>
+      <c r="P357" s="18"/>
+      <c r="Q357" s="18"/>
+      <c r="R357" s="18"/>
+      <c r="S357" s="18"/>
+      <c r="T357" s="18"/>
+      <c r="U357" s="18"/>
+      <c r="V357" s="18"/>
+      <c r="W357" s="18"/>
+      <c r="X357" s="18"/>
+      <c r="Y357" s="18"/>
+      <c r="Z357" s="18"/>
+      <c r="AA357" s="18"/>
+    </row>
+    <row r="358" spans="1:27" ht="17.399999999999999">
+      <c r="A358" s="18"/>
+      <c r="B358" s="18"/>
+      <c r="C358" s="18"/>
+      <c r="D358" s="18"/>
+      <c r="E358" s="18"/>
+      <c r="F358" s="18"/>
+      <c r="G358" s="18"/>
+      <c r="H358" s="18"/>
+      <c r="I358" s="18"/>
+      <c r="J358" s="18"/>
+      <c r="K358" s="18"/>
+      <c r="L358" s="18"/>
+      <c r="M358" s="18"/>
+      <c r="N358" s="18"/>
+      <c r="O358" s="18"/>
+      <c r="P358" s="18"/>
+      <c r="Q358" s="18"/>
+      <c r="R358" s="18"/>
+      <c r="S358" s="18"/>
+      <c r="T358" s="18"/>
+      <c r="U358" s="18"/>
+      <c r="V358" s="18"/>
+      <c r="W358" s="18"/>
+      <c r="X358" s="18"/>
+      <c r="Y358" s="18"/>
+      <c r="Z358" s="18"/>
+      <c r="AA358" s="18"/>
+    </row>
+    <row r="359" spans="1:27" ht="17.399999999999999">
+      <c r="A359" s="18"/>
+      <c r="B359" s="18"/>
+      <c r="C359" s="18"/>
+      <c r="D359" s="18"/>
+      <c r="E359" s="18"/>
+      <c r="F359" s="18"/>
+      <c r="G359" s="18"/>
+      <c r="H359" s="18"/>
+      <c r="I359" s="18"/>
+      <c r="J359" s="18"/>
+      <c r="K359" s="18"/>
+      <c r="L359" s="18"/>
+      <c r="M359" s="18"/>
+      <c r="N359" s="18"/>
+      <c r="O359" s="18"/>
+      <c r="P359" s="18"/>
+      <c r="Q359" s="18"/>
+      <c r="R359" s="18"/>
+      <c r="S359" s="18"/>
+      <c r="T359" s="18"/>
+      <c r="U359" s="18"/>
+      <c r="V359" s="18"/>
+      <c r="W359" s="18"/>
+      <c r="X359" s="18"/>
+      <c r="Y359" s="18"/>
+      <c r="Z359" s="18"/>
+      <c r="AA359" s="18"/>
+    </row>
+    <row r="360" spans="1:27" ht="17.399999999999999">
+      <c r="A360" s="18"/>
+      <c r="B360" s="18"/>
+      <c r="C360" s="18"/>
+      <c r="D360" s="18"/>
+      <c r="E360" s="18"/>
+      <c r="F360" s="18"/>
+      <c r="G360" s="18"/>
+      <c r="H360" s="18"/>
+      <c r="I360" s="18"/>
+      <c r="J360" s="18"/>
+      <c r="K360" s="18"/>
+      <c r="L360" s="18"/>
+      <c r="M360" s="18"/>
+      <c r="N360" s="18"/>
+      <c r="O360" s="18"/>
+      <c r="P360" s="18"/>
+      <c r="Q360" s="18"/>
+      <c r="R360" s="18"/>
+      <c r="S360" s="18"/>
+      <c r="T360" s="18"/>
+      <c r="U360" s="18"/>
+      <c r="V360" s="18"/>
+      <c r="W360" s="18"/>
+      <c r="X360" s="18"/>
+      <c r="Y360" s="18"/>
+      <c r="Z360" s="18"/>
+      <c r="AA360" s="18"/>
+    </row>
+    <row r="361" spans="1:27" ht="17.399999999999999">
+      <c r="A361" s="18"/>
+      <c r="B361" s="18"/>
+      <c r="C361" s="18"/>
+      <c r="D361" s="18"/>
+      <c r="E361" s="18"/>
+      <c r="F361" s="18"/>
+      <c r="G361" s="18"/>
+      <c r="H361" s="18"/>
+      <c r="I361" s="18"/>
+      <c r="J361" s="18"/>
+      <c r="K361" s="18"/>
+      <c r="L361" s="18"/>
+      <c r="M361" s="18"/>
+      <c r="N361" s="18"/>
+      <c r="O361" s="18"/>
+      <c r="P361" s="18"/>
+      <c r="Q361" s="18"/>
+      <c r="R361" s="18"/>
+      <c r="S361" s="18"/>
+      <c r="T361" s="18"/>
+      <c r="U361" s="18"/>
+      <c r="V361" s="18"/>
+      <c r="W361" s="18"/>
+      <c r="X361" s="18"/>
+      <c r="Y361" s="18"/>
+      <c r="Z361" s="18"/>
+      <c r="AA361" s="18"/>
+    </row>
+    <row r="362" spans="1:27" ht="17.399999999999999">
+      <c r="A362" s="18"/>
+      <c r="B362" s="18"/>
+      <c r="C362" s="18"/>
+      <c r="D362" s="18"/>
+      <c r="E362" s="18"/>
+      <c r="F362" s="18"/>
+      <c r="G362" s="18"/>
+      <c r="H362" s="18"/>
+      <c r="I362" s="18"/>
+      <c r="J362" s="18"/>
+      <c r="K362" s="18"/>
+      <c r="L362" s="18"/>
+      <c r="M362" s="18"/>
+      <c r="N362" s="18"/>
+      <c r="O362" s="18"/>
+      <c r="P362" s="18"/>
+      <c r="Q362" s="18"/>
+      <c r="R362" s="18"/>
+      <c r="S362" s="18"/>
+      <c r="T362" s="18"/>
+      <c r="U362" s="18"/>
+      <c r="V362" s="18"/>
+      <c r="W362" s="18"/>
+      <c r="X362" s="18"/>
+      <c r="Y362" s="18"/>
+      <c r="Z362" s="18"/>
+      <c r="AA362" s="18"/>
+    </row>
+    <row r="363" spans="1:27" ht="17.399999999999999">
+      <c r="A363" s="18"/>
+      <c r="B363" s="18"/>
+      <c r="C363" s="18"/>
+      <c r="D363" s="18"/>
+      <c r="E363" s="18"/>
+      <c r="F363" s="18"/>
+      <c r="G363" s="18"/>
+      <c r="H363" s="18"/>
+      <c r="I363" s="18"/>
+      <c r="J363" s="18"/>
+      <c r="K363" s="18"/>
+      <c r="L363" s="18"/>
+      <c r="M363" s="18"/>
+      <c r="N363" s="18"/>
+      <c r="O363" s="18"/>
+      <c r="P363" s="18"/>
+      <c r="Q363" s="18"/>
+      <c r="R363" s="18"/>
+      <c r="S363" s="18"/>
+      <c r="T363" s="18"/>
+      <c r="U363" s="18"/>
+      <c r="V363" s="18"/>
+      <c r="W363" s="18"/>
+      <c r="X363" s="18"/>
+      <c r="Y363" s="18"/>
+      <c r="Z363" s="18"/>
+      <c r="AA363" s="18"/>
+    </row>
+    <row r="364" spans="1:27" ht="17.399999999999999">
+      <c r="A364" s="18"/>
+      <c r="B364" s="18"/>
+      <c r="C364" s="18"/>
+      <c r="D364" s="18"/>
+      <c r="E364" s="18"/>
+      <c r="F364" s="18"/>
+      <c r="G364" s="18"/>
+      <c r="H364" s="18"/>
+      <c r="I364" s="18"/>
+      <c r="J364" s="18"/>
+      <c r="K364" s="18"/>
+      <c r="L364" s="18"/>
+      <c r="M364" s="18"/>
+      <c r="N364" s="18"/>
+      <c r="O364" s="18"/>
+      <c r="P364" s="18"/>
+      <c r="Q364" s="18"/>
+      <c r="R364" s="18"/>
+      <c r="S364" s="18"/>
+      <c r="T364" s="18"/>
+      <c r="U364" s="18"/>
+      <c r="V364" s="18"/>
+      <c r="W364" s="18"/>
+      <c r="X364" s="18"/>
+      <c r="Y364" s="18"/>
+      <c r="Z364" s="18"/>
+      <c r="AA364" s="18"/>
+    </row>
+    <row r="365" spans="1:27" ht="17.399999999999999">
+      <c r="A365" s="18"/>
+      <c r="B365" s="18"/>
+      <c r="C365" s="18"/>
+      <c r="D365" s="18"/>
+      <c r="E365" s="18"/>
+      <c r="F365" s="18"/>
+      <c r="G365" s="18"/>
+      <c r="H365" s="18"/>
+      <c r="I365" s="18"/>
+      <c r="J365" s="18"/>
+      <c r="K365" s="18"/>
+      <c r="L365" s="18"/>
+      <c r="M365" s="18"/>
+      <c r="N365" s="18"/>
+      <c r="O365" s="18"/>
+      <c r="P365" s="18"/>
+      <c r="Q365" s="18"/>
+      <c r="R365" s="18"/>
+      <c r="S365" s="18"/>
+      <c r="T365" s="18"/>
+      <c r="U365" s="18"/>
+      <c r="V365" s="18"/>
+      <c r="W365" s="18"/>
+      <c r="X365" s="18"/>
+      <c r="Y365" s="18"/>
+      <c r="Z365" s="18"/>
+      <c r="AA365" s="18"/>
+    </row>
+    <row r="366" spans="1:27" ht="17.399999999999999">
+      <c r="A366" s="18"/>
+      <c r="B366" s="18"/>
+      <c r="C366" s="18"/>
+      <c r="D366" s="18"/>
+      <c r="E366" s="18"/>
+      <c r="F366" s="18"/>
+      <c r="G366" s="18"/>
+      <c r="H366" s="18"/>
+      <c r="I366" s="18"/>
+      <c r="J366" s="18"/>
+      <c r="K366" s="18"/>
+      <c r="L366" s="18"/>
+      <c r="M366" s="18"/>
+      <c r="N366" s="18"/>
+      <c r="O366" s="18"/>
+      <c r="P366" s="18"/>
+      <c r="Q366" s="18"/>
+      <c r="R366" s="18"/>
+      <c r="S366" s="18"/>
+      <c r="T366" s="18"/>
+      <c r="U366" s="18"/>
+      <c r="V366" s="18"/>
+      <c r="W366" s="18"/>
+      <c r="X366" s="18"/>
+      <c r="Y366" s="18"/>
+      <c r="Z366" s="18"/>
+      <c r="AA366" s="18"/>
+    </row>
+    <row r="367" spans="1:27" ht="17.399999999999999">
+      <c r="A367" s="18"/>
+      <c r="B367" s="18"/>
+      <c r="C367" s="18"/>
+      <c r="D367" s="18"/>
+      <c r="E367" s="18"/>
+      <c r="F367" s="18"/>
+      <c r="G367" s="18"/>
+      <c r="H367" s="18"/>
+      <c r="I367" s="18"/>
+      <c r="J367" s="18"/>
+      <c r="K367" s="18"/>
+      <c r="L367" s="18"/>
+      <c r="M367" s="18"/>
+      <c r="N367" s="18"/>
+      <c r="O367" s="18"/>
+      <c r="P367" s="18"/>
+      <c r="Q367" s="18"/>
+      <c r="R367" s="18"/>
+      <c r="S367" s="18"/>
+      <c r="T367" s="18"/>
+      <c r="U367" s="18"/>
+      <c r="V367" s="18"/>
+      <c r="W367" s="18"/>
+      <c r="X367" s="18"/>
+      <c r="Y367" s="18"/>
+      <c r="Z367" s="18"/>
+      <c r="AA367" s="18"/>
+    </row>
+    <row r="368" spans="1:27" ht="17.399999999999999">
+      <c r="A368" s="18"/>
+      <c r="B368" s="18"/>
+      <c r="C368" s="18"/>
+      <c r="D368" s="18"/>
+      <c r="E368" s="18"/>
+      <c r="F368" s="18"/>
+      <c r="G368" s="18"/>
+      <c r="H368" s="18"/>
+      <c r="I368" s="18"/>
+      <c r="J368" s="18"/>
+      <c r="K368" s="18"/>
+      <c r="L368" s="18"/>
+      <c r="M368" s="18"/>
+      <c r="N368" s="18"/>
+      <c r="O368" s="18"/>
+      <c r="P368" s="18"/>
+      <c r="Q368" s="18"/>
+      <c r="R368" s="18"/>
+      <c r="S368" s="18"/>
+      <c r="T368" s="18"/>
+      <c r="U368" s="18"/>
+      <c r="V368" s="18"/>
+      <c r="W368" s="18"/>
+      <c r="X368" s="18"/>
+      <c r="Y368" s="18"/>
+      <c r="Z368" s="18"/>
+      <c r="AA368" s="18"/>
+    </row>
+    <row r="369" spans="1:27" ht="17.399999999999999">
+      <c r="A369" s="18"/>
+      <c r="B369" s="18"/>
+      <c r="C369" s="18"/>
+      <c r="D369" s="18"/>
+      <c r="E369" s="18"/>
+      <c r="F369" s="18"/>
+      <c r="G369" s="18"/>
+      <c r="H369" s="18"/>
+      <c r="I369" s="18"/>
+      <c r="J369" s="18"/>
+      <c r="K369" s="18"/>
+      <c r="L369" s="18"/>
+      <c r="M369" s="18"/>
+      <c r="N369" s="18"/>
+      <c r="O369" s="18"/>
+      <c r="P369" s="18"/>
+      <c r="Q369" s="18"/>
+      <c r="R369" s="18"/>
+      <c r="S369" s="18"/>
+      <c r="T369" s="18"/>
+      <c r="U369" s="18"/>
+      <c r="V369" s="18"/>
+      <c r="W369" s="18"/>
+      <c r="X369" s="18"/>
+      <c r="Y369" s="18"/>
+      <c r="Z369" s="18"/>
+      <c r="AA369" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B97:B103"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="A105:A259"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C195:C207"/>
-    <mergeCell ref="B138:C168"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="C123:C128"/>
-    <mergeCell ref="A267:I267"/>
-    <mergeCell ref="E265:H265"/>
-    <mergeCell ref="E266:H266"/>
-    <mergeCell ref="C169:C181"/>
-    <mergeCell ref="B169:B207"/>
-    <mergeCell ref="C182:C194"/>
-    <mergeCell ref="B251:C259"/>
-    <mergeCell ref="A260:C266"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="C225:C228"/>
-    <mergeCell ref="E260:H260"/>
-    <mergeCell ref="E261:H261"/>
-    <mergeCell ref="E262:H262"/>
-    <mergeCell ref="E263:H263"/>
-    <mergeCell ref="E264:H264"/>
-    <mergeCell ref="B241:C245"/>
-    <mergeCell ref="B246:C250"/>
-    <mergeCell ref="B28:B62"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="B229:C235"/>
-    <mergeCell ref="C131:C136"/>
-    <mergeCell ref="B106:B137"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="B236:C240"/>
-    <mergeCell ref="C208:C212"/>
-    <mergeCell ref="B208:B228"/>
-    <mergeCell ref="C213:C218"/>
-    <mergeCell ref="C221:C224"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C46:C53"/>
+  <mergeCells count="65">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C115:C117"/>
@@ -13849,6 +14220,55 @@
     <mergeCell ref="C74:C84"/>
     <mergeCell ref="C86:C87"/>
     <mergeCell ref="C108:C109"/>
+    <mergeCell ref="B28:B62"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="B242:C248"/>
+    <mergeCell ref="C131:C136"/>
+    <mergeCell ref="B106:B137"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C221:C225"/>
+    <mergeCell ref="B221:B241"/>
+    <mergeCell ref="C226:C231"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C46:C53"/>
+    <mergeCell ref="C182:C194"/>
+    <mergeCell ref="A280:I280"/>
+    <mergeCell ref="E278:H278"/>
+    <mergeCell ref="E279:H279"/>
+    <mergeCell ref="C169:C181"/>
+    <mergeCell ref="B169:B220"/>
+    <mergeCell ref="C195:C207"/>
+    <mergeCell ref="B264:C272"/>
+    <mergeCell ref="A273:C279"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="E273:H273"/>
+    <mergeCell ref="E274:H274"/>
+    <mergeCell ref="E275:H275"/>
+    <mergeCell ref="E276:H276"/>
+    <mergeCell ref="E277:H277"/>
+    <mergeCell ref="B254:C258"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="A105:A272"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C208:C220"/>
+    <mergeCell ref="B138:C168"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C118:C122"/>
+    <mergeCell ref="C123:C128"/>
+    <mergeCell ref="B259:C263"/>
+    <mergeCell ref="B249:C253"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B97:B103"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:C103"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BDSM-Basic.xlsx
+++ b/BDSM-Basic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\XP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96D9E8F-7BD2-478C-BCBC-AFD4DF1D10EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAD9BFA-031E-42E4-B6BB-D10EC8842064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="322">
   <si>
     <t>分类1</t>
   </si>
@@ -977,10 +977,6 @@
   </si>
   <si>
     <t>电击手环/脚镣</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜好程度</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1217,10 +1213,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>XP统计表-BDSM基础版    ver1.0.0    220817</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>制作不易，请关注我！！
 推特：@xiyumomo02
 github：https://github.com/XiyuMomo
@@ -1231,12 +1223,32 @@
     <t>私家车内</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>作为攻方时的喜好程度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为受方时的喜好程度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为攻时是否有经验</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为受时是否有经验</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>XP统计表-BDSM基础版    ver1.0.1    220817</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1380,6 +1392,26 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1434,7 +1466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1996,13 +2028,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2073,9 +2179,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2186,81 +2289,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2279,6 +2307,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2290,6 +2324,120 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2628,33 +2776,33 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="49"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="5" t="s">
         <v>283</v>
       </c>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="50"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="7" t="s">
         <v>284</v>
       </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="16.2" thickBot="1">
-      <c r="A4" s="51"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="9" t="s">
         <v>285</v>
       </c>
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="16.2" thickBot="1">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="54" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2663,54 +2811,54 @@
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="56"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="7" t="s">
         <v>288</v>
       </c>
       <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="56"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="7" t="s">
         <v>289</v>
       </c>
       <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="56"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="7" t="s">
         <v>290</v>
       </c>
       <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="56"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="7" t="s">
         <v>291</v>
       </c>
       <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="56"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="7" t="s">
         <v>292</v>
       </c>
       <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="16.2" thickBot="1">
-      <c r="A12" s="57"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="9" t="s">
         <v>293</v>
       </c>
       <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:3" ht="16.2" thickBot="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="54" t="s">
         <v>294</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2719,42 +2867,42 @@
       <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="7" t="s">
         <v>296</v>
       </c>
       <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="56"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="7" t="s">
         <v>297</v>
       </c>
       <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="56"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="7" t="s">
         <v>298</v>
       </c>
       <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="56"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="7" t="s">
         <v>299</v>
       </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="56"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="7" t="s">
         <v>292</v>
       </c>
       <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" ht="16.2" thickBot="1">
-      <c r="A20" s="57"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="9" t="s">
         <v>293</v>
       </c>
@@ -2779,8 +2927,8 @@
   <dimension ref="A1:AA369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F195" sqref="F195"/>
+      <pane ySplit="3" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G267" sqref="G267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2798,17 +2946,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.600000000000001" thickBot="1">
-      <c r="A1" s="86" t="s">
-        <v>316</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88"/>
+      <c r="A1" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
@@ -2829,17 +2977,17 @@
       <c r="AA1" s="18"/>
     </row>
     <row r="2" spans="1:27" ht="36" customHeight="1" thickBot="1">
-      <c r="A2" s="89" t="s">
-        <v>311</v>
-      </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="91"/>
+      <c r="A2" s="63" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
@@ -2860,25 +3008,25 @@
       <c r="AA2" s="18"/>
     </row>
     <row r="3" spans="1:27" ht="18" thickBot="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="34" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="33" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="18"/>
@@ -2901,26 +3049,26 @@
       <c r="AA3" s="18"/>
     </row>
     <row r="4" spans="1:27" ht="17.399999999999999">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="40" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>312</v>
+      <c r="I4" s="34" t="s">
+        <v>311</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
@@ -2942,19 +3090,19 @@
       <c r="AA4" s="18"/>
     </row>
     <row r="5" spans="1:27" ht="17.399999999999999">
-      <c r="A5" s="66"/>
-      <c r="B5" s="80" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="41"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="36"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
@@ -2975,17 +3123,17 @@
       <c r="AA5" s="18"/>
     </row>
     <row r="6" spans="1:27" ht="17.399999999999999">
-      <c r="A6" s="66"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="29" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="41"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="36"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
@@ -3006,17 +3154,17 @@
       <c r="AA6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="17.399999999999999">
-      <c r="A7" s="66"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="29" t="s">
+      <c r="A7" s="76"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="36"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -3037,17 +3185,17 @@
       <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="1:27" ht="17.399999999999999">
-      <c r="A8" s="66"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="29" t="s">
+      <c r="A8" s="76"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="36"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
@@ -3068,17 +3216,17 @@
       <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="1:27" ht="17.399999999999999">
-      <c r="A9" s="66"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="29" t="s">
+      <c r="A9" s="76"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="41"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="36"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
@@ -3099,17 +3247,17 @@
       <c r="AA9" s="18"/>
     </row>
     <row r="10" spans="1:27" ht="17.399999999999999">
-      <c r="A10" s="66"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="29" t="s">
+      <c r="A10" s="76"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="41"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="36"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -3130,17 +3278,17 @@
       <c r="AA10" s="18"/>
     </row>
     <row r="11" spans="1:27" ht="17.399999999999999">
-      <c r="A11" s="66"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="29" t="s">
+      <c r="A11" s="76"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="41"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="36"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
@@ -3161,17 +3309,17 @@
       <c r="AA11" s="18"/>
     </row>
     <row r="12" spans="1:27" ht="17.399999999999999">
-      <c r="A12" s="66"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="29" t="s">
+      <c r="A12" s="76"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="41"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="36"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -3192,17 +3340,17 @@
       <c r="AA12" s="18"/>
     </row>
     <row r="13" spans="1:27" ht="17.399999999999999">
-      <c r="A13" s="66"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="29" t="s">
+      <c r="A13" s="76"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="36"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
@@ -3223,17 +3371,17 @@
       <c r="AA13" s="18"/>
     </row>
     <row r="14" spans="1:27" ht="17.399999999999999">
-      <c r="A14" s="66"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="29" t="s">
+      <c r="A14" s="76"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="41"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="36"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -3254,17 +3402,17 @@
       <c r="AA14" s="18"/>
     </row>
     <row r="15" spans="1:27" ht="17.399999999999999">
-      <c r="A15" s="66"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="29" t="s">
+      <c r="A15" s="76"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="41"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="36"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
@@ -3285,17 +3433,17 @@
       <c r="AA15" s="18"/>
     </row>
     <row r="16" spans="1:27" ht="17.399999999999999">
-      <c r="A16" s="66"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="29" t="s">
+      <c r="A16" s="76"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="41"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="36"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
@@ -3316,17 +3464,17 @@
       <c r="AA16" s="18"/>
     </row>
     <row r="17" spans="1:27" ht="17.399999999999999">
-      <c r="A17" s="66"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="29" t="s">
+      <c r="A17" s="76"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="36"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="35"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
@@ -3347,17 +3495,17 @@
       <c r="AA17" s="18"/>
     </row>
     <row r="18" spans="1:27" ht="17.399999999999999">
-      <c r="A18" s="66"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="29" t="s">
+      <c r="A18" s="76"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="41"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="36"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
@@ -3378,17 +3526,17 @@
       <c r="AA18" s="18"/>
     </row>
     <row r="19" spans="1:27" ht="17.399999999999999">
-      <c r="A19" s="66"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="29" t="s">
+      <c r="A19" s="76"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="41"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="36"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
@@ -3409,17 +3557,17 @@
       <c r="AA19" s="18"/>
     </row>
     <row r="20" spans="1:27" ht="17.399999999999999">
-      <c r="A20" s="66"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="29" t="s">
+      <c r="A20" s="76"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="41"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="36"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="35"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
@@ -3440,17 +3588,17 @@
       <c r="AA20" s="18"/>
     </row>
     <row r="21" spans="1:27" ht="17.399999999999999">
-      <c r="A21" s="66"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="29" t="s">
+      <c r="A21" s="76"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="41"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="36"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
@@ -3471,17 +3619,17 @@
       <c r="AA21" s="18"/>
     </row>
     <row r="22" spans="1:27" ht="17.399999999999999">
-      <c r="A22" s="66"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="29" t="s">
+      <c r="A22" s="76"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="41"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="36"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
@@ -3502,17 +3650,17 @@
       <c r="AA22" s="18"/>
     </row>
     <row r="23" spans="1:27" ht="17.399999999999999">
-      <c r="A23" s="66"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="29" t="s">
+      <c r="A23" s="76"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="41"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="36"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
@@ -3533,17 +3681,17 @@
       <c r="AA23" s="18"/>
     </row>
     <row r="24" spans="1:27" ht="17.399999999999999">
-      <c r="A24" s="66"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="29" t="s">
+      <c r="A24" s="76"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="41"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="36"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="35"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
@@ -3564,17 +3712,17 @@
       <c r="AA24" s="18"/>
     </row>
     <row r="25" spans="1:27" ht="17.399999999999999">
-      <c r="A25" s="66"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="29" t="s">
+      <c r="A25" s="76"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="41"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="36"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
@@ -3595,17 +3743,17 @@
       <c r="AA25" s="18"/>
     </row>
     <row r="26" spans="1:27" ht="17.399999999999999">
-      <c r="A26" s="66"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="29" t="s">
+      <c r="A26" s="76"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="41"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="36"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="35"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
@@ -3626,17 +3774,17 @@
       <c r="AA26" s="18"/>
     </row>
     <row r="27" spans="1:27" ht="17.399999999999999">
-      <c r="A27" s="66"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="29" t="s">
+      <c r="A27" s="76"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="41"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="36"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
@@ -3657,21 +3805,21 @@
       <c r="AA27" s="18"/>
     </row>
     <row r="28" spans="1:27" ht="17.399999999999999">
-      <c r="A28" s="66"/>
-      <c r="B28" s="80" t="s">
+      <c r="A28" s="76"/>
+      <c r="B28" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="41"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="36"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="35"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
@@ -3692,17 +3840,17 @@
       <c r="AA28" s="18"/>
     </row>
     <row r="29" spans="1:27" ht="17.399999999999999">
-      <c r="A29" s="66"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="29" t="s">
+      <c r="A29" s="76"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="41"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="36"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
@@ -3723,17 +3871,17 @@
       <c r="AA29" s="18"/>
     </row>
     <row r="30" spans="1:27" ht="17.399999999999999">
-      <c r="A30" s="66"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="29" t="s">
+      <c r="A30" s="76"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="E30" s="41"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="36"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="35"/>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
@@ -3754,17 +3902,17 @@
       <c r="AA30" s="18"/>
     </row>
     <row r="31" spans="1:27" ht="17.399999999999999">
-      <c r="A31" s="66"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="29" t="s">
+      <c r="A31" s="76"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="41"/>
+      <c r="E31" s="40"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="36"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
@@ -3785,17 +3933,17 @@
       <c r="AA31" s="18"/>
     </row>
     <row r="32" spans="1:27" ht="17.399999999999999">
-      <c r="A32" s="66"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="29" t="s">
+      <c r="A32" s="76"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="41"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="36"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="35"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
@@ -3816,19 +3964,19 @@
       <c r="AA32" s="18"/>
     </row>
     <row r="33" spans="1:27" ht="17.399999999999999">
-      <c r="A33" s="66"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="61" t="s">
+      <c r="A33" s="76"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="41"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="36"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
@@ -3849,17 +3997,17 @@
       <c r="AA33" s="18"/>
     </row>
     <row r="34" spans="1:27" ht="17.399999999999999">
-      <c r="A34" s="66"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="29" t="s">
+      <c r="A34" s="76"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="41"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="36"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="35"/>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
@@ -3880,17 +4028,17 @@
       <c r="AA34" s="18"/>
     </row>
     <row r="35" spans="1:27" ht="17.399999999999999">
-      <c r="A35" s="66"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="29" t="s">
+      <c r="A35" s="76"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="41"/>
+      <c r="E35" s="40"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="36"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
@@ -3911,19 +4059,19 @@
       <c r="AA35" s="18"/>
     </row>
     <row r="36" spans="1:27" ht="17.399999999999999">
-      <c r="A36" s="66"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="61" t="s">
+      <c r="A36" s="76"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="41"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="36"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="35"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
@@ -3944,17 +4092,17 @@
       <c r="AA36" s="18"/>
     </row>
     <row r="37" spans="1:27" ht="17.399999999999999">
-      <c r="A37" s="66"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="29" t="s">
+      <c r="A37" s="76"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="41"/>
+      <c r="E37" s="40"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="36"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="35"/>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
@@ -3975,17 +4123,17 @@
       <c r="AA37" s="18"/>
     </row>
     <row r="38" spans="1:27" ht="17.399999999999999">
-      <c r="A38" s="66"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="29" t="s">
+      <c r="A38" s="76"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="41"/>
+      <c r="E38" s="40"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="36"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="35"/>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
@@ -4006,17 +4154,17 @@
       <c r="AA38" s="18"/>
     </row>
     <row r="39" spans="1:27" ht="17.399999999999999">
-      <c r="A39" s="66"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="29" t="s">
+      <c r="A39" s="76"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="41"/>
+      <c r="E39" s="40"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="36"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="35"/>
       <c r="J39" s="18"/>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
@@ -4037,19 +4185,19 @@
       <c r="AA39" s="18"/>
     </row>
     <row r="40" spans="1:27" ht="17.399999999999999">
-      <c r="A40" s="66"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="61" t="s">
+      <c r="A40" s="76"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="41"/>
+      <c r="E40" s="40"/>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="36"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="35"/>
       <c r="J40" s="18"/>
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
@@ -4070,17 +4218,17 @@
       <c r="AA40" s="18"/>
     </row>
     <row r="41" spans="1:27" ht="17.399999999999999">
-      <c r="A41" s="66"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="29" t="s">
+      <c r="A41" s="76"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="41"/>
+      <c r="E41" s="40"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="36"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="35"/>
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
@@ -4101,17 +4249,17 @@
       <c r="AA41" s="18"/>
     </row>
     <row r="42" spans="1:27" ht="17.399999999999999">
-      <c r="A42" s="66"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="29" t="s">
+      <c r="A42" s="76"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="41"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="36"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="35"/>
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
@@ -4132,19 +4280,19 @@
       <c r="AA42" s="18"/>
     </row>
     <row r="43" spans="1:27" ht="17.399999999999999">
-      <c r="A43" s="66"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="61" t="s">
+      <c r="A43" s="76"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="41"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="36"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="35"/>
       <c r="J43" s="18"/>
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
@@ -4165,17 +4313,17 @@
       <c r="AA43" s="18"/>
     </row>
     <row r="44" spans="1:27" ht="17.399999999999999">
-      <c r="A44" s="66"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="29" t="s">
+      <c r="A44" s="76"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="41"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="36"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="35"/>
       <c r="J44" s="18"/>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
@@ -4196,17 +4344,17 @@
       <c r="AA44" s="18"/>
     </row>
     <row r="45" spans="1:27" ht="17.399999999999999">
-      <c r="A45" s="66"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="29" t="s">
+      <c r="A45" s="76"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="41"/>
+      <c r="E45" s="40"/>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="36"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="35"/>
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
@@ -4227,19 +4375,19 @@
       <c r="AA45" s="18"/>
     </row>
     <row r="46" spans="1:27" ht="17.399999999999999">
-      <c r="A46" s="66"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="61" t="s">
+      <c r="A46" s="76"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="41"/>
+      <c r="E46" s="40"/>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="36"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="35"/>
       <c r="J46" s="18"/>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
@@ -4260,17 +4408,17 @@
       <c r="AA46" s="18"/>
     </row>
     <row r="47" spans="1:27" ht="17.399999999999999">
-      <c r="A47" s="66"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="29" t="s">
+      <c r="A47" s="76"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="41"/>
+      <c r="E47" s="40"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="36"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="35"/>
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
@@ -4291,17 +4439,17 @@
       <c r="AA47" s="18"/>
     </row>
     <row r="48" spans="1:27" ht="17.399999999999999">
-      <c r="A48" s="66"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="29" t="s">
+      <c r="A48" s="76"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="41"/>
+      <c r="E48" s="40"/>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="36"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="35"/>
       <c r="J48" s="18"/>
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
@@ -4322,17 +4470,17 @@
       <c r="AA48" s="18"/>
     </row>
     <row r="49" spans="1:27" ht="17.399999999999999">
-      <c r="A49" s="66"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="29" t="s">
+      <c r="A49" s="76"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="41"/>
+      <c r="E49" s="40"/>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="36"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="35"/>
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
@@ -4353,17 +4501,17 @@
       <c r="AA49" s="18"/>
     </row>
     <row r="50" spans="1:27" ht="17.399999999999999">
-      <c r="A50" s="66"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="29" t="s">
+      <c r="A50" s="76"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="41"/>
+      <c r="E50" s="40"/>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="36"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="35"/>
       <c r="J50" s="18"/>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
@@ -4384,17 +4532,17 @@
       <c r="AA50" s="18"/>
     </row>
     <row r="51" spans="1:27" ht="17.399999999999999">
-      <c r="A51" s="66"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="29" t="s">
+      <c r="A51" s="76"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="41"/>
+      <c r="E51" s="40"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="36"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="35"/>
       <c r="J51" s="18"/>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
@@ -4415,17 +4563,17 @@
       <c r="AA51" s="18"/>
     </row>
     <row r="52" spans="1:27" ht="17.399999999999999">
-      <c r="A52" s="66"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="29" t="s">
+      <c r="A52" s="76"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="41"/>
+      <c r="E52" s="40"/>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="36"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="35"/>
       <c r="J52" s="18"/>
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
@@ -4446,17 +4594,17 @@
       <c r="AA52" s="18"/>
     </row>
     <row r="53" spans="1:27" ht="17.399999999999999">
-      <c r="A53" s="66"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="29" t="s">
+      <c r="A53" s="76"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E53" s="41"/>
+      <c r="E53" s="40"/>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="36"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="35"/>
       <c r="J53" s="18"/>
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
@@ -4477,19 +4625,19 @@
       <c r="AA53" s="18"/>
     </row>
     <row r="54" spans="1:27" ht="17.399999999999999">
-      <c r="A54" s="66"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="61" t="s">
+      <c r="A54" s="76"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E54" s="41"/>
+      <c r="E54" s="40"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="36"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="35"/>
       <c r="J54" s="18"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
@@ -4510,17 +4658,17 @@
       <c r="AA54" s="18"/>
     </row>
     <row r="55" spans="1:27" ht="17.399999999999999">
-      <c r="A55" s="66"/>
-      <c r="B55" s="62"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="29" t="s">
+      <c r="A55" s="76"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="41"/>
+      <c r="E55" s="40"/>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="36"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="35"/>
       <c r="J55" s="18"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
@@ -4541,17 +4689,17 @@
       <c r="AA55" s="18"/>
     </row>
     <row r="56" spans="1:27" ht="17.399999999999999">
-      <c r="A56" s="66"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="29" t="s">
+      <c r="A56" s="76"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="E56" s="41"/>
+      <c r="E56" s="40"/>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="36"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="35"/>
       <c r="J56" s="18"/>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
@@ -4572,17 +4720,17 @@
       <c r="AA56" s="18"/>
     </row>
     <row r="57" spans="1:27" ht="17.399999999999999">
-      <c r="A57" s="66"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="29" t="s">
+      <c r="A57" s="76"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="41"/>
+      <c r="E57" s="40"/>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="36"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="35"/>
       <c r="J57" s="18"/>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
@@ -4603,19 +4751,19 @@
       <c r="AA57" s="18"/>
     </row>
     <row r="58" spans="1:27" ht="17.399999999999999">
-      <c r="A58" s="66"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="61" t="s">
+      <c r="A58" s="76"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="41"/>
+      <c r="E58" s="40"/>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="36"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="35"/>
       <c r="J58" s="18"/>
       <c r="K58" s="18"/>
       <c r="L58" s="18"/>
@@ -4636,17 +4784,17 @@
       <c r="AA58" s="18"/>
     </row>
     <row r="59" spans="1:27" ht="17.399999999999999">
-      <c r="A59" s="66"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="29" t="s">
+      <c r="A59" s="76"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="41"/>
+      <c r="E59" s="40"/>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="36"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="35"/>
       <c r="J59" s="18"/>
       <c r="K59" s="18"/>
       <c r="L59" s="18"/>
@@ -4667,17 +4815,17 @@
       <c r="AA59" s="18"/>
     </row>
     <row r="60" spans="1:27" ht="17.399999999999999">
-      <c r="A60" s="66"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="29" t="s">
+      <c r="A60" s="76"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E60" s="41"/>
+      <c r="E60" s="40"/>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="36"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="35"/>
       <c r="J60" s="18"/>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
@@ -4698,17 +4846,17 @@
       <c r="AA60" s="18"/>
     </row>
     <row r="61" spans="1:27" ht="17.399999999999999">
-      <c r="A61" s="66"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="29" t="s">
+      <c r="A61" s="76"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="41"/>
+      <c r="E61" s="40"/>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="36"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="35"/>
       <c r="J61" s="18"/>
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
@@ -4729,17 +4877,17 @@
       <c r="AA61" s="18"/>
     </row>
     <row r="62" spans="1:27" ht="17.399999999999999">
-      <c r="A62" s="66"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="29" t="s">
+      <c r="A62" s="76"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="E62" s="41"/>
+      <c r="E62" s="40"/>
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="36"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="35"/>
       <c r="J62" s="18"/>
       <c r="K62" s="18"/>
       <c r="L62" s="18"/>
@@ -4760,21 +4908,21 @@
       <c r="AA62" s="18"/>
     </row>
     <row r="63" spans="1:27" ht="17.399999999999999">
-      <c r="A63" s="66"/>
-      <c r="B63" s="61" t="s">
+      <c r="A63" s="76"/>
+      <c r="B63" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="61" t="s">
+      <c r="C63" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E63" s="41"/>
+      <c r="E63" s="40"/>
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="36"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="35"/>
       <c r="J63" s="18"/>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
@@ -4795,17 +4943,17 @@
       <c r="AA63" s="18"/>
     </row>
     <row r="64" spans="1:27" ht="17.399999999999999">
-      <c r="A64" s="66"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="29" t="s">
+      <c r="A64" s="76"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E64" s="41"/>
+      <c r="E64" s="40"/>
       <c r="F64" s="22"/>
       <c r="G64" s="22"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="36"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="35"/>
       <c r="J64" s="18"/>
       <c r="K64" s="18"/>
       <c r="L64" s="18"/>
@@ -4826,17 +4974,17 @@
       <c r="AA64" s="18"/>
     </row>
     <row r="65" spans="1:27" ht="17.399999999999999">
-      <c r="A65" s="66"/>
-      <c r="B65" s="62"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="29" t="s">
+      <c r="A65" s="76"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E65" s="41"/>
+      <c r="E65" s="40"/>
       <c r="F65" s="22"/>
       <c r="G65" s="22"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="36"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="35"/>
       <c r="J65" s="18"/>
       <c r="K65" s="18"/>
       <c r="L65" s="18"/>
@@ -4857,17 +5005,17 @@
       <c r="AA65" s="18"/>
     </row>
     <row r="66" spans="1:27" ht="17.399999999999999">
-      <c r="A66" s="66"/>
-      <c r="B66" s="62"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="29" t="s">
+      <c r="A66" s="76"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E66" s="41"/>
+      <c r="E66" s="40"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="36"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="35"/>
       <c r="J66" s="18"/>
       <c r="K66" s="18"/>
       <c r="L66" s="18"/>
@@ -4888,17 +5036,17 @@
       <c r="AA66" s="18"/>
     </row>
     <row r="67" spans="1:27" ht="17.399999999999999">
-      <c r="A67" s="66"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="29" t="s">
+      <c r="A67" s="76"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E67" s="41"/>
+      <c r="E67" s="40"/>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="36"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="35"/>
       <c r="J67" s="18"/>
       <c r="K67" s="18"/>
       <c r="L67" s="18"/>
@@ -4919,17 +5067,17 @@
       <c r="AA67" s="18"/>
     </row>
     <row r="68" spans="1:27" ht="17.399999999999999">
-      <c r="A68" s="66"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="29" t="s">
+      <c r="A68" s="76"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E68" s="41"/>
+      <c r="E68" s="40"/>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="36"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="35"/>
       <c r="J68" s="18"/>
       <c r="K68" s="18"/>
       <c r="L68" s="18"/>
@@ -4950,17 +5098,17 @@
       <c r="AA68" s="18"/>
     </row>
     <row r="69" spans="1:27" ht="17.399999999999999">
-      <c r="A69" s="66"/>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="29" t="s">
+      <c r="A69" s="76"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E69" s="41"/>
+      <c r="E69" s="40"/>
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="36"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="35"/>
       <c r="J69" s="18"/>
       <c r="K69" s="18"/>
       <c r="L69" s="18"/>
@@ -4981,17 +5129,17 @@
       <c r="AA69" s="18"/>
     </row>
     <row r="70" spans="1:27" ht="17.399999999999999">
-      <c r="A70" s="66"/>
-      <c r="B70" s="62"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="29" t="s">
+      <c r="A70" s="76"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E70" s="41"/>
+      <c r="E70" s="40"/>
       <c r="F70" s="22"/>
       <c r="G70" s="22"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="36"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="35"/>
       <c r="J70" s="18"/>
       <c r="K70" s="18"/>
       <c r="L70" s="18"/>
@@ -5012,17 +5160,17 @@
       <c r="AA70" s="18"/>
     </row>
     <row r="71" spans="1:27" ht="17.399999999999999">
-      <c r="A71" s="66"/>
-      <c r="B71" s="62"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="29" t="s">
+      <c r="A71" s="76"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E71" s="41"/>
+      <c r="E71" s="40"/>
       <c r="F71" s="22"/>
       <c r="G71" s="22"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="36"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="35"/>
       <c r="J71" s="18"/>
       <c r="K71" s="18"/>
       <c r="L71" s="18"/>
@@ -5043,19 +5191,19 @@
       <c r="AA71" s="18"/>
     </row>
     <row r="72" spans="1:27" ht="17.399999999999999">
-      <c r="A72" s="66"/>
-      <c r="B72" s="62"/>
-      <c r="C72" s="61" t="s">
+      <c r="A72" s="76"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E72" s="41"/>
+      <c r="E72" s="40"/>
       <c r="F72" s="22"/>
       <c r="G72" s="22"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="36"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="35"/>
       <c r="J72" s="18"/>
       <c r="K72" s="18"/>
       <c r="L72" s="18"/>
@@ -5076,17 +5224,17 @@
       <c r="AA72" s="18"/>
     </row>
     <row r="73" spans="1:27" ht="17.399999999999999">
-      <c r="A73" s="66"/>
-      <c r="B73" s="62"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="29" t="s">
+      <c r="A73" s="76"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E73" s="41"/>
+      <c r="E73" s="40"/>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="36"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="35"/>
       <c r="J73" s="18"/>
       <c r="K73" s="18"/>
       <c r="L73" s="18"/>
@@ -5107,19 +5255,19 @@
       <c r="AA73" s="18"/>
     </row>
     <row r="74" spans="1:27" ht="17.399999999999999">
-      <c r="A74" s="66"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="61" t="s">
+      <c r="A74" s="76"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E74" s="41"/>
+      <c r="E74" s="40"/>
       <c r="F74" s="22"/>
       <c r="G74" s="22"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="36"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="35"/>
       <c r="J74" s="18"/>
       <c r="K74" s="18"/>
       <c r="L74" s="18"/>
@@ -5140,17 +5288,17 @@
       <c r="AA74" s="18"/>
     </row>
     <row r="75" spans="1:27" ht="17.399999999999999">
-      <c r="A75" s="66"/>
-      <c r="B75" s="62"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="29" t="s">
+      <c r="A75" s="76"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E75" s="41"/>
+      <c r="E75" s="40"/>
       <c r="F75" s="22"/>
       <c r="G75" s="22"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="36"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="35"/>
       <c r="J75" s="18"/>
       <c r="K75" s="18"/>
       <c r="L75" s="18"/>
@@ -5171,17 +5319,17 @@
       <c r="AA75" s="18"/>
     </row>
     <row r="76" spans="1:27" ht="17.399999999999999">
-      <c r="A76" s="66"/>
-      <c r="B76" s="62"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="29" t="s">
+      <c r="A76" s="76"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E76" s="41"/>
+      <c r="E76" s="40"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="36"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="35"/>
       <c r="J76" s="18"/>
       <c r="K76" s="18"/>
       <c r="L76" s="18"/>
@@ -5202,17 +5350,17 @@
       <c r="AA76" s="18"/>
     </row>
     <row r="77" spans="1:27" ht="17.399999999999999">
-      <c r="A77" s="66"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="29" t="s">
+      <c r="A77" s="76"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="E77" s="41"/>
+      <c r="E77" s="40"/>
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="36"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="35"/>
       <c r="J77" s="18"/>
       <c r="K77" s="18"/>
       <c r="L77" s="18"/>
@@ -5233,17 +5381,17 @@
       <c r="AA77" s="18"/>
     </row>
     <row r="78" spans="1:27" ht="17.399999999999999">
-      <c r="A78" s="66"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="29" t="s">
+      <c r="A78" s="76"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E78" s="41"/>
+      <c r="E78" s="40"/>
       <c r="F78" s="22"/>
       <c r="G78" s="22"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="36"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="35"/>
       <c r="J78" s="18"/>
       <c r="K78" s="18"/>
       <c r="L78" s="18"/>
@@ -5264,17 +5412,17 @@
       <c r="AA78" s="18"/>
     </row>
     <row r="79" spans="1:27" ht="17.399999999999999">
-      <c r="A79" s="66"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="29" t="s">
+      <c r="A79" s="76"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="E79" s="41"/>
+      <c r="E79" s="40"/>
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="36"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="35"/>
       <c r="J79" s="18"/>
       <c r="K79" s="18"/>
       <c r="L79" s="18"/>
@@ -5295,17 +5443,17 @@
       <c r="AA79" s="18"/>
     </row>
     <row r="80" spans="1:27" ht="17.399999999999999">
-      <c r="A80" s="66"/>
-      <c r="B80" s="62"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="29" t="s">
+      <c r="A80" s="76"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="E80" s="41"/>
+      <c r="E80" s="40"/>
       <c r="F80" s="22"/>
       <c r="G80" s="22"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="36"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="35"/>
       <c r="J80" s="18"/>
       <c r="K80" s="18"/>
       <c r="L80" s="18"/>
@@ -5326,17 +5474,17 @@
       <c r="AA80" s="18"/>
     </row>
     <row r="81" spans="1:27" ht="17.399999999999999">
-      <c r="A81" s="66"/>
-      <c r="B81" s="62"/>
-      <c r="C81" s="62"/>
-      <c r="D81" s="29" t="s">
+      <c r="A81" s="76"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="E81" s="41"/>
+      <c r="E81" s="40"/>
       <c r="F81" s="22"/>
       <c r="G81" s="22"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="36"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="35"/>
       <c r="J81" s="18"/>
       <c r="K81" s="18"/>
       <c r="L81" s="18"/>
@@ -5357,17 +5505,17 @@
       <c r="AA81" s="18"/>
     </row>
     <row r="82" spans="1:27" ht="17.399999999999999">
-      <c r="A82" s="66"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="29" t="s">
+      <c r="A82" s="76"/>
+      <c r="B82" s="67"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E82" s="41"/>
+      <c r="E82" s="40"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="36"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="35"/>
       <c r="J82" s="18"/>
       <c r="K82" s="18"/>
       <c r="L82" s="18"/>
@@ -5388,17 +5536,17 @@
       <c r="AA82" s="18"/>
     </row>
     <row r="83" spans="1:27" ht="17.399999999999999">
-      <c r="A83" s="66"/>
-      <c r="B83" s="62"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="29" t="s">
+      <c r="A83" s="76"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E83" s="41"/>
+      <c r="E83" s="40"/>
       <c r="F83" s="22"/>
       <c r="G83" s="22"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="36"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="35"/>
       <c r="J83" s="18"/>
       <c r="K83" s="18"/>
       <c r="L83" s="18"/>
@@ -5419,17 +5567,17 @@
       <c r="AA83" s="18"/>
     </row>
     <row r="84" spans="1:27" ht="17.399999999999999">
-      <c r="A84" s="66"/>
-      <c r="B84" s="62"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="29" t="s">
+      <c r="A84" s="76"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E84" s="41"/>
+      <c r="E84" s="40"/>
       <c r="F84" s="22"/>
       <c r="G84" s="22"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="36"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="35"/>
       <c r="J84" s="18"/>
       <c r="K84" s="18"/>
       <c r="L84" s="18"/>
@@ -5450,19 +5598,19 @@
       <c r="AA84" s="18"/>
     </row>
     <row r="85" spans="1:27" ht="17.399999999999999">
-      <c r="A85" s="66"/>
-      <c r="B85" s="62"/>
+      <c r="A85" s="76"/>
+      <c r="B85" s="67"/>
       <c r="C85" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="29" t="s">
+      <c r="D85" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="E85" s="41"/>
+      <c r="E85" s="40"/>
       <c r="F85" s="22"/>
       <c r="G85" s="22"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="36"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="35"/>
       <c r="J85" s="18"/>
       <c r="K85" s="18"/>
       <c r="L85" s="18"/>
@@ -5483,19 +5631,19 @@
       <c r="AA85" s="18"/>
     </row>
     <row r="86" spans="1:27" ht="17.399999999999999">
-      <c r="A86" s="66"/>
-      <c r="B86" s="62"/>
-      <c r="C86" s="61" t="s">
+      <c r="A86" s="76"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="D86" s="29" t="s">
+      <c r="D86" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E86" s="41"/>
+      <c r="E86" s="40"/>
       <c r="F86" s="22"/>
       <c r="G86" s="22"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="36"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="35"/>
       <c r="J86" s="18"/>
       <c r="K86" s="18"/>
       <c r="L86" s="18"/>
@@ -5516,17 +5664,17 @@
       <c r="AA86" s="18"/>
     </row>
     <row r="87" spans="1:27" ht="17.399999999999999">
-      <c r="A87" s="66"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="29" t="s">
+      <c r="A87" s="76"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="E87" s="41"/>
+      <c r="E87" s="40"/>
       <c r="F87" s="22"/>
       <c r="G87" s="22"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="36"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="35"/>
       <c r="J87" s="18"/>
       <c r="K87" s="18"/>
       <c r="L87" s="18"/>
@@ -5547,19 +5695,19 @@
       <c r="AA87" s="18"/>
     </row>
     <row r="88" spans="1:27" ht="17.399999999999999">
-      <c r="A88" s="66"/>
-      <c r="B88" s="62"/>
-      <c r="C88" s="61" t="s">
+      <c r="A88" s="76"/>
+      <c r="B88" s="67"/>
+      <c r="C88" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="D88" s="29" t="s">
+      <c r="D88" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E88" s="41"/>
+      <c r="E88" s="40"/>
       <c r="F88" s="22"/>
       <c r="G88" s="22"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="36"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="35"/>
       <c r="J88" s="18"/>
       <c r="K88" s="18"/>
       <c r="L88" s="18"/>
@@ -5580,17 +5728,17 @@
       <c r="AA88" s="18"/>
     </row>
     <row r="89" spans="1:27" ht="17.399999999999999">
-      <c r="A89" s="66"/>
-      <c r="B89" s="62"/>
-      <c r="C89" s="62"/>
-      <c r="D89" s="29" t="s">
+      <c r="A89" s="76"/>
+      <c r="B89" s="67"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E89" s="41"/>
+      <c r="E89" s="40"/>
       <c r="F89" s="22"/>
       <c r="G89" s="22"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="36"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="35"/>
       <c r="J89" s="18"/>
       <c r="K89" s="18"/>
       <c r="L89" s="18"/>
@@ -5611,19 +5759,19 @@
       <c r="AA89" s="18"/>
     </row>
     <row r="90" spans="1:27" ht="17.399999999999999">
-      <c r="A90" s="66"/>
-      <c r="B90" s="62"/>
-      <c r="C90" s="61" t="s">
+      <c r="A90" s="76"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="D90" s="29" t="s">
+      <c r="D90" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E90" s="41"/>
+      <c r="E90" s="40"/>
       <c r="F90" s="22"/>
       <c r="G90" s="22"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="36"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="35"/>
       <c r="J90" s="18"/>
       <c r="K90" s="18"/>
       <c r="L90" s="18"/>
@@ -5644,17 +5792,17 @@
       <c r="AA90" s="18"/>
     </row>
     <row r="91" spans="1:27" ht="17.399999999999999">
-      <c r="A91" s="66"/>
-      <c r="B91" s="62"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="29" t="s">
+      <c r="A91" s="76"/>
+      <c r="B91" s="67"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E91" s="41"/>
+      <c r="E91" s="40"/>
       <c r="F91" s="22"/>
       <c r="G91" s="22"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="36"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="35"/>
       <c r="J91" s="18"/>
       <c r="K91" s="18"/>
       <c r="L91" s="18"/>
@@ -5675,19 +5823,19 @@
       <c r="AA91" s="18"/>
     </row>
     <row r="92" spans="1:27" ht="17.399999999999999">
-      <c r="A92" s="66"/>
-      <c r="B92" s="62"/>
-      <c r="C92" s="61" t="s">
+      <c r="A92" s="76"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="D92" s="29" t="s">
+      <c r="D92" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="E92" s="41"/>
+      <c r="E92" s="40"/>
       <c r="F92" s="22"/>
       <c r="G92" s="22"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="36"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="35"/>
       <c r="J92" s="18"/>
       <c r="K92" s="18"/>
       <c r="L92" s="18"/>
@@ -5708,17 +5856,17 @@
       <c r="AA92" s="18"/>
     </row>
     <row r="93" spans="1:27" ht="17.399999999999999">
-      <c r="A93" s="66"/>
-      <c r="B93" s="62"/>
-      <c r="C93" s="62"/>
-      <c r="D93" s="29" t="s">
+      <c r="A93" s="76"/>
+      <c r="B93" s="67"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E93" s="41"/>
+      <c r="E93" s="40"/>
       <c r="F93" s="22"/>
       <c r="G93" s="22"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="36"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="35"/>
       <c r="J93" s="18"/>
       <c r="K93" s="18"/>
       <c r="L93" s="18"/>
@@ -5739,17 +5887,17 @@
       <c r="AA93" s="18"/>
     </row>
     <row r="94" spans="1:27" ht="17.399999999999999">
-      <c r="A94" s="66"/>
-      <c r="B94" s="62"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="29" t="s">
+      <c r="A94" s="76"/>
+      <c r="B94" s="67"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E94" s="41"/>
+      <c r="E94" s="40"/>
       <c r="F94" s="22"/>
       <c r="G94" s="22"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="36"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="35"/>
       <c r="J94" s="18"/>
       <c r="K94" s="18"/>
       <c r="L94" s="18"/>
@@ -5770,17 +5918,17 @@
       <c r="AA94" s="18"/>
     </row>
     <row r="95" spans="1:27" ht="17.399999999999999">
-      <c r="A95" s="66"/>
-      <c r="B95" s="62"/>
-      <c r="C95" s="62"/>
-      <c r="D95" s="29" t="s">
+      <c r="A95" s="76"/>
+      <c r="B95" s="67"/>
+      <c r="C95" s="67"/>
+      <c r="D95" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="E95" s="41"/>
+      <c r="E95" s="40"/>
       <c r="F95" s="22"/>
       <c r="G95" s="22"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="36"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="35"/>
       <c r="J95" s="18"/>
       <c r="K95" s="18"/>
       <c r="L95" s="18"/>
@@ -5801,17 +5949,17 @@
       <c r="AA95" s="18"/>
     </row>
     <row r="96" spans="1:27" ht="17.399999999999999">
-      <c r="A96" s="66"/>
-      <c r="B96" s="62"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="29" t="s">
+      <c r="A96" s="76"/>
+      <c r="B96" s="67"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="E96" s="41"/>
+      <c r="E96" s="40"/>
       <c r="F96" s="22"/>
       <c r="G96" s="22"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="36"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="35"/>
       <c r="J96" s="18"/>
       <c r="K96" s="18"/>
       <c r="L96" s="18"/>
@@ -5832,21 +5980,21 @@
       <c r="AA96" s="18"/>
     </row>
     <row r="97" spans="1:27" ht="17.399999999999999">
-      <c r="A97" s="66"/>
-      <c r="B97" s="61" t="s">
+      <c r="A97" s="76"/>
+      <c r="B97" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="C97" s="61" t="s">
+      <c r="C97" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="D97" s="29" t="s">
+      <c r="D97" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E97" s="41"/>
+      <c r="E97" s="40"/>
       <c r="F97" s="22"/>
       <c r="G97" s="22"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="36"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="35"/>
       <c r="J97" s="18"/>
       <c r="K97" s="18"/>
       <c r="L97" s="18"/>
@@ -5867,17 +6015,17 @@
       <c r="AA97" s="18"/>
     </row>
     <row r="98" spans="1:27" ht="17.399999999999999">
-      <c r="A98" s="66"/>
-      <c r="B98" s="62"/>
-      <c r="C98" s="62"/>
-      <c r="D98" s="29" t="s">
+      <c r="A98" s="76"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="E98" s="41"/>
+      <c r="E98" s="40"/>
       <c r="F98" s="22"/>
       <c r="G98" s="22"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="36"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="35"/>
       <c r="J98" s="18"/>
       <c r="K98" s="18"/>
       <c r="L98" s="18"/>
@@ -5898,19 +6046,19 @@
       <c r="AA98" s="18"/>
     </row>
     <row r="99" spans="1:27" ht="17.399999999999999">
-      <c r="A99" s="66"/>
-      <c r="B99" s="62"/>
-      <c r="C99" s="61" t="s">
+      <c r="A99" s="76"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="D99" s="29" t="s">
+      <c r="D99" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="E99" s="41"/>
+      <c r="E99" s="40"/>
       <c r="F99" s="22"/>
       <c r="G99" s="22"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="36"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="35"/>
       <c r="J99" s="18"/>
       <c r="K99" s="18"/>
       <c r="L99" s="18"/>
@@ -5931,17 +6079,17 @@
       <c r="AA99" s="18"/>
     </row>
     <row r="100" spans="1:27" ht="17.399999999999999">
-      <c r="A100" s="66"/>
-      <c r="B100" s="62"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="29" t="s">
+      <c r="A100" s="76"/>
+      <c r="B100" s="67"/>
+      <c r="C100" s="67"/>
+      <c r="D100" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E100" s="41"/>
+      <c r="E100" s="40"/>
       <c r="F100" s="22"/>
       <c r="G100" s="22"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="36"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="35"/>
       <c r="J100" s="18"/>
       <c r="K100" s="18"/>
       <c r="L100" s="18"/>
@@ -5962,17 +6110,17 @@
       <c r="AA100" s="18"/>
     </row>
     <row r="101" spans="1:27" ht="17.399999999999999">
-      <c r="A101" s="66"/>
-      <c r="B101" s="62"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="29" t="s">
+      <c r="A101" s="76"/>
+      <c r="B101" s="67"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E101" s="41"/>
+      <c r="E101" s="40"/>
       <c r="F101" s="22"/>
       <c r="G101" s="22"/>
-      <c r="H101" s="31"/>
-      <c r="I101" s="36"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="35"/>
       <c r="J101" s="18"/>
       <c r="K101" s="18"/>
       <c r="L101" s="18"/>
@@ -5993,19 +6141,19 @@
       <c r="AA101" s="18"/>
     </row>
     <row r="102" spans="1:27" ht="17.399999999999999">
-      <c r="A102" s="66"/>
-      <c r="B102" s="62"/>
-      <c r="C102" s="61" t="s">
+      <c r="A102" s="76"/>
+      <c r="B102" s="67"/>
+      <c r="C102" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="29" t="s">
+      <c r="D102" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E102" s="41"/>
+      <c r="E102" s="40"/>
       <c r="F102" s="22"/>
       <c r="G102" s="22"/>
-      <c r="H102" s="31"/>
-      <c r="I102" s="36"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="35"/>
       <c r="J102" s="18"/>
       <c r="K102" s="18"/>
       <c r="L102" s="18"/>
@@ -6026,17 +6174,17 @@
       <c r="AA102" s="18"/>
     </row>
     <row r="103" spans="1:27" ht="17.399999999999999">
-      <c r="A103" s="66"/>
-      <c r="B103" s="62"/>
-      <c r="C103" s="62"/>
-      <c r="D103" s="29" t="s">
+      <c r="A103" s="76"/>
+      <c r="B103" s="67"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E103" s="41"/>
+      <c r="E103" s="40"/>
       <c r="F103" s="22"/>
       <c r="G103" s="22"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="36"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="35"/>
       <c r="J103" s="18"/>
       <c r="K103" s="18"/>
       <c r="L103" s="18"/>
@@ -6057,19 +6205,19 @@
       <c r="AA103" s="18"/>
     </row>
     <row r="104" spans="1:27" ht="18" thickBot="1">
-      <c r="A104" s="67"/>
-      <c r="B104" s="63" t="s">
+      <c r="A104" s="77"/>
+      <c r="B104" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="64"/>
-      <c r="D104" s="43" t="s">
+      <c r="C104" s="83"/>
+      <c r="D104" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E104" s="42"/>
+      <c r="E104" s="41"/>
       <c r="F104" s="23"/>
       <c r="G104" s="23"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="37"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="36"/>
       <c r="J104" s="18"/>
       <c r="K104" s="18"/>
       <c r="L104" s="18"/>
@@ -6090,26 +6238,26 @@
       <c r="AA104" s="18"/>
     </row>
     <row r="105" spans="1:27" ht="17.399999999999999">
-      <c r="A105" s="65" t="s">
+      <c r="A105" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="B105" s="68"/>
-      <c r="C105" s="69"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="44" t="s">
+      <c r="B105" s="72"/>
+      <c r="C105" s="73"/>
+      <c r="D105" s="74"/>
+      <c r="E105" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="F105" s="20" t="s">
         <v>314</v>
-      </c>
-      <c r="F105" s="20" t="s">
-        <v>315</v>
       </c>
       <c r="G105" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="H105" s="33" t="s">
+      <c r="H105" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="I105" s="38" t="s">
-        <v>313</v>
+      <c r="I105" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="J105" s="18"/>
       <c r="K105" s="18"/>
@@ -6131,21 +6279,21 @@
       <c r="AA105" s="18"/>
     </row>
     <row r="106" spans="1:27" ht="17.399999999999999">
-      <c r="A106" s="66"/>
-      <c r="B106" s="61" t="s">
+      <c r="A106" s="76"/>
+      <c r="B106" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="C106" s="61" t="s">
+      <c r="C106" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="D106" s="29" t="s">
+      <c r="D106" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E106" s="41"/>
+      <c r="E106" s="40"/>
       <c r="F106" s="22"/>
       <c r="G106" s="22"/>
-      <c r="H106" s="31"/>
-      <c r="I106" s="36"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="35"/>
       <c r="J106" s="18"/>
       <c r="K106" s="18"/>
       <c r="L106" s="18"/>
@@ -6166,17 +6314,17 @@
       <c r="AA106" s="18"/>
     </row>
     <row r="107" spans="1:27" ht="17.399999999999999">
-      <c r="A107" s="66"/>
-      <c r="B107" s="62"/>
-      <c r="C107" s="62"/>
-      <c r="D107" s="29" t="s">
+      <c r="A107" s="76"/>
+      <c r="B107" s="67"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="E107" s="41"/>
+      <c r="E107" s="40"/>
       <c r="F107" s="22"/>
       <c r="G107" s="22"/>
-      <c r="H107" s="31"/>
-      <c r="I107" s="36"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="35"/>
       <c r="J107" s="18"/>
       <c r="K107" s="18"/>
       <c r="L107" s="18"/>
@@ -6197,19 +6345,19 @@
       <c r="AA107" s="18"/>
     </row>
     <row r="108" spans="1:27" ht="17.399999999999999">
-      <c r="A108" s="66"/>
-      <c r="B108" s="62"/>
-      <c r="C108" s="61" t="s">
+      <c r="A108" s="76"/>
+      <c r="B108" s="67"/>
+      <c r="C108" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="D108" s="29" t="s">
+      <c r="D108" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="E108" s="41"/>
+      <c r="E108" s="40"/>
       <c r="F108" s="22"/>
       <c r="G108" s="22"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="36"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="35"/>
       <c r="J108" s="18"/>
       <c r="K108" s="18"/>
       <c r="L108" s="18"/>
@@ -6230,17 +6378,17 @@
       <c r="AA108" s="18"/>
     </row>
     <row r="109" spans="1:27" ht="17.399999999999999">
-      <c r="A109" s="66"/>
-      <c r="B109" s="62"/>
-      <c r="C109" s="62"/>
-      <c r="D109" s="29" t="s">
+      <c r="A109" s="76"/>
+      <c r="B109" s="67"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E109" s="41"/>
+      <c r="E109" s="40"/>
       <c r="F109" s="22"/>
       <c r="G109" s="22"/>
-      <c r="H109" s="31"/>
-      <c r="I109" s="36"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="35"/>
       <c r="J109" s="18"/>
       <c r="K109" s="18"/>
       <c r="L109" s="18"/>
@@ -6261,19 +6409,19 @@
       <c r="AA109" s="18"/>
     </row>
     <row r="110" spans="1:27" ht="17.399999999999999">
-      <c r="A110" s="66"/>
-      <c r="B110" s="62"/>
+      <c r="A110" s="76"/>
+      <c r="B110" s="67"/>
       <c r="C110" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D110" s="29" t="s">
+      <c r="D110" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E110" s="41"/>
+      <c r="E110" s="40"/>
       <c r="F110" s="22"/>
       <c r="G110" s="22"/>
-      <c r="H110" s="31"/>
-      <c r="I110" s="36"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="35"/>
       <c r="J110" s="18"/>
       <c r="K110" s="18"/>
       <c r="L110" s="18"/>
@@ -6294,19 +6442,19 @@
       <c r="AA110" s="18"/>
     </row>
     <row r="111" spans="1:27" ht="17.399999999999999">
-      <c r="A111" s="66"/>
-      <c r="B111" s="62"/>
-      <c r="C111" s="61" t="s">
+      <c r="A111" s="76"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="D111" s="29" t="s">
+      <c r="D111" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="E111" s="41"/>
+      <c r="E111" s="40"/>
       <c r="F111" s="22"/>
       <c r="G111" s="22"/>
-      <c r="H111" s="31"/>
-      <c r="I111" s="36"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="35"/>
       <c r="J111" s="18"/>
       <c r="K111" s="18"/>
       <c r="L111" s="18"/>
@@ -6327,17 +6475,17 @@
       <c r="AA111" s="18"/>
     </row>
     <row r="112" spans="1:27" ht="17.399999999999999">
-      <c r="A112" s="66"/>
-      <c r="B112" s="62"/>
-      <c r="C112" s="62"/>
-      <c r="D112" s="29" t="s">
+      <c r="A112" s="76"/>
+      <c r="B112" s="67"/>
+      <c r="C112" s="67"/>
+      <c r="D112" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E112" s="41"/>
+      <c r="E112" s="40"/>
       <c r="F112" s="22"/>
       <c r="G112" s="22"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="36"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="35"/>
       <c r="J112" s="18"/>
       <c r="K112" s="18"/>
       <c r="L112" s="18"/>
@@ -6358,17 +6506,17 @@
       <c r="AA112" s="18"/>
     </row>
     <row r="113" spans="1:27" ht="17.399999999999999">
-      <c r="A113" s="66"/>
-      <c r="B113" s="62"/>
-      <c r="C113" s="62"/>
-      <c r="D113" s="29" t="s">
+      <c r="A113" s="76"/>
+      <c r="B113" s="67"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="E113" s="41"/>
+      <c r="E113" s="40"/>
       <c r="F113" s="22"/>
       <c r="G113" s="22"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="36"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="35"/>
       <c r="J113" s="18"/>
       <c r="K113" s="18"/>
       <c r="L113" s="18"/>
@@ -6389,17 +6537,17 @@
       <c r="AA113" s="18"/>
     </row>
     <row r="114" spans="1:27" ht="17.399999999999999">
-      <c r="A114" s="66"/>
-      <c r="B114" s="62"/>
-      <c r="C114" s="62"/>
-      <c r="D114" s="29" t="s">
+      <c r="A114" s="76"/>
+      <c r="B114" s="67"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E114" s="41"/>
+      <c r="E114" s="40"/>
       <c r="F114" s="22"/>
       <c r="G114" s="22"/>
-      <c r="H114" s="31"/>
-      <c r="I114" s="36"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="35"/>
       <c r="J114" s="18"/>
       <c r="K114" s="18"/>
       <c r="L114" s="18"/>
@@ -6420,19 +6568,19 @@
       <c r="AA114" s="18"/>
     </row>
     <row r="115" spans="1:27" ht="17.399999999999999">
-      <c r="A115" s="66"/>
-      <c r="B115" s="62"/>
-      <c r="C115" s="61" t="s">
+      <c r="A115" s="76"/>
+      <c r="B115" s="67"/>
+      <c r="C115" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D115" s="29" t="s">
+      <c r="D115" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="E115" s="41"/>
+      <c r="E115" s="40"/>
       <c r="F115" s="22"/>
       <c r="G115" s="22"/>
-      <c r="H115" s="31"/>
-      <c r="I115" s="36"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="35"/>
       <c r="J115" s="18"/>
       <c r="K115" s="18"/>
       <c r="L115" s="18"/>
@@ -6453,17 +6601,17 @@
       <c r="AA115" s="18"/>
     </row>
     <row r="116" spans="1:27" ht="17.399999999999999">
-      <c r="A116" s="66"/>
-      <c r="B116" s="62"/>
-      <c r="C116" s="62"/>
-      <c r="D116" s="29" t="s">
+      <c r="A116" s="76"/>
+      <c r="B116" s="67"/>
+      <c r="C116" s="67"/>
+      <c r="D116" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="E116" s="41"/>
+      <c r="E116" s="40"/>
       <c r="F116" s="22"/>
       <c r="G116" s="22"/>
-      <c r="H116" s="31"/>
-      <c r="I116" s="36"/>
+      <c r="H116" s="30"/>
+      <c r="I116" s="35"/>
       <c r="J116" s="18"/>
       <c r="K116" s="18"/>
       <c r="L116" s="18"/>
@@ -6484,17 +6632,17 @@
       <c r="AA116" s="18"/>
     </row>
     <row r="117" spans="1:27" ht="17.399999999999999">
-      <c r="A117" s="66"/>
-      <c r="B117" s="62"/>
-      <c r="C117" s="62"/>
-      <c r="D117" s="29" t="s">
+      <c r="A117" s="76"/>
+      <c r="B117" s="67"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="E117" s="41"/>
+      <c r="E117" s="40"/>
       <c r="F117" s="22"/>
       <c r="G117" s="22"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="36"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="35"/>
       <c r="J117" s="18"/>
       <c r="K117" s="18"/>
       <c r="L117" s="18"/>
@@ -6515,19 +6663,19 @@
       <c r="AA117" s="18"/>
     </row>
     <row r="118" spans="1:27" ht="17.399999999999999">
-      <c r="A118" s="66"/>
-      <c r="B118" s="62"/>
-      <c r="C118" s="61" t="s">
+      <c r="A118" s="76"/>
+      <c r="B118" s="67"/>
+      <c r="C118" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="D118" s="29" t="s">
+      <c r="D118" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="E118" s="41"/>
+      <c r="E118" s="40"/>
       <c r="F118" s="22"/>
       <c r="G118" s="22"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="36"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="35"/>
       <c r="J118" s="18"/>
       <c r="K118" s="18"/>
       <c r="L118" s="18"/>
@@ -6548,17 +6696,17 @@
       <c r="AA118" s="18"/>
     </row>
     <row r="119" spans="1:27" ht="17.399999999999999">
-      <c r="A119" s="66"/>
-      <c r="B119" s="62"/>
-      <c r="C119" s="62"/>
-      <c r="D119" s="29" t="s">
+      <c r="A119" s="76"/>
+      <c r="B119" s="67"/>
+      <c r="C119" s="67"/>
+      <c r="D119" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="E119" s="41"/>
+      <c r="E119" s="40"/>
       <c r="F119" s="22"/>
       <c r="G119" s="22"/>
-      <c r="H119" s="31"/>
-      <c r="I119" s="36"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="35"/>
       <c r="J119" s="18"/>
       <c r="K119" s="18"/>
       <c r="L119" s="18"/>
@@ -6579,17 +6727,17 @@
       <c r="AA119" s="18"/>
     </row>
     <row r="120" spans="1:27" ht="17.399999999999999">
-      <c r="A120" s="66"/>
-      <c r="B120" s="62"/>
-      <c r="C120" s="62"/>
-      <c r="D120" s="29" t="s">
+      <c r="A120" s="76"/>
+      <c r="B120" s="67"/>
+      <c r="C120" s="67"/>
+      <c r="D120" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="E120" s="41"/>
+      <c r="E120" s="40"/>
       <c r="F120" s="22"/>
       <c r="G120" s="22"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="36"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="35"/>
       <c r="J120" s="18"/>
       <c r="K120" s="18"/>
       <c r="L120" s="18"/>
@@ -6610,17 +6758,17 @@
       <c r="AA120" s="18"/>
     </row>
     <row r="121" spans="1:27" ht="17.399999999999999">
-      <c r="A121" s="66"/>
-      <c r="B121" s="62"/>
-      <c r="C121" s="62"/>
-      <c r="D121" s="29" t="s">
+      <c r="A121" s="76"/>
+      <c r="B121" s="67"/>
+      <c r="C121" s="67"/>
+      <c r="D121" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="E121" s="41"/>
+      <c r="E121" s="40"/>
       <c r="F121" s="22"/>
       <c r="G121" s="22"/>
-      <c r="H121" s="31"/>
-      <c r="I121" s="36"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="35"/>
       <c r="J121" s="18"/>
       <c r="K121" s="18"/>
       <c r="L121" s="18"/>
@@ -6641,17 +6789,17 @@
       <c r="AA121" s="18"/>
     </row>
     <row r="122" spans="1:27" ht="17.399999999999999">
-      <c r="A122" s="66"/>
-      <c r="B122" s="62"/>
-      <c r="C122" s="62"/>
-      <c r="D122" s="29" t="s">
+      <c r="A122" s="76"/>
+      <c r="B122" s="67"/>
+      <c r="C122" s="67"/>
+      <c r="D122" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="E122" s="41"/>
+      <c r="E122" s="40"/>
       <c r="F122" s="22"/>
       <c r="G122" s="22"/>
-      <c r="H122" s="31"/>
-      <c r="I122" s="36"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="35"/>
       <c r="J122" s="18"/>
       <c r="K122" s="18"/>
       <c r="L122" s="18"/>
@@ -6672,19 +6820,19 @@
       <c r="AA122" s="18"/>
     </row>
     <row r="123" spans="1:27" ht="17.399999999999999">
-      <c r="A123" s="66"/>
-      <c r="B123" s="62"/>
-      <c r="C123" s="61" t="s">
+      <c r="A123" s="76"/>
+      <c r="B123" s="67"/>
+      <c r="C123" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="D123" s="29" t="s">
+      <c r="D123" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="E123" s="41"/>
+      <c r="E123" s="40"/>
       <c r="F123" s="22"/>
       <c r="G123" s="22"/>
-      <c r="H123" s="31"/>
-      <c r="I123" s="36"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="35"/>
       <c r="J123" s="18"/>
       <c r="K123" s="18"/>
       <c r="L123" s="18"/>
@@ -6705,17 +6853,17 @@
       <c r="AA123" s="18"/>
     </row>
     <row r="124" spans="1:27" ht="17.399999999999999">
-      <c r="A124" s="66"/>
-      <c r="B124" s="62"/>
-      <c r="C124" s="62"/>
-      <c r="D124" s="29" t="s">
+      <c r="A124" s="76"/>
+      <c r="B124" s="67"/>
+      <c r="C124" s="67"/>
+      <c r="D124" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="E124" s="41"/>
+      <c r="E124" s="40"/>
       <c r="F124" s="22"/>
       <c r="G124" s="22"/>
-      <c r="H124" s="31"/>
-      <c r="I124" s="36"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="35"/>
       <c r="J124" s="18"/>
       <c r="K124" s="18"/>
       <c r="L124" s="18"/>
@@ -6736,17 +6884,17 @@
       <c r="AA124" s="18"/>
     </row>
     <row r="125" spans="1:27" ht="17.399999999999999">
-      <c r="A125" s="66"/>
-      <c r="B125" s="62"/>
-      <c r="C125" s="62"/>
-      <c r="D125" s="29" t="s">
+      <c r="A125" s="76"/>
+      <c r="B125" s="67"/>
+      <c r="C125" s="67"/>
+      <c r="D125" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E125" s="41"/>
+      <c r="E125" s="40"/>
       <c r="F125" s="22"/>
       <c r="G125" s="22"/>
-      <c r="H125" s="31"/>
-      <c r="I125" s="36"/>
+      <c r="H125" s="30"/>
+      <c r="I125" s="35"/>
       <c r="J125" s="18"/>
       <c r="K125" s="18"/>
       <c r="L125" s="18"/>
@@ -6767,17 +6915,17 @@
       <c r="AA125" s="18"/>
     </row>
     <row r="126" spans="1:27" ht="17.399999999999999">
-      <c r="A126" s="66"/>
-      <c r="B126" s="62"/>
-      <c r="C126" s="62"/>
-      <c r="D126" s="29" t="s">
+      <c r="A126" s="76"/>
+      <c r="B126" s="67"/>
+      <c r="C126" s="67"/>
+      <c r="D126" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="E126" s="41"/>
+      <c r="E126" s="40"/>
       <c r="F126" s="22"/>
       <c r="G126" s="22"/>
-      <c r="H126" s="31"/>
-      <c r="I126" s="36"/>
+      <c r="H126" s="30"/>
+      <c r="I126" s="35"/>
       <c r="J126" s="18"/>
       <c r="K126" s="18"/>
       <c r="L126" s="18"/>
@@ -6798,17 +6946,17 @@
       <c r="AA126" s="18"/>
     </row>
     <row r="127" spans="1:27" ht="17.399999999999999">
-      <c r="A127" s="66"/>
-      <c r="B127" s="62"/>
-      <c r="C127" s="62"/>
-      <c r="D127" s="29" t="s">
+      <c r="A127" s="76"/>
+      <c r="B127" s="67"/>
+      <c r="C127" s="67"/>
+      <c r="D127" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="E127" s="41"/>
+      <c r="E127" s="40"/>
       <c r="F127" s="22"/>
       <c r="G127" s="22"/>
-      <c r="H127" s="31"/>
-      <c r="I127" s="36"/>
+      <c r="H127" s="30"/>
+      <c r="I127" s="35"/>
       <c r="J127" s="18"/>
       <c r="K127" s="18"/>
       <c r="L127" s="18"/>
@@ -6829,17 +6977,17 @@
       <c r="AA127" s="18"/>
     </row>
     <row r="128" spans="1:27" ht="17.399999999999999">
-      <c r="A128" s="66"/>
-      <c r="B128" s="62"/>
-      <c r="C128" s="62"/>
-      <c r="D128" s="29" t="s">
+      <c r="A128" s="76"/>
+      <c r="B128" s="67"/>
+      <c r="C128" s="67"/>
+      <c r="D128" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="E128" s="41"/>
+      <c r="E128" s="40"/>
       <c r="F128" s="22"/>
       <c r="G128" s="22"/>
-      <c r="H128" s="31"/>
-      <c r="I128" s="36"/>
+      <c r="H128" s="30"/>
+      <c r="I128" s="35"/>
       <c r="J128" s="18"/>
       <c r="K128" s="18"/>
       <c r="L128" s="18"/>
@@ -6860,19 +7008,19 @@
       <c r="AA128" s="18"/>
     </row>
     <row r="129" spans="1:27" ht="17.399999999999999">
-      <c r="A129" s="66"/>
-      <c r="B129" s="62"/>
-      <c r="C129" s="61" t="s">
+      <c r="A129" s="76"/>
+      <c r="B129" s="67"/>
+      <c r="C129" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="D129" s="29" t="s">
+      <c r="D129" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="E129" s="41"/>
+      <c r="E129" s="40"/>
       <c r="F129" s="22"/>
       <c r="G129" s="22"/>
-      <c r="H129" s="31"/>
-      <c r="I129" s="36"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="35"/>
       <c r="J129" s="18"/>
       <c r="K129" s="18"/>
       <c r="L129" s="18"/>
@@ -6893,17 +7041,17 @@
       <c r="AA129" s="18"/>
     </row>
     <row r="130" spans="1:27" ht="17.399999999999999">
-      <c r="A130" s="66"/>
-      <c r="B130" s="62"/>
-      <c r="C130" s="62"/>
-      <c r="D130" s="29" t="s">
+      <c r="A130" s="76"/>
+      <c r="B130" s="67"/>
+      <c r="C130" s="67"/>
+      <c r="D130" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="E130" s="41"/>
+      <c r="E130" s="40"/>
       <c r="F130" s="22"/>
       <c r="G130" s="22"/>
-      <c r="H130" s="31"/>
-      <c r="I130" s="36"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="35"/>
       <c r="J130" s="18"/>
       <c r="K130" s="18"/>
       <c r="L130" s="18"/>
@@ -6924,19 +7072,19 @@
       <c r="AA130" s="18"/>
     </row>
     <row r="131" spans="1:27" ht="17.399999999999999">
-      <c r="A131" s="66"/>
-      <c r="B131" s="62"/>
-      <c r="C131" s="61" t="s">
+      <c r="A131" s="76"/>
+      <c r="B131" s="67"/>
+      <c r="C131" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="29" t="s">
+      <c r="D131" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="E131" s="41"/>
+      <c r="E131" s="40"/>
       <c r="F131" s="22"/>
       <c r="G131" s="22"/>
-      <c r="H131" s="31"/>
-      <c r="I131" s="36"/>
+      <c r="H131" s="30"/>
+      <c r="I131" s="35"/>
       <c r="J131" s="18"/>
       <c r="K131" s="18"/>
       <c r="L131" s="18"/>
@@ -6957,17 +7105,17 @@
       <c r="AA131" s="18"/>
     </row>
     <row r="132" spans="1:27" ht="17.399999999999999">
-      <c r="A132" s="66"/>
-      <c r="B132" s="62"/>
-      <c r="C132" s="62"/>
-      <c r="D132" s="29" t="s">
+      <c r="A132" s="76"/>
+      <c r="B132" s="67"/>
+      <c r="C132" s="67"/>
+      <c r="D132" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="E132" s="41"/>
+      <c r="E132" s="40"/>
       <c r="F132" s="22"/>
       <c r="G132" s="22"/>
-      <c r="H132" s="31"/>
-      <c r="I132" s="36"/>
+      <c r="H132" s="30"/>
+      <c r="I132" s="35"/>
       <c r="J132" s="18"/>
       <c r="K132" s="18"/>
       <c r="L132" s="18"/>
@@ -6988,17 +7136,17 @@
       <c r="AA132" s="18"/>
     </row>
     <row r="133" spans="1:27" ht="17.399999999999999">
-      <c r="A133" s="66"/>
-      <c r="B133" s="62"/>
-      <c r="C133" s="62"/>
-      <c r="D133" s="29" t="s">
+      <c r="A133" s="76"/>
+      <c r="B133" s="67"/>
+      <c r="C133" s="67"/>
+      <c r="D133" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="E133" s="41"/>
+      <c r="E133" s="40"/>
       <c r="F133" s="22"/>
       <c r="G133" s="22"/>
-      <c r="H133" s="31"/>
-      <c r="I133" s="36"/>
+      <c r="H133" s="30"/>
+      <c r="I133" s="35"/>
       <c r="J133" s="18"/>
       <c r="K133" s="18"/>
       <c r="L133" s="18"/>
@@ -7019,17 +7167,17 @@
       <c r="AA133" s="18"/>
     </row>
     <row r="134" spans="1:27" ht="17.399999999999999">
-      <c r="A134" s="66"/>
-      <c r="B134" s="62"/>
-      <c r="C134" s="62"/>
-      <c r="D134" s="29" t="s">
+      <c r="A134" s="76"/>
+      <c r="B134" s="67"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="E134" s="41"/>
+      <c r="E134" s="40"/>
       <c r="F134" s="22"/>
       <c r="G134" s="22"/>
-      <c r="H134" s="31"/>
-      <c r="I134" s="36"/>
+      <c r="H134" s="30"/>
+      <c r="I134" s="35"/>
       <c r="J134" s="18"/>
       <c r="K134" s="18"/>
       <c r="L134" s="18"/>
@@ -7050,17 +7198,17 @@
       <c r="AA134" s="18"/>
     </row>
     <row r="135" spans="1:27" ht="17.399999999999999">
-      <c r="A135" s="66"/>
-      <c r="B135" s="62"/>
-      <c r="C135" s="62"/>
-      <c r="D135" s="29" t="s">
+      <c r="A135" s="76"/>
+      <c r="B135" s="67"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E135" s="41"/>
+      <c r="E135" s="40"/>
       <c r="F135" s="22"/>
       <c r="G135" s="22"/>
-      <c r="H135" s="31"/>
-      <c r="I135" s="36"/>
+      <c r="H135" s="30"/>
+      <c r="I135" s="35"/>
       <c r="J135" s="18"/>
       <c r="K135" s="18"/>
       <c r="L135" s="18"/>
@@ -7081,17 +7229,17 @@
       <c r="AA135" s="18"/>
     </row>
     <row r="136" spans="1:27" ht="17.399999999999999">
-      <c r="A136" s="66"/>
-      <c r="B136" s="62"/>
-      <c r="C136" s="62"/>
-      <c r="D136" s="29" t="s">
+      <c r="A136" s="76"/>
+      <c r="B136" s="67"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="E136" s="41"/>
+      <c r="E136" s="40"/>
       <c r="F136" s="22"/>
       <c r="G136" s="22"/>
-      <c r="H136" s="31"/>
-      <c r="I136" s="36"/>
+      <c r="H136" s="30"/>
+      <c r="I136" s="35"/>
       <c r="J136" s="18"/>
       <c r="K136" s="18"/>
       <c r="L136" s="18"/>
@@ -7112,19 +7260,19 @@
       <c r="AA136" s="18"/>
     </row>
     <row r="137" spans="1:27" ht="17.399999999999999">
-      <c r="A137" s="66"/>
-      <c r="B137" s="62"/>
+      <c r="A137" s="76"/>
+      <c r="B137" s="67"/>
       <c r="C137" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D137" s="29" t="s">
+      <c r="D137" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="E137" s="41"/>
+      <c r="E137" s="40"/>
       <c r="F137" s="22"/>
       <c r="G137" s="22"/>
-      <c r="H137" s="31"/>
-      <c r="I137" s="36"/>
+      <c r="H137" s="30"/>
+      <c r="I137" s="35"/>
       <c r="J137" s="18"/>
       <c r="K137" s="18"/>
       <c r="L137" s="18"/>
@@ -7145,19 +7293,19 @@
       <c r="AA137" s="18"/>
     </row>
     <row r="138" spans="1:27" ht="17.399999999999999">
-      <c r="A138" s="66"/>
-      <c r="B138" s="61" t="s">
+      <c r="A138" s="76"/>
+      <c r="B138" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C138" s="62"/>
-      <c r="D138" s="29" t="s">
+      <c r="C138" s="67"/>
+      <c r="D138" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="E138" s="41"/>
+      <c r="E138" s="40"/>
       <c r="F138" s="22"/>
       <c r="G138" s="22"/>
-      <c r="H138" s="31"/>
-      <c r="I138" s="36"/>
+      <c r="H138" s="30"/>
+      <c r="I138" s="35"/>
       <c r="J138" s="18"/>
       <c r="K138" s="18"/>
       <c r="L138" s="18"/>
@@ -7178,17 +7326,17 @@
       <c r="AA138" s="18"/>
     </row>
     <row r="139" spans="1:27" ht="17.399999999999999">
-      <c r="A139" s="66"/>
-      <c r="B139" s="62"/>
-      <c r="C139" s="62"/>
-      <c r="D139" s="29" t="s">
+      <c r="A139" s="76"/>
+      <c r="B139" s="67"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="E139" s="41"/>
+      <c r="E139" s="40"/>
       <c r="F139" s="22"/>
       <c r="G139" s="22"/>
-      <c r="H139" s="31"/>
-      <c r="I139" s="36"/>
+      <c r="H139" s="30"/>
+      <c r="I139" s="35"/>
       <c r="J139" s="18"/>
       <c r="K139" s="18"/>
       <c r="L139" s="18"/>
@@ -7209,17 +7357,17 @@
       <c r="AA139" s="18"/>
     </row>
     <row r="140" spans="1:27" ht="17.399999999999999">
-      <c r="A140" s="66"/>
-      <c r="B140" s="62"/>
-      <c r="C140" s="62"/>
-      <c r="D140" s="29" t="s">
+      <c r="A140" s="76"/>
+      <c r="B140" s="67"/>
+      <c r="C140" s="67"/>
+      <c r="D140" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="E140" s="41"/>
+      <c r="E140" s="40"/>
       <c r="F140" s="22"/>
       <c r="G140" s="22"/>
-      <c r="H140" s="31"/>
-      <c r="I140" s="36"/>
+      <c r="H140" s="30"/>
+      <c r="I140" s="35"/>
       <c r="J140" s="18"/>
       <c r="K140" s="18"/>
       <c r="L140" s="18"/>
@@ -7240,17 +7388,17 @@
       <c r="AA140" s="18"/>
     </row>
     <row r="141" spans="1:27" ht="17.399999999999999">
-      <c r="A141" s="66"/>
-      <c r="B141" s="62"/>
-      <c r="C141" s="62"/>
-      <c r="D141" s="29" t="s">
+      <c r="A141" s="76"/>
+      <c r="B141" s="67"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="E141" s="41"/>
+      <c r="E141" s="40"/>
       <c r="F141" s="22"/>
       <c r="G141" s="22"/>
-      <c r="H141" s="31"/>
-      <c r="I141" s="36"/>
+      <c r="H141" s="30"/>
+      <c r="I141" s="35"/>
       <c r="J141" s="18"/>
       <c r="K141" s="18"/>
       <c r="L141" s="18"/>
@@ -7271,17 +7419,17 @@
       <c r="AA141" s="18"/>
     </row>
     <row r="142" spans="1:27" ht="17.399999999999999">
-      <c r="A142" s="66"/>
-      <c r="B142" s="62"/>
-      <c r="C142" s="62"/>
-      <c r="D142" s="29" t="s">
+      <c r="A142" s="76"/>
+      <c r="B142" s="67"/>
+      <c r="C142" s="67"/>
+      <c r="D142" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="E142" s="41"/>
+      <c r="E142" s="40"/>
       <c r="F142" s="22"/>
       <c r="G142" s="22"/>
-      <c r="H142" s="31"/>
-      <c r="I142" s="36"/>
+      <c r="H142" s="30"/>
+      <c r="I142" s="35"/>
       <c r="J142" s="18"/>
       <c r="K142" s="18"/>
       <c r="L142" s="18"/>
@@ -7302,17 +7450,17 @@
       <c r="AA142" s="18"/>
     </row>
     <row r="143" spans="1:27" ht="17.399999999999999">
-      <c r="A143" s="66"/>
-      <c r="B143" s="62"/>
-      <c r="C143" s="62"/>
-      <c r="D143" s="29" t="s">
+      <c r="A143" s="76"/>
+      <c r="B143" s="67"/>
+      <c r="C143" s="67"/>
+      <c r="D143" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="E143" s="41"/>
+      <c r="E143" s="40"/>
       <c r="F143" s="22"/>
       <c r="G143" s="22"/>
-      <c r="H143" s="31"/>
-      <c r="I143" s="36"/>
+      <c r="H143" s="30"/>
+      <c r="I143" s="35"/>
       <c r="J143" s="18"/>
       <c r="K143" s="18"/>
       <c r="L143" s="18"/>
@@ -7333,17 +7481,17 @@
       <c r="AA143" s="18"/>
     </row>
     <row r="144" spans="1:27" ht="17.399999999999999">
-      <c r="A144" s="66"/>
-      <c r="B144" s="62"/>
-      <c r="C144" s="62"/>
-      <c r="D144" s="29" t="s">
+      <c r="A144" s="76"/>
+      <c r="B144" s="67"/>
+      <c r="C144" s="67"/>
+      <c r="D144" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="E144" s="41"/>
+      <c r="E144" s="40"/>
       <c r="F144" s="22"/>
       <c r="G144" s="22"/>
-      <c r="H144" s="31"/>
-      <c r="I144" s="36"/>
+      <c r="H144" s="30"/>
+      <c r="I144" s="35"/>
       <c r="J144" s="18"/>
       <c r="K144" s="18"/>
       <c r="L144" s="18"/>
@@ -7364,17 +7512,17 @@
       <c r="AA144" s="18"/>
     </row>
     <row r="145" spans="1:27" ht="17.399999999999999">
-      <c r="A145" s="66"/>
-      <c r="B145" s="62"/>
-      <c r="C145" s="62"/>
-      <c r="D145" s="29" t="s">
+      <c r="A145" s="76"/>
+      <c r="B145" s="67"/>
+      <c r="C145" s="67"/>
+      <c r="D145" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="E145" s="41"/>
+      <c r="E145" s="40"/>
       <c r="F145" s="22"/>
       <c r="G145" s="22"/>
-      <c r="H145" s="31"/>
-      <c r="I145" s="36"/>
+      <c r="H145" s="30"/>
+      <c r="I145" s="35"/>
       <c r="J145" s="18"/>
       <c r="K145" s="18"/>
       <c r="L145" s="18"/>
@@ -7395,17 +7543,17 @@
       <c r="AA145" s="18"/>
     </row>
     <row r="146" spans="1:27" ht="17.399999999999999">
-      <c r="A146" s="66"/>
-      <c r="B146" s="62"/>
-      <c r="C146" s="62"/>
-      <c r="D146" s="29" t="s">
+      <c r="A146" s="76"/>
+      <c r="B146" s="67"/>
+      <c r="C146" s="67"/>
+      <c r="D146" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="E146" s="41"/>
+      <c r="E146" s="40"/>
       <c r="F146" s="22"/>
       <c r="G146" s="22"/>
-      <c r="H146" s="31"/>
-      <c r="I146" s="36"/>
+      <c r="H146" s="30"/>
+      <c r="I146" s="35"/>
       <c r="J146" s="18"/>
       <c r="K146" s="18"/>
       <c r="L146" s="18"/>
@@ -7426,17 +7574,17 @@
       <c r="AA146" s="18"/>
     </row>
     <row r="147" spans="1:27" ht="17.399999999999999">
-      <c r="A147" s="66"/>
-      <c r="B147" s="62"/>
-      <c r="C147" s="62"/>
-      <c r="D147" s="29" t="s">
+      <c r="A147" s="76"/>
+      <c r="B147" s="67"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E147" s="41"/>
+      <c r="E147" s="40"/>
       <c r="F147" s="22"/>
       <c r="G147" s="22"/>
-      <c r="H147" s="31"/>
-      <c r="I147" s="36"/>
+      <c r="H147" s="30"/>
+      <c r="I147" s="35"/>
       <c r="J147" s="18"/>
       <c r="K147" s="18"/>
       <c r="L147" s="18"/>
@@ -7457,17 +7605,17 @@
       <c r="AA147" s="18"/>
     </row>
     <row r="148" spans="1:27" ht="17.399999999999999">
-      <c r="A148" s="66"/>
-      <c r="B148" s="62"/>
-      <c r="C148" s="62"/>
-      <c r="D148" s="29" t="s">
+      <c r="A148" s="76"/>
+      <c r="B148" s="67"/>
+      <c r="C148" s="67"/>
+      <c r="D148" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="E148" s="41"/>
+      <c r="E148" s="40"/>
       <c r="F148" s="22"/>
       <c r="G148" s="22"/>
-      <c r="H148" s="31"/>
-      <c r="I148" s="36"/>
+      <c r="H148" s="30"/>
+      <c r="I148" s="35"/>
       <c r="J148" s="18"/>
       <c r="K148" s="18"/>
       <c r="L148" s="18"/>
@@ -7488,17 +7636,17 @@
       <c r="AA148" s="18"/>
     </row>
     <row r="149" spans="1:27" ht="17.399999999999999">
-      <c r="A149" s="66"/>
-      <c r="B149" s="62"/>
-      <c r="C149" s="62"/>
-      <c r="D149" s="29" t="s">
+      <c r="A149" s="76"/>
+      <c r="B149" s="67"/>
+      <c r="C149" s="67"/>
+      <c r="D149" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="E149" s="41"/>
+      <c r="E149" s="40"/>
       <c r="F149" s="22"/>
       <c r="G149" s="22"/>
-      <c r="H149" s="31"/>
-      <c r="I149" s="36"/>
+      <c r="H149" s="30"/>
+      <c r="I149" s="35"/>
       <c r="J149" s="18"/>
       <c r="K149" s="18"/>
       <c r="L149" s="18"/>
@@ -7519,17 +7667,17 @@
       <c r="AA149" s="18"/>
     </row>
     <row r="150" spans="1:27" ht="17.399999999999999">
-      <c r="A150" s="66"/>
-      <c r="B150" s="62"/>
-      <c r="C150" s="62"/>
-      <c r="D150" s="29" t="s">
+      <c r="A150" s="76"/>
+      <c r="B150" s="67"/>
+      <c r="C150" s="67"/>
+      <c r="D150" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="E150" s="41"/>
+      <c r="E150" s="40"/>
       <c r="F150" s="22"/>
       <c r="G150" s="22"/>
-      <c r="H150" s="31"/>
-      <c r="I150" s="36"/>
+      <c r="H150" s="30"/>
+      <c r="I150" s="35"/>
       <c r="J150" s="18"/>
       <c r="K150" s="18"/>
       <c r="L150" s="18"/>
@@ -7550,17 +7698,17 @@
       <c r="AA150" s="18"/>
     </row>
     <row r="151" spans="1:27" ht="17.399999999999999">
-      <c r="A151" s="66"/>
-      <c r="B151" s="62"/>
-      <c r="C151" s="62"/>
-      <c r="D151" s="29" t="s">
+      <c r="A151" s="76"/>
+      <c r="B151" s="67"/>
+      <c r="C151" s="67"/>
+      <c r="D151" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E151" s="41"/>
+      <c r="E151" s="40"/>
       <c r="F151" s="22"/>
       <c r="G151" s="22"/>
-      <c r="H151" s="31"/>
-      <c r="I151" s="36"/>
+      <c r="H151" s="30"/>
+      <c r="I151" s="35"/>
       <c r="J151" s="18"/>
       <c r="K151" s="18"/>
       <c r="L151" s="18"/>
@@ -7581,17 +7729,17 @@
       <c r="AA151" s="18"/>
     </row>
     <row r="152" spans="1:27" ht="17.399999999999999">
-      <c r="A152" s="66"/>
-      <c r="B152" s="62"/>
-      <c r="C152" s="62"/>
-      <c r="D152" s="29" t="s">
+      <c r="A152" s="76"/>
+      <c r="B152" s="67"/>
+      <c r="C152" s="67"/>
+      <c r="D152" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="E152" s="41"/>
+      <c r="E152" s="40"/>
       <c r="F152" s="22"/>
       <c r="G152" s="22"/>
-      <c r="H152" s="31"/>
-      <c r="I152" s="36"/>
+      <c r="H152" s="30"/>
+      <c r="I152" s="35"/>
       <c r="J152" s="18"/>
       <c r="K152" s="18"/>
       <c r="L152" s="18"/>
@@ -7612,17 +7760,17 @@
       <c r="AA152" s="18"/>
     </row>
     <row r="153" spans="1:27" ht="17.399999999999999">
-      <c r="A153" s="66"/>
-      <c r="B153" s="62"/>
-      <c r="C153" s="62"/>
-      <c r="D153" s="29" t="s">
+      <c r="A153" s="76"/>
+      <c r="B153" s="67"/>
+      <c r="C153" s="67"/>
+      <c r="D153" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="E153" s="41"/>
+      <c r="E153" s="40"/>
       <c r="F153" s="22"/>
       <c r="G153" s="22"/>
-      <c r="H153" s="31"/>
-      <c r="I153" s="36"/>
+      <c r="H153" s="30"/>
+      <c r="I153" s="35"/>
       <c r="J153" s="18"/>
       <c r="K153" s="18"/>
       <c r="L153" s="18"/>
@@ -7643,17 +7791,17 @@
       <c r="AA153" s="18"/>
     </row>
     <row r="154" spans="1:27" ht="17.399999999999999">
-      <c r="A154" s="66"/>
-      <c r="B154" s="62"/>
-      <c r="C154" s="62"/>
-      <c r="D154" s="29" t="s">
+      <c r="A154" s="76"/>
+      <c r="B154" s="67"/>
+      <c r="C154" s="67"/>
+      <c r="D154" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="E154" s="41"/>
+      <c r="E154" s="40"/>
       <c r="F154" s="22"/>
       <c r="G154" s="22"/>
-      <c r="H154" s="31"/>
-      <c r="I154" s="36"/>
+      <c r="H154" s="30"/>
+      <c r="I154" s="35"/>
       <c r="J154" s="18"/>
       <c r="K154" s="18"/>
       <c r="L154" s="18"/>
@@ -7674,17 +7822,17 @@
       <c r="AA154" s="18"/>
     </row>
     <row r="155" spans="1:27" ht="17.399999999999999">
-      <c r="A155" s="66"/>
-      <c r="B155" s="62"/>
-      <c r="C155" s="62"/>
-      <c r="D155" s="29" t="s">
+      <c r="A155" s="76"/>
+      <c r="B155" s="67"/>
+      <c r="C155" s="67"/>
+      <c r="D155" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="E155" s="41"/>
+      <c r="E155" s="40"/>
       <c r="F155" s="22"/>
       <c r="G155" s="22"/>
-      <c r="H155" s="31"/>
-      <c r="I155" s="36"/>
+      <c r="H155" s="30"/>
+      <c r="I155" s="35"/>
       <c r="J155" s="18"/>
       <c r="K155" s="18"/>
       <c r="L155" s="18"/>
@@ -7705,17 +7853,17 @@
       <c r="AA155" s="18"/>
     </row>
     <row r="156" spans="1:27" ht="17.399999999999999">
-      <c r="A156" s="66"/>
-      <c r="B156" s="62"/>
-      <c r="C156" s="62"/>
-      <c r="D156" s="29" t="s">
+      <c r="A156" s="76"/>
+      <c r="B156" s="67"/>
+      <c r="C156" s="67"/>
+      <c r="D156" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="E156" s="41"/>
+      <c r="E156" s="40"/>
       <c r="F156" s="22"/>
       <c r="G156" s="22"/>
-      <c r="H156" s="31"/>
-      <c r="I156" s="36"/>
+      <c r="H156" s="30"/>
+      <c r="I156" s="35"/>
       <c r="J156" s="18"/>
       <c r="K156" s="18"/>
       <c r="L156" s="18"/>
@@ -7736,17 +7884,17 @@
       <c r="AA156" s="18"/>
     </row>
     <row r="157" spans="1:27" ht="17.399999999999999">
-      <c r="A157" s="66"/>
-      <c r="B157" s="62"/>
-      <c r="C157" s="62"/>
-      <c r="D157" s="29" t="s">
+      <c r="A157" s="76"/>
+      <c r="B157" s="67"/>
+      <c r="C157" s="67"/>
+      <c r="D157" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="E157" s="41"/>
+      <c r="E157" s="40"/>
       <c r="F157" s="22"/>
       <c r="G157" s="22"/>
-      <c r="H157" s="31"/>
-      <c r="I157" s="36"/>
+      <c r="H157" s="30"/>
+      <c r="I157" s="35"/>
       <c r="J157" s="18"/>
       <c r="K157" s="18"/>
       <c r="L157" s="18"/>
@@ -7767,17 +7915,17 @@
       <c r="AA157" s="18"/>
     </row>
     <row r="158" spans="1:27" ht="17.399999999999999">
-      <c r="A158" s="66"/>
-      <c r="B158" s="62"/>
-      <c r="C158" s="62"/>
-      <c r="D158" s="29" t="s">
+      <c r="A158" s="76"/>
+      <c r="B158" s="67"/>
+      <c r="C158" s="67"/>
+      <c r="D158" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="E158" s="41"/>
+      <c r="E158" s="40"/>
       <c r="F158" s="22"/>
       <c r="G158" s="22"/>
-      <c r="H158" s="31"/>
-      <c r="I158" s="36"/>
+      <c r="H158" s="30"/>
+      <c r="I158" s="35"/>
       <c r="J158" s="18"/>
       <c r="K158" s="18"/>
       <c r="L158" s="18"/>
@@ -7798,17 +7946,17 @@
       <c r="AA158" s="18"/>
     </row>
     <row r="159" spans="1:27" ht="17.399999999999999">
-      <c r="A159" s="66"/>
-      <c r="B159" s="62"/>
-      <c r="C159" s="62"/>
-      <c r="D159" s="29" t="s">
+      <c r="A159" s="76"/>
+      <c r="B159" s="67"/>
+      <c r="C159" s="67"/>
+      <c r="D159" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="E159" s="41"/>
+      <c r="E159" s="40"/>
       <c r="F159" s="22"/>
       <c r="G159" s="22"/>
-      <c r="H159" s="31"/>
-      <c r="I159" s="36"/>
+      <c r="H159" s="30"/>
+      <c r="I159" s="35"/>
       <c r="J159" s="18"/>
       <c r="K159" s="18"/>
       <c r="L159" s="18"/>
@@ -7829,17 +7977,17 @@
       <c r="AA159" s="18"/>
     </row>
     <row r="160" spans="1:27" ht="17.399999999999999">
-      <c r="A160" s="66"/>
-      <c r="B160" s="62"/>
-      <c r="C160" s="62"/>
-      <c r="D160" s="29" t="s">
+      <c r="A160" s="76"/>
+      <c r="B160" s="67"/>
+      <c r="C160" s="67"/>
+      <c r="D160" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="E160" s="41"/>
+      <c r="E160" s="40"/>
       <c r="F160" s="22"/>
       <c r="G160" s="22"/>
-      <c r="H160" s="31"/>
-      <c r="I160" s="36"/>
+      <c r="H160" s="30"/>
+      <c r="I160" s="35"/>
       <c r="J160" s="18"/>
       <c r="K160" s="18"/>
       <c r="L160" s="18"/>
@@ -7860,17 +8008,17 @@
       <c r="AA160" s="18"/>
     </row>
     <row r="161" spans="1:27" ht="17.399999999999999">
-      <c r="A161" s="66"/>
-      <c r="B161" s="62"/>
-      <c r="C161" s="62"/>
-      <c r="D161" s="29" t="s">
+      <c r="A161" s="76"/>
+      <c r="B161" s="67"/>
+      <c r="C161" s="67"/>
+      <c r="D161" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="E161" s="41"/>
+      <c r="E161" s="40"/>
       <c r="F161" s="22"/>
       <c r="G161" s="22"/>
-      <c r="H161" s="31"/>
-      <c r="I161" s="36"/>
+      <c r="H161" s="30"/>
+      <c r="I161" s="35"/>
       <c r="J161" s="18"/>
       <c r="K161" s="18"/>
       <c r="L161" s="18"/>
@@ -7891,17 +8039,17 @@
       <c r="AA161" s="18"/>
     </row>
     <row r="162" spans="1:27" ht="17.399999999999999">
-      <c r="A162" s="66"/>
-      <c r="B162" s="62"/>
-      <c r="C162" s="62"/>
-      <c r="D162" s="29" t="s">
+      <c r="A162" s="76"/>
+      <c r="B162" s="67"/>
+      <c r="C162" s="67"/>
+      <c r="D162" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="E162" s="41"/>
+      <c r="E162" s="40"/>
       <c r="F162" s="22"/>
       <c r="G162" s="22"/>
-      <c r="H162" s="31"/>
-      <c r="I162" s="36"/>
+      <c r="H162" s="30"/>
+      <c r="I162" s="35"/>
       <c r="J162" s="18"/>
       <c r="K162" s="18"/>
       <c r="L162" s="18"/>
@@ -7922,17 +8070,17 @@
       <c r="AA162" s="18"/>
     </row>
     <row r="163" spans="1:27" ht="17.399999999999999">
-      <c r="A163" s="66"/>
-      <c r="B163" s="62"/>
-      <c r="C163" s="62"/>
-      <c r="D163" s="29" t="s">
+      <c r="A163" s="76"/>
+      <c r="B163" s="67"/>
+      <c r="C163" s="67"/>
+      <c r="D163" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="E163" s="41"/>
+      <c r="E163" s="40"/>
       <c r="F163" s="22"/>
       <c r="G163" s="22"/>
-      <c r="H163" s="31"/>
-      <c r="I163" s="36"/>
+      <c r="H163" s="30"/>
+      <c r="I163" s="35"/>
       <c r="J163" s="18"/>
       <c r="K163" s="18"/>
       <c r="L163" s="18"/>
@@ -7953,17 +8101,17 @@
       <c r="AA163" s="18"/>
     </row>
     <row r="164" spans="1:27" ht="17.399999999999999">
-      <c r="A164" s="66"/>
-      <c r="B164" s="62"/>
-      <c r="C164" s="62"/>
-      <c r="D164" s="29" t="s">
+      <c r="A164" s="76"/>
+      <c r="B164" s="67"/>
+      <c r="C164" s="67"/>
+      <c r="D164" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="E164" s="41"/>
+      <c r="E164" s="40"/>
       <c r="F164" s="22"/>
       <c r="G164" s="22"/>
-      <c r="H164" s="31"/>
-      <c r="I164" s="36"/>
+      <c r="H164" s="30"/>
+      <c r="I164" s="35"/>
       <c r="J164" s="18"/>
       <c r="K164" s="18"/>
       <c r="L164" s="18"/>
@@ -7984,17 +8132,17 @@
       <c r="AA164" s="18"/>
     </row>
     <row r="165" spans="1:27" ht="17.399999999999999">
-      <c r="A165" s="66"/>
-      <c r="B165" s="62"/>
-      <c r="C165" s="62"/>
-      <c r="D165" s="29" t="s">
+      <c r="A165" s="76"/>
+      <c r="B165" s="67"/>
+      <c r="C165" s="67"/>
+      <c r="D165" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="E165" s="41"/>
+      <c r="E165" s="40"/>
       <c r="F165" s="22"/>
       <c r="G165" s="22"/>
-      <c r="H165" s="31"/>
-      <c r="I165" s="36"/>
+      <c r="H165" s="30"/>
+      <c r="I165" s="35"/>
       <c r="J165" s="18"/>
       <c r="K165" s="18"/>
       <c r="L165" s="18"/>
@@ -8015,17 +8163,17 @@
       <c r="AA165" s="18"/>
     </row>
     <row r="166" spans="1:27" ht="17.399999999999999">
-      <c r="A166" s="66"/>
-      <c r="B166" s="62"/>
-      <c r="C166" s="62"/>
-      <c r="D166" s="29" t="s">
+      <c r="A166" s="76"/>
+      <c r="B166" s="67"/>
+      <c r="C166" s="67"/>
+      <c r="D166" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="E166" s="41"/>
+      <c r="E166" s="40"/>
       <c r="F166" s="22"/>
       <c r="G166" s="22"/>
-      <c r="H166" s="31"/>
-      <c r="I166" s="36"/>
+      <c r="H166" s="30"/>
+      <c r="I166" s="35"/>
       <c r="J166" s="18"/>
       <c r="K166" s="18"/>
       <c r="L166" s="18"/>
@@ -8046,17 +8194,17 @@
       <c r="AA166" s="18"/>
     </row>
     <row r="167" spans="1:27" ht="17.399999999999999">
-      <c r="A167" s="66"/>
-      <c r="B167" s="62"/>
-      <c r="C167" s="62"/>
-      <c r="D167" s="29" t="s">
+      <c r="A167" s="76"/>
+      <c r="B167" s="67"/>
+      <c r="C167" s="67"/>
+      <c r="D167" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="E167" s="41"/>
+      <c r="E167" s="40"/>
       <c r="F167" s="22"/>
       <c r="G167" s="22"/>
-      <c r="H167" s="31"/>
-      <c r="I167" s="36"/>
+      <c r="H167" s="30"/>
+      <c r="I167" s="35"/>
       <c r="J167" s="18"/>
       <c r="K167" s="18"/>
       <c r="L167" s="18"/>
@@ -8077,17 +8225,17 @@
       <c r="AA167" s="18"/>
     </row>
     <row r="168" spans="1:27" ht="17.399999999999999">
-      <c r="A168" s="66"/>
-      <c r="B168" s="62"/>
-      <c r="C168" s="62"/>
-      <c r="D168" s="29" t="s">
+      <c r="A168" s="76"/>
+      <c r="B168" s="67"/>
+      <c r="C168" s="67"/>
+      <c r="D168" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="E168" s="41"/>
+      <c r="E168" s="40"/>
       <c r="F168" s="22"/>
       <c r="G168" s="22"/>
-      <c r="H168" s="31"/>
-      <c r="I168" s="36"/>
+      <c r="H168" s="30"/>
+      <c r="I168" s="35"/>
       <c r="J168" s="18"/>
       <c r="K168" s="18"/>
       <c r="L168" s="18"/>
@@ -8108,21 +8256,21 @@
       <c r="AA168" s="18"/>
     </row>
     <row r="169" spans="1:27" ht="17.399999999999999">
-      <c r="A169" s="66"/>
-      <c r="B169" s="61" t="s">
+      <c r="A169" s="76"/>
+      <c r="B169" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="C169" s="61" t="s">
+      <c r="C169" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="D169" s="29" t="s">
+      <c r="D169" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="E169" s="41"/>
+      <c r="E169" s="40"/>
       <c r="F169" s="22"/>
       <c r="G169" s="22"/>
-      <c r="H169" s="31"/>
-      <c r="I169" s="36"/>
+      <c r="H169" s="30"/>
+      <c r="I169" s="35"/>
       <c r="J169" s="18"/>
       <c r="K169" s="18"/>
       <c r="L169" s="18"/>
@@ -8143,17 +8291,17 @@
       <c r="AA169" s="18"/>
     </row>
     <row r="170" spans="1:27" ht="17.399999999999999">
-      <c r="A170" s="66"/>
-      <c r="B170" s="62"/>
-      <c r="C170" s="62"/>
-      <c r="D170" s="29" t="s">
+      <c r="A170" s="76"/>
+      <c r="B170" s="67"/>
+      <c r="C170" s="67"/>
+      <c r="D170" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="E170" s="41"/>
+      <c r="E170" s="40"/>
       <c r="F170" s="22"/>
       <c r="G170" s="22"/>
-      <c r="H170" s="31"/>
-      <c r="I170" s="36"/>
+      <c r="H170" s="30"/>
+      <c r="I170" s="35"/>
       <c r="J170" s="18"/>
       <c r="K170" s="18"/>
       <c r="L170" s="18"/>
@@ -8174,17 +8322,17 @@
       <c r="AA170" s="18"/>
     </row>
     <row r="171" spans="1:27" ht="17.399999999999999">
-      <c r="A171" s="66"/>
-      <c r="B171" s="62"/>
-      <c r="C171" s="62"/>
-      <c r="D171" s="29" t="s">
+      <c r="A171" s="76"/>
+      <c r="B171" s="67"/>
+      <c r="C171" s="67"/>
+      <c r="D171" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="E171" s="41"/>
+      <c r="E171" s="40"/>
       <c r="F171" s="22"/>
       <c r="G171" s="22"/>
-      <c r="H171" s="31"/>
-      <c r="I171" s="36"/>
+      <c r="H171" s="30"/>
+      <c r="I171" s="35"/>
       <c r="J171" s="18"/>
       <c r="K171" s="18"/>
       <c r="L171" s="18"/>
@@ -8205,17 +8353,17 @@
       <c r="AA171" s="18"/>
     </row>
     <row r="172" spans="1:27" ht="17.399999999999999">
-      <c r="A172" s="66"/>
-      <c r="B172" s="62"/>
-      <c r="C172" s="62"/>
-      <c r="D172" s="29" t="s">
+      <c r="A172" s="76"/>
+      <c r="B172" s="67"/>
+      <c r="C172" s="67"/>
+      <c r="D172" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="E172" s="41"/>
+      <c r="E172" s="40"/>
       <c r="F172" s="22"/>
       <c r="G172" s="22"/>
-      <c r="H172" s="31"/>
-      <c r="I172" s="36"/>
+      <c r="H172" s="30"/>
+      <c r="I172" s="35"/>
       <c r="J172" s="18"/>
       <c r="K172" s="18"/>
       <c r="L172" s="18"/>
@@ -8236,17 +8384,17 @@
       <c r="AA172" s="18"/>
     </row>
     <row r="173" spans="1:27" ht="17.399999999999999">
-      <c r="A173" s="66"/>
-      <c r="B173" s="62"/>
-      <c r="C173" s="62"/>
-      <c r="D173" s="29" t="s">
+      <c r="A173" s="76"/>
+      <c r="B173" s="67"/>
+      <c r="C173" s="67"/>
+      <c r="D173" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="E173" s="41"/>
+      <c r="E173" s="40"/>
       <c r="F173" s="22"/>
       <c r="G173" s="22"/>
-      <c r="H173" s="31"/>
-      <c r="I173" s="36"/>
+      <c r="H173" s="30"/>
+      <c r="I173" s="35"/>
       <c r="J173" s="18"/>
       <c r="K173" s="18"/>
       <c r="L173" s="18"/>
@@ -8267,17 +8415,17 @@
       <c r="AA173" s="18"/>
     </row>
     <row r="174" spans="1:27" ht="17.399999999999999">
-      <c r="A174" s="66"/>
-      <c r="B174" s="62"/>
-      <c r="C174" s="62"/>
-      <c r="D174" s="29" t="s">
+      <c r="A174" s="76"/>
+      <c r="B174" s="67"/>
+      <c r="C174" s="67"/>
+      <c r="D174" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="E174" s="41"/>
+      <c r="E174" s="40"/>
       <c r="F174" s="22"/>
       <c r="G174" s="22"/>
-      <c r="H174" s="31"/>
-      <c r="I174" s="36"/>
+      <c r="H174" s="30"/>
+      <c r="I174" s="35"/>
       <c r="J174" s="18"/>
       <c r="K174" s="18"/>
       <c r="L174" s="18"/>
@@ -8298,17 +8446,17 @@
       <c r="AA174" s="18"/>
     </row>
     <row r="175" spans="1:27" ht="17.399999999999999">
-      <c r="A175" s="66"/>
-      <c r="B175" s="62"/>
-      <c r="C175" s="62"/>
-      <c r="D175" s="45" t="s">
+      <c r="A175" s="76"/>
+      <c r="B175" s="67"/>
+      <c r="C175" s="67"/>
+      <c r="D175" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="E175" s="41"/>
+      <c r="E175" s="40"/>
       <c r="F175" s="22"/>
       <c r="G175" s="22"/>
-      <c r="H175" s="31"/>
-      <c r="I175" s="36"/>
+      <c r="H175" s="30"/>
+      <c r="I175" s="35"/>
       <c r="J175" s="18"/>
       <c r="K175" s="18"/>
       <c r="L175" s="18"/>
@@ -8329,17 +8477,17 @@
       <c r="AA175" s="18"/>
     </row>
     <row r="176" spans="1:27" ht="17.399999999999999">
-      <c r="A176" s="66"/>
-      <c r="B176" s="62"/>
-      <c r="C176" s="62"/>
-      <c r="D176" s="45" t="s">
+      <c r="A176" s="76"/>
+      <c r="B176" s="67"/>
+      <c r="C176" s="67"/>
+      <c r="D176" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="E176" s="41"/>
+      <c r="E176" s="40"/>
       <c r="F176" s="22"/>
       <c r="G176" s="22"/>
-      <c r="H176" s="31"/>
-      <c r="I176" s="36"/>
+      <c r="H176" s="30"/>
+      <c r="I176" s="35"/>
       <c r="J176" s="18"/>
       <c r="K176" s="18"/>
       <c r="L176" s="18"/>
@@ -8360,17 +8508,17 @@
       <c r="AA176" s="18"/>
     </row>
     <row r="177" spans="1:27" ht="17.399999999999999">
-      <c r="A177" s="66"/>
-      <c r="B177" s="62"/>
-      <c r="C177" s="62"/>
-      <c r="D177" s="45" t="s">
+      <c r="A177" s="76"/>
+      <c r="B177" s="67"/>
+      <c r="C177" s="67"/>
+      <c r="D177" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="E177" s="41"/>
+      <c r="E177" s="40"/>
       <c r="F177" s="22"/>
       <c r="G177" s="22"/>
-      <c r="H177" s="31"/>
-      <c r="I177" s="36"/>
+      <c r="H177" s="30"/>
+      <c r="I177" s="35"/>
       <c r="J177" s="18"/>
       <c r="K177" s="18"/>
       <c r="L177" s="18"/>
@@ -8391,17 +8539,17 @@
       <c r="AA177" s="18"/>
     </row>
     <row r="178" spans="1:27" ht="17.399999999999999">
-      <c r="A178" s="66"/>
-      <c r="B178" s="62"/>
-      <c r="C178" s="62"/>
-      <c r="D178" s="45" t="s">
+      <c r="A178" s="76"/>
+      <c r="B178" s="67"/>
+      <c r="C178" s="67"/>
+      <c r="D178" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="E178" s="41"/>
+      <c r="E178" s="40"/>
       <c r="F178" s="22"/>
       <c r="G178" s="22"/>
-      <c r="H178" s="31"/>
-      <c r="I178" s="36"/>
+      <c r="H178" s="30"/>
+      <c r="I178" s="35"/>
       <c r="J178" s="18"/>
       <c r="K178" s="18"/>
       <c r="L178" s="18"/>
@@ -8422,17 +8570,17 @@
       <c r="AA178" s="18"/>
     </row>
     <row r="179" spans="1:27" ht="17.399999999999999">
-      <c r="A179" s="66"/>
-      <c r="B179" s="62"/>
-      <c r="C179" s="62"/>
-      <c r="D179" s="45" t="s">
+      <c r="A179" s="76"/>
+      <c r="B179" s="67"/>
+      <c r="C179" s="67"/>
+      <c r="D179" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="E179" s="41"/>
+      <c r="E179" s="40"/>
       <c r="F179" s="22"/>
       <c r="G179" s="22"/>
-      <c r="H179" s="31"/>
-      <c r="I179" s="36"/>
+      <c r="H179" s="30"/>
+      <c r="I179" s="35"/>
       <c r="J179" s="18"/>
       <c r="K179" s="18"/>
       <c r="L179" s="18"/>
@@ -8453,17 +8601,17 @@
       <c r="AA179" s="18"/>
     </row>
     <row r="180" spans="1:27" ht="17.399999999999999">
-      <c r="A180" s="66"/>
-      <c r="B180" s="62"/>
-      <c r="C180" s="62"/>
-      <c r="D180" s="45" t="s">
+      <c r="A180" s="76"/>
+      <c r="B180" s="67"/>
+      <c r="C180" s="67"/>
+      <c r="D180" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="E180" s="41"/>
+      <c r="E180" s="40"/>
       <c r="F180" s="22"/>
       <c r="G180" s="22"/>
-      <c r="H180" s="31"/>
-      <c r="I180" s="36"/>
+      <c r="H180" s="30"/>
+      <c r="I180" s="35"/>
       <c r="J180" s="18"/>
       <c r="K180" s="18"/>
       <c r="L180" s="18"/>
@@ -8484,17 +8632,17 @@
       <c r="AA180" s="18"/>
     </row>
     <row r="181" spans="1:27" ht="17.399999999999999">
-      <c r="A181" s="66"/>
-      <c r="B181" s="62"/>
-      <c r="C181" s="62"/>
-      <c r="D181" s="29" t="s">
+      <c r="A181" s="76"/>
+      <c r="B181" s="67"/>
+      <c r="C181" s="67"/>
+      <c r="D181" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="E181" s="41"/>
+      <c r="E181" s="40"/>
       <c r="F181" s="22"/>
       <c r="G181" s="22"/>
-      <c r="H181" s="31"/>
-      <c r="I181" s="36"/>
+      <c r="H181" s="30"/>
+      <c r="I181" s="35"/>
       <c r="J181" s="18"/>
       <c r="K181" s="18"/>
       <c r="L181" s="18"/>
@@ -8515,19 +8663,19 @@
       <c r="AA181" s="18"/>
     </row>
     <row r="182" spans="1:27" ht="17.399999999999999">
-      <c r="A182" s="66"/>
-      <c r="B182" s="62"/>
-      <c r="C182" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="D182" s="29" t="s">
+      <c r="A182" s="76"/>
+      <c r="B182" s="67"/>
+      <c r="C182" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="D182" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="E182" s="46"/>
-      <c r="F182" s="47"/>
-      <c r="G182" s="47"/>
-      <c r="H182" s="48"/>
-      <c r="I182" s="36"/>
+      <c r="E182" s="45"/>
+      <c r="F182" s="46"/>
+      <c r="G182" s="46"/>
+      <c r="H182" s="47"/>
+      <c r="I182" s="35"/>
       <c r="J182" s="18"/>
       <c r="K182" s="18"/>
       <c r="L182" s="18"/>
@@ -8548,17 +8696,17 @@
       <c r="AA182" s="18"/>
     </row>
     <row r="183" spans="1:27" ht="17.399999999999999">
-      <c r="A183" s="66"/>
-      <c r="B183" s="62"/>
-      <c r="C183" s="62"/>
-      <c r="D183" s="29" t="s">
+      <c r="A183" s="76"/>
+      <c r="B183" s="67"/>
+      <c r="C183" s="67"/>
+      <c r="D183" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="E183" s="46"/>
-      <c r="F183" s="47"/>
-      <c r="G183" s="47"/>
-      <c r="H183" s="48"/>
-      <c r="I183" s="36"/>
+      <c r="E183" s="45"/>
+      <c r="F183" s="46"/>
+      <c r="G183" s="46"/>
+      <c r="H183" s="47"/>
+      <c r="I183" s="35"/>
       <c r="J183" s="18"/>
       <c r="K183" s="18"/>
       <c r="L183" s="18"/>
@@ -8579,17 +8727,17 @@
       <c r="AA183" s="18"/>
     </row>
     <row r="184" spans="1:27" ht="17.399999999999999">
-      <c r="A184" s="66"/>
-      <c r="B184" s="62"/>
-      <c r="C184" s="62"/>
-      <c r="D184" s="29" t="s">
+      <c r="A184" s="76"/>
+      <c r="B184" s="67"/>
+      <c r="C184" s="67"/>
+      <c r="D184" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="E184" s="46"/>
-      <c r="F184" s="47"/>
-      <c r="G184" s="47"/>
-      <c r="H184" s="48"/>
-      <c r="I184" s="36"/>
+      <c r="E184" s="45"/>
+      <c r="F184" s="46"/>
+      <c r="G184" s="46"/>
+      <c r="H184" s="47"/>
+      <c r="I184" s="35"/>
       <c r="J184" s="18"/>
       <c r="K184" s="18"/>
       <c r="L184" s="18"/>
@@ -8610,17 +8758,17 @@
       <c r="AA184" s="18"/>
     </row>
     <row r="185" spans="1:27" ht="17.399999999999999">
-      <c r="A185" s="66"/>
-      <c r="B185" s="62"/>
-      <c r="C185" s="62"/>
-      <c r="D185" s="29" t="s">
+      <c r="A185" s="76"/>
+      <c r="B185" s="67"/>
+      <c r="C185" s="67"/>
+      <c r="D185" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="E185" s="46"/>
-      <c r="F185" s="47"/>
-      <c r="G185" s="47"/>
-      <c r="H185" s="48"/>
-      <c r="I185" s="36"/>
+      <c r="E185" s="45"/>
+      <c r="F185" s="46"/>
+      <c r="G185" s="46"/>
+      <c r="H185" s="47"/>
+      <c r="I185" s="35"/>
       <c r="J185" s="18"/>
       <c r="K185" s="18"/>
       <c r="L185" s="18"/>
@@ -8641,17 +8789,17 @@
       <c r="AA185" s="18"/>
     </row>
     <row r="186" spans="1:27" ht="17.399999999999999">
-      <c r="A186" s="66"/>
-      <c r="B186" s="62"/>
-      <c r="C186" s="62"/>
-      <c r="D186" s="29" t="s">
+      <c r="A186" s="76"/>
+      <c r="B186" s="67"/>
+      <c r="C186" s="67"/>
+      <c r="D186" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="E186" s="46"/>
-      <c r="F186" s="47"/>
-      <c r="G186" s="47"/>
-      <c r="H186" s="48"/>
-      <c r="I186" s="36"/>
+      <c r="E186" s="45"/>
+      <c r="F186" s="46"/>
+      <c r="G186" s="46"/>
+      <c r="H186" s="47"/>
+      <c r="I186" s="35"/>
       <c r="J186" s="18"/>
       <c r="K186" s="18"/>
       <c r="L186" s="18"/>
@@ -8672,17 +8820,17 @@
       <c r="AA186" s="18"/>
     </row>
     <row r="187" spans="1:27" ht="17.399999999999999">
-      <c r="A187" s="66"/>
-      <c r="B187" s="62"/>
-      <c r="C187" s="62"/>
-      <c r="D187" s="29" t="s">
+      <c r="A187" s="76"/>
+      <c r="B187" s="67"/>
+      <c r="C187" s="67"/>
+      <c r="D187" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="E187" s="46"/>
-      <c r="F187" s="47"/>
-      <c r="G187" s="47"/>
-      <c r="H187" s="48"/>
-      <c r="I187" s="36"/>
+      <c r="E187" s="45"/>
+      <c r="F187" s="46"/>
+      <c r="G187" s="46"/>
+      <c r="H187" s="47"/>
+      <c r="I187" s="35"/>
       <c r="J187" s="18"/>
       <c r="K187" s="18"/>
       <c r="L187" s="18"/>
@@ -8703,17 +8851,17 @@
       <c r="AA187" s="18"/>
     </row>
     <row r="188" spans="1:27" ht="17.399999999999999">
-      <c r="A188" s="66"/>
-      <c r="B188" s="62"/>
-      <c r="C188" s="62"/>
-      <c r="D188" s="45" t="s">
+      <c r="A188" s="76"/>
+      <c r="B188" s="67"/>
+      <c r="C188" s="67"/>
+      <c r="D188" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="E188" s="46"/>
-      <c r="F188" s="47"/>
-      <c r="G188" s="47"/>
-      <c r="H188" s="48"/>
-      <c r="I188" s="36"/>
+      <c r="E188" s="45"/>
+      <c r="F188" s="46"/>
+      <c r="G188" s="46"/>
+      <c r="H188" s="47"/>
+      <c r="I188" s="35"/>
       <c r="J188" s="18"/>
       <c r="K188" s="18"/>
       <c r="L188" s="18"/>
@@ -8734,17 +8882,17 @@
       <c r="AA188" s="18"/>
     </row>
     <row r="189" spans="1:27" ht="17.399999999999999">
-      <c r="A189" s="66"/>
-      <c r="B189" s="62"/>
-      <c r="C189" s="62"/>
-      <c r="D189" s="45" t="s">
+      <c r="A189" s="76"/>
+      <c r="B189" s="67"/>
+      <c r="C189" s="67"/>
+      <c r="D189" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="E189" s="46"/>
-      <c r="F189" s="47"/>
-      <c r="G189" s="47"/>
-      <c r="H189" s="48"/>
-      <c r="I189" s="36"/>
+      <c r="E189" s="45"/>
+      <c r="F189" s="46"/>
+      <c r="G189" s="46"/>
+      <c r="H189" s="47"/>
+      <c r="I189" s="35"/>
       <c r="J189" s="18"/>
       <c r="K189" s="18"/>
       <c r="L189" s="18"/>
@@ -8765,17 +8913,17 @@
       <c r="AA189" s="18"/>
     </row>
     <row r="190" spans="1:27" ht="17.399999999999999">
-      <c r="A190" s="66"/>
-      <c r="B190" s="62"/>
-      <c r="C190" s="62"/>
-      <c r="D190" s="45" t="s">
+      <c r="A190" s="76"/>
+      <c r="B190" s="67"/>
+      <c r="C190" s="67"/>
+      <c r="D190" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="E190" s="46"/>
-      <c r="F190" s="47"/>
-      <c r="G190" s="47"/>
-      <c r="H190" s="48"/>
-      <c r="I190" s="36"/>
+      <c r="E190" s="45"/>
+      <c r="F190" s="46"/>
+      <c r="G190" s="46"/>
+      <c r="H190" s="47"/>
+      <c r="I190" s="35"/>
       <c r="J190" s="18"/>
       <c r="K190" s="18"/>
       <c r="L190" s="18"/>
@@ -8796,17 +8944,17 @@
       <c r="AA190" s="18"/>
     </row>
     <row r="191" spans="1:27" ht="17.399999999999999">
-      <c r="A191" s="66"/>
-      <c r="B191" s="62"/>
-      <c r="C191" s="62"/>
-      <c r="D191" s="45" t="s">
+      <c r="A191" s="76"/>
+      <c r="B191" s="67"/>
+      <c r="C191" s="67"/>
+      <c r="D191" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="E191" s="46"/>
-      <c r="F191" s="47"/>
-      <c r="G191" s="47"/>
-      <c r="H191" s="48"/>
-      <c r="I191" s="36"/>
+      <c r="E191" s="45"/>
+      <c r="F191" s="46"/>
+      <c r="G191" s="46"/>
+      <c r="H191" s="47"/>
+      <c r="I191" s="35"/>
       <c r="J191" s="18"/>
       <c r="K191" s="18"/>
       <c r="L191" s="18"/>
@@ -8827,17 +8975,17 @@
       <c r="AA191" s="18"/>
     </row>
     <row r="192" spans="1:27" ht="17.399999999999999">
-      <c r="A192" s="66"/>
-      <c r="B192" s="62"/>
-      <c r="C192" s="62"/>
-      <c r="D192" s="45" t="s">
+      <c r="A192" s="76"/>
+      <c r="B192" s="67"/>
+      <c r="C192" s="67"/>
+      <c r="D192" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="E192" s="46"/>
-      <c r="F192" s="47"/>
-      <c r="G192" s="47"/>
-      <c r="H192" s="48"/>
-      <c r="I192" s="36"/>
+      <c r="E192" s="45"/>
+      <c r="F192" s="46"/>
+      <c r="G192" s="46"/>
+      <c r="H192" s="47"/>
+      <c r="I192" s="35"/>
       <c r="J192" s="18"/>
       <c r="K192" s="18"/>
       <c r="L192" s="18"/>
@@ -8858,17 +9006,17 @@
       <c r="AA192" s="18"/>
     </row>
     <row r="193" spans="1:27" ht="17.399999999999999">
-      <c r="A193" s="66"/>
-      <c r="B193" s="62"/>
-      <c r="C193" s="62"/>
-      <c r="D193" s="45" t="s">
+      <c r="A193" s="76"/>
+      <c r="B193" s="67"/>
+      <c r="C193" s="67"/>
+      <c r="D193" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="E193" s="46"/>
-      <c r="F193" s="47"/>
-      <c r="G193" s="47"/>
-      <c r="H193" s="48"/>
-      <c r="I193" s="36"/>
+      <c r="E193" s="45"/>
+      <c r="F193" s="46"/>
+      <c r="G193" s="46"/>
+      <c r="H193" s="47"/>
+      <c r="I193" s="35"/>
       <c r="J193" s="18"/>
       <c r="K193" s="18"/>
       <c r="L193" s="18"/>
@@ -8889,17 +9037,17 @@
       <c r="AA193" s="18"/>
     </row>
     <row r="194" spans="1:27" ht="17.399999999999999">
-      <c r="A194" s="66"/>
-      <c r="B194" s="62"/>
-      <c r="C194" s="62"/>
-      <c r="D194" s="29" t="s">
+      <c r="A194" s="76"/>
+      <c r="B194" s="67"/>
+      <c r="C194" s="67"/>
+      <c r="D194" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="E194" s="46"/>
-      <c r="F194" s="47"/>
-      <c r="G194" s="47"/>
-      <c r="H194" s="48"/>
-      <c r="I194" s="36"/>
+      <c r="E194" s="45"/>
+      <c r="F194" s="46"/>
+      <c r="G194" s="46"/>
+      <c r="H194" s="47"/>
+      <c r="I194" s="35"/>
       <c r="J194" s="18"/>
       <c r="K194" s="18"/>
       <c r="L194" s="18"/>
@@ -8920,19 +9068,19 @@
       <c r="AA194" s="18"/>
     </row>
     <row r="195" spans="1:27" ht="17.399999999999999">
-      <c r="A195" s="66"/>
-      <c r="B195" s="62"/>
-      <c r="C195" s="61" t="s">
+      <c r="A195" s="76"/>
+      <c r="B195" s="67"/>
+      <c r="C195" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="D195" s="29" t="s">
+      <c r="D195" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="E195" s="41"/>
+      <c r="E195" s="40"/>
       <c r="F195" s="22"/>
       <c r="G195" s="22"/>
-      <c r="H195" s="31"/>
-      <c r="I195" s="36"/>
+      <c r="H195" s="30"/>
+      <c r="I195" s="35"/>
       <c r="J195" s="18"/>
       <c r="K195" s="18"/>
       <c r="L195" s="18"/>
@@ -8953,17 +9101,17 @@
       <c r="AA195" s="18"/>
     </row>
     <row r="196" spans="1:27" ht="17.399999999999999">
-      <c r="A196" s="66"/>
-      <c r="B196" s="62"/>
-      <c r="C196" s="62"/>
-      <c r="D196" s="29" t="s">
+      <c r="A196" s="76"/>
+      <c r="B196" s="67"/>
+      <c r="C196" s="67"/>
+      <c r="D196" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="E196" s="41"/>
+      <c r="E196" s="40"/>
       <c r="F196" s="22"/>
       <c r="G196" s="22"/>
-      <c r="H196" s="31"/>
-      <c r="I196" s="36"/>
+      <c r="H196" s="30"/>
+      <c r="I196" s="35"/>
       <c r="J196" s="18"/>
       <c r="K196" s="18"/>
       <c r="L196" s="18"/>
@@ -8984,17 +9132,17 @@
       <c r="AA196" s="18"/>
     </row>
     <row r="197" spans="1:27" ht="17.399999999999999">
-      <c r="A197" s="66"/>
-      <c r="B197" s="62"/>
-      <c r="C197" s="62"/>
-      <c r="D197" s="29" t="s">
+      <c r="A197" s="76"/>
+      <c r="B197" s="67"/>
+      <c r="C197" s="67"/>
+      <c r="D197" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="E197" s="41"/>
+      <c r="E197" s="40"/>
       <c r="F197" s="22"/>
       <c r="G197" s="22"/>
-      <c r="H197" s="31"/>
-      <c r="I197" s="36"/>
+      <c r="H197" s="30"/>
+      <c r="I197" s="35"/>
       <c r="J197" s="18"/>
       <c r="K197" s="18"/>
       <c r="L197" s="18"/>
@@ -9015,17 +9163,17 @@
       <c r="AA197" s="18"/>
     </row>
     <row r="198" spans="1:27" ht="17.399999999999999">
-      <c r="A198" s="66"/>
-      <c r="B198" s="62"/>
-      <c r="C198" s="62"/>
-      <c r="D198" s="29" t="s">
+      <c r="A198" s="76"/>
+      <c r="B198" s="67"/>
+      <c r="C198" s="67"/>
+      <c r="D198" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="E198" s="41"/>
+      <c r="E198" s="40"/>
       <c r="F198" s="22"/>
       <c r="G198" s="22"/>
-      <c r="H198" s="31"/>
-      <c r="I198" s="36"/>
+      <c r="H198" s="30"/>
+      <c r="I198" s="35"/>
       <c r="J198" s="18"/>
       <c r="K198" s="18"/>
       <c r="L198" s="18"/>
@@ -9046,17 +9194,17 @@
       <c r="AA198" s="18"/>
     </row>
     <row r="199" spans="1:27" ht="17.399999999999999">
-      <c r="A199" s="66"/>
-      <c r="B199" s="62"/>
-      <c r="C199" s="62"/>
-      <c r="D199" s="29" t="s">
+      <c r="A199" s="76"/>
+      <c r="B199" s="67"/>
+      <c r="C199" s="67"/>
+      <c r="D199" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="E199" s="41"/>
+      <c r="E199" s="40"/>
       <c r="F199" s="22"/>
       <c r="G199" s="22"/>
-      <c r="H199" s="31"/>
-      <c r="I199" s="36"/>
+      <c r="H199" s="30"/>
+      <c r="I199" s="35"/>
       <c r="J199" s="18"/>
       <c r="K199" s="18"/>
       <c r="L199" s="18"/>
@@ -9077,17 +9225,17 @@
       <c r="AA199" s="18"/>
     </row>
     <row r="200" spans="1:27" ht="17.399999999999999">
-      <c r="A200" s="66"/>
-      <c r="B200" s="62"/>
-      <c r="C200" s="62"/>
-      <c r="D200" s="29" t="s">
+      <c r="A200" s="76"/>
+      <c r="B200" s="67"/>
+      <c r="C200" s="67"/>
+      <c r="D200" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="E200" s="41"/>
+      <c r="E200" s="40"/>
       <c r="F200" s="22"/>
       <c r="G200" s="22"/>
-      <c r="H200" s="31"/>
-      <c r="I200" s="36"/>
+      <c r="H200" s="30"/>
+      <c r="I200" s="35"/>
       <c r="J200" s="18"/>
       <c r="K200" s="18"/>
       <c r="L200" s="18"/>
@@ -9108,17 +9256,17 @@
       <c r="AA200" s="18"/>
     </row>
     <row r="201" spans="1:27" ht="17.399999999999999">
-      <c r="A201" s="66"/>
-      <c r="B201" s="62"/>
-      <c r="C201" s="62"/>
-      <c r="D201" s="45" t="s">
+      <c r="A201" s="76"/>
+      <c r="B201" s="67"/>
+      <c r="C201" s="67"/>
+      <c r="D201" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="E201" s="41"/>
+      <c r="E201" s="40"/>
       <c r="F201" s="22"/>
       <c r="G201" s="22"/>
-      <c r="H201" s="31"/>
-      <c r="I201" s="36"/>
+      <c r="H201" s="30"/>
+      <c r="I201" s="35"/>
       <c r="J201" s="18"/>
       <c r="K201" s="18"/>
       <c r="L201" s="18"/>
@@ -9139,17 +9287,17 @@
       <c r="AA201" s="18"/>
     </row>
     <row r="202" spans="1:27" ht="17.399999999999999">
-      <c r="A202" s="66"/>
-      <c r="B202" s="62"/>
-      <c r="C202" s="62"/>
-      <c r="D202" s="45" t="s">
+      <c r="A202" s="76"/>
+      <c r="B202" s="67"/>
+      <c r="C202" s="67"/>
+      <c r="D202" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="E202" s="41"/>
+      <c r="E202" s="40"/>
       <c r="F202" s="22"/>
       <c r="G202" s="22"/>
-      <c r="H202" s="31"/>
-      <c r="I202" s="36"/>
+      <c r="H202" s="30"/>
+      <c r="I202" s="35"/>
       <c r="J202" s="18"/>
       <c r="K202" s="18"/>
       <c r="L202" s="18"/>
@@ -9170,17 +9318,17 @@
       <c r="AA202" s="18"/>
     </row>
     <row r="203" spans="1:27" ht="17.399999999999999">
-      <c r="A203" s="66"/>
-      <c r="B203" s="62"/>
-      <c r="C203" s="62"/>
-      <c r="D203" s="45" t="s">
+      <c r="A203" s="76"/>
+      <c r="B203" s="67"/>
+      <c r="C203" s="67"/>
+      <c r="D203" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="E203" s="41"/>
+      <c r="E203" s="40"/>
       <c r="F203" s="22"/>
       <c r="G203" s="22"/>
-      <c r="H203" s="31"/>
-      <c r="I203" s="36"/>
+      <c r="H203" s="30"/>
+      <c r="I203" s="35"/>
       <c r="J203" s="18"/>
       <c r="K203" s="18"/>
       <c r="L203" s="18"/>
@@ -9201,17 +9349,17 @@
       <c r="AA203" s="18"/>
     </row>
     <row r="204" spans="1:27" ht="17.399999999999999">
-      <c r="A204" s="66"/>
-      <c r="B204" s="62"/>
-      <c r="C204" s="62"/>
-      <c r="D204" s="45" t="s">
+      <c r="A204" s="76"/>
+      <c r="B204" s="67"/>
+      <c r="C204" s="67"/>
+      <c r="D204" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="E204" s="41"/>
+      <c r="E204" s="40"/>
       <c r="F204" s="22"/>
       <c r="G204" s="22"/>
-      <c r="H204" s="31"/>
-      <c r="I204" s="36"/>
+      <c r="H204" s="30"/>
+      <c r="I204" s="35"/>
       <c r="J204" s="18"/>
       <c r="K204" s="18"/>
       <c r="L204" s="18"/>
@@ -9232,17 +9380,17 @@
       <c r="AA204" s="18"/>
     </row>
     <row r="205" spans="1:27" ht="17.399999999999999">
-      <c r="A205" s="66"/>
-      <c r="B205" s="62"/>
-      <c r="C205" s="62"/>
-      <c r="D205" s="45" t="s">
+      <c r="A205" s="76"/>
+      <c r="B205" s="67"/>
+      <c r="C205" s="67"/>
+      <c r="D205" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="E205" s="41"/>
+      <c r="E205" s="40"/>
       <c r="F205" s="22"/>
       <c r="G205" s="22"/>
-      <c r="H205" s="31"/>
-      <c r="I205" s="36"/>
+      <c r="H205" s="30"/>
+      <c r="I205" s="35"/>
       <c r="J205" s="18"/>
       <c r="K205" s="18"/>
       <c r="L205" s="18"/>
@@ -9263,17 +9411,17 @@
       <c r="AA205" s="18"/>
     </row>
     <row r="206" spans="1:27" ht="17.399999999999999">
-      <c r="A206" s="66"/>
-      <c r="B206" s="62"/>
-      <c r="C206" s="62"/>
-      <c r="D206" s="45" t="s">
+      <c r="A206" s="76"/>
+      <c r="B206" s="67"/>
+      <c r="C206" s="67"/>
+      <c r="D206" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="E206" s="41"/>
+      <c r="E206" s="40"/>
       <c r="F206" s="22"/>
       <c r="G206" s="22"/>
-      <c r="H206" s="31"/>
-      <c r="I206" s="36"/>
+      <c r="H206" s="30"/>
+      <c r="I206" s="35"/>
       <c r="J206" s="18"/>
       <c r="K206" s="18"/>
       <c r="L206" s="18"/>
@@ -9294,17 +9442,17 @@
       <c r="AA206" s="18"/>
     </row>
     <row r="207" spans="1:27" ht="17.399999999999999">
-      <c r="A207" s="66"/>
-      <c r="B207" s="62"/>
-      <c r="C207" s="62"/>
-      <c r="D207" s="29" t="s">
+      <c r="A207" s="76"/>
+      <c r="B207" s="67"/>
+      <c r="C207" s="67"/>
+      <c r="D207" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="E207" s="41"/>
+      <c r="E207" s="40"/>
       <c r="F207" s="22"/>
       <c r="G207" s="22"/>
-      <c r="H207" s="31"/>
-      <c r="I207" s="36"/>
+      <c r="H207" s="30"/>
+      <c r="I207" s="35"/>
       <c r="J207" s="18"/>
       <c r="K207" s="18"/>
       <c r="L207" s="18"/>
@@ -9325,19 +9473,19 @@
       <c r="AA207" s="18"/>
     </row>
     <row r="208" spans="1:27" ht="17.399999999999999">
-      <c r="A208" s="66"/>
-      <c r="B208" s="62"/>
-      <c r="C208" s="61" t="s">
+      <c r="A208" s="76"/>
+      <c r="B208" s="67"/>
+      <c r="C208" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="D208" s="29" t="s">
+      <c r="D208" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="E208" s="41"/>
+      <c r="E208" s="40"/>
       <c r="F208" s="22"/>
       <c r="G208" s="22"/>
-      <c r="H208" s="31"/>
-      <c r="I208" s="36"/>
+      <c r="H208" s="30"/>
+      <c r="I208" s="35"/>
       <c r="J208" s="18"/>
       <c r="K208" s="18"/>
       <c r="L208" s="18"/>
@@ -9358,17 +9506,17 @@
       <c r="AA208" s="18"/>
     </row>
     <row r="209" spans="1:27" ht="17.399999999999999">
-      <c r="A209" s="66"/>
-      <c r="B209" s="62"/>
-      <c r="C209" s="62"/>
-      <c r="D209" s="29" t="s">
+      <c r="A209" s="76"/>
+      <c r="B209" s="67"/>
+      <c r="C209" s="67"/>
+      <c r="D209" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="E209" s="41"/>
+      <c r="E209" s="40"/>
       <c r="F209" s="22"/>
       <c r="G209" s="22"/>
-      <c r="H209" s="31"/>
-      <c r="I209" s="36"/>
+      <c r="H209" s="30"/>
+      <c r="I209" s="35"/>
       <c r="J209" s="18"/>
       <c r="K209" s="18"/>
       <c r="L209" s="18"/>
@@ -9389,17 +9537,17 @@
       <c r="AA209" s="18"/>
     </row>
     <row r="210" spans="1:27" ht="17.399999999999999">
-      <c r="A210" s="66"/>
-      <c r="B210" s="62"/>
-      <c r="C210" s="62"/>
-      <c r="D210" s="29" t="s">
+      <c r="A210" s="76"/>
+      <c r="B210" s="67"/>
+      <c r="C210" s="67"/>
+      <c r="D210" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="E210" s="41"/>
+      <c r="E210" s="40"/>
       <c r="F210" s="22"/>
       <c r="G210" s="22"/>
-      <c r="H210" s="31"/>
-      <c r="I210" s="36"/>
+      <c r="H210" s="30"/>
+      <c r="I210" s="35"/>
       <c r="J210" s="18"/>
       <c r="K210" s="18"/>
       <c r="L210" s="18"/>
@@ -9420,17 +9568,17 @@
       <c r="AA210" s="18"/>
     </row>
     <row r="211" spans="1:27" ht="17.399999999999999">
-      <c r="A211" s="66"/>
-      <c r="B211" s="62"/>
-      <c r="C211" s="62"/>
-      <c r="D211" s="29" t="s">
+      <c r="A211" s="76"/>
+      <c r="B211" s="67"/>
+      <c r="C211" s="67"/>
+      <c r="D211" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="E211" s="41"/>
+      <c r="E211" s="40"/>
       <c r="F211" s="22"/>
       <c r="G211" s="22"/>
-      <c r="H211" s="31"/>
-      <c r="I211" s="36"/>
+      <c r="H211" s="30"/>
+      <c r="I211" s="35"/>
       <c r="J211" s="18"/>
       <c r="K211" s="18"/>
       <c r="L211" s="18"/>
@@ -9451,17 +9599,17 @@
       <c r="AA211" s="18"/>
     </row>
     <row r="212" spans="1:27" ht="17.399999999999999">
-      <c r="A212" s="66"/>
-      <c r="B212" s="62"/>
-      <c r="C212" s="62"/>
-      <c r="D212" s="29" t="s">
+      <c r="A212" s="76"/>
+      <c r="B212" s="67"/>
+      <c r="C212" s="67"/>
+      <c r="D212" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="E212" s="41"/>
+      <c r="E212" s="40"/>
       <c r="F212" s="22"/>
       <c r="G212" s="22"/>
-      <c r="H212" s="31"/>
-      <c r="I212" s="36"/>
+      <c r="H212" s="30"/>
+      <c r="I212" s="35"/>
       <c r="J212" s="18"/>
       <c r="K212" s="18"/>
       <c r="L212" s="18"/>
@@ -9482,17 +9630,17 @@
       <c r="AA212" s="18"/>
     </row>
     <row r="213" spans="1:27" ht="17.399999999999999">
-      <c r="A213" s="66"/>
-      <c r="B213" s="62"/>
-      <c r="C213" s="62"/>
-      <c r="D213" s="29" t="s">
+      <c r="A213" s="76"/>
+      <c r="B213" s="67"/>
+      <c r="C213" s="67"/>
+      <c r="D213" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="E213" s="41"/>
+      <c r="E213" s="40"/>
       <c r="F213" s="22"/>
       <c r="G213" s="22"/>
-      <c r="H213" s="31"/>
-      <c r="I213" s="36"/>
+      <c r="H213" s="30"/>
+      <c r="I213" s="35"/>
       <c r="J213" s="18"/>
       <c r="K213" s="18"/>
       <c r="L213" s="18"/>
@@ -9513,17 +9661,17 @@
       <c r="AA213" s="18"/>
     </row>
     <row r="214" spans="1:27" ht="17.399999999999999">
-      <c r="A214" s="66"/>
-      <c r="B214" s="62"/>
-      <c r="C214" s="62"/>
-      <c r="D214" s="45" t="s">
+      <c r="A214" s="76"/>
+      <c r="B214" s="67"/>
+      <c r="C214" s="67"/>
+      <c r="D214" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="E214" s="41"/>
+      <c r="E214" s="40"/>
       <c r="F214" s="22"/>
       <c r="G214" s="22"/>
-      <c r="H214" s="31"/>
-      <c r="I214" s="36"/>
+      <c r="H214" s="30"/>
+      <c r="I214" s="35"/>
       <c r="J214" s="18"/>
       <c r="K214" s="18"/>
       <c r="L214" s="18"/>
@@ -9544,17 +9692,17 @@
       <c r="AA214" s="18"/>
     </row>
     <row r="215" spans="1:27" ht="17.399999999999999">
-      <c r="A215" s="66"/>
-      <c r="B215" s="62"/>
-      <c r="C215" s="62"/>
-      <c r="D215" s="45" t="s">
+      <c r="A215" s="76"/>
+      <c r="B215" s="67"/>
+      <c r="C215" s="67"/>
+      <c r="D215" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="E215" s="41"/>
+      <c r="E215" s="40"/>
       <c r="F215" s="22"/>
       <c r="G215" s="22"/>
-      <c r="H215" s="31"/>
-      <c r="I215" s="36"/>
+      <c r="H215" s="30"/>
+      <c r="I215" s="35"/>
       <c r="J215" s="18"/>
       <c r="K215" s="18"/>
       <c r="L215" s="18"/>
@@ -9575,17 +9723,17 @@
       <c r="AA215" s="18"/>
     </row>
     <row r="216" spans="1:27" ht="17.399999999999999">
-      <c r="A216" s="66"/>
-      <c r="B216" s="62"/>
-      <c r="C216" s="62"/>
-      <c r="D216" s="45" t="s">
+      <c r="A216" s="76"/>
+      <c r="B216" s="67"/>
+      <c r="C216" s="67"/>
+      <c r="D216" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="E216" s="41"/>
+      <c r="E216" s="40"/>
       <c r="F216" s="22"/>
       <c r="G216" s="22"/>
-      <c r="H216" s="31"/>
-      <c r="I216" s="36"/>
+      <c r="H216" s="30"/>
+      <c r="I216" s="35"/>
       <c r="J216" s="18"/>
       <c r="K216" s="18"/>
       <c r="L216" s="18"/>
@@ -9606,17 +9754,17 @@
       <c r="AA216" s="18"/>
     </row>
     <row r="217" spans="1:27" ht="17.399999999999999">
-      <c r="A217" s="66"/>
-      <c r="B217" s="62"/>
-      <c r="C217" s="62"/>
-      <c r="D217" s="45" t="s">
+      <c r="A217" s="76"/>
+      <c r="B217" s="67"/>
+      <c r="C217" s="67"/>
+      <c r="D217" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="E217" s="41"/>
+      <c r="E217" s="40"/>
       <c r="F217" s="22"/>
       <c r="G217" s="22"/>
-      <c r="H217" s="31"/>
-      <c r="I217" s="36"/>
+      <c r="H217" s="30"/>
+      <c r="I217" s="35"/>
       <c r="J217" s="18"/>
       <c r="K217" s="18"/>
       <c r="L217" s="18"/>
@@ -9637,17 +9785,17 @@
       <c r="AA217" s="18"/>
     </row>
     <row r="218" spans="1:27" ht="17.399999999999999">
-      <c r="A218" s="66"/>
-      <c r="B218" s="62"/>
-      <c r="C218" s="62"/>
-      <c r="D218" s="45" t="s">
+      <c r="A218" s="76"/>
+      <c r="B218" s="67"/>
+      <c r="C218" s="67"/>
+      <c r="D218" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="E218" s="41"/>
+      <c r="E218" s="40"/>
       <c r="F218" s="22"/>
       <c r="G218" s="22"/>
-      <c r="H218" s="31"/>
-      <c r="I218" s="36"/>
+      <c r="H218" s="30"/>
+      <c r="I218" s="35"/>
       <c r="J218" s="18"/>
       <c r="K218" s="18"/>
       <c r="L218" s="18"/>
@@ -9668,17 +9816,17 @@
       <c r="AA218" s="18"/>
     </row>
     <row r="219" spans="1:27" ht="17.399999999999999">
-      <c r="A219" s="66"/>
-      <c r="B219" s="62"/>
-      <c r="C219" s="62"/>
-      <c r="D219" s="45" t="s">
+      <c r="A219" s="76"/>
+      <c r="B219" s="67"/>
+      <c r="C219" s="67"/>
+      <c r="D219" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="E219" s="41"/>
+      <c r="E219" s="40"/>
       <c r="F219" s="22"/>
       <c r="G219" s="22"/>
-      <c r="H219" s="31"/>
-      <c r="I219" s="36"/>
+      <c r="H219" s="30"/>
+      <c r="I219" s="35"/>
       <c r="J219" s="18"/>
       <c r="K219" s="18"/>
       <c r="L219" s="18"/>
@@ -9699,17 +9847,17 @@
       <c r="AA219" s="18"/>
     </row>
     <row r="220" spans="1:27" ht="17.399999999999999">
-      <c r="A220" s="66"/>
-      <c r="B220" s="62"/>
-      <c r="C220" s="62"/>
-      <c r="D220" s="29" t="s">
+      <c r="A220" s="76"/>
+      <c r="B220" s="67"/>
+      <c r="C220" s="67"/>
+      <c r="D220" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="E220" s="41"/>
+      <c r="E220" s="40"/>
       <c r="F220" s="22"/>
       <c r="G220" s="22"/>
-      <c r="H220" s="31"/>
-      <c r="I220" s="36"/>
+      <c r="H220" s="30"/>
+      <c r="I220" s="35"/>
       <c r="J220" s="18"/>
       <c r="K220" s="18"/>
       <c r="L220" s="18"/>
@@ -9730,21 +9878,21 @@
       <c r="AA220" s="18"/>
     </row>
     <row r="221" spans="1:27" ht="17.399999999999999">
-      <c r="A221" s="66"/>
-      <c r="B221" s="61" t="s">
+      <c r="A221" s="76"/>
+      <c r="B221" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="C221" s="61" t="s">
+      <c r="C221" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="D221" s="29" t="s">
+      <c r="D221" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="E221" s="41"/>
+      <c r="E221" s="40"/>
       <c r="F221" s="22"/>
       <c r="G221" s="22"/>
-      <c r="H221" s="31"/>
-      <c r="I221" s="36"/>
+      <c r="H221" s="30"/>
+      <c r="I221" s="35"/>
       <c r="J221" s="18"/>
       <c r="K221" s="18"/>
       <c r="L221" s="18"/>
@@ -9765,17 +9913,17 @@
       <c r="AA221" s="18"/>
     </row>
     <row r="222" spans="1:27" ht="17.399999999999999">
-      <c r="A222" s="66"/>
-      <c r="B222" s="62"/>
-      <c r="C222" s="62"/>
-      <c r="D222" s="29" t="s">
+      <c r="A222" s="76"/>
+      <c r="B222" s="67"/>
+      <c r="C222" s="67"/>
+      <c r="D222" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="E222" s="41"/>
+      <c r="E222" s="40"/>
       <c r="F222" s="22"/>
       <c r="G222" s="22"/>
-      <c r="H222" s="31"/>
-      <c r="I222" s="39" t="s">
+      <c r="H222" s="30"/>
+      <c r="I222" s="38" t="s">
         <v>212</v>
       </c>
       <c r="J222" s="18"/>
@@ -9798,17 +9946,17 @@
       <c r="AA222" s="18"/>
     </row>
     <row r="223" spans="1:27" ht="17.399999999999999">
-      <c r="A223" s="66"/>
-      <c r="B223" s="62"/>
-      <c r="C223" s="62"/>
-      <c r="D223" s="29" t="s">
+      <c r="A223" s="76"/>
+      <c r="B223" s="67"/>
+      <c r="C223" s="67"/>
+      <c r="D223" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="E223" s="41"/>
+      <c r="E223" s="40"/>
       <c r="F223" s="22"/>
       <c r="G223" s="22"/>
-      <c r="H223" s="31"/>
-      <c r="I223" s="39" t="s">
+      <c r="H223" s="30"/>
+      <c r="I223" s="38" t="s">
         <v>214</v>
       </c>
       <c r="J223" s="18"/>
@@ -9831,17 +9979,17 @@
       <c r="AA223" s="18"/>
     </row>
     <row r="224" spans="1:27" ht="17.399999999999999">
-      <c r="A224" s="66"/>
-      <c r="B224" s="62"/>
-      <c r="C224" s="62"/>
-      <c r="D224" s="29" t="s">
+      <c r="A224" s="76"/>
+      <c r="B224" s="67"/>
+      <c r="C224" s="67"/>
+      <c r="D224" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="E224" s="41"/>
+      <c r="E224" s="40"/>
       <c r="F224" s="22"/>
       <c r="G224" s="22"/>
-      <c r="H224" s="31"/>
-      <c r="I224" s="36"/>
+      <c r="H224" s="30"/>
+      <c r="I224" s="35"/>
       <c r="J224" s="18"/>
       <c r="K224" s="18"/>
       <c r="L224" s="18"/>
@@ -9862,17 +10010,17 @@
       <c r="AA224" s="18"/>
     </row>
     <row r="225" spans="1:27" ht="17.399999999999999">
-      <c r="A225" s="66"/>
-      <c r="B225" s="62"/>
-      <c r="C225" s="62"/>
-      <c r="D225" s="29" t="s">
+      <c r="A225" s="76"/>
+      <c r="B225" s="67"/>
+      <c r="C225" s="67"/>
+      <c r="D225" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="E225" s="41"/>
+      <c r="E225" s="40"/>
       <c r="F225" s="22"/>
       <c r="G225" s="22"/>
-      <c r="H225" s="31"/>
-      <c r="I225" s="36"/>
+      <c r="H225" s="30"/>
+      <c r="I225" s="35"/>
       <c r="J225" s="18"/>
       <c r="K225" s="18"/>
       <c r="L225" s="18"/>
@@ -9893,19 +10041,19 @@
       <c r="AA225" s="18"/>
     </row>
     <row r="226" spans="1:27" ht="17.399999999999999">
-      <c r="A226" s="66"/>
-      <c r="B226" s="62"/>
-      <c r="C226" s="61" t="s">
+      <c r="A226" s="76"/>
+      <c r="B226" s="67"/>
+      <c r="C226" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="D226" s="29" t="s">
+      <c r="D226" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="E226" s="41"/>
+      <c r="E226" s="40"/>
       <c r="F226" s="22"/>
       <c r="G226" s="22"/>
-      <c r="H226" s="31"/>
-      <c r="I226" s="36"/>
+      <c r="H226" s="30"/>
+      <c r="I226" s="35"/>
       <c r="J226" s="18"/>
       <c r="K226" s="18"/>
       <c r="L226" s="18"/>
@@ -9926,17 +10074,17 @@
       <c r="AA226" s="18"/>
     </row>
     <row r="227" spans="1:27" ht="17.399999999999999">
-      <c r="A227" s="66"/>
-      <c r="B227" s="62"/>
-      <c r="C227" s="62"/>
-      <c r="D227" s="29" t="s">
+      <c r="A227" s="76"/>
+      <c r="B227" s="67"/>
+      <c r="C227" s="67"/>
+      <c r="D227" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="E227" s="41"/>
+      <c r="E227" s="40"/>
       <c r="F227" s="22"/>
       <c r="G227" s="22"/>
-      <c r="H227" s="31"/>
-      <c r="I227" s="36"/>
+      <c r="H227" s="30"/>
+      <c r="I227" s="35"/>
       <c r="J227" s="18"/>
       <c r="K227" s="18"/>
       <c r="L227" s="18"/>
@@ -9957,17 +10105,17 @@
       <c r="AA227" s="18"/>
     </row>
     <row r="228" spans="1:27" ht="17.399999999999999">
-      <c r="A228" s="66"/>
-      <c r="B228" s="62"/>
-      <c r="C228" s="62"/>
-      <c r="D228" s="29" t="s">
+      <c r="A228" s="76"/>
+      <c r="B228" s="67"/>
+      <c r="C228" s="67"/>
+      <c r="D228" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="E228" s="41"/>
+      <c r="E228" s="40"/>
       <c r="F228" s="22"/>
       <c r="G228" s="22"/>
-      <c r="H228" s="31"/>
-      <c r="I228" s="36"/>
+      <c r="H228" s="30"/>
+      <c r="I228" s="35"/>
       <c r="J228" s="18"/>
       <c r="K228" s="18"/>
       <c r="L228" s="18"/>
@@ -9988,17 +10136,17 @@
       <c r="AA228" s="18"/>
     </row>
     <row r="229" spans="1:27" ht="17.399999999999999">
-      <c r="A229" s="66"/>
-      <c r="B229" s="62"/>
-      <c r="C229" s="62"/>
-      <c r="D229" s="29" t="s">
+      <c r="A229" s="76"/>
+      <c r="B229" s="67"/>
+      <c r="C229" s="67"/>
+      <c r="D229" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="E229" s="41"/>
+      <c r="E229" s="40"/>
       <c r="F229" s="22"/>
       <c r="G229" s="22"/>
-      <c r="H229" s="31"/>
-      <c r="I229" s="36"/>
+      <c r="H229" s="30"/>
+      <c r="I229" s="35"/>
       <c r="J229" s="18"/>
       <c r="K229" s="18"/>
       <c r="L229" s="18"/>
@@ -10019,17 +10167,17 @@
       <c r="AA229" s="18"/>
     </row>
     <row r="230" spans="1:27" ht="17.399999999999999">
-      <c r="A230" s="66"/>
-      <c r="B230" s="62"/>
-      <c r="C230" s="62"/>
-      <c r="D230" s="29" t="s">
+      <c r="A230" s="76"/>
+      <c r="B230" s="67"/>
+      <c r="C230" s="67"/>
+      <c r="D230" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="E230" s="41"/>
+      <c r="E230" s="40"/>
       <c r="F230" s="22"/>
       <c r="G230" s="22"/>
-      <c r="H230" s="31"/>
-      <c r="I230" s="36"/>
+      <c r="H230" s="30"/>
+      <c r="I230" s="35"/>
       <c r="J230" s="18"/>
       <c r="K230" s="18"/>
       <c r="L230" s="18"/>
@@ -10050,17 +10198,17 @@
       <c r="AA230" s="18"/>
     </row>
     <row r="231" spans="1:27" ht="17.399999999999999">
-      <c r="A231" s="66"/>
-      <c r="B231" s="62"/>
-      <c r="C231" s="62"/>
-      <c r="D231" s="29" t="s">
+      <c r="A231" s="76"/>
+      <c r="B231" s="67"/>
+      <c r="C231" s="67"/>
+      <c r="D231" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="E231" s="41"/>
+      <c r="E231" s="40"/>
       <c r="F231" s="22"/>
       <c r="G231" s="22"/>
-      <c r="H231" s="31"/>
-      <c r="I231" s="36"/>
+      <c r="H231" s="30"/>
+      <c r="I231" s="35"/>
       <c r="J231" s="18"/>
       <c r="K231" s="18"/>
       <c r="L231" s="18"/>
@@ -10081,19 +10229,19 @@
       <c r="AA231" s="18"/>
     </row>
     <row r="232" spans="1:27" ht="17.399999999999999">
-      <c r="A232" s="66"/>
-      <c r="B232" s="62"/>
-      <c r="C232" s="61" t="s">
+      <c r="A232" s="76"/>
+      <c r="B232" s="67"/>
+      <c r="C232" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="D232" s="29" t="s">
+      <c r="D232" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="E232" s="41"/>
+      <c r="E232" s="40"/>
       <c r="F232" s="22"/>
       <c r="G232" s="22"/>
-      <c r="H232" s="31"/>
-      <c r="I232" s="36"/>
+      <c r="H232" s="30"/>
+      <c r="I232" s="35"/>
       <c r="J232" s="18"/>
       <c r="K232" s="18"/>
       <c r="L232" s="18"/>
@@ -10114,17 +10262,17 @@
       <c r="AA232" s="18"/>
     </row>
     <row r="233" spans="1:27" ht="17.399999999999999">
-      <c r="A233" s="66"/>
-      <c r="B233" s="62"/>
-      <c r="C233" s="75"/>
-      <c r="D233" s="29" t="s">
+      <c r="A233" s="76"/>
+      <c r="B233" s="67"/>
+      <c r="C233" s="82"/>
+      <c r="D233" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="E233" s="41"/>
+      <c r="E233" s="40"/>
       <c r="F233" s="22"/>
       <c r="G233" s="22"/>
-      <c r="H233" s="31"/>
-      <c r="I233" s="36"/>
+      <c r="H233" s="30"/>
+      <c r="I233" s="35"/>
       <c r="J233" s="18"/>
       <c r="K233" s="18"/>
       <c r="L233" s="18"/>
@@ -10145,19 +10293,19 @@
       <c r="AA233" s="18"/>
     </row>
     <row r="234" spans="1:27" ht="17.399999999999999">
-      <c r="A234" s="66"/>
-      <c r="B234" s="62"/>
-      <c r="C234" s="61" t="s">
+      <c r="A234" s="76"/>
+      <c r="B234" s="67"/>
+      <c r="C234" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="D234" s="29" t="s">
+      <c r="D234" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="E234" s="41"/>
+      <c r="E234" s="40"/>
       <c r="F234" s="22"/>
       <c r="G234" s="22"/>
-      <c r="H234" s="31"/>
-      <c r="I234" s="36"/>
+      <c r="H234" s="30"/>
+      <c r="I234" s="35"/>
       <c r="J234" s="18"/>
       <c r="K234" s="18"/>
       <c r="L234" s="18"/>
@@ -10178,17 +10326,17 @@
       <c r="AA234" s="18"/>
     </row>
     <row r="235" spans="1:27" ht="17.399999999999999">
-      <c r="A235" s="66"/>
-      <c r="B235" s="62"/>
-      <c r="C235" s="62"/>
-      <c r="D235" s="29" t="s">
+      <c r="A235" s="76"/>
+      <c r="B235" s="67"/>
+      <c r="C235" s="67"/>
+      <c r="D235" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="E235" s="41"/>
+      <c r="E235" s="40"/>
       <c r="F235" s="22"/>
       <c r="G235" s="22"/>
-      <c r="H235" s="31"/>
-      <c r="I235" s="36"/>
+      <c r="H235" s="30"/>
+      <c r="I235" s="35"/>
       <c r="J235" s="18"/>
       <c r="K235" s="18"/>
       <c r="L235" s="18"/>
@@ -10209,17 +10357,17 @@
       <c r="AA235" s="18"/>
     </row>
     <row r="236" spans="1:27" ht="17.399999999999999">
-      <c r="A236" s="66"/>
-      <c r="B236" s="62"/>
-      <c r="C236" s="62"/>
-      <c r="D236" s="29" t="s">
+      <c r="A236" s="76"/>
+      <c r="B236" s="67"/>
+      <c r="C236" s="67"/>
+      <c r="D236" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="E236" s="41"/>
+      <c r="E236" s="40"/>
       <c r="F236" s="22"/>
       <c r="G236" s="22"/>
-      <c r="H236" s="31"/>
-      <c r="I236" s="36"/>
+      <c r="H236" s="30"/>
+      <c r="I236" s="35"/>
       <c r="J236" s="18"/>
       <c r="K236" s="18"/>
       <c r="L236" s="18"/>
@@ -10240,17 +10388,17 @@
       <c r="AA236" s="18"/>
     </row>
     <row r="237" spans="1:27" ht="17.399999999999999">
-      <c r="A237" s="66"/>
-      <c r="B237" s="62"/>
-      <c r="C237" s="62"/>
-      <c r="D237" s="29" t="s">
+      <c r="A237" s="76"/>
+      <c r="B237" s="67"/>
+      <c r="C237" s="67"/>
+      <c r="D237" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="E237" s="41"/>
+      <c r="E237" s="40"/>
       <c r="F237" s="22"/>
       <c r="G237" s="22"/>
-      <c r="H237" s="31"/>
-      <c r="I237" s="36"/>
+      <c r="H237" s="30"/>
+      <c r="I237" s="35"/>
       <c r="J237" s="18"/>
       <c r="K237" s="18"/>
       <c r="L237" s="18"/>
@@ -10271,19 +10419,19 @@
       <c r="AA237" s="18"/>
     </row>
     <row r="238" spans="1:27" ht="17.399999999999999">
-      <c r="A238" s="66"/>
-      <c r="B238" s="62"/>
-      <c r="C238" s="61" t="s">
+      <c r="A238" s="76"/>
+      <c r="B238" s="67"/>
+      <c r="C238" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="D238" s="29" t="s">
+      <c r="D238" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="E238" s="41"/>
+      <c r="E238" s="40"/>
       <c r="F238" s="22"/>
       <c r="G238" s="22"/>
-      <c r="H238" s="31"/>
-      <c r="I238" s="36"/>
+      <c r="H238" s="30"/>
+      <c r="I238" s="35"/>
       <c r="J238" s="18"/>
       <c r="K238" s="18"/>
       <c r="L238" s="18"/>
@@ -10304,17 +10452,17 @@
       <c r="AA238" s="18"/>
     </row>
     <row r="239" spans="1:27" ht="17.399999999999999">
-      <c r="A239" s="66"/>
-      <c r="B239" s="62"/>
-      <c r="C239" s="62"/>
-      <c r="D239" s="29" t="s">
+      <c r="A239" s="76"/>
+      <c r="B239" s="67"/>
+      <c r="C239" s="67"/>
+      <c r="D239" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="E239" s="41"/>
+      <c r="E239" s="40"/>
       <c r="F239" s="22"/>
       <c r="G239" s="22"/>
-      <c r="H239" s="31"/>
-      <c r="I239" s="36"/>
+      <c r="H239" s="30"/>
+      <c r="I239" s="35"/>
       <c r="J239" s="18"/>
       <c r="K239" s="18"/>
       <c r="L239" s="18"/>
@@ -10335,17 +10483,17 @@
       <c r="AA239" s="18"/>
     </row>
     <row r="240" spans="1:27" ht="17.399999999999999">
-      <c r="A240" s="66"/>
-      <c r="B240" s="62"/>
-      <c r="C240" s="62"/>
-      <c r="D240" s="29" t="s">
+      <c r="A240" s="76"/>
+      <c r="B240" s="67"/>
+      <c r="C240" s="67"/>
+      <c r="D240" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="E240" s="41"/>
+      <c r="E240" s="40"/>
       <c r="F240" s="22"/>
       <c r="G240" s="22"/>
-      <c r="H240" s="31"/>
-      <c r="I240" s="39" t="s">
+      <c r="H240" s="30"/>
+      <c r="I240" s="38" t="s">
         <v>235</v>
       </c>
       <c r="J240" s="18"/>
@@ -10368,17 +10516,17 @@
       <c r="AA240" s="18"/>
     </row>
     <row r="241" spans="1:27" ht="17.399999999999999">
-      <c r="A241" s="66"/>
-      <c r="B241" s="62"/>
-      <c r="C241" s="62"/>
-      <c r="D241" s="29" t="s">
+      <c r="A241" s="76"/>
+      <c r="B241" s="67"/>
+      <c r="C241" s="67"/>
+      <c r="D241" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="E241" s="41"/>
+      <c r="E241" s="40"/>
       <c r="F241" s="22"/>
       <c r="G241" s="22"/>
-      <c r="H241" s="31"/>
-      <c r="I241" s="39" t="s">
+      <c r="H241" s="30"/>
+      <c r="I241" s="38" t="s">
         <v>237</v>
       </c>
       <c r="J241" s="18"/>
@@ -10401,19 +10549,19 @@
       <c r="AA241" s="18"/>
     </row>
     <row r="242" spans="1:27" ht="17.399999999999999">
-      <c r="A242" s="66"/>
-      <c r="B242" s="61" t="s">
+      <c r="A242" s="76"/>
+      <c r="B242" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="C242" s="62"/>
-      <c r="D242" s="29" t="s">
+      <c r="C242" s="67"/>
+      <c r="D242" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="E242" s="41"/>
+      <c r="E242" s="40"/>
       <c r="F242" s="22"/>
       <c r="G242" s="22"/>
-      <c r="H242" s="31"/>
-      <c r="I242" s="36"/>
+      <c r="H242" s="30"/>
+      <c r="I242" s="35"/>
       <c r="J242" s="18"/>
       <c r="K242" s="18"/>
       <c r="L242" s="18"/>
@@ -10434,17 +10582,17 @@
       <c r="AA242" s="18"/>
     </row>
     <row r="243" spans="1:27" ht="17.399999999999999">
-      <c r="A243" s="66"/>
-      <c r="B243" s="62"/>
-      <c r="C243" s="62"/>
-      <c r="D243" s="29" t="s">
+      <c r="A243" s="76"/>
+      <c r="B243" s="67"/>
+      <c r="C243" s="67"/>
+      <c r="D243" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="E243" s="41"/>
+      <c r="E243" s="40"/>
       <c r="F243" s="22"/>
       <c r="G243" s="22"/>
-      <c r="H243" s="31"/>
-      <c r="I243" s="36"/>
+      <c r="H243" s="30"/>
+      <c r="I243" s="35"/>
       <c r="J243" s="18"/>
       <c r="K243" s="18"/>
       <c r="L243" s="18"/>
@@ -10465,17 +10613,17 @@
       <c r="AA243" s="18"/>
     </row>
     <row r="244" spans="1:27" ht="17.399999999999999">
-      <c r="A244" s="66"/>
-      <c r="B244" s="62"/>
-      <c r="C244" s="62"/>
-      <c r="D244" s="29" t="s">
+      <c r="A244" s="76"/>
+      <c r="B244" s="67"/>
+      <c r="C244" s="67"/>
+      <c r="D244" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="E244" s="41"/>
+      <c r="E244" s="40"/>
       <c r="F244" s="22"/>
       <c r="G244" s="22"/>
-      <c r="H244" s="31"/>
-      <c r="I244" s="36"/>
+      <c r="H244" s="30"/>
+      <c r="I244" s="35"/>
       <c r="J244" s="18"/>
       <c r="K244" s="18"/>
       <c r="L244" s="18"/>
@@ -10496,17 +10644,17 @@
       <c r="AA244" s="18"/>
     </row>
     <row r="245" spans="1:27" ht="17.399999999999999">
-      <c r="A245" s="66"/>
-      <c r="B245" s="62"/>
-      <c r="C245" s="62"/>
-      <c r="D245" s="29" t="s">
+      <c r="A245" s="76"/>
+      <c r="B245" s="67"/>
+      <c r="C245" s="67"/>
+      <c r="D245" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="E245" s="41"/>
+      <c r="E245" s="40"/>
       <c r="F245" s="22"/>
       <c r="G245" s="22"/>
-      <c r="H245" s="31"/>
-      <c r="I245" s="36"/>
+      <c r="H245" s="30"/>
+      <c r="I245" s="35"/>
       <c r="J245" s="18"/>
       <c r="K245" s="18"/>
       <c r="L245" s="18"/>
@@ -10527,17 +10675,17 @@
       <c r="AA245" s="18"/>
     </row>
     <row r="246" spans="1:27" ht="17.399999999999999">
-      <c r="A246" s="66"/>
-      <c r="B246" s="62"/>
-      <c r="C246" s="62"/>
-      <c r="D246" s="29" t="s">
+      <c r="A246" s="76"/>
+      <c r="B246" s="67"/>
+      <c r="C246" s="67"/>
+      <c r="D246" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="E246" s="41"/>
+      <c r="E246" s="40"/>
       <c r="F246" s="22"/>
       <c r="G246" s="22"/>
-      <c r="H246" s="31"/>
-      <c r="I246" s="36"/>
+      <c r="H246" s="30"/>
+      <c r="I246" s="35"/>
       <c r="J246" s="18"/>
       <c r="K246" s="18"/>
       <c r="L246" s="18"/>
@@ -10558,17 +10706,17 @@
       <c r="AA246" s="18"/>
     </row>
     <row r="247" spans="1:27" ht="17.399999999999999">
-      <c r="A247" s="66"/>
-      <c r="B247" s="62"/>
-      <c r="C247" s="62"/>
-      <c r="D247" s="29" t="s">
+      <c r="A247" s="76"/>
+      <c r="B247" s="67"/>
+      <c r="C247" s="67"/>
+      <c r="D247" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="E247" s="41"/>
+      <c r="E247" s="40"/>
       <c r="F247" s="22"/>
       <c r="G247" s="22"/>
-      <c r="H247" s="31"/>
-      <c r="I247" s="36"/>
+      <c r="H247" s="30"/>
+      <c r="I247" s="35"/>
       <c r="J247" s="18"/>
       <c r="K247" s="18"/>
       <c r="L247" s="18"/>
@@ -10589,17 +10737,17 @@
       <c r="AA247" s="18"/>
     </row>
     <row r="248" spans="1:27" ht="17.399999999999999">
-      <c r="A248" s="66"/>
-      <c r="B248" s="62"/>
-      <c r="C248" s="62"/>
-      <c r="D248" s="29" t="s">
+      <c r="A248" s="76"/>
+      <c r="B248" s="67"/>
+      <c r="C248" s="67"/>
+      <c r="D248" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="E248" s="41"/>
+      <c r="E248" s="40"/>
       <c r="F248" s="22"/>
       <c r="G248" s="22"/>
-      <c r="H248" s="31"/>
-      <c r="I248" s="36"/>
+      <c r="H248" s="30"/>
+      <c r="I248" s="35"/>
       <c r="J248" s="18"/>
       <c r="K248" s="18"/>
       <c r="L248" s="18"/>
@@ -10620,19 +10768,19 @@
       <c r="AA248" s="18"/>
     </row>
     <row r="249" spans="1:27" ht="17.399999999999999">
-      <c r="A249" s="66"/>
-      <c r="B249" s="61" t="s">
+      <c r="A249" s="76"/>
+      <c r="B249" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="C249" s="62"/>
-      <c r="D249" s="29" t="s">
+      <c r="C249" s="67"/>
+      <c r="D249" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="E249" s="41"/>
+      <c r="E249" s="40"/>
       <c r="F249" s="22"/>
       <c r="G249" s="22"/>
-      <c r="H249" s="31"/>
-      <c r="I249" s="36"/>
+      <c r="H249" s="30"/>
+      <c r="I249" s="35"/>
       <c r="J249" s="18"/>
       <c r="K249" s="18"/>
       <c r="L249" s="18"/>
@@ -10653,17 +10801,17 @@
       <c r="AA249" s="18"/>
     </row>
     <row r="250" spans="1:27" ht="17.399999999999999">
-      <c r="A250" s="66"/>
-      <c r="B250" s="62"/>
-      <c r="C250" s="62"/>
-      <c r="D250" s="29" t="s">
+      <c r="A250" s="76"/>
+      <c r="B250" s="67"/>
+      <c r="C250" s="67"/>
+      <c r="D250" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="E250" s="41"/>
+      <c r="E250" s="40"/>
       <c r="F250" s="22"/>
       <c r="G250" s="22"/>
-      <c r="H250" s="31"/>
-      <c r="I250" s="36"/>
+      <c r="H250" s="30"/>
+      <c r="I250" s="35"/>
       <c r="J250" s="18"/>
       <c r="K250" s="18"/>
       <c r="L250" s="18"/>
@@ -10684,17 +10832,17 @@
       <c r="AA250" s="18"/>
     </row>
     <row r="251" spans="1:27" ht="17.399999999999999">
-      <c r="A251" s="66"/>
-      <c r="B251" s="62"/>
-      <c r="C251" s="62"/>
-      <c r="D251" s="29" t="s">
+      <c r="A251" s="76"/>
+      <c r="B251" s="67"/>
+      <c r="C251" s="67"/>
+      <c r="D251" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="E251" s="41"/>
+      <c r="E251" s="40"/>
       <c r="F251" s="22"/>
       <c r="G251" s="22"/>
-      <c r="H251" s="31"/>
-      <c r="I251" s="36"/>
+      <c r="H251" s="30"/>
+      <c r="I251" s="35"/>
       <c r="J251" s="18"/>
       <c r="K251" s="18"/>
       <c r="L251" s="18"/>
@@ -10715,17 +10863,17 @@
       <c r="AA251" s="18"/>
     </row>
     <row r="252" spans="1:27" ht="17.399999999999999">
-      <c r="A252" s="66"/>
-      <c r="B252" s="62"/>
-      <c r="C252" s="62"/>
-      <c r="D252" s="29" t="s">
+      <c r="A252" s="76"/>
+      <c r="B252" s="67"/>
+      <c r="C252" s="67"/>
+      <c r="D252" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="E252" s="41"/>
+      <c r="E252" s="40"/>
       <c r="F252" s="22"/>
       <c r="G252" s="22"/>
-      <c r="H252" s="31"/>
-      <c r="I252" s="36"/>
+      <c r="H252" s="30"/>
+      <c r="I252" s="35"/>
       <c r="J252" s="18"/>
       <c r="K252" s="18"/>
       <c r="L252" s="18"/>
@@ -10746,17 +10894,17 @@
       <c r="AA252" s="18"/>
     </row>
     <row r="253" spans="1:27" ht="17.399999999999999">
-      <c r="A253" s="66"/>
-      <c r="B253" s="62"/>
-      <c r="C253" s="62"/>
-      <c r="D253" s="29" t="s">
+      <c r="A253" s="76"/>
+      <c r="B253" s="67"/>
+      <c r="C253" s="67"/>
+      <c r="D253" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="E253" s="41"/>
+      <c r="E253" s="40"/>
       <c r="F253" s="22"/>
       <c r="G253" s="22"/>
-      <c r="H253" s="31"/>
-      <c r="I253" s="36"/>
+      <c r="H253" s="30"/>
+      <c r="I253" s="35"/>
       <c r="J253" s="18"/>
       <c r="K253" s="18"/>
       <c r="L253" s="18"/>
@@ -10777,19 +10925,19 @@
       <c r="AA253" s="18"/>
     </row>
     <row r="254" spans="1:27" ht="17.399999999999999">
-      <c r="A254" s="66"/>
-      <c r="B254" s="61" t="s">
+      <c r="A254" s="76"/>
+      <c r="B254" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="C254" s="62"/>
-      <c r="D254" s="29" t="s">
+      <c r="C254" s="67"/>
+      <c r="D254" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="E254" s="41"/>
+      <c r="E254" s="40"/>
       <c r="F254" s="22"/>
       <c r="G254" s="22"/>
-      <c r="H254" s="31"/>
-      <c r="I254" s="36"/>
+      <c r="H254" s="30"/>
+      <c r="I254" s="35"/>
       <c r="J254" s="18"/>
       <c r="K254" s="18"/>
       <c r="L254" s="18"/>
@@ -10810,17 +10958,17 @@
       <c r="AA254" s="18"/>
     </row>
     <row r="255" spans="1:27" ht="17.399999999999999">
-      <c r="A255" s="66"/>
-      <c r="B255" s="62"/>
-      <c r="C255" s="62"/>
-      <c r="D255" s="29" t="s">
+      <c r="A255" s="76"/>
+      <c r="B255" s="67"/>
+      <c r="C255" s="67"/>
+      <c r="D255" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="E255" s="41"/>
+      <c r="E255" s="40"/>
       <c r="F255" s="22"/>
       <c r="G255" s="22"/>
-      <c r="H255" s="31"/>
-      <c r="I255" s="36"/>
+      <c r="H255" s="30"/>
+      <c r="I255" s="35"/>
       <c r="J255" s="18"/>
       <c r="K255" s="18"/>
       <c r="L255" s="18"/>
@@ -10841,17 +10989,17 @@
       <c r="AA255" s="18"/>
     </row>
     <row r="256" spans="1:27" ht="17.399999999999999">
-      <c r="A256" s="66"/>
-      <c r="B256" s="62"/>
-      <c r="C256" s="62"/>
-      <c r="D256" s="29" t="s">
+      <c r="A256" s="76"/>
+      <c r="B256" s="67"/>
+      <c r="C256" s="67"/>
+      <c r="D256" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="E256" s="41"/>
+      <c r="E256" s="40"/>
       <c r="F256" s="22"/>
       <c r="G256" s="22"/>
-      <c r="H256" s="31"/>
-      <c r="I256" s="36"/>
+      <c r="H256" s="30"/>
+      <c r="I256" s="35"/>
       <c r="J256" s="18"/>
       <c r="K256" s="18"/>
       <c r="L256" s="18"/>
@@ -10872,17 +11020,17 @@
       <c r="AA256" s="18"/>
     </row>
     <row r="257" spans="1:27" ht="17.399999999999999">
-      <c r="A257" s="66"/>
-      <c r="B257" s="62"/>
-      <c r="C257" s="62"/>
-      <c r="D257" s="29" t="s">
+      <c r="A257" s="76"/>
+      <c r="B257" s="67"/>
+      <c r="C257" s="67"/>
+      <c r="D257" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="E257" s="41"/>
+      <c r="E257" s="40"/>
       <c r="F257" s="22"/>
       <c r="G257" s="22"/>
-      <c r="H257" s="31"/>
-      <c r="I257" s="36"/>
+      <c r="H257" s="30"/>
+      <c r="I257" s="35"/>
       <c r="J257" s="18"/>
       <c r="K257" s="18"/>
       <c r="L257" s="18"/>
@@ -10903,17 +11051,17 @@
       <c r="AA257" s="18"/>
     </row>
     <row r="258" spans="1:27" ht="17.399999999999999">
-      <c r="A258" s="66"/>
-      <c r="B258" s="62"/>
-      <c r="C258" s="62"/>
-      <c r="D258" s="29" t="s">
+      <c r="A258" s="76"/>
+      <c r="B258" s="67"/>
+      <c r="C258" s="67"/>
+      <c r="D258" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="E258" s="41"/>
+      <c r="E258" s="40"/>
       <c r="F258" s="22"/>
       <c r="G258" s="22"/>
-      <c r="H258" s="31"/>
-      <c r="I258" s="36"/>
+      <c r="H258" s="30"/>
+      <c r="I258" s="35"/>
       <c r="J258" s="18"/>
       <c r="K258" s="18"/>
       <c r="L258" s="18"/>
@@ -10934,19 +11082,19 @@
       <c r="AA258" s="18"/>
     </row>
     <row r="259" spans="1:27" ht="17.399999999999999">
-      <c r="A259" s="66"/>
-      <c r="B259" s="61" t="s">
+      <c r="A259" s="76"/>
+      <c r="B259" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="C259" s="62"/>
-      <c r="D259" s="29" t="s">
+      <c r="C259" s="67"/>
+      <c r="D259" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="E259" s="41"/>
+      <c r="E259" s="40"/>
       <c r="F259" s="22"/>
       <c r="G259" s="22"/>
-      <c r="H259" s="31"/>
-      <c r="I259" s="36"/>
+      <c r="H259" s="30"/>
+      <c r="I259" s="35"/>
       <c r="J259" s="18"/>
       <c r="K259" s="18"/>
       <c r="L259" s="18"/>
@@ -10967,17 +11115,17 @@
       <c r="AA259" s="18"/>
     </row>
     <row r="260" spans="1:27" ht="17.399999999999999">
-      <c r="A260" s="66"/>
-      <c r="B260" s="62"/>
-      <c r="C260" s="62"/>
-      <c r="D260" s="29" t="s">
+      <c r="A260" s="76"/>
+      <c r="B260" s="67"/>
+      <c r="C260" s="67"/>
+      <c r="D260" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="E260" s="41"/>
+      <c r="E260" s="40"/>
       <c r="F260" s="22"/>
       <c r="G260" s="22"/>
-      <c r="H260" s="31"/>
-      <c r="I260" s="36"/>
+      <c r="H260" s="30"/>
+      <c r="I260" s="35"/>
       <c r="J260" s="18"/>
       <c r="K260" s="18"/>
       <c r="L260" s="18"/>
@@ -10998,17 +11146,17 @@
       <c r="AA260" s="18"/>
     </row>
     <row r="261" spans="1:27" ht="17.399999999999999">
-      <c r="A261" s="66"/>
-      <c r="B261" s="62"/>
-      <c r="C261" s="62"/>
-      <c r="D261" s="29" t="s">
+      <c r="A261" s="76"/>
+      <c r="B261" s="67"/>
+      <c r="C261" s="67"/>
+      <c r="D261" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="E261" s="41"/>
+      <c r="E261" s="40"/>
       <c r="F261" s="22"/>
       <c r="G261" s="22"/>
-      <c r="H261" s="31"/>
-      <c r="I261" s="36"/>
+      <c r="H261" s="30"/>
+      <c r="I261" s="35"/>
       <c r="J261" s="18"/>
       <c r="K261" s="18"/>
       <c r="L261" s="18"/>
@@ -11029,17 +11177,17 @@
       <c r="AA261" s="18"/>
     </row>
     <row r="262" spans="1:27" ht="17.399999999999999">
-      <c r="A262" s="66"/>
-      <c r="B262" s="62"/>
-      <c r="C262" s="62"/>
-      <c r="D262" s="29" t="s">
+      <c r="A262" s="76"/>
+      <c r="B262" s="67"/>
+      <c r="C262" s="67"/>
+      <c r="D262" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="E262" s="41"/>
+      <c r="E262" s="40"/>
       <c r="F262" s="22"/>
       <c r="G262" s="22"/>
-      <c r="H262" s="31"/>
-      <c r="I262" s="36"/>
+      <c r="H262" s="30"/>
+      <c r="I262" s="35"/>
       <c r="J262" s="18"/>
       <c r="K262" s="18"/>
       <c r="L262" s="18"/>
@@ -11060,17 +11208,17 @@
       <c r="AA262" s="18"/>
     </row>
     <row r="263" spans="1:27" ht="17.399999999999999">
-      <c r="A263" s="66"/>
-      <c r="B263" s="62"/>
-      <c r="C263" s="62"/>
-      <c r="D263" s="29" t="s">
+      <c r="A263" s="76"/>
+      <c r="B263" s="67"/>
+      <c r="C263" s="67"/>
+      <c r="D263" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="E263" s="41"/>
+      <c r="E263" s="40"/>
       <c r="F263" s="22"/>
       <c r="G263" s="22"/>
-      <c r="H263" s="31"/>
-      <c r="I263" s="36"/>
+      <c r="H263" s="30"/>
+      <c r="I263" s="35"/>
       <c r="J263" s="18"/>
       <c r="K263" s="18"/>
       <c r="L263" s="18"/>
@@ -11091,19 +11239,19 @@
       <c r="AA263" s="18"/>
     </row>
     <row r="264" spans="1:27" ht="17.399999999999999">
-      <c r="A264" s="66"/>
-      <c r="B264" s="80" t="s">
+      <c r="A264" s="76"/>
+      <c r="B264" s="78" t="s">
         <v>264</v>
       </c>
-      <c r="C264" s="62"/>
-      <c r="D264" s="29" t="s">
+      <c r="C264" s="67"/>
+      <c r="D264" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="E264" s="41"/>
+      <c r="E264" s="40"/>
       <c r="F264" s="22"/>
       <c r="G264" s="22"/>
-      <c r="H264" s="31"/>
-      <c r="I264" s="36"/>
+      <c r="H264" s="30"/>
+      <c r="I264" s="35"/>
       <c r="J264" s="18"/>
       <c r="K264" s="18"/>
       <c r="L264" s="18"/>
@@ -11124,17 +11272,17 @@
       <c r="AA264" s="18"/>
     </row>
     <row r="265" spans="1:27" ht="17.399999999999999">
-      <c r="A265" s="66"/>
-      <c r="B265" s="62"/>
-      <c r="C265" s="62"/>
-      <c r="D265" s="29" t="s">
+      <c r="A265" s="76"/>
+      <c r="B265" s="67"/>
+      <c r="C265" s="67"/>
+      <c r="D265" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="E265" s="41"/>
+      <c r="E265" s="40"/>
       <c r="F265" s="22"/>
       <c r="G265" s="22"/>
-      <c r="H265" s="31"/>
-      <c r="I265" s="36"/>
+      <c r="H265" s="30"/>
+      <c r="I265" s="35"/>
       <c r="J265" s="18"/>
       <c r="K265" s="18"/>
       <c r="L265" s="18"/>
@@ -11155,17 +11303,17 @@
       <c r="AA265" s="18"/>
     </row>
     <row r="266" spans="1:27" ht="17.399999999999999">
-      <c r="A266" s="66"/>
-      <c r="B266" s="62"/>
-      <c r="C266" s="62"/>
-      <c r="D266" s="29" t="s">
+      <c r="A266" s="76"/>
+      <c r="B266" s="67"/>
+      <c r="C266" s="67"/>
+      <c r="D266" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="E266" s="41"/>
+      <c r="E266" s="40"/>
       <c r="F266" s="22"/>
       <c r="G266" s="22"/>
-      <c r="H266" s="31"/>
-      <c r="I266" s="36"/>
+      <c r="H266" s="30"/>
+      <c r="I266" s="35"/>
       <c r="J266" s="18"/>
       <c r="K266" s="18"/>
       <c r="L266" s="18"/>
@@ -11186,17 +11334,17 @@
       <c r="AA266" s="18"/>
     </row>
     <row r="267" spans="1:27" ht="17.399999999999999">
-      <c r="A267" s="66"/>
-      <c r="B267" s="62"/>
-      <c r="C267" s="62"/>
-      <c r="D267" s="29" t="s">
+      <c r="A267" s="76"/>
+      <c r="B267" s="67"/>
+      <c r="C267" s="67"/>
+      <c r="D267" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="E267" s="41"/>
+      <c r="E267" s="40"/>
       <c r="F267" s="22"/>
       <c r="G267" s="22"/>
-      <c r="H267" s="31"/>
-      <c r="I267" s="36"/>
+      <c r="H267" s="30"/>
+      <c r="I267" s="35"/>
       <c r="J267" s="18"/>
       <c r="K267" s="18"/>
       <c r="L267" s="18"/>
@@ -11217,17 +11365,17 @@
       <c r="AA267" s="18"/>
     </row>
     <row r="268" spans="1:27" ht="17.399999999999999">
-      <c r="A268" s="66"/>
-      <c r="B268" s="62"/>
-      <c r="C268" s="62"/>
-      <c r="D268" s="29" t="s">
+      <c r="A268" s="76"/>
+      <c r="B268" s="67"/>
+      <c r="C268" s="67"/>
+      <c r="D268" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="E268" s="41"/>
+      <c r="E268" s="40"/>
       <c r="F268" s="22"/>
       <c r="G268" s="22"/>
-      <c r="H268" s="31"/>
-      <c r="I268" s="36"/>
+      <c r="H268" s="30"/>
+      <c r="I268" s="35"/>
       <c r="J268" s="18"/>
       <c r="K268" s="18"/>
       <c r="L268" s="18"/>
@@ -11248,17 +11396,17 @@
       <c r="AA268" s="18"/>
     </row>
     <row r="269" spans="1:27" ht="17.399999999999999">
-      <c r="A269" s="66"/>
-      <c r="B269" s="62"/>
-      <c r="C269" s="62"/>
-      <c r="D269" s="29" t="s">
+      <c r="A269" s="76"/>
+      <c r="B269" s="67"/>
+      <c r="C269" s="67"/>
+      <c r="D269" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="E269" s="41"/>
+      <c r="E269" s="40"/>
       <c r="F269" s="22"/>
       <c r="G269" s="22"/>
-      <c r="H269" s="31"/>
-      <c r="I269" s="36"/>
+      <c r="H269" s="30"/>
+      <c r="I269" s="35"/>
       <c r="J269" s="18"/>
       <c r="K269" s="18"/>
       <c r="L269" s="18"/>
@@ -11279,17 +11427,17 @@
       <c r="AA269" s="18"/>
     </row>
     <row r="270" spans="1:27" ht="17.399999999999999">
-      <c r="A270" s="66"/>
-      <c r="B270" s="62"/>
-      <c r="C270" s="62"/>
-      <c r="D270" s="29" t="s">
+      <c r="A270" s="76"/>
+      <c r="B270" s="67"/>
+      <c r="C270" s="67"/>
+      <c r="D270" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="E270" s="41"/>
+      <c r="E270" s="40"/>
       <c r="F270" s="22"/>
       <c r="G270" s="22"/>
-      <c r="H270" s="31"/>
-      <c r="I270" s="36"/>
+      <c r="H270" s="30"/>
+      <c r="I270" s="35"/>
       <c r="J270" s="18"/>
       <c r="K270" s="18"/>
       <c r="L270" s="18"/>
@@ -11310,17 +11458,17 @@
       <c r="AA270" s="18"/>
     </row>
     <row r="271" spans="1:27" ht="17.399999999999999">
-      <c r="A271" s="66"/>
-      <c r="B271" s="62"/>
-      <c r="C271" s="62"/>
-      <c r="D271" s="29" t="s">
+      <c r="A271" s="76"/>
+      <c r="B271" s="67"/>
+      <c r="C271" s="67"/>
+      <c r="D271" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="E271" s="41"/>
+      <c r="E271" s="40"/>
       <c r="F271" s="22"/>
       <c r="G271" s="22"/>
-      <c r="H271" s="31"/>
-      <c r="I271" s="36"/>
+      <c r="H271" s="30"/>
+      <c r="I271" s="35"/>
       <c r="J271" s="18"/>
       <c r="K271" s="18"/>
       <c r="L271" s="18"/>
@@ -11341,17 +11489,17 @@
       <c r="AA271" s="18"/>
     </row>
     <row r="272" spans="1:27" ht="18" thickBot="1">
-      <c r="A272" s="67"/>
-      <c r="B272" s="64"/>
-      <c r="C272" s="64"/>
-      <c r="D272" s="43" t="s">
+      <c r="A272" s="77"/>
+      <c r="B272" s="83"/>
+      <c r="C272" s="83"/>
+      <c r="D272" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="E272" s="42"/>
-      <c r="F272" s="23"/>
-      <c r="G272" s="23"/>
-      <c r="H272" s="32"/>
-      <c r="I272" s="37"/>
+      <c r="E272" s="99"/>
+      <c r="F272" s="100"/>
+      <c r="G272" s="100"/>
+      <c r="H272" s="101"/>
+      <c r="I272" s="36"/>
       <c r="J272" s="18"/>
       <c r="K272" s="18"/>
       <c r="L272" s="18"/>
@@ -11372,19 +11520,25 @@
       <c r="AA272" s="18"/>
     </row>
     <row r="273" spans="1:27" ht="17.399999999999999">
-      <c r="A273" s="65" t="s">
+      <c r="A273" s="86" t="s">
         <v>274</v>
       </c>
-      <c r="B273" s="68"/>
-      <c r="C273" s="68"/>
-      <c r="D273" s="24"/>
-      <c r="E273" s="83" t="s">
-        <v>310</v>
-      </c>
-      <c r="F273" s="84"/>
-      <c r="G273" s="84"/>
-      <c r="H273" s="85"/>
-      <c r="I273" s="38"/>
+      <c r="B273" s="87"/>
+      <c r="C273" s="87"/>
+      <c r="D273" s="94"/>
+      <c r="E273" s="102" t="s">
+        <v>319</v>
+      </c>
+      <c r="F273" s="103" t="s">
+        <v>317</v>
+      </c>
+      <c r="G273" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="H273" s="105" t="s">
+        <v>318</v>
+      </c>
+      <c r="I273" s="85"/>
       <c r="J273" s="18"/>
       <c r="K273" s="18"/>
       <c r="L273" s="18"/>
@@ -11405,17 +11559,17 @@
       <c r="AA273" s="18"/>
     </row>
     <row r="274" spans="1:27" ht="17.399999999999999">
-      <c r="A274" s="81"/>
-      <c r="B274" s="61"/>
-      <c r="C274" s="61"/>
-      <c r="D274" s="29" t="s">
+      <c r="A274" s="88"/>
+      <c r="B274" s="89"/>
+      <c r="C274" s="89"/>
+      <c r="D274" s="95" t="s">
         <v>275</v>
       </c>
-      <c r="E274" s="74"/>
-      <c r="F274" s="75"/>
-      <c r="G274" s="75"/>
-      <c r="H274" s="76"/>
-      <c r="I274" s="36"/>
+      <c r="E274" s="106"/>
+      <c r="F274" s="92"/>
+      <c r="G274" s="92"/>
+      <c r="H274" s="107"/>
+      <c r="I274" s="97"/>
       <c r="J274" s="18"/>
       <c r="K274" s="18"/>
       <c r="L274" s="18"/>
@@ -11436,17 +11590,17 @@
       <c r="AA274" s="18"/>
     </row>
     <row r="275" spans="1:27" ht="17.399999999999999">
-      <c r="A275" s="81"/>
-      <c r="B275" s="61"/>
-      <c r="C275" s="61"/>
-      <c r="D275" s="29" t="s">
+      <c r="A275" s="88"/>
+      <c r="B275" s="89"/>
+      <c r="C275" s="89"/>
+      <c r="D275" s="95" t="s">
         <v>276</v>
       </c>
-      <c r="E275" s="74"/>
-      <c r="F275" s="75"/>
-      <c r="G275" s="75"/>
-      <c r="H275" s="76"/>
-      <c r="I275" s="36"/>
+      <c r="E275" s="106"/>
+      <c r="F275" s="92"/>
+      <c r="G275" s="92"/>
+      <c r="H275" s="107"/>
+      <c r="I275" s="97"/>
       <c r="J275" s="18"/>
       <c r="K275" s="18"/>
       <c r="L275" s="18"/>
@@ -11467,17 +11621,17 @@
       <c r="AA275" s="18"/>
     </row>
     <row r="276" spans="1:27" ht="17.399999999999999">
-      <c r="A276" s="81"/>
-      <c r="B276" s="61"/>
-      <c r="C276" s="61"/>
-      <c r="D276" s="29" t="s">
+      <c r="A276" s="88"/>
+      <c r="B276" s="89"/>
+      <c r="C276" s="89"/>
+      <c r="D276" s="95" t="s">
         <v>277</v>
       </c>
-      <c r="E276" s="74"/>
-      <c r="F276" s="75"/>
-      <c r="G276" s="75"/>
-      <c r="H276" s="76"/>
-      <c r="I276" s="36"/>
+      <c r="E276" s="106"/>
+      <c r="F276" s="92"/>
+      <c r="G276" s="92"/>
+      <c r="H276" s="107"/>
+      <c r="I276" s="97"/>
       <c r="J276" s="18"/>
       <c r="K276" s="18"/>
       <c r="L276" s="18"/>
@@ -11498,17 +11652,17 @@
       <c r="AA276" s="18"/>
     </row>
     <row r="277" spans="1:27" ht="17.399999999999999">
-      <c r="A277" s="81"/>
-      <c r="B277" s="61"/>
-      <c r="C277" s="61"/>
-      <c r="D277" s="29" t="s">
+      <c r="A277" s="88"/>
+      <c r="B277" s="89"/>
+      <c r="C277" s="89"/>
+      <c r="D277" s="95" t="s">
         <v>278</v>
       </c>
-      <c r="E277" s="74"/>
-      <c r="F277" s="75"/>
-      <c r="G277" s="75"/>
-      <c r="H277" s="76"/>
-      <c r="I277" s="36"/>
+      <c r="E277" s="106"/>
+      <c r="F277" s="92"/>
+      <c r="G277" s="92"/>
+      <c r="H277" s="107"/>
+      <c r="I277" s="97"/>
       <c r="J277" s="18"/>
       <c r="K277" s="18"/>
       <c r="L277" s="18"/>
@@ -11529,17 +11683,17 @@
       <c r="AA277" s="18"/>
     </row>
     <row r="278" spans="1:27" ht="17.399999999999999">
-      <c r="A278" s="81"/>
-      <c r="B278" s="61"/>
-      <c r="C278" s="61"/>
-      <c r="D278" s="29" t="s">
+      <c r="A278" s="88"/>
+      <c r="B278" s="89"/>
+      <c r="C278" s="89"/>
+      <c r="D278" s="95" t="s">
         <v>279</v>
       </c>
-      <c r="E278" s="74"/>
-      <c r="F278" s="75"/>
-      <c r="G278" s="75"/>
-      <c r="H278" s="76"/>
-      <c r="I278" s="36"/>
+      <c r="E278" s="106"/>
+      <c r="F278" s="92"/>
+      <c r="G278" s="92"/>
+      <c r="H278" s="107"/>
+      <c r="I278" s="97"/>
       <c r="J278" s="18"/>
       <c r="K278" s="18"/>
       <c r="L278" s="18"/>
@@ -11560,17 +11714,17 @@
       <c r="AA278" s="18"/>
     </row>
     <row r="279" spans="1:27" ht="18" thickBot="1">
-      <c r="A279" s="82"/>
-      <c r="B279" s="63"/>
-      <c r="C279" s="63"/>
-      <c r="D279" s="43" t="s">
+      <c r="A279" s="90"/>
+      <c r="B279" s="91"/>
+      <c r="C279" s="91"/>
+      <c r="D279" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E279" s="77"/>
-      <c r="F279" s="78"/>
-      <c r="G279" s="78"/>
-      <c r="H279" s="79"/>
-      <c r="I279" s="37"/>
+      <c r="E279" s="108"/>
+      <c r="F279" s="93"/>
+      <c r="G279" s="93"/>
+      <c r="H279" s="109"/>
+      <c r="I279" s="98"/>
       <c r="J279" s="18"/>
       <c r="K279" s="18"/>
       <c r="L279" s="18"/>
@@ -11591,17 +11745,17 @@
       <c r="AA279" s="18"/>
     </row>
     <row r="280" spans="1:27" ht="75" customHeight="1" thickBot="1">
-      <c r="A280" s="71" t="s">
-        <v>317</v>
-      </c>
-      <c r="B280" s="72"/>
-      <c r="C280" s="72"/>
-      <c r="D280" s="72"/>
-      <c r="E280" s="72"/>
-      <c r="F280" s="72"/>
-      <c r="G280" s="72"/>
-      <c r="H280" s="72"/>
-      <c r="I280" s="73"/>
+      <c r="A280" s="79" t="s">
+        <v>315</v>
+      </c>
+      <c r="B280" s="80"/>
+      <c r="C280" s="80"/>
+      <c r="D280" s="80"/>
+      <c r="E280" s="80"/>
+      <c r="F280" s="80"/>
+      <c r="G280" s="80"/>
+      <c r="H280" s="80"/>
+      <c r="I280" s="81"/>
       <c r="J280" s="18"/>
       <c r="K280" s="18"/>
       <c r="L280" s="18"/>
@@ -14203,7 +14357,49 @@
       <c r="AA369" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="58">
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B97:B103"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="A105:A272"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C208:C220"/>
+    <mergeCell ref="B138:C168"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C118:C122"/>
+    <mergeCell ref="C123:C128"/>
+    <mergeCell ref="B259:C263"/>
+    <mergeCell ref="B249:C253"/>
+    <mergeCell ref="A280:I280"/>
+    <mergeCell ref="C169:C181"/>
+    <mergeCell ref="B169:B220"/>
+    <mergeCell ref="C195:C207"/>
+    <mergeCell ref="B264:C272"/>
+    <mergeCell ref="A273:C279"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="B254:C258"/>
+    <mergeCell ref="B28:B62"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="B242:C248"/>
+    <mergeCell ref="C131:C136"/>
+    <mergeCell ref="B106:B137"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C221:C225"/>
+    <mergeCell ref="B221:B241"/>
+    <mergeCell ref="C226:C231"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C46:C53"/>
+    <mergeCell ref="C182:C194"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="B104:C104"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C115:C117"/>
@@ -14220,55 +14416,6 @@
     <mergeCell ref="C74:C84"/>
     <mergeCell ref="C86:C87"/>
     <mergeCell ref="C108:C109"/>
-    <mergeCell ref="B28:B62"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="B242:C248"/>
-    <mergeCell ref="C131:C136"/>
-    <mergeCell ref="B106:B137"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C221:C225"/>
-    <mergeCell ref="B221:B241"/>
-    <mergeCell ref="C226:C231"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C46:C53"/>
-    <mergeCell ref="C182:C194"/>
-    <mergeCell ref="A280:I280"/>
-    <mergeCell ref="E278:H278"/>
-    <mergeCell ref="E279:H279"/>
-    <mergeCell ref="C169:C181"/>
-    <mergeCell ref="B169:B220"/>
-    <mergeCell ref="C195:C207"/>
-    <mergeCell ref="B264:C272"/>
-    <mergeCell ref="A273:C279"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="E273:H273"/>
-    <mergeCell ref="E274:H274"/>
-    <mergeCell ref="E275:H275"/>
-    <mergeCell ref="E276:H276"/>
-    <mergeCell ref="E277:H277"/>
-    <mergeCell ref="B254:C258"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="A105:A272"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C208:C220"/>
-    <mergeCell ref="B138:C168"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="C123:C128"/>
-    <mergeCell ref="B259:C263"/>
-    <mergeCell ref="B249:C253"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B97:B103"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:C103"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BDSM-Basic.xlsx
+++ b/BDSM-Basic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\XP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B71184-30BF-43EA-BCD1-F5E9961FBF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF13F6D4-5A32-42CF-88A2-BF1A28C104FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1197,7 +1197,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>XP统计表-BDSM基础版    ver1.1.0    220818</t>
+    <t>XP统计表-BDSM基础版    ver1.1.1    220822</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2080,68 +2080,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2151,6 +2112,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2173,23 +2140,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2508,8 +2508,8 @@
   <dimension ref="A1:AA379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:I2"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2518,8 +2518,8 @@
     <col min="2" max="2" width="17" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="26" style="2" customWidth="1"/>
     <col min="9" max="9" width="48.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="27" width="14" style="2" customWidth="1"/>
@@ -2527,17 +2527,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.600000000000001" thickBot="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="80"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -2558,17 +2558,17 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="36" customHeight="1" thickBot="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="81" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2601,12 +2601,12 @@
       <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="16" t="s">
         <v>5</v>
       </c>
@@ -2630,20 +2630,20 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="17.399999999999999">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="22" t="s">
         <v>292</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>128</v>
@@ -2671,16 +2671,15 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="17.399999999999999">
-      <c r="A5" s="67"/>
-      <c r="B5" s="69" t="s">
+      <c r="A5" s="72"/>
+      <c r="B5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="23"/>
-      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="13"/>
       <c r="I5" s="18"/>
@@ -2704,9 +2703,9 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="17.399999999999999">
-      <c r="A6" s="67"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
@@ -2735,9 +2734,9 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27" ht="17.399999999999999">
-      <c r="A7" s="67"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="11" t="s">
         <v>11</v>
       </c>
@@ -2766,9 +2765,9 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" ht="17.399999999999999">
-      <c r="A8" s="67"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
@@ -2797,9 +2796,9 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" ht="17.399999999999999">
-      <c r="A9" s="67"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
@@ -2828,9 +2827,9 @@
       <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="1:27" ht="17.399999999999999">
-      <c r="A10" s="67"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="11" t="s">
         <v>14</v>
       </c>
@@ -2859,9 +2858,9 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" ht="17.399999999999999">
-      <c r="A11" s="67"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="11" t="s">
         <v>15</v>
       </c>
@@ -2890,9 +2889,9 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="17.399999999999999">
-      <c r="A12" s="67"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="11" t="s">
         <v>16</v>
       </c>
@@ -2921,9 +2920,9 @@
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="1:27" ht="17.399999999999999">
-      <c r="A13" s="67"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="11" t="s">
         <v>17</v>
       </c>
@@ -2952,9 +2951,9 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="17.399999999999999">
-      <c r="A14" s="67"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="11" t="s">
         <v>18</v>
       </c>
@@ -2983,9 +2982,9 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" ht="17.399999999999999">
-      <c r="A15" s="67"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="11" t="s">
         <v>19</v>
       </c>
@@ -3014,9 +3013,9 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" ht="17.399999999999999">
-      <c r="A16" s="67"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="11" t="s">
         <v>20</v>
       </c>
@@ -3045,9 +3044,9 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" ht="17.399999999999999">
-      <c r="A17" s="67"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="11" t="s">
         <v>21</v>
       </c>
@@ -3076,9 +3075,9 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" ht="17.399999999999999">
-      <c r="A18" s="67"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="11" t="s">
         <v>22</v>
       </c>
@@ -3107,9 +3106,9 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" ht="17.399999999999999">
-      <c r="A19" s="67"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="11" t="s">
         <v>23</v>
       </c>
@@ -3138,9 +3137,9 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="17.399999999999999">
-      <c r="A20" s="67"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="11" t="s">
         <v>24</v>
       </c>
@@ -3169,9 +3168,9 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="17.399999999999999">
-      <c r="A21" s="67"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="11" t="s">
         <v>25</v>
       </c>
@@ -3200,9 +3199,9 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="17.399999999999999">
-      <c r="A22" s="67"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="11" t="s">
         <v>26</v>
       </c>
@@ -3231,9 +3230,9 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="17.399999999999999">
-      <c r="A23" s="67"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="11" t="s">
         <v>27</v>
       </c>
@@ -3262,9 +3261,9 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="17.399999999999999">
-      <c r="A24" s="67"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="11" t="s">
         <v>28</v>
       </c>
@@ -3293,9 +3292,9 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="17.399999999999999">
-      <c r="A25" s="67"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="11" t="s">
         <v>29</v>
       </c>
@@ -3324,9 +3323,9 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="17.399999999999999">
-      <c r="A26" s="67"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="11" t="s">
         <v>30</v>
       </c>
@@ -3355,9 +3354,9 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="17.399999999999999">
-      <c r="A27" s="67"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="11" t="s">
         <v>31</v>
       </c>
@@ -3386,11 +3385,11 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="17.399999999999999">
-      <c r="A28" s="67"/>
-      <c r="B28" s="69" t="s">
+      <c r="A28" s="72"/>
+      <c r="B28" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="51" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="11" t="s">
@@ -3421,9 +3420,9 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" ht="17.399999999999999">
-      <c r="A29" s="67"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="11" t="s">
         <v>35</v>
       </c>
@@ -3452,9 +3451,9 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" ht="17.399999999999999">
-      <c r="A30" s="67"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="11" t="s">
         <v>286</v>
       </c>
@@ -3483,9 +3482,9 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="17.399999999999999">
-      <c r="A31" s="67"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="11" t="s">
         <v>36</v>
       </c>
@@ -3514,9 +3513,9 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="17.399999999999999">
-      <c r="A32" s="67"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="11" t="s">
         <v>37</v>
       </c>
@@ -3545,9 +3544,9 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" ht="17.399999999999999">
-      <c r="A33" s="67"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="57" t="s">
+      <c r="A33" s="72"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -3578,9 +3577,9 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" ht="17.399999999999999">
-      <c r="A34" s="67"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="11" t="s">
         <v>40</v>
       </c>
@@ -3609,9 +3608,9 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27" ht="17.399999999999999">
-      <c r="A35" s="67"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="11" t="s">
         <v>41</v>
       </c>
@@ -3640,9 +3639,9 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27" ht="17.399999999999999">
-      <c r="A36" s="67"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="57" t="s">
+      <c r="A36" s="72"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="51" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="11" t="s">
@@ -3673,9 +3672,9 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" ht="17.399999999999999">
-      <c r="A37" s="67"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="11" t="s">
         <v>44</v>
       </c>
@@ -3704,9 +3703,9 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="1:27" ht="17.399999999999999">
-      <c r="A38" s="67"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="11" t="s">
         <v>45</v>
       </c>
@@ -3735,9 +3734,9 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="1:27" ht="17.399999999999999">
-      <c r="A39" s="67"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="11" t="s">
         <v>46</v>
       </c>
@@ -3766,9 +3765,9 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="1:27" ht="17.399999999999999">
-      <c r="A40" s="67"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="57" t="s">
+      <c r="A40" s="72"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="51" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="11" t="s">
@@ -3799,9 +3798,9 @@
       <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="1:27" ht="17.399999999999999">
-      <c r="A41" s="67"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="11" t="s">
         <v>49</v>
       </c>
@@ -3830,9 +3829,9 @@
       <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="1:27" ht="17.399999999999999">
-      <c r="A42" s="67"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="11" t="s">
         <v>50</v>
       </c>
@@ -3861,9 +3860,9 @@
       <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="1:27" ht="17.399999999999999">
-      <c r="A43" s="67"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="57" t="s">
+      <c r="A43" s="72"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="51" t="s">
         <v>51</v>
       </c>
       <c r="D43" s="11" t="s">
@@ -3894,9 +3893,9 @@
       <c r="AA43" s="1"/>
     </row>
     <row r="44" spans="1:27" ht="17.399999999999999">
-      <c r="A44" s="67"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
+      <c r="A44" s="72"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
       <c r="D44" s="11" t="s">
         <v>53</v>
       </c>
@@ -3925,9 +3924,9 @@
       <c r="AA44" s="1"/>
     </row>
     <row r="45" spans="1:27" ht="17.399999999999999">
-      <c r="A45" s="67"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
       <c r="D45" s="11" t="s">
         <v>54</v>
       </c>
@@ -3956,9 +3955,9 @@
       <c r="AA45" s="1"/>
     </row>
     <row r="46" spans="1:27" ht="17.399999999999999">
-      <c r="A46" s="67"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="57" t="s">
+      <c r="A46" s="72"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="51" t="s">
         <v>55</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -3989,9 +3988,9 @@
       <c r="AA46" s="1"/>
     </row>
     <row r="47" spans="1:27" ht="17.399999999999999">
-      <c r="A47" s="67"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
+      <c r="A47" s="72"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
       <c r="D47" s="11" t="s">
         <v>57</v>
       </c>
@@ -4020,9 +4019,9 @@
       <c r="AA47" s="1"/>
     </row>
     <row r="48" spans="1:27" ht="17.399999999999999">
-      <c r="A48" s="67"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
+      <c r="A48" s="72"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
       <c r="D48" s="11" t="s">
         <v>58</v>
       </c>
@@ -4051,9 +4050,9 @@
       <c r="AA48" s="1"/>
     </row>
     <row r="49" spans="1:27" ht="17.399999999999999">
-      <c r="A49" s="67"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
+      <c r="A49" s="72"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="11" t="s">
         <v>59</v>
       </c>
@@ -4082,9 +4081,9 @@
       <c r="AA49" s="1"/>
     </row>
     <row r="50" spans="1:27" ht="17.399999999999999">
-      <c r="A50" s="67"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
+      <c r="A50" s="72"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
       <c r="D50" s="11" t="s">
         <v>60</v>
       </c>
@@ -4113,9 +4112,9 @@
       <c r="AA50" s="1"/>
     </row>
     <row r="51" spans="1:27" ht="17.399999999999999">
-      <c r="A51" s="67"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="11" t="s">
         <v>61</v>
       </c>
@@ -4144,9 +4143,9 @@
       <c r="AA51" s="1"/>
     </row>
     <row r="52" spans="1:27" ht="17.399999999999999">
-      <c r="A52" s="67"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
+      <c r="A52" s="72"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="11" t="s">
         <v>62</v>
       </c>
@@ -4175,9 +4174,9 @@
       <c r="AA52" s="1"/>
     </row>
     <row r="53" spans="1:27" ht="17.399999999999999">
-      <c r="A53" s="67"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="11" t="s">
         <v>63</v>
       </c>
@@ -4206,9 +4205,9 @@
       <c r="AA53" s="1"/>
     </row>
     <row r="54" spans="1:27" ht="17.399999999999999">
-      <c r="A54" s="67"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="57" t="s">
+      <c r="A54" s="72"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="51" t="s">
         <v>64</v>
       </c>
       <c r="D54" s="11" t="s">
@@ -4239,9 +4238,9 @@
       <c r="AA54" s="1"/>
     </row>
     <row r="55" spans="1:27" ht="17.399999999999999">
-      <c r="A55" s="67"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
+      <c r="A55" s="72"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
       <c r="D55" s="11" t="s">
         <v>66</v>
       </c>
@@ -4270,9 +4269,9 @@
       <c r="AA55" s="1"/>
     </row>
     <row r="56" spans="1:27" ht="17.399999999999999">
-      <c r="A56" s="67"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
+      <c r="A56" s="72"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="11" t="s">
         <v>287</v>
       </c>
@@ -4301,9 +4300,9 @@
       <c r="AA56" s="1"/>
     </row>
     <row r="57" spans="1:27" ht="17.399999999999999">
-      <c r="A57" s="67"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
+      <c r="A57" s="72"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="11" t="s">
         <v>67</v>
       </c>
@@ -4332,9 +4331,9 @@
       <c r="AA57" s="1"/>
     </row>
     <row r="58" spans="1:27" ht="17.399999999999999">
-      <c r="A58" s="67"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="57" t="s">
+      <c r="A58" s="72"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="51" t="s">
         <v>68</v>
       </c>
       <c r="D58" s="11" t="s">
@@ -4365,9 +4364,9 @@
       <c r="AA58" s="1"/>
     </row>
     <row r="59" spans="1:27" ht="17.399999999999999">
-      <c r="A59" s="67"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
+      <c r="A59" s="72"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
       <c r="D59" s="11" t="s">
         <v>70</v>
       </c>
@@ -4396,9 +4395,9 @@
       <c r="AA59" s="1"/>
     </row>
     <row r="60" spans="1:27" ht="17.399999999999999">
-      <c r="A60" s="67"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
+      <c r="A60" s="72"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
       <c r="D60" s="11" t="s">
         <v>71</v>
       </c>
@@ -4427,9 +4426,9 @@
       <c r="AA60" s="1"/>
     </row>
     <row r="61" spans="1:27" ht="17.399999999999999">
-      <c r="A61" s="67"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
+      <c r="A61" s="72"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
       <c r="D61" s="11" t="s">
         <v>72</v>
       </c>
@@ -4458,9 +4457,9 @@
       <c r="AA61" s="1"/>
     </row>
     <row r="62" spans="1:27" ht="17.399999999999999">
-      <c r="A62" s="67"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="58"/>
+      <c r="A62" s="72"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
       <c r="D62" s="11" t="s">
         <v>288</v>
       </c>
@@ -4489,11 +4488,11 @@
       <c r="AA62" s="1"/>
     </row>
     <row r="63" spans="1:27" ht="17.399999999999999">
-      <c r="A63" s="67"/>
-      <c r="B63" s="57" t="s">
+      <c r="A63" s="72"/>
+      <c r="B63" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="57" t="s">
+      <c r="C63" s="51" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="11" t="s">
@@ -4524,9 +4523,9 @@
       <c r="AA63" s="1"/>
     </row>
     <row r="64" spans="1:27" ht="17.399999999999999">
-      <c r="A64" s="67"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
+      <c r="A64" s="72"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
       <c r="D64" s="11" t="s">
         <v>75</v>
       </c>
@@ -4555,9 +4554,9 @@
       <c r="AA64" s="1"/>
     </row>
     <row r="65" spans="1:27" ht="17.399999999999999">
-      <c r="A65" s="67"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="58"/>
+      <c r="A65" s="72"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
       <c r="D65" s="11" t="s">
         <v>76</v>
       </c>
@@ -4586,9 +4585,9 @@
       <c r="AA65" s="1"/>
     </row>
     <row r="66" spans="1:27" ht="17.399999999999999">
-      <c r="A66" s="67"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
+      <c r="A66" s="72"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="52"/>
       <c r="D66" s="11" t="s">
         <v>77</v>
       </c>
@@ -4617,9 +4616,9 @@
       <c r="AA66" s="1"/>
     </row>
     <row r="67" spans="1:27" ht="17.399999999999999">
-      <c r="A67" s="67"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
+      <c r="A67" s="72"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
       <c r="D67" s="11" t="s">
         <v>78</v>
       </c>
@@ -4648,9 +4647,9 @@
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="1:27" ht="17.399999999999999">
-      <c r="A68" s="67"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
+      <c r="A68" s="72"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
       <c r="D68" s="11" t="s">
         <v>79</v>
       </c>
@@ -4679,9 +4678,9 @@
       <c r="AA68" s="1"/>
     </row>
     <row r="69" spans="1:27" ht="17.399999999999999">
-      <c r="A69" s="67"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
+      <c r="A69" s="72"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="11" t="s">
         <v>80</v>
       </c>
@@ -4710,9 +4709,9 @@
       <c r="AA69" s="1"/>
     </row>
     <row r="70" spans="1:27" ht="17.399999999999999">
-      <c r="A70" s="67"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="58"/>
+      <c r="A70" s="72"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
       <c r="D70" s="11" t="s">
         <v>81</v>
       </c>
@@ -4741,9 +4740,9 @@
       <c r="AA70" s="1"/>
     </row>
     <row r="71" spans="1:27" ht="17.399999999999999">
-      <c r="A71" s="67"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="58"/>
+      <c r="A71" s="72"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="52"/>
       <c r="D71" s="11" t="s">
         <v>82</v>
       </c>
@@ -4772,9 +4771,9 @@
       <c r="AA71" s="1"/>
     </row>
     <row r="72" spans="1:27" ht="17.399999999999999">
-      <c r="A72" s="67"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="57" t="s">
+      <c r="A72" s="72"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="51" t="s">
         <v>83</v>
       </c>
       <c r="D72" s="11" t="s">
@@ -4805,9 +4804,9 @@
       <c r="AA72" s="1"/>
     </row>
     <row r="73" spans="1:27" ht="17.399999999999999">
-      <c r="A73" s="67"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="58"/>
+      <c r="A73" s="72"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="52"/>
       <c r="D73" s="11" t="s">
         <v>85</v>
       </c>
@@ -4836,9 +4835,9 @@
       <c r="AA73" s="1"/>
     </row>
     <row r="74" spans="1:27" ht="17.399999999999999">
-      <c r="A74" s="67"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="57" t="s">
+      <c r="A74" s="72"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="51" t="s">
         <v>86</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -4869,9 +4868,9 @@
       <c r="AA74" s="1"/>
     </row>
     <row r="75" spans="1:27" ht="17.399999999999999">
-      <c r="A75" s="67"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="58"/>
+      <c r="A75" s="72"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
       <c r="D75" s="11" t="s">
         <v>88</v>
       </c>
@@ -4900,9 +4899,9 @@
       <c r="AA75" s="1"/>
     </row>
     <row r="76" spans="1:27" ht="17.399999999999999">
-      <c r="A76" s="67"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
+      <c r="A76" s="72"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
       <c r="D76" s="11" t="s">
         <v>89</v>
       </c>
@@ -4931,9 +4930,9 @@
       <c r="AA76" s="1"/>
     </row>
     <row r="77" spans="1:27" ht="17.399999999999999">
-      <c r="A77" s="67"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
+      <c r="A77" s="72"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
       <c r="D77" s="11" t="s">
         <v>90</v>
       </c>
@@ -4962,9 +4961,9 @@
       <c r="AA77" s="1"/>
     </row>
     <row r="78" spans="1:27" ht="17.399999999999999">
-      <c r="A78" s="67"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="58"/>
+      <c r="A78" s="72"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="52"/>
       <c r="D78" s="11" t="s">
         <v>91</v>
       </c>
@@ -4993,9 +4992,9 @@
       <c r="AA78" s="1"/>
     </row>
     <row r="79" spans="1:27" ht="17.399999999999999">
-      <c r="A79" s="67"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
+      <c r="A79" s="72"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52"/>
       <c r="D79" s="11" t="s">
         <v>92</v>
       </c>
@@ -5024,9 +5023,9 @@
       <c r="AA79" s="1"/>
     </row>
     <row r="80" spans="1:27" ht="17.399999999999999">
-      <c r="A80" s="67"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="58"/>
+      <c r="A80" s="72"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="52"/>
       <c r="D80" s="11" t="s">
         <v>93</v>
       </c>
@@ -5055,9 +5054,9 @@
       <c r="AA80" s="1"/>
     </row>
     <row r="81" spans="1:27" ht="17.399999999999999">
-      <c r="A81" s="67"/>
-      <c r="B81" s="58"/>
-      <c r="C81" s="58"/>
+      <c r="A81" s="72"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="52"/>
       <c r="D81" s="11" t="s">
         <v>94</v>
       </c>
@@ -5086,9 +5085,9 @@
       <c r="AA81" s="1"/>
     </row>
     <row r="82" spans="1:27" ht="17.399999999999999">
-      <c r="A82" s="67"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="58"/>
+      <c r="A82" s="72"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="52"/>
       <c r="D82" s="11" t="s">
         <v>95</v>
       </c>
@@ -5117,9 +5116,9 @@
       <c r="AA82" s="1"/>
     </row>
     <row r="83" spans="1:27" ht="17.399999999999999">
-      <c r="A83" s="67"/>
-      <c r="B83" s="58"/>
-      <c r="C83" s="58"/>
+      <c r="A83" s="72"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
       <c r="D83" s="11" t="s">
         <v>96</v>
       </c>
@@ -5148,9 +5147,9 @@
       <c r="AA83" s="1"/>
     </row>
     <row r="84" spans="1:27" ht="17.399999999999999">
-      <c r="A84" s="67"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="58"/>
+      <c r="A84" s="72"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
       <c r="D84" s="11" t="s">
         <v>97</v>
       </c>
@@ -5179,8 +5178,8 @@
       <c r="AA84" s="1"/>
     </row>
     <row r="85" spans="1:27" ht="17.399999999999999">
-      <c r="A85" s="67"/>
-      <c r="B85" s="58"/>
+      <c r="A85" s="72"/>
+      <c r="B85" s="52"/>
       <c r="C85" s="4" t="s">
         <v>98</v>
       </c>
@@ -5212,9 +5211,9 @@
       <c r="AA85" s="1"/>
     </row>
     <row r="86" spans="1:27" ht="17.399999999999999">
-      <c r="A86" s="67"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="57" t="s">
+      <c r="A86" s="72"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="51" t="s">
         <v>100</v>
       </c>
       <c r="D86" s="11" t="s">
@@ -5245,9 +5244,9 @@
       <c r="AA86" s="1"/>
     </row>
     <row r="87" spans="1:27" ht="17.399999999999999">
-      <c r="A87" s="67"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
+      <c r="A87" s="72"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
       <c r="D87" s="11" t="s">
         <v>102</v>
       </c>
@@ -5276,9 +5275,9 @@
       <c r="AA87" s="1"/>
     </row>
     <row r="88" spans="1:27" ht="17.399999999999999">
-      <c r="A88" s="67"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="57" t="s">
+      <c r="A88" s="72"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="51" t="s">
         <v>103</v>
       </c>
       <c r="D88" s="11" t="s">
@@ -5309,9 +5308,9 @@
       <c r="AA88" s="1"/>
     </row>
     <row r="89" spans="1:27" ht="17.399999999999999">
-      <c r="A89" s="67"/>
-      <c r="B89" s="58"/>
-      <c r="C89" s="58"/>
+      <c r="A89" s="72"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
       <c r="D89" s="11" t="s">
         <v>105</v>
       </c>
@@ -5340,9 +5339,9 @@
       <c r="AA89" s="1"/>
     </row>
     <row r="90" spans="1:27" ht="17.399999999999999">
-      <c r="A90" s="67"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="57" t="s">
+      <c r="A90" s="72"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="51" t="s">
         <v>106</v>
       </c>
       <c r="D90" s="11" t="s">
@@ -5373,9 +5372,9 @@
       <c r="AA90" s="1"/>
     </row>
     <row r="91" spans="1:27" ht="17.399999999999999">
-      <c r="A91" s="67"/>
-      <c r="B91" s="58"/>
-      <c r="C91" s="58"/>
+      <c r="A91" s="72"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="52"/>
       <c r="D91" s="11" t="s">
         <v>108</v>
       </c>
@@ -5404,9 +5403,9 @@
       <c r="AA91" s="1"/>
     </row>
     <row r="92" spans="1:27" ht="17.399999999999999">
-      <c r="A92" s="67"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="57" t="s">
+      <c r="A92" s="72"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="51" t="s">
         <v>109</v>
       </c>
       <c r="D92" s="11" t="s">
@@ -5437,9 +5436,9 @@
       <c r="AA92" s="1"/>
     </row>
     <row r="93" spans="1:27" ht="17.399999999999999">
-      <c r="A93" s="67"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="58"/>
+      <c r="A93" s="72"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="52"/>
       <c r="D93" s="11" t="s">
         <v>111</v>
       </c>
@@ -5468,9 +5467,9 @@
       <c r="AA93" s="1"/>
     </row>
     <row r="94" spans="1:27" ht="17.399999999999999">
-      <c r="A94" s="67"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="58"/>
+      <c r="A94" s="72"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="52"/>
       <c r="D94" s="11" t="s">
         <v>112</v>
       </c>
@@ -5499,9 +5498,9 @@
       <c r="AA94" s="1"/>
     </row>
     <row r="95" spans="1:27" ht="17.399999999999999">
-      <c r="A95" s="67"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="58"/>
+      <c r="A95" s="72"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="52"/>
       <c r="D95" s="11" t="s">
         <v>113</v>
       </c>
@@ -5530,9 +5529,9 @@
       <c r="AA95" s="1"/>
     </row>
     <row r="96" spans="1:27" ht="17.399999999999999">
-      <c r="A96" s="67"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="58"/>
+      <c r="A96" s="72"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="52"/>
       <c r="D96" s="11" t="s">
         <v>114</v>
       </c>
@@ -5561,11 +5560,11 @@
       <c r="AA96" s="1"/>
     </row>
     <row r="97" spans="1:27" ht="17.399999999999999">
-      <c r="A97" s="67"/>
-      <c r="B97" s="57" t="s">
+      <c r="A97" s="72"/>
+      <c r="B97" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="C97" s="57" t="s">
+      <c r="C97" s="51" t="s">
         <v>116</v>
       </c>
       <c r="D97" s="11" t="s">
@@ -5596,9 +5595,9 @@
       <c r="AA97" s="1"/>
     </row>
     <row r="98" spans="1:27" ht="17.399999999999999">
-      <c r="A98" s="67"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="58"/>
+      <c r="A98" s="72"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="52"/>
       <c r="D98" s="11" t="s">
         <v>118</v>
       </c>
@@ -5627,9 +5626,9 @@
       <c r="AA98" s="1"/>
     </row>
     <row r="99" spans="1:27" ht="17.399999999999999">
-      <c r="A99" s="67"/>
-      <c r="B99" s="58"/>
-      <c r="C99" s="57" t="s">
+      <c r="A99" s="72"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="51" t="s">
         <v>119</v>
       </c>
       <c r="D99" s="11" t="s">
@@ -5660,9 +5659,9 @@
       <c r="AA99" s="1"/>
     </row>
     <row r="100" spans="1:27" ht="17.399999999999999">
-      <c r="A100" s="67"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="58"/>
+      <c r="A100" s="72"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="52"/>
       <c r="D100" s="11" t="s">
         <v>121</v>
       </c>
@@ -5691,9 +5690,9 @@
       <c r="AA100" s="1"/>
     </row>
     <row r="101" spans="1:27" ht="17.399999999999999">
-      <c r="A101" s="67"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="58"/>
+      <c r="A101" s="72"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="52"/>
       <c r="D101" s="11" t="s">
         <v>122</v>
       </c>
@@ -5722,9 +5721,9 @@
       <c r="AA101" s="1"/>
     </row>
     <row r="102" spans="1:27" ht="17.399999999999999">
-      <c r="A102" s="67"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="57" t="s">
+      <c r="A102" s="72"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="51" t="s">
         <v>6</v>
       </c>
       <c r="D102" s="11" t="s">
@@ -5755,9 +5754,9 @@
       <c r="AA102" s="1"/>
     </row>
     <row r="103" spans="1:27" ht="17.399999999999999">
-      <c r="A103" s="67"/>
-      <c r="B103" s="58"/>
-      <c r="C103" s="58"/>
+      <c r="A103" s="72"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="52"/>
       <c r="D103" s="11" t="s">
         <v>124</v>
       </c>
@@ -5786,11 +5785,11 @@
       <c r="AA103" s="1"/>
     </row>
     <row r="104" spans="1:27" ht="18" thickBot="1">
-      <c r="A104" s="68"/>
-      <c r="B104" s="70" t="s">
+      <c r="A104" s="73"/>
+      <c r="B104" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="71"/>
+      <c r="C104" s="63"/>
       <c r="D104" s="25" t="s">
         <v>125</v>
       </c>
@@ -5819,20 +5818,20 @@
       <c r="AA104" s="1"/>
     </row>
     <row r="105" spans="1:27" ht="17.399999999999999">
-      <c r="A105" s="66" t="s">
+      <c r="A105" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="B105" s="63"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="65"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="75"/>
+      <c r="D105" s="76"/>
       <c r="E105" s="26" t="s">
         <v>292</v>
       </c>
       <c r="F105" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G105" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="H105" s="15" t="s">
         <v>128</v>
@@ -5860,18 +5859,17 @@
       <c r="AA105" s="1"/>
     </row>
     <row r="106" spans="1:27" ht="17.399999999999999">
-      <c r="A106" s="67"/>
-      <c r="B106" s="57" t="s">
+      <c r="A106" s="72"/>
+      <c r="B106" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C106" s="57" t="s">
+      <c r="C106" s="51" t="s">
         <v>130</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>131</v>
       </c>
       <c r="E106" s="23"/>
-      <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="13"/>
       <c r="I106" s="18"/>
@@ -5895,9 +5893,9 @@
       <c r="AA106" s="1"/>
     </row>
     <row r="107" spans="1:27" ht="17.399999999999999">
-      <c r="A107" s="67"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="57"/>
+      <c r="A107" s="72"/>
+      <c r="B107" s="51"/>
+      <c r="C107" s="51"/>
       <c r="D107" s="11" t="s">
         <v>304</v>
       </c>
@@ -5926,9 +5924,9 @@
       <c r="AA107" s="1"/>
     </row>
     <row r="108" spans="1:27" ht="17.399999999999999">
-      <c r="A108" s="67"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="57"/>
+      <c r="A108" s="72"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="51"/>
       <c r="D108" s="11" t="s">
         <v>305</v>
       </c>
@@ -5957,9 +5955,9 @@
       <c r="AA108" s="1"/>
     </row>
     <row r="109" spans="1:27" ht="17.399999999999999">
-      <c r="A109" s="67"/>
-      <c r="B109" s="58"/>
-      <c r="C109" s="58"/>
+      <c r="A109" s="72"/>
+      <c r="B109" s="52"/>
+      <c r="C109" s="52"/>
       <c r="D109" s="11" t="s">
         <v>132</v>
       </c>
@@ -5988,9 +5986,9 @@
       <c r="AA109" s="1"/>
     </row>
     <row r="110" spans="1:27" ht="17.399999999999999">
-      <c r="A110" s="67"/>
-      <c r="B110" s="58"/>
-      <c r="C110" s="57" t="s">
+      <c r="A110" s="72"/>
+      <c r="B110" s="52"/>
+      <c r="C110" s="51" t="s">
         <v>133</v>
       </c>
       <c r="D110" s="11" t="s">
@@ -6021,9 +6019,9 @@
       <c r="AA110" s="1"/>
     </row>
     <row r="111" spans="1:27" ht="17.399999999999999">
-      <c r="A111" s="67"/>
-      <c r="B111" s="58"/>
-      <c r="C111" s="58"/>
+      <c r="A111" s="72"/>
+      <c r="B111" s="52"/>
+      <c r="C111" s="52"/>
       <c r="D111" s="11" t="s">
         <v>135</v>
       </c>
@@ -6052,8 +6050,8 @@
       <c r="AA111" s="1"/>
     </row>
     <row r="112" spans="1:27" ht="17.399999999999999">
-      <c r="A112" s="67"/>
-      <c r="B112" s="58"/>
+      <c r="A112" s="72"/>
+      <c r="B112" s="52"/>
       <c r="C112" s="4" t="s">
         <v>136</v>
       </c>
@@ -6085,9 +6083,9 @@
       <c r="AA112" s="1"/>
     </row>
     <row r="113" spans="1:27" ht="17.399999999999999">
-      <c r="A113" s="67"/>
-      <c r="B113" s="58"/>
-      <c r="C113" s="57" t="s">
+      <c r="A113" s="72"/>
+      <c r="B113" s="52"/>
+      <c r="C113" s="51" t="s">
         <v>138</v>
       </c>
       <c r="D113" s="11" t="s">
@@ -6118,9 +6116,9 @@
       <c r="AA113" s="1"/>
     </row>
     <row r="114" spans="1:27" ht="17.399999999999999">
-      <c r="A114" s="67"/>
-      <c r="B114" s="58"/>
-      <c r="C114" s="58"/>
+      <c r="A114" s="72"/>
+      <c r="B114" s="52"/>
+      <c r="C114" s="52"/>
       <c r="D114" s="11" t="s">
         <v>140</v>
       </c>
@@ -6149,9 +6147,9 @@
       <c r="AA114" s="1"/>
     </row>
     <row r="115" spans="1:27" ht="17.399999999999999">
-      <c r="A115" s="67"/>
-      <c r="B115" s="58"/>
-      <c r="C115" s="58"/>
+      <c r="A115" s="72"/>
+      <c r="B115" s="52"/>
+      <c r="C115" s="52"/>
       <c r="D115" s="11" t="s">
         <v>141</v>
       </c>
@@ -6180,9 +6178,9 @@
       <c r="AA115" s="1"/>
     </row>
     <row r="116" spans="1:27" ht="17.399999999999999">
-      <c r="A116" s="67"/>
-      <c r="B116" s="58"/>
-      <c r="C116" s="58"/>
+      <c r="A116" s="72"/>
+      <c r="B116" s="52"/>
+      <c r="C116" s="52"/>
       <c r="D116" s="11" t="s">
         <v>142</v>
       </c>
@@ -6211,9 +6209,9 @@
       <c r="AA116" s="1"/>
     </row>
     <row r="117" spans="1:27" ht="17.399999999999999">
-      <c r="A117" s="67"/>
-      <c r="B117" s="58"/>
-      <c r="C117" s="57" t="s">
+      <c r="A117" s="72"/>
+      <c r="B117" s="52"/>
+      <c r="C117" s="51" t="s">
         <v>42</v>
       </c>
       <c r="D117" s="11" t="s">
@@ -6244,9 +6242,9 @@
       <c r="AA117" s="1"/>
     </row>
     <row r="118" spans="1:27" ht="17.399999999999999">
-      <c r="A118" s="67"/>
-      <c r="B118" s="58"/>
-      <c r="C118" s="58"/>
+      <c r="A118" s="72"/>
+      <c r="B118" s="52"/>
+      <c r="C118" s="52"/>
       <c r="D118" s="11" t="s">
         <v>144</v>
       </c>
@@ -6275,9 +6273,9 @@
       <c r="AA118" s="1"/>
     </row>
     <row r="119" spans="1:27" ht="17.399999999999999">
-      <c r="A119" s="67"/>
-      <c r="B119" s="58"/>
-      <c r="C119" s="58"/>
+      <c r="A119" s="72"/>
+      <c r="B119" s="52"/>
+      <c r="C119" s="52"/>
       <c r="D119" s="11" t="s">
         <v>145</v>
       </c>
@@ -6306,9 +6304,9 @@
       <c r="AA119" s="1"/>
     </row>
     <row r="120" spans="1:27" ht="17.399999999999999">
-      <c r="A120" s="67"/>
-      <c r="B120" s="58"/>
-      <c r="C120" s="57" t="s">
+      <c r="A120" s="72"/>
+      <c r="B120" s="52"/>
+      <c r="C120" s="51" t="s">
         <v>146</v>
       </c>
       <c r="D120" s="11" t="s">
@@ -6339,9 +6337,9 @@
       <c r="AA120" s="1"/>
     </row>
     <row r="121" spans="1:27" ht="17.399999999999999">
-      <c r="A121" s="67"/>
-      <c r="B121" s="58"/>
-      <c r="C121" s="58"/>
+      <c r="A121" s="72"/>
+      <c r="B121" s="52"/>
+      <c r="C121" s="52"/>
       <c r="D121" s="11" t="s">
         <v>148</v>
       </c>
@@ -6370,9 +6368,9 @@
       <c r="AA121" s="1"/>
     </row>
     <row r="122" spans="1:27" ht="17.399999999999999">
-      <c r="A122" s="67"/>
-      <c r="B122" s="58"/>
-      <c r="C122" s="58"/>
+      <c r="A122" s="72"/>
+      <c r="B122" s="52"/>
+      <c r="C122" s="52"/>
       <c r="D122" s="11" t="s">
         <v>149</v>
       </c>
@@ -6401,9 +6399,9 @@
       <c r="AA122" s="1"/>
     </row>
     <row r="123" spans="1:27" ht="17.399999999999999">
-      <c r="A123" s="67"/>
-      <c r="B123" s="58"/>
-      <c r="C123" s="58"/>
+      <c r="A123" s="72"/>
+      <c r="B123" s="52"/>
+      <c r="C123" s="52"/>
       <c r="D123" s="11" t="s">
         <v>150</v>
       </c>
@@ -6432,9 +6430,9 @@
       <c r="AA123" s="1"/>
     </row>
     <row r="124" spans="1:27" ht="17.399999999999999">
-      <c r="A124" s="67"/>
-      <c r="B124" s="58"/>
-      <c r="C124" s="58"/>
+      <c r="A124" s="72"/>
+      <c r="B124" s="52"/>
+      <c r="C124" s="52"/>
       <c r="D124" s="11" t="s">
         <v>151</v>
       </c>
@@ -6463,9 +6461,9 @@
       <c r="AA124" s="1"/>
     </row>
     <row r="125" spans="1:27" ht="17.399999999999999">
-      <c r="A125" s="67"/>
-      <c r="B125" s="58"/>
-      <c r="C125" s="57" t="s">
+      <c r="A125" s="72"/>
+      <c r="B125" s="52"/>
+      <c r="C125" s="51" t="s">
         <v>152</v>
       </c>
       <c r="D125" s="11" t="s">
@@ -6496,9 +6494,9 @@
       <c r="AA125" s="1"/>
     </row>
     <row r="126" spans="1:27" ht="17.399999999999999">
-      <c r="A126" s="67"/>
-      <c r="B126" s="58"/>
-      <c r="C126" s="58"/>
+      <c r="A126" s="72"/>
+      <c r="B126" s="52"/>
+      <c r="C126" s="52"/>
       <c r="D126" s="11" t="s">
         <v>154</v>
       </c>
@@ -6527,9 +6525,9 @@
       <c r="AA126" s="1"/>
     </row>
     <row r="127" spans="1:27" ht="17.399999999999999">
-      <c r="A127" s="67"/>
-      <c r="B127" s="58"/>
-      <c r="C127" s="58"/>
+      <c r="A127" s="72"/>
+      <c r="B127" s="52"/>
+      <c r="C127" s="52"/>
       <c r="D127" s="11" t="s">
         <v>155</v>
       </c>
@@ -6558,9 +6556,9 @@
       <c r="AA127" s="1"/>
     </row>
     <row r="128" spans="1:27" ht="17.399999999999999">
-      <c r="A128" s="67"/>
-      <c r="B128" s="58"/>
-      <c r="C128" s="58"/>
+      <c r="A128" s="72"/>
+      <c r="B128" s="52"/>
+      <c r="C128" s="52"/>
       <c r="D128" s="11" t="s">
         <v>156</v>
       </c>
@@ -6589,9 +6587,9 @@
       <c r="AA128" s="1"/>
     </row>
     <row r="129" spans="1:27" ht="17.399999999999999">
-      <c r="A129" s="67"/>
-      <c r="B129" s="58"/>
-      <c r="C129" s="58"/>
+      <c r="A129" s="72"/>
+      <c r="B129" s="52"/>
+      <c r="C129" s="52"/>
       <c r="D129" s="11" t="s">
         <v>157</v>
       </c>
@@ -6620,9 +6618,9 @@
       <c r="AA129" s="1"/>
     </row>
     <row r="130" spans="1:27" ht="17.399999999999999">
-      <c r="A130" s="67"/>
-      <c r="B130" s="58"/>
-      <c r="C130" s="58"/>
+      <c r="A130" s="72"/>
+      <c r="B130" s="52"/>
+      <c r="C130" s="52"/>
       <c r="D130" s="11" t="s">
         <v>151</v>
       </c>
@@ -6651,9 +6649,9 @@
       <c r="AA130" s="1"/>
     </row>
     <row r="131" spans="1:27" ht="17.399999999999999">
-      <c r="A131" s="67"/>
-      <c r="B131" s="58"/>
-      <c r="C131" s="57" t="s">
+      <c r="A131" s="72"/>
+      <c r="B131" s="52"/>
+      <c r="C131" s="51" t="s">
         <v>158</v>
       </c>
       <c r="D131" s="11" t="s">
@@ -6684,9 +6682,9 @@
       <c r="AA131" s="1"/>
     </row>
     <row r="132" spans="1:27" ht="17.399999999999999">
-      <c r="A132" s="67"/>
-      <c r="B132" s="58"/>
-      <c r="C132" s="58"/>
+      <c r="A132" s="72"/>
+      <c r="B132" s="52"/>
+      <c r="C132" s="52"/>
       <c r="D132" s="11" t="s">
         <v>160</v>
       </c>
@@ -6715,9 +6713,9 @@
       <c r="AA132" s="1"/>
     </row>
     <row r="133" spans="1:27" ht="17.399999999999999">
-      <c r="A133" s="67"/>
-      <c r="B133" s="58"/>
-      <c r="C133" s="57" t="s">
+      <c r="A133" s="72"/>
+      <c r="B133" s="52"/>
+      <c r="C133" s="51" t="s">
         <v>161</v>
       </c>
       <c r="D133" s="11" t="s">
@@ -6748,9 +6746,9 @@
       <c r="AA133" s="1"/>
     </row>
     <row r="134" spans="1:27" ht="17.399999999999999">
-      <c r="A134" s="67"/>
-      <c r="B134" s="58"/>
-      <c r="C134" s="58"/>
+      <c r="A134" s="72"/>
+      <c r="B134" s="52"/>
+      <c r="C134" s="52"/>
       <c r="D134" s="11" t="s">
         <v>163</v>
       </c>
@@ -6779,9 +6777,9 @@
       <c r="AA134" s="1"/>
     </row>
     <row r="135" spans="1:27" ht="17.399999999999999">
-      <c r="A135" s="67"/>
-      <c r="B135" s="58"/>
-      <c r="C135" s="58"/>
+      <c r="A135" s="72"/>
+      <c r="B135" s="52"/>
+      <c r="C135" s="52"/>
       <c r="D135" s="11" t="s">
         <v>164</v>
       </c>
@@ -6810,9 +6808,9 @@
       <c r="AA135" s="1"/>
     </row>
     <row r="136" spans="1:27" ht="17.399999999999999">
-      <c r="A136" s="67"/>
-      <c r="B136" s="58"/>
-      <c r="C136" s="58"/>
+      <c r="A136" s="72"/>
+      <c r="B136" s="52"/>
+      <c r="C136" s="52"/>
       <c r="D136" s="11" t="s">
         <v>165</v>
       </c>
@@ -6841,9 +6839,9 @@
       <c r="AA136" s="1"/>
     </row>
     <row r="137" spans="1:27" ht="17.399999999999999">
-      <c r="A137" s="67"/>
-      <c r="B137" s="58"/>
-      <c r="C137" s="58"/>
+      <c r="A137" s="72"/>
+      <c r="B137" s="52"/>
+      <c r="C137" s="52"/>
       <c r="D137" s="11" t="s">
         <v>155</v>
       </c>
@@ -6872,9 +6870,9 @@
       <c r="AA137" s="1"/>
     </row>
     <row r="138" spans="1:27" ht="17.399999999999999">
-      <c r="A138" s="67"/>
-      <c r="B138" s="58"/>
-      <c r="C138" s="58"/>
+      <c r="A138" s="72"/>
+      <c r="B138" s="52"/>
+      <c r="C138" s="52"/>
       <c r="D138" s="11" t="s">
         <v>156</v>
       </c>
@@ -6903,8 +6901,8 @@
       <c r="AA138" s="1"/>
     </row>
     <row r="139" spans="1:27" ht="17.399999999999999">
-      <c r="A139" s="67"/>
-      <c r="B139" s="58"/>
+      <c r="A139" s="72"/>
+      <c r="B139" s="52"/>
       <c r="C139" s="4" t="s">
         <v>109</v>
       </c>
@@ -6936,11 +6934,11 @@
       <c r="AA139" s="1"/>
     </row>
     <row r="140" spans="1:27" ht="17.399999999999999">
-      <c r="A140" s="67"/>
-      <c r="B140" s="57" t="s">
+      <c r="A140" s="72"/>
+      <c r="B140" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C140" s="58"/>
+      <c r="C140" s="52"/>
       <c r="D140" s="11" t="s">
         <v>168</v>
       </c>
@@ -6969,9 +6967,9 @@
       <c r="AA140" s="1"/>
     </row>
     <row r="141" spans="1:27" ht="17.399999999999999">
-      <c r="A141" s="67"/>
-      <c r="B141" s="58"/>
-      <c r="C141" s="58"/>
+      <c r="A141" s="72"/>
+      <c r="B141" s="52"/>
+      <c r="C141" s="52"/>
       <c r="D141" s="11" t="s">
         <v>169</v>
       </c>
@@ -7000,9 +6998,9 @@
       <c r="AA141" s="1"/>
     </row>
     <row r="142" spans="1:27" ht="17.399999999999999">
-      <c r="A142" s="67"/>
-      <c r="B142" s="58"/>
-      <c r="C142" s="58"/>
+      <c r="A142" s="72"/>
+      <c r="B142" s="52"/>
+      <c r="C142" s="52"/>
       <c r="D142" s="11" t="s">
         <v>170</v>
       </c>
@@ -7031,9 +7029,9 @@
       <c r="AA142" s="1"/>
     </row>
     <row r="143" spans="1:27" ht="17.399999999999999">
-      <c r="A143" s="67"/>
-      <c r="B143" s="58"/>
-      <c r="C143" s="58"/>
+      <c r="A143" s="72"/>
+      <c r="B143" s="52"/>
+      <c r="C143" s="52"/>
       <c r="D143" s="11" t="s">
         <v>171</v>
       </c>
@@ -7062,9 +7060,9 @@
       <c r="AA143" s="1"/>
     </row>
     <row r="144" spans="1:27" ht="17.399999999999999">
-      <c r="A144" s="67"/>
-      <c r="B144" s="58"/>
-      <c r="C144" s="58"/>
+      <c r="A144" s="72"/>
+      <c r="B144" s="52"/>
+      <c r="C144" s="52"/>
       <c r="D144" s="11" t="s">
         <v>172</v>
       </c>
@@ -7093,9 +7091,9 @@
       <c r="AA144" s="1"/>
     </row>
     <row r="145" spans="1:27" ht="17.399999999999999">
-      <c r="A145" s="67"/>
-      <c r="B145" s="58"/>
-      <c r="C145" s="58"/>
+      <c r="A145" s="72"/>
+      <c r="B145" s="52"/>
+      <c r="C145" s="52"/>
       <c r="D145" s="11" t="s">
         <v>173</v>
       </c>
@@ -7124,9 +7122,9 @@
       <c r="AA145" s="1"/>
     </row>
     <row r="146" spans="1:27" ht="17.399999999999999">
-      <c r="A146" s="67"/>
-      <c r="B146" s="58"/>
-      <c r="C146" s="58"/>
+      <c r="A146" s="72"/>
+      <c r="B146" s="52"/>
+      <c r="C146" s="52"/>
       <c r="D146" s="11" t="s">
         <v>174</v>
       </c>
@@ -7155,9 +7153,9 @@
       <c r="AA146" s="1"/>
     </row>
     <row r="147" spans="1:27" ht="17.399999999999999">
-      <c r="A147" s="67"/>
-      <c r="B147" s="58"/>
-      <c r="C147" s="58"/>
+      <c r="A147" s="72"/>
+      <c r="B147" s="52"/>
+      <c r="C147" s="52"/>
       <c r="D147" s="11" t="s">
         <v>175</v>
       </c>
@@ -7186,9 +7184,9 @@
       <c r="AA147" s="1"/>
     </row>
     <row r="148" spans="1:27" ht="17.399999999999999">
-      <c r="A148" s="67"/>
-      <c r="B148" s="58"/>
-      <c r="C148" s="58"/>
+      <c r="A148" s="72"/>
+      <c r="B148" s="52"/>
+      <c r="C148" s="52"/>
       <c r="D148" s="11" t="s">
         <v>176</v>
       </c>
@@ -7217,9 +7215,9 @@
       <c r="AA148" s="1"/>
     </row>
     <row r="149" spans="1:27" ht="17.399999999999999">
-      <c r="A149" s="67"/>
-      <c r="B149" s="58"/>
-      <c r="C149" s="58"/>
+      <c r="A149" s="72"/>
+      <c r="B149" s="52"/>
+      <c r="C149" s="52"/>
       <c r="D149" s="11" t="s">
         <v>177</v>
       </c>
@@ -7248,9 +7246,9 @@
       <c r="AA149" s="1"/>
     </row>
     <row r="150" spans="1:27" ht="17.399999999999999">
-      <c r="A150" s="67"/>
-      <c r="B150" s="58"/>
-      <c r="C150" s="58"/>
+      <c r="A150" s="72"/>
+      <c r="B150" s="52"/>
+      <c r="C150" s="52"/>
       <c r="D150" s="11" t="s">
         <v>178</v>
       </c>
@@ -7279,9 +7277,9 @@
       <c r="AA150" s="1"/>
     </row>
     <row r="151" spans="1:27" ht="17.399999999999999">
-      <c r="A151" s="67"/>
-      <c r="B151" s="58"/>
-      <c r="C151" s="58"/>
+      <c r="A151" s="72"/>
+      <c r="B151" s="52"/>
+      <c r="C151" s="52"/>
       <c r="D151" s="11" t="s">
         <v>179</v>
       </c>
@@ -7310,9 +7308,9 @@
       <c r="AA151" s="1"/>
     </row>
     <row r="152" spans="1:27" ht="17.399999999999999">
-      <c r="A152" s="67"/>
-      <c r="B152" s="58"/>
-      <c r="C152" s="58"/>
+      <c r="A152" s="72"/>
+      <c r="B152" s="52"/>
+      <c r="C152" s="52"/>
       <c r="D152" s="11" t="s">
         <v>180</v>
       </c>
@@ -7341,9 +7339,9 @@
       <c r="AA152" s="1"/>
     </row>
     <row r="153" spans="1:27" ht="17.399999999999999">
-      <c r="A153" s="67"/>
-      <c r="B153" s="58"/>
-      <c r="C153" s="58"/>
+      <c r="A153" s="72"/>
+      <c r="B153" s="52"/>
+      <c r="C153" s="52"/>
       <c r="D153" s="11" t="s">
         <v>181</v>
       </c>
@@ -7372,9 +7370,9 @@
       <c r="AA153" s="1"/>
     </row>
     <row r="154" spans="1:27" ht="17.399999999999999">
-      <c r="A154" s="67"/>
-      <c r="B154" s="58"/>
-      <c r="C154" s="58"/>
+      <c r="A154" s="72"/>
+      <c r="B154" s="52"/>
+      <c r="C154" s="52"/>
       <c r="D154" s="11" t="s">
         <v>182</v>
       </c>
@@ -7403,9 +7401,9 @@
       <c r="AA154" s="1"/>
     </row>
     <row r="155" spans="1:27" ht="17.399999999999999">
-      <c r="A155" s="67"/>
-      <c r="B155" s="58"/>
-      <c r="C155" s="58"/>
+      <c r="A155" s="72"/>
+      <c r="B155" s="52"/>
+      <c r="C155" s="52"/>
       <c r="D155" s="11" t="s">
         <v>183</v>
       </c>
@@ -7434,9 +7432,9 @@
       <c r="AA155" s="1"/>
     </row>
     <row r="156" spans="1:27" ht="17.399999999999999">
-      <c r="A156" s="67"/>
-      <c r="B156" s="58"/>
-      <c r="C156" s="58"/>
+      <c r="A156" s="72"/>
+      <c r="B156" s="52"/>
+      <c r="C156" s="52"/>
       <c r="D156" s="11" t="s">
         <v>184</v>
       </c>
@@ -7465,9 +7463,9 @@
       <c r="AA156" s="1"/>
     </row>
     <row r="157" spans="1:27" ht="17.399999999999999">
-      <c r="A157" s="67"/>
-      <c r="B157" s="58"/>
-      <c r="C157" s="58"/>
+      <c r="A157" s="72"/>
+      <c r="B157" s="52"/>
+      <c r="C157" s="52"/>
       <c r="D157" s="11" t="s">
         <v>185</v>
       </c>
@@ -7496,9 +7494,9 @@
       <c r="AA157" s="1"/>
     </row>
     <row r="158" spans="1:27" ht="17.399999999999999">
-      <c r="A158" s="67"/>
-      <c r="B158" s="58"/>
-      <c r="C158" s="58"/>
+      <c r="A158" s="72"/>
+      <c r="B158" s="52"/>
+      <c r="C158" s="52"/>
       <c r="D158" s="11" t="s">
         <v>186</v>
       </c>
@@ -7527,9 +7525,9 @@
       <c r="AA158" s="1"/>
     </row>
     <row r="159" spans="1:27" ht="17.399999999999999">
-      <c r="A159" s="67"/>
-      <c r="B159" s="58"/>
-      <c r="C159" s="58"/>
+      <c r="A159" s="72"/>
+      <c r="B159" s="52"/>
+      <c r="C159" s="52"/>
       <c r="D159" s="11" t="s">
         <v>187</v>
       </c>
@@ -7558,9 +7556,9 @@
       <c r="AA159" s="1"/>
     </row>
     <row r="160" spans="1:27" ht="17.399999999999999">
-      <c r="A160" s="67"/>
-      <c r="B160" s="58"/>
-      <c r="C160" s="58"/>
+      <c r="A160" s="72"/>
+      <c r="B160" s="52"/>
+      <c r="C160" s="52"/>
       <c r="D160" s="11" t="s">
         <v>188</v>
       </c>
@@ -7589,9 +7587,9 @@
       <c r="AA160" s="1"/>
     </row>
     <row r="161" spans="1:27" ht="17.399999999999999">
-      <c r="A161" s="67"/>
-      <c r="B161" s="58"/>
-      <c r="C161" s="58"/>
+      <c r="A161" s="72"/>
+      <c r="B161" s="52"/>
+      <c r="C161" s="52"/>
       <c r="D161" s="11" t="s">
         <v>189</v>
       </c>
@@ -7620,9 +7618,9 @@
       <c r="AA161" s="1"/>
     </row>
     <row r="162" spans="1:27" ht="17.399999999999999">
-      <c r="A162" s="67"/>
-      <c r="B162" s="58"/>
-      <c r="C162" s="58"/>
+      <c r="A162" s="72"/>
+      <c r="B162" s="52"/>
+      <c r="C162" s="52"/>
       <c r="D162" s="11" t="s">
         <v>190</v>
       </c>
@@ -7651,9 +7649,9 @@
       <c r="AA162" s="1"/>
     </row>
     <row r="163" spans="1:27" ht="17.399999999999999">
-      <c r="A163" s="67"/>
-      <c r="B163" s="58"/>
-      <c r="C163" s="58"/>
+      <c r="A163" s="72"/>
+      <c r="B163" s="52"/>
+      <c r="C163" s="52"/>
       <c r="D163" s="11" t="s">
         <v>191</v>
       </c>
@@ -7682,9 +7680,9 @@
       <c r="AA163" s="1"/>
     </row>
     <row r="164" spans="1:27" ht="17.399999999999999">
-      <c r="A164" s="67"/>
-      <c r="B164" s="58"/>
-      <c r="C164" s="58"/>
+      <c r="A164" s="72"/>
+      <c r="B164" s="52"/>
+      <c r="C164" s="52"/>
       <c r="D164" s="11" t="s">
         <v>192</v>
       </c>
@@ -7713,9 +7711,9 @@
       <c r="AA164" s="1"/>
     </row>
     <row r="165" spans="1:27" ht="17.399999999999999">
-      <c r="A165" s="67"/>
-      <c r="B165" s="58"/>
-      <c r="C165" s="58"/>
+      <c r="A165" s="72"/>
+      <c r="B165" s="52"/>
+      <c r="C165" s="52"/>
       <c r="D165" s="11" t="s">
         <v>193</v>
       </c>
@@ -7744,9 +7742,9 @@
       <c r="AA165" s="1"/>
     </row>
     <row r="166" spans="1:27" ht="17.399999999999999">
-      <c r="A166" s="67"/>
-      <c r="B166" s="58"/>
-      <c r="C166" s="58"/>
+      <c r="A166" s="72"/>
+      <c r="B166" s="52"/>
+      <c r="C166" s="52"/>
       <c r="D166" s="11" t="s">
         <v>194</v>
       </c>
@@ -7775,9 +7773,9 @@
       <c r="AA166" s="1"/>
     </row>
     <row r="167" spans="1:27" ht="17.399999999999999">
-      <c r="A167" s="67"/>
-      <c r="B167" s="58"/>
-      <c r="C167" s="58"/>
+      <c r="A167" s="72"/>
+      <c r="B167" s="52"/>
+      <c r="C167" s="52"/>
       <c r="D167" s="11" t="s">
         <v>195</v>
       </c>
@@ -7806,9 +7804,9 @@
       <c r="AA167" s="1"/>
     </row>
     <row r="168" spans="1:27" ht="17.399999999999999">
-      <c r="A168" s="67"/>
-      <c r="B168" s="58"/>
-      <c r="C168" s="58"/>
+      <c r="A168" s="72"/>
+      <c r="B168" s="52"/>
+      <c r="C168" s="52"/>
       <c r="D168" s="11" t="s">
         <v>196</v>
       </c>
@@ -7837,9 +7835,9 @@
       <c r="AA168" s="1"/>
     </row>
     <row r="169" spans="1:27" ht="17.399999999999999">
-      <c r="A169" s="67"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
+      <c r="A169" s="72"/>
+      <c r="B169" s="52"/>
+      <c r="C169" s="52"/>
       <c r="D169" s="11" t="s">
         <v>285</v>
       </c>
@@ -7868,9 +7866,9 @@
       <c r="AA169" s="1"/>
     </row>
     <row r="170" spans="1:27" ht="17.399999999999999">
-      <c r="A170" s="67"/>
-      <c r="B170" s="58"/>
-      <c r="C170" s="58"/>
+      <c r="A170" s="72"/>
+      <c r="B170" s="52"/>
+      <c r="C170" s="52"/>
       <c r="D170" s="11" t="s">
         <v>197</v>
       </c>
@@ -7899,11 +7897,11 @@
       <c r="AA170" s="1"/>
     </row>
     <row r="171" spans="1:27" ht="17.399999999999999">
-      <c r="A171" s="67"/>
-      <c r="B171" s="57" t="s">
+      <c r="A171" s="72"/>
+      <c r="B171" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="C171" s="57" t="s">
+      <c r="C171" s="51" t="s">
         <v>199</v>
       </c>
       <c r="D171" s="11" t="s">
@@ -7934,9 +7932,9 @@
       <c r="AA171" s="1"/>
     </row>
     <row r="172" spans="1:27" ht="17.399999999999999">
-      <c r="A172" s="67"/>
-      <c r="B172" s="58"/>
-      <c r="C172" s="58"/>
+      <c r="A172" s="72"/>
+      <c r="B172" s="52"/>
+      <c r="C172" s="52"/>
       <c r="D172" s="11" t="s">
         <v>201</v>
       </c>
@@ -7965,9 +7963,9 @@
       <c r="AA172" s="1"/>
     </row>
     <row r="173" spans="1:27" ht="17.399999999999999">
-      <c r="A173" s="67"/>
-      <c r="B173" s="58"/>
-      <c r="C173" s="58"/>
+      <c r="A173" s="72"/>
+      <c r="B173" s="52"/>
+      <c r="C173" s="52"/>
       <c r="D173" s="11" t="s">
         <v>202</v>
       </c>
@@ -7996,9 +7994,9 @@
       <c r="AA173" s="1"/>
     </row>
     <row r="174" spans="1:27" ht="17.399999999999999">
-      <c r="A174" s="67"/>
-      <c r="B174" s="58"/>
-      <c r="C174" s="58"/>
+      <c r="A174" s="72"/>
+      <c r="B174" s="52"/>
+      <c r="C174" s="52"/>
       <c r="D174" s="11" t="s">
         <v>203</v>
       </c>
@@ -8027,9 +8025,9 @@
       <c r="AA174" s="1"/>
     </row>
     <row r="175" spans="1:27" ht="17.399999999999999">
-      <c r="A175" s="67"/>
-      <c r="B175" s="58"/>
-      <c r="C175" s="58"/>
+      <c r="A175" s="72"/>
+      <c r="B175" s="52"/>
+      <c r="C175" s="52"/>
       <c r="D175" s="11" t="s">
         <v>176</v>
       </c>
@@ -8058,9 +8056,9 @@
       <c r="AA175" s="1"/>
     </row>
     <row r="176" spans="1:27" ht="17.399999999999999">
-      <c r="A176" s="67"/>
-      <c r="B176" s="58"/>
-      <c r="C176" s="58"/>
+      <c r="A176" s="72"/>
+      <c r="B176" s="52"/>
+      <c r="C176" s="52"/>
       <c r="D176" s="11" t="s">
         <v>204</v>
       </c>
@@ -8089,9 +8087,9 @@
       <c r="AA176" s="1"/>
     </row>
     <row r="177" spans="1:27" ht="17.399999999999999">
-      <c r="A177" s="67"/>
-      <c r="B177" s="58"/>
-      <c r="C177" s="58"/>
+      <c r="A177" s="72"/>
+      <c r="B177" s="52"/>
+      <c r="C177" s="52"/>
       <c r="D177" s="27" t="s">
         <v>279</v>
       </c>
@@ -8120,9 +8118,9 @@
       <c r="AA177" s="1"/>
     </row>
     <row r="178" spans="1:27" ht="17.399999999999999">
-      <c r="A178" s="67"/>
-      <c r="B178" s="58"/>
-      <c r="C178" s="58"/>
+      <c r="A178" s="72"/>
+      <c r="B178" s="52"/>
+      <c r="C178" s="52"/>
       <c r="D178" s="27" t="s">
         <v>280</v>
       </c>
@@ -8151,9 +8149,9 @@
       <c r="AA178" s="1"/>
     </row>
     <row r="179" spans="1:27" ht="17.399999999999999">
-      <c r="A179" s="67"/>
-      <c r="B179" s="58"/>
-      <c r="C179" s="58"/>
+      <c r="A179" s="72"/>
+      <c r="B179" s="52"/>
+      <c r="C179" s="52"/>
       <c r="D179" s="27" t="s">
         <v>281</v>
       </c>
@@ -8182,9 +8180,9 @@
       <c r="AA179" s="1"/>
     </row>
     <row r="180" spans="1:27" ht="17.399999999999999">
-      <c r="A180" s="67"/>
-      <c r="B180" s="58"/>
-      <c r="C180" s="58"/>
+      <c r="A180" s="72"/>
+      <c r="B180" s="52"/>
+      <c r="C180" s="52"/>
       <c r="D180" s="27" t="s">
         <v>282</v>
       </c>
@@ -8213,9 +8211,9 @@
       <c r="AA180" s="1"/>
     </row>
     <row r="181" spans="1:27" ht="17.399999999999999">
-      <c r="A181" s="67"/>
-      <c r="B181" s="58"/>
-      <c r="C181" s="58"/>
+      <c r="A181" s="72"/>
+      <c r="B181" s="52"/>
+      <c r="C181" s="52"/>
       <c r="D181" s="27" t="s">
         <v>283</v>
       </c>
@@ -8244,9 +8242,9 @@
       <c r="AA181" s="1"/>
     </row>
     <row r="182" spans="1:27" ht="17.399999999999999">
-      <c r="A182" s="67"/>
-      <c r="B182" s="58"/>
-      <c r="C182" s="58"/>
+      <c r="A182" s="72"/>
+      <c r="B182" s="52"/>
+      <c r="C182" s="52"/>
       <c r="D182" s="27" t="s">
         <v>284</v>
       </c>
@@ -8275,9 +8273,9 @@
       <c r="AA182" s="1"/>
     </row>
     <row r="183" spans="1:27" ht="17.399999999999999">
-      <c r="A183" s="67"/>
-      <c r="B183" s="58"/>
-      <c r="C183" s="58"/>
+      <c r="A183" s="72"/>
+      <c r="B183" s="52"/>
+      <c r="C183" s="52"/>
       <c r="D183" s="11" t="s">
         <v>205</v>
       </c>
@@ -8306,9 +8304,9 @@
       <c r="AA183" s="1"/>
     </row>
     <row r="184" spans="1:27" ht="17.399999999999999">
-      <c r="A184" s="67"/>
-      <c r="B184" s="58"/>
-      <c r="C184" s="57" t="s">
+      <c r="A184" s="72"/>
+      <c r="B184" s="52"/>
+      <c r="C184" s="51" t="s">
         <v>295</v>
       </c>
       <c r="D184" s="11" t="s">
@@ -8339,9 +8337,9 @@
       <c r="AA184" s="1"/>
     </row>
     <row r="185" spans="1:27" ht="17.399999999999999">
-      <c r="A185" s="67"/>
-      <c r="B185" s="58"/>
-      <c r="C185" s="58"/>
+      <c r="A185" s="72"/>
+      <c r="B185" s="52"/>
+      <c r="C185" s="52"/>
       <c r="D185" s="11" t="s">
         <v>201</v>
       </c>
@@ -8370,9 +8368,9 @@
       <c r="AA185" s="1"/>
     </row>
     <row r="186" spans="1:27" ht="17.399999999999999">
-      <c r="A186" s="67"/>
-      <c r="B186" s="58"/>
-      <c r="C186" s="58"/>
+      <c r="A186" s="72"/>
+      <c r="B186" s="52"/>
+      <c r="C186" s="52"/>
       <c r="D186" s="11" t="s">
         <v>202</v>
       </c>
@@ -8401,9 +8399,9 @@
       <c r="AA186" s="1"/>
     </row>
     <row r="187" spans="1:27" ht="17.399999999999999">
-      <c r="A187" s="67"/>
-      <c r="B187" s="58"/>
-      <c r="C187" s="58"/>
+      <c r="A187" s="72"/>
+      <c r="B187" s="52"/>
+      <c r="C187" s="52"/>
       <c r="D187" s="11" t="s">
         <v>203</v>
       </c>
@@ -8432,9 +8430,9 @@
       <c r="AA187" s="1"/>
     </row>
     <row r="188" spans="1:27" ht="17.399999999999999">
-      <c r="A188" s="67"/>
-      <c r="B188" s="58"/>
-      <c r="C188" s="58"/>
+      <c r="A188" s="72"/>
+      <c r="B188" s="52"/>
+      <c r="C188" s="52"/>
       <c r="D188" s="11" t="s">
         <v>176</v>
       </c>
@@ -8463,9 +8461,9 @@
       <c r="AA188" s="1"/>
     </row>
     <row r="189" spans="1:27" ht="17.399999999999999">
-      <c r="A189" s="67"/>
-      <c r="B189" s="58"/>
-      <c r="C189" s="58"/>
+      <c r="A189" s="72"/>
+      <c r="B189" s="52"/>
+      <c r="C189" s="52"/>
       <c r="D189" s="11" t="s">
         <v>204</v>
       </c>
@@ -8494,9 +8492,9 @@
       <c r="AA189" s="1"/>
     </row>
     <row r="190" spans="1:27" ht="17.399999999999999">
-      <c r="A190" s="67"/>
-      <c r="B190" s="58"/>
-      <c r="C190" s="58"/>
+      <c r="A190" s="72"/>
+      <c r="B190" s="52"/>
+      <c r="C190" s="52"/>
       <c r="D190" s="27" t="s">
         <v>279</v>
       </c>
@@ -8525,9 +8523,9 @@
       <c r="AA190" s="1"/>
     </row>
     <row r="191" spans="1:27" ht="17.399999999999999">
-      <c r="A191" s="67"/>
-      <c r="B191" s="58"/>
-      <c r="C191" s="58"/>
+      <c r="A191" s="72"/>
+      <c r="B191" s="52"/>
+      <c r="C191" s="52"/>
       <c r="D191" s="27" t="s">
         <v>280</v>
       </c>
@@ -8556,9 +8554,9 @@
       <c r="AA191" s="1"/>
     </row>
     <row r="192" spans="1:27" ht="17.399999999999999">
-      <c r="A192" s="67"/>
-      <c r="B192" s="58"/>
-      <c r="C192" s="58"/>
+      <c r="A192" s="72"/>
+      <c r="B192" s="52"/>
+      <c r="C192" s="52"/>
       <c r="D192" s="27" t="s">
         <v>281</v>
       </c>
@@ -8587,9 +8585,9 @@
       <c r="AA192" s="1"/>
     </row>
     <row r="193" spans="1:27" ht="17.399999999999999">
-      <c r="A193" s="67"/>
-      <c r="B193" s="58"/>
-      <c r="C193" s="58"/>
+      <c r="A193" s="72"/>
+      <c r="B193" s="52"/>
+      <c r="C193" s="52"/>
       <c r="D193" s="27" t="s">
         <v>282</v>
       </c>
@@ -8618,9 +8616,9 @@
       <c r="AA193" s="1"/>
     </row>
     <row r="194" spans="1:27" ht="17.399999999999999">
-      <c r="A194" s="67"/>
-      <c r="B194" s="58"/>
-      <c r="C194" s="58"/>
+      <c r="A194" s="72"/>
+      <c r="B194" s="52"/>
+      <c r="C194" s="52"/>
       <c r="D194" s="27" t="s">
         <v>283</v>
       </c>
@@ -8649,9 +8647,9 @@
       <c r="AA194" s="1"/>
     </row>
     <row r="195" spans="1:27" ht="17.399999999999999">
-      <c r="A195" s="67"/>
-      <c r="B195" s="58"/>
-      <c r="C195" s="58"/>
+      <c r="A195" s="72"/>
+      <c r="B195" s="52"/>
+      <c r="C195" s="52"/>
       <c r="D195" s="27" t="s">
         <v>284</v>
       </c>
@@ -8680,9 +8678,9 @@
       <c r="AA195" s="1"/>
     </row>
     <row r="196" spans="1:27" ht="17.399999999999999">
-      <c r="A196" s="67"/>
-      <c r="B196" s="58"/>
-      <c r="C196" s="58"/>
+      <c r="A196" s="72"/>
+      <c r="B196" s="52"/>
+      <c r="C196" s="52"/>
       <c r="D196" s="11" t="s">
         <v>205</v>
       </c>
@@ -8711,9 +8709,9 @@
       <c r="AA196" s="1"/>
     </row>
     <row r="197" spans="1:27" ht="17.399999999999999">
-      <c r="A197" s="67"/>
-      <c r="B197" s="58"/>
-      <c r="C197" s="57" t="s">
+      <c r="A197" s="72"/>
+      <c r="B197" s="52"/>
+      <c r="C197" s="51" t="s">
         <v>206</v>
       </c>
       <c r="D197" s="11" t="s">
@@ -8744,9 +8742,9 @@
       <c r="AA197" s="1"/>
     </row>
     <row r="198" spans="1:27" ht="17.399999999999999">
-      <c r="A198" s="67"/>
-      <c r="B198" s="58"/>
-      <c r="C198" s="58"/>
+      <c r="A198" s="72"/>
+      <c r="B198" s="52"/>
+      <c r="C198" s="52"/>
       <c r="D198" s="11" t="s">
         <v>201</v>
       </c>
@@ -8775,9 +8773,9 @@
       <c r="AA198" s="1"/>
     </row>
     <row r="199" spans="1:27" ht="17.399999999999999">
-      <c r="A199" s="67"/>
-      <c r="B199" s="58"/>
-      <c r="C199" s="58"/>
+      <c r="A199" s="72"/>
+      <c r="B199" s="52"/>
+      <c r="C199" s="52"/>
       <c r="D199" s="11" t="s">
         <v>202</v>
       </c>
@@ -8806,9 +8804,9 @@
       <c r="AA199" s="1"/>
     </row>
     <row r="200" spans="1:27" ht="17.399999999999999">
-      <c r="A200" s="67"/>
-      <c r="B200" s="58"/>
-      <c r="C200" s="58"/>
+      <c r="A200" s="72"/>
+      <c r="B200" s="52"/>
+      <c r="C200" s="52"/>
       <c r="D200" s="11" t="s">
         <v>203</v>
       </c>
@@ -8837,9 +8835,9 @@
       <c r="AA200" s="1"/>
     </row>
     <row r="201" spans="1:27" ht="17.399999999999999">
-      <c r="A201" s="67"/>
-      <c r="B201" s="58"/>
-      <c r="C201" s="58"/>
+      <c r="A201" s="72"/>
+      <c r="B201" s="52"/>
+      <c r="C201" s="52"/>
       <c r="D201" s="11" t="s">
         <v>176</v>
       </c>
@@ -8868,9 +8866,9 @@
       <c r="AA201" s="1"/>
     </row>
     <row r="202" spans="1:27" ht="17.399999999999999">
-      <c r="A202" s="67"/>
-      <c r="B202" s="58"/>
-      <c r="C202" s="58"/>
+      <c r="A202" s="72"/>
+      <c r="B202" s="52"/>
+      <c r="C202" s="52"/>
       <c r="D202" s="11" t="s">
         <v>204</v>
       </c>
@@ -8899,9 +8897,9 @@
       <c r="AA202" s="1"/>
     </row>
     <row r="203" spans="1:27" ht="17.399999999999999">
-      <c r="A203" s="67"/>
-      <c r="B203" s="58"/>
-      <c r="C203" s="58"/>
+      <c r="A203" s="72"/>
+      <c r="B203" s="52"/>
+      <c r="C203" s="52"/>
       <c r="D203" s="27" t="s">
         <v>279</v>
       </c>
@@ -8930,9 +8928,9 @@
       <c r="AA203" s="1"/>
     </row>
     <row r="204" spans="1:27" ht="17.399999999999999">
-      <c r="A204" s="67"/>
-      <c r="B204" s="58"/>
-      <c r="C204" s="58"/>
+      <c r="A204" s="72"/>
+      <c r="B204" s="52"/>
+      <c r="C204" s="52"/>
       <c r="D204" s="27" t="s">
         <v>280</v>
       </c>
@@ -8961,9 +8959,9 @@
       <c r="AA204" s="1"/>
     </row>
     <row r="205" spans="1:27" ht="17.399999999999999">
-      <c r="A205" s="67"/>
-      <c r="B205" s="58"/>
-      <c r="C205" s="58"/>
+      <c r="A205" s="72"/>
+      <c r="B205" s="52"/>
+      <c r="C205" s="52"/>
       <c r="D205" s="27" t="s">
         <v>281</v>
       </c>
@@ -8992,9 +8990,9 @@
       <c r="AA205" s="1"/>
     </row>
     <row r="206" spans="1:27" ht="17.399999999999999">
-      <c r="A206" s="67"/>
-      <c r="B206" s="58"/>
-      <c r="C206" s="58"/>
+      <c r="A206" s="72"/>
+      <c r="B206" s="52"/>
+      <c r="C206" s="52"/>
       <c r="D206" s="27" t="s">
         <v>282</v>
       </c>
@@ -9023,9 +9021,9 @@
       <c r="AA206" s="1"/>
     </row>
     <row r="207" spans="1:27" ht="17.399999999999999">
-      <c r="A207" s="67"/>
-      <c r="B207" s="58"/>
-      <c r="C207" s="58"/>
+      <c r="A207" s="72"/>
+      <c r="B207" s="52"/>
+      <c r="C207" s="52"/>
       <c r="D207" s="27" t="s">
         <v>283</v>
       </c>
@@ -9054,9 +9052,9 @@
       <c r="AA207" s="1"/>
     </row>
     <row r="208" spans="1:27" ht="17.399999999999999">
-      <c r="A208" s="67"/>
-      <c r="B208" s="58"/>
-      <c r="C208" s="58"/>
+      <c r="A208" s="72"/>
+      <c r="B208" s="52"/>
+      <c r="C208" s="52"/>
       <c r="D208" s="27" t="s">
         <v>284</v>
       </c>
@@ -9085,9 +9083,9 @@
       <c r="AA208" s="1"/>
     </row>
     <row r="209" spans="1:27" ht="17.399999999999999">
-      <c r="A209" s="67"/>
-      <c r="B209" s="58"/>
-      <c r="C209" s="58"/>
+      <c r="A209" s="72"/>
+      <c r="B209" s="52"/>
+      <c r="C209" s="52"/>
       <c r="D209" s="11" t="s">
         <v>205</v>
       </c>
@@ -9116,9 +9114,9 @@
       <c r="AA209" s="1"/>
     </row>
     <row r="210" spans="1:27" ht="17.399999999999999">
-      <c r="A210" s="67"/>
-      <c r="B210" s="58"/>
-      <c r="C210" s="57" t="s">
+      <c r="A210" s="72"/>
+      <c r="B210" s="52"/>
+      <c r="C210" s="51" t="s">
         <v>207</v>
       </c>
       <c r="D210" s="11" t="s">
@@ -9149,9 +9147,9 @@
       <c r="AA210" s="1"/>
     </row>
     <row r="211" spans="1:27" ht="17.399999999999999">
-      <c r="A211" s="67"/>
-      <c r="B211" s="58"/>
-      <c r="C211" s="58"/>
+      <c r="A211" s="72"/>
+      <c r="B211" s="52"/>
+      <c r="C211" s="52"/>
       <c r="D211" s="11" t="s">
         <v>201</v>
       </c>
@@ -9180,9 +9178,9 @@
       <c r="AA211" s="1"/>
     </row>
     <row r="212" spans="1:27" ht="17.399999999999999">
-      <c r="A212" s="67"/>
-      <c r="B212" s="58"/>
-      <c r="C212" s="58"/>
+      <c r="A212" s="72"/>
+      <c r="B212" s="52"/>
+      <c r="C212" s="52"/>
       <c r="D212" s="11" t="s">
         <v>202</v>
       </c>
@@ -9211,9 +9209,9 @@
       <c r="AA212" s="1"/>
     </row>
     <row r="213" spans="1:27" ht="17.399999999999999">
-      <c r="A213" s="67"/>
-      <c r="B213" s="58"/>
-      <c r="C213" s="58"/>
+      <c r="A213" s="72"/>
+      <c r="B213" s="52"/>
+      <c r="C213" s="52"/>
       <c r="D213" s="11" t="s">
         <v>203</v>
       </c>
@@ -9242,9 +9240,9 @@
       <c r="AA213" s="1"/>
     </row>
     <row r="214" spans="1:27" ht="17.399999999999999">
-      <c r="A214" s="67"/>
-      <c r="B214" s="58"/>
-      <c r="C214" s="58"/>
+      <c r="A214" s="72"/>
+      <c r="B214" s="52"/>
+      <c r="C214" s="52"/>
       <c r="D214" s="11" t="s">
         <v>176</v>
       </c>
@@ -9273,9 +9271,9 @@
       <c r="AA214" s="1"/>
     </row>
     <row r="215" spans="1:27" ht="17.399999999999999">
-      <c r="A215" s="67"/>
-      <c r="B215" s="58"/>
-      <c r="C215" s="58"/>
+      <c r="A215" s="72"/>
+      <c r="B215" s="52"/>
+      <c r="C215" s="52"/>
       <c r="D215" s="11" t="s">
         <v>204</v>
       </c>
@@ -9304,9 +9302,9 @@
       <c r="AA215" s="1"/>
     </row>
     <row r="216" spans="1:27" ht="17.399999999999999">
-      <c r="A216" s="67"/>
-      <c r="B216" s="58"/>
-      <c r="C216" s="58"/>
+      <c r="A216" s="72"/>
+      <c r="B216" s="52"/>
+      <c r="C216" s="52"/>
       <c r="D216" s="27" t="s">
         <v>279</v>
       </c>
@@ -9335,9 +9333,9 @@
       <c r="AA216" s="1"/>
     </row>
     <row r="217" spans="1:27" ht="17.399999999999999">
-      <c r="A217" s="67"/>
-      <c r="B217" s="58"/>
-      <c r="C217" s="58"/>
+      <c r="A217" s="72"/>
+      <c r="B217" s="52"/>
+      <c r="C217" s="52"/>
       <c r="D217" s="27" t="s">
         <v>280</v>
       </c>
@@ -9366,9 +9364,9 @@
       <c r="AA217" s="1"/>
     </row>
     <row r="218" spans="1:27" ht="17.399999999999999">
-      <c r="A218" s="67"/>
-      <c r="B218" s="58"/>
-      <c r="C218" s="58"/>
+      <c r="A218" s="72"/>
+      <c r="B218" s="52"/>
+      <c r="C218" s="52"/>
       <c r="D218" s="27" t="s">
         <v>281</v>
       </c>
@@ -9397,9 +9395,9 @@
       <c r="AA218" s="1"/>
     </row>
     <row r="219" spans="1:27" ht="17.399999999999999">
-      <c r="A219" s="67"/>
-      <c r="B219" s="58"/>
-      <c r="C219" s="58"/>
+      <c r="A219" s="72"/>
+      <c r="B219" s="52"/>
+      <c r="C219" s="52"/>
       <c r="D219" s="27" t="s">
         <v>282</v>
       </c>
@@ -9428,9 +9426,9 @@
       <c r="AA219" s="1"/>
     </row>
     <row r="220" spans="1:27" ht="17.399999999999999">
-      <c r="A220" s="67"/>
-      <c r="B220" s="58"/>
-      <c r="C220" s="58"/>
+      <c r="A220" s="72"/>
+      <c r="B220" s="52"/>
+      <c r="C220" s="52"/>
       <c r="D220" s="27" t="s">
         <v>283</v>
       </c>
@@ -9459,9 +9457,9 @@
       <c r="AA220" s="1"/>
     </row>
     <row r="221" spans="1:27" ht="17.399999999999999">
-      <c r="A221" s="67"/>
-      <c r="B221" s="58"/>
-      <c r="C221" s="58"/>
+      <c r="A221" s="72"/>
+      <c r="B221" s="52"/>
+      <c r="C221" s="52"/>
       <c r="D221" s="27" t="s">
         <v>284</v>
       </c>
@@ -9490,9 +9488,9 @@
       <c r="AA221" s="1"/>
     </row>
     <row r="222" spans="1:27" ht="17.399999999999999">
-      <c r="A222" s="67"/>
-      <c r="B222" s="58"/>
-      <c r="C222" s="58"/>
+      <c r="A222" s="72"/>
+      <c r="B222" s="52"/>
+      <c r="C222" s="52"/>
       <c r="D222" s="11" t="s">
         <v>205</v>
       </c>
@@ -9521,11 +9519,11 @@
       <c r="AA222" s="1"/>
     </row>
     <row r="223" spans="1:27" ht="17.399999999999999">
-      <c r="A223" s="67"/>
-      <c r="B223" s="57" t="s">
+      <c r="A223" s="72"/>
+      <c r="B223" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C223" s="57" t="s">
+      <c r="C223" s="51" t="s">
         <v>209</v>
       </c>
       <c r="D223" s="11" t="s">
@@ -9556,9 +9554,9 @@
       <c r="AA223" s="1"/>
     </row>
     <row r="224" spans="1:27" ht="17.399999999999999">
-      <c r="A224" s="67"/>
-      <c r="B224" s="58"/>
-      <c r="C224" s="58"/>
+      <c r="A224" s="72"/>
+      <c r="B224" s="52"/>
+      <c r="C224" s="52"/>
       <c r="D224" s="11" t="s">
         <v>210</v>
       </c>
@@ -9589,9 +9587,9 @@
       <c r="AA224" s="1"/>
     </row>
     <row r="225" spans="1:27" ht="17.399999999999999">
-      <c r="A225" s="67"/>
-      <c r="B225" s="58"/>
-      <c r="C225" s="58"/>
+      <c r="A225" s="72"/>
+      <c r="B225" s="52"/>
+      <c r="C225" s="52"/>
       <c r="D225" s="11" t="s">
         <v>212</v>
       </c>
@@ -9622,9 +9620,9 @@
       <c r="AA225" s="1"/>
     </row>
     <row r="226" spans="1:27" ht="17.399999999999999">
-      <c r="A226" s="67"/>
-      <c r="B226" s="58"/>
-      <c r="C226" s="58"/>
+      <c r="A226" s="72"/>
+      <c r="B226" s="52"/>
+      <c r="C226" s="52"/>
       <c r="D226" s="11" t="s">
         <v>214</v>
       </c>
@@ -9653,9 +9651,9 @@
       <c r="AA226" s="1"/>
     </row>
     <row r="227" spans="1:27" ht="17.399999999999999">
-      <c r="A227" s="67"/>
-      <c r="B227" s="58"/>
-      <c r="C227" s="58"/>
+      <c r="A227" s="72"/>
+      <c r="B227" s="52"/>
+      <c r="C227" s="52"/>
       <c r="D227" s="11" t="s">
         <v>215</v>
       </c>
@@ -9684,9 +9682,9 @@
       <c r="AA227" s="1"/>
     </row>
     <row r="228" spans="1:27" ht="17.399999999999999">
-      <c r="A228" s="67"/>
-      <c r="B228" s="58"/>
-      <c r="C228" s="57" t="s">
+      <c r="A228" s="72"/>
+      <c r="B228" s="52"/>
+      <c r="C228" s="51" t="s">
         <v>216</v>
       </c>
       <c r="D228" s="11" t="s">
@@ -9717,9 +9715,9 @@
       <c r="AA228" s="1"/>
     </row>
     <row r="229" spans="1:27" ht="17.399999999999999">
-      <c r="A229" s="67"/>
-      <c r="B229" s="58"/>
-      <c r="C229" s="58"/>
+      <c r="A229" s="72"/>
+      <c r="B229" s="52"/>
+      <c r="C229" s="52"/>
       <c r="D229" s="11" t="s">
         <v>218</v>
       </c>
@@ -9748,9 +9746,9 @@
       <c r="AA229" s="1"/>
     </row>
     <row r="230" spans="1:27" ht="17.399999999999999">
-      <c r="A230" s="67"/>
-      <c r="B230" s="58"/>
-      <c r="C230" s="58"/>
+      <c r="A230" s="72"/>
+      <c r="B230" s="52"/>
+      <c r="C230" s="52"/>
       <c r="D230" s="11" t="s">
         <v>139</v>
       </c>
@@ -9779,9 +9777,9 @@
       <c r="AA230" s="1"/>
     </row>
     <row r="231" spans="1:27" ht="17.399999999999999">
-      <c r="A231" s="67"/>
-      <c r="B231" s="58"/>
-      <c r="C231" s="58"/>
+      <c r="A231" s="72"/>
+      <c r="B231" s="52"/>
+      <c r="C231" s="52"/>
       <c r="D231" s="11" t="s">
         <v>219</v>
       </c>
@@ -9810,9 +9808,9 @@
       <c r="AA231" s="1"/>
     </row>
     <row r="232" spans="1:27" ht="17.399999999999999">
-      <c r="A232" s="67"/>
-      <c r="B232" s="58"/>
-      <c r="C232" s="58"/>
+      <c r="A232" s="72"/>
+      <c r="B232" s="52"/>
+      <c r="C232" s="52"/>
       <c r="D232" s="11" t="s">
         <v>220</v>
       </c>
@@ -9841,9 +9839,9 @@
       <c r="AA232" s="1"/>
     </row>
     <row r="233" spans="1:27" ht="17.399999999999999">
-      <c r="A233" s="67"/>
-      <c r="B233" s="58"/>
-      <c r="C233" s="58"/>
+      <c r="A233" s="72"/>
+      <c r="B233" s="52"/>
+      <c r="C233" s="52"/>
       <c r="D233" s="11" t="s">
         <v>221</v>
       </c>
@@ -9872,9 +9870,9 @@
       <c r="AA233" s="1"/>
     </row>
     <row r="234" spans="1:27" ht="17.399999999999999">
-      <c r="A234" s="67"/>
-      <c r="B234" s="58"/>
-      <c r="C234" s="57" t="s">
+      <c r="A234" s="72"/>
+      <c r="B234" s="52"/>
+      <c r="C234" s="51" t="s">
         <v>222</v>
       </c>
       <c r="D234" s="11" t="s">
@@ -9905,9 +9903,9 @@
       <c r="AA234" s="1"/>
     </row>
     <row r="235" spans="1:27" ht="17.399999999999999">
-      <c r="A235" s="67"/>
-      <c r="B235" s="58"/>
-      <c r="C235" s="81"/>
+      <c r="A235" s="72"/>
+      <c r="B235" s="52"/>
+      <c r="C235" s="70"/>
       <c r="D235" s="11" t="s">
         <v>224</v>
       </c>
@@ -9936,9 +9934,9 @@
       <c r="AA235" s="1"/>
     </row>
     <row r="236" spans="1:27" ht="17.399999999999999">
-      <c r="A236" s="67"/>
-      <c r="B236" s="58"/>
-      <c r="C236" s="57" t="s">
+      <c r="A236" s="72"/>
+      <c r="B236" s="52"/>
+      <c r="C236" s="51" t="s">
         <v>225</v>
       </c>
       <c r="D236" s="11" t="s">
@@ -9969,9 +9967,9 @@
       <c r="AA236" s="1"/>
     </row>
     <row r="237" spans="1:27" ht="17.399999999999999">
-      <c r="A237" s="67"/>
-      <c r="B237" s="58"/>
-      <c r="C237" s="58"/>
+      <c r="A237" s="72"/>
+      <c r="B237" s="52"/>
+      <c r="C237" s="52"/>
       <c r="D237" s="11" t="s">
         <v>226</v>
       </c>
@@ -10000,9 +9998,9 @@
       <c r="AA237" s="1"/>
     </row>
     <row r="238" spans="1:27" ht="17.399999999999999">
-      <c r="A238" s="67"/>
-      <c r="B238" s="58"/>
-      <c r="C238" s="58"/>
+      <c r="A238" s="72"/>
+      <c r="B238" s="52"/>
+      <c r="C238" s="52"/>
       <c r="D238" s="11" t="s">
         <v>227</v>
       </c>
@@ -10031,9 +10029,9 @@
       <c r="AA238" s="1"/>
     </row>
     <row r="239" spans="1:27" ht="17.399999999999999">
-      <c r="A239" s="67"/>
-      <c r="B239" s="58"/>
-      <c r="C239" s="58"/>
+      <c r="A239" s="72"/>
+      <c r="B239" s="52"/>
+      <c r="C239" s="52"/>
       <c r="D239" s="11" t="s">
         <v>228</v>
       </c>
@@ -10062,9 +10060,9 @@
       <c r="AA239" s="1"/>
     </row>
     <row r="240" spans="1:27" ht="17.399999999999999">
-      <c r="A240" s="67"/>
-      <c r="B240" s="58"/>
-      <c r="C240" s="82" t="s">
+      <c r="A240" s="72"/>
+      <c r="B240" s="52"/>
+      <c r="C240" s="53" t="s">
         <v>300</v>
       </c>
       <c r="D240" s="11" t="s">
@@ -10095,9 +10093,9 @@
       <c r="AA240" s="1"/>
     </row>
     <row r="241" spans="1:27" ht="17.399999999999999">
-      <c r="A241" s="67"/>
-      <c r="B241" s="58"/>
-      <c r="C241" s="83"/>
+      <c r="A241" s="72"/>
+      <c r="B241" s="52"/>
+      <c r="C241" s="54"/>
       <c r="D241" s="11" t="s">
         <v>302</v>
       </c>
@@ -10126,9 +10124,9 @@
       <c r="AA241" s="1"/>
     </row>
     <row r="242" spans="1:27" ht="17.399999999999999">
-      <c r="A242" s="67"/>
-      <c r="B242" s="58"/>
-      <c r="C242" s="84"/>
+      <c r="A242" s="72"/>
+      <c r="B242" s="52"/>
+      <c r="C242" s="55"/>
       <c r="D242" s="11" t="s">
         <v>303</v>
       </c>
@@ -10157,9 +10155,9 @@
       <c r="AA242" s="1"/>
     </row>
     <row r="243" spans="1:27" ht="17.399999999999999">
-      <c r="A243" s="67"/>
-      <c r="B243" s="58"/>
-      <c r="C243" s="57" t="s">
+      <c r="A243" s="72"/>
+      <c r="B243" s="52"/>
+      <c r="C243" s="51" t="s">
         <v>229</v>
       </c>
       <c r="D243" s="11" t="s">
@@ -10190,9 +10188,9 @@
       <c r="AA243" s="1"/>
     </row>
     <row r="244" spans="1:27" ht="17.399999999999999">
-      <c r="A244" s="67"/>
-      <c r="B244" s="58"/>
-      <c r="C244" s="58"/>
+      <c r="A244" s="72"/>
+      <c r="B244" s="52"/>
+      <c r="C244" s="52"/>
       <c r="D244" s="11" t="s">
         <v>231</v>
       </c>
@@ -10221,9 +10219,9 @@
       <c r="AA244" s="1"/>
     </row>
     <row r="245" spans="1:27" ht="17.399999999999999">
-      <c r="A245" s="67"/>
-      <c r="B245" s="58"/>
-      <c r="C245" s="58"/>
+      <c r="A245" s="72"/>
+      <c r="B245" s="52"/>
+      <c r="C245" s="52"/>
       <c r="D245" s="11" t="s">
         <v>232</v>
       </c>
@@ -10254,9 +10252,9 @@
       <c r="AA245" s="1"/>
     </row>
     <row r="246" spans="1:27" ht="17.399999999999999">
-      <c r="A246" s="67"/>
-      <c r="B246" s="58"/>
-      <c r="C246" s="58"/>
+      <c r="A246" s="72"/>
+      <c r="B246" s="52"/>
+      <c r="C246" s="52"/>
       <c r="D246" s="11" t="s">
         <v>234</v>
       </c>
@@ -10287,11 +10285,11 @@
       <c r="AA246" s="1"/>
     </row>
     <row r="247" spans="1:27" ht="17.399999999999999">
-      <c r="A247" s="67"/>
-      <c r="B247" s="57" t="s">
+      <c r="A247" s="72"/>
+      <c r="B247" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="C247" s="58"/>
+      <c r="C247" s="52"/>
       <c r="D247" s="11" t="s">
         <v>237</v>
       </c>
@@ -10320,9 +10318,9 @@
       <c r="AA247" s="1"/>
     </row>
     <row r="248" spans="1:27" ht="17.399999999999999">
-      <c r="A248" s="67"/>
-      <c r="B248" s="58"/>
-      <c r="C248" s="58"/>
+      <c r="A248" s="72"/>
+      <c r="B248" s="52"/>
+      <c r="C248" s="52"/>
       <c r="D248" s="11" t="s">
         <v>238</v>
       </c>
@@ -10351,9 +10349,9 @@
       <c r="AA248" s="1"/>
     </row>
     <row r="249" spans="1:27" ht="17.399999999999999">
-      <c r="A249" s="67"/>
-      <c r="B249" s="58"/>
-      <c r="C249" s="58"/>
+      <c r="A249" s="72"/>
+      <c r="B249" s="52"/>
+      <c r="C249" s="52"/>
       <c r="D249" s="11" t="s">
         <v>239</v>
       </c>
@@ -10382,9 +10380,9 @@
       <c r="AA249" s="1"/>
     </row>
     <row r="250" spans="1:27" ht="17.399999999999999">
-      <c r="A250" s="67"/>
-      <c r="B250" s="58"/>
-      <c r="C250" s="58"/>
+      <c r="A250" s="72"/>
+      <c r="B250" s="52"/>
+      <c r="C250" s="52"/>
       <c r="D250" s="11" t="s">
         <v>240</v>
       </c>
@@ -10413,9 +10411,9 @@
       <c r="AA250" s="1"/>
     </row>
     <row r="251" spans="1:27" ht="17.399999999999999">
-      <c r="A251" s="67"/>
-      <c r="B251" s="58"/>
-      <c r="C251" s="58"/>
+      <c r="A251" s="72"/>
+      <c r="B251" s="52"/>
+      <c r="C251" s="52"/>
       <c r="D251" s="11" t="s">
         <v>241</v>
       </c>
@@ -10444,9 +10442,9 @@
       <c r="AA251" s="1"/>
     </row>
     <row r="252" spans="1:27" ht="17.399999999999999">
-      <c r="A252" s="67"/>
-      <c r="B252" s="58"/>
-      <c r="C252" s="58"/>
+      <c r="A252" s="72"/>
+      <c r="B252" s="52"/>
+      <c r="C252" s="52"/>
       <c r="D252" s="11" t="s">
         <v>242</v>
       </c>
@@ -10475,9 +10473,9 @@
       <c r="AA252" s="1"/>
     </row>
     <row r="253" spans="1:27" ht="17.399999999999999">
-      <c r="A253" s="67"/>
-      <c r="B253" s="58"/>
-      <c r="C253" s="58"/>
+      <c r="A253" s="72"/>
+      <c r="B253" s="52"/>
+      <c r="C253" s="52"/>
       <c r="D253" s="11" t="s">
         <v>243</v>
       </c>
@@ -10506,11 +10504,11 @@
       <c r="AA253" s="1"/>
     </row>
     <row r="254" spans="1:27" ht="17.399999999999999">
-      <c r="A254" s="67"/>
-      <c r="B254" s="85" t="s">
+      <c r="A254" s="72"/>
+      <c r="B254" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="C254" s="82" t="s">
+      <c r="C254" s="53" t="s">
         <v>306</v>
       </c>
       <c r="D254" s="11" t="s">
@@ -10541,9 +10539,9 @@
       <c r="AA254" s="1"/>
     </row>
     <row r="255" spans="1:27" ht="17.399999999999999">
-      <c r="A255" s="67"/>
-      <c r="B255" s="86"/>
-      <c r="C255" s="83"/>
+      <c r="A255" s="72"/>
+      <c r="B255" s="57"/>
+      <c r="C255" s="54"/>
       <c r="D255" s="11" t="s">
         <v>246</v>
       </c>
@@ -10572,9 +10570,9 @@
       <c r="AA255" s="1"/>
     </row>
     <row r="256" spans="1:27" ht="17.399999999999999">
-      <c r="A256" s="67"/>
-      <c r="B256" s="86"/>
-      <c r="C256" s="83"/>
+      <c r="A256" s="72"/>
+      <c r="B256" s="57"/>
+      <c r="C256" s="54"/>
       <c r="D256" s="11" t="s">
         <v>247</v>
       </c>
@@ -10603,9 +10601,9 @@
       <c r="AA256" s="1"/>
     </row>
     <row r="257" spans="1:27" ht="17.399999999999999">
-      <c r="A257" s="67"/>
-      <c r="B257" s="86"/>
-      <c r="C257" s="83"/>
+      <c r="A257" s="72"/>
+      <c r="B257" s="57"/>
+      <c r="C257" s="54"/>
       <c r="D257" s="11" t="s">
         <v>248</v>
       </c>
@@ -10634,9 +10632,9 @@
       <c r="AA257" s="1"/>
     </row>
     <row r="258" spans="1:27" ht="17.399999999999999">
-      <c r="A258" s="67"/>
-      <c r="B258" s="86"/>
-      <c r="C258" s="84"/>
+      <c r="A258" s="72"/>
+      <c r="B258" s="57"/>
+      <c r="C258" s="55"/>
       <c r="D258" s="11" t="s">
         <v>249</v>
       </c>
@@ -10665,9 +10663,9 @@
       <c r="AA258" s="1"/>
     </row>
     <row r="259" spans="1:27" ht="17.399999999999999">
-      <c r="A259" s="67"/>
-      <c r="B259" s="86"/>
-      <c r="C259" s="82" t="s">
+      <c r="A259" s="72"/>
+      <c r="B259" s="57"/>
+      <c r="C259" s="53" t="s">
         <v>307</v>
       </c>
       <c r="D259" s="11" t="s">
@@ -10698,9 +10696,9 @@
       <c r="AA259" s="1"/>
     </row>
     <row r="260" spans="1:27" ht="17.399999999999999">
-      <c r="A260" s="67"/>
-      <c r="B260" s="86"/>
-      <c r="C260" s="83"/>
+      <c r="A260" s="72"/>
+      <c r="B260" s="57"/>
+      <c r="C260" s="54"/>
       <c r="D260" s="11" t="s">
         <v>246</v>
       </c>
@@ -10729,9 +10727,9 @@
       <c r="AA260" s="1"/>
     </row>
     <row r="261" spans="1:27" ht="17.399999999999999">
-      <c r="A261" s="67"/>
-      <c r="B261" s="86"/>
-      <c r="C261" s="83"/>
+      <c r="A261" s="72"/>
+      <c r="B261" s="57"/>
+      <c r="C261" s="54"/>
       <c r="D261" s="11" t="s">
         <v>247</v>
       </c>
@@ -10760,9 +10758,9 @@
       <c r="AA261" s="1"/>
     </row>
     <row r="262" spans="1:27" ht="17.399999999999999">
-      <c r="A262" s="67"/>
-      <c r="B262" s="86"/>
-      <c r="C262" s="83"/>
+      <c r="A262" s="72"/>
+      <c r="B262" s="57"/>
+      <c r="C262" s="54"/>
       <c r="D262" s="11" t="s">
         <v>248</v>
       </c>
@@ -10791,9 +10789,9 @@
       <c r="AA262" s="1"/>
     </row>
     <row r="263" spans="1:27" ht="17.399999999999999">
-      <c r="A263" s="67"/>
-      <c r="B263" s="87"/>
-      <c r="C263" s="84"/>
+      <c r="A263" s="72"/>
+      <c r="B263" s="58"/>
+      <c r="C263" s="55"/>
       <c r="D263" s="11" t="s">
         <v>249</v>
       </c>
@@ -10822,11 +10820,11 @@
       <c r="AA263" s="1"/>
     </row>
     <row r="264" spans="1:27" ht="17.399999999999999">
-      <c r="A264" s="67"/>
-      <c r="B264" s="57" t="s">
+      <c r="A264" s="72"/>
+      <c r="B264" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="C264" s="58"/>
+      <c r="C264" s="52"/>
       <c r="D264" s="11" t="s">
         <v>251</v>
       </c>
@@ -10855,9 +10853,9 @@
       <c r="AA264" s="1"/>
     </row>
     <row r="265" spans="1:27" ht="17.399999999999999">
-      <c r="A265" s="67"/>
-      <c r="B265" s="58"/>
-      <c r="C265" s="58"/>
+      <c r="A265" s="72"/>
+      <c r="B265" s="52"/>
+      <c r="C265" s="52"/>
       <c r="D265" s="11" t="s">
         <v>252</v>
       </c>
@@ -10886,9 +10884,9 @@
       <c r="AA265" s="1"/>
     </row>
     <row r="266" spans="1:27" ht="17.399999999999999">
-      <c r="A266" s="67"/>
-      <c r="B266" s="58"/>
-      <c r="C266" s="58"/>
+      <c r="A266" s="72"/>
+      <c r="B266" s="52"/>
+      <c r="C266" s="52"/>
       <c r="D266" s="11" t="s">
         <v>253</v>
       </c>
@@ -10917,9 +10915,9 @@
       <c r="AA266" s="1"/>
     </row>
     <row r="267" spans="1:27" ht="17.399999999999999">
-      <c r="A267" s="67"/>
-      <c r="B267" s="58"/>
-      <c r="C267" s="58"/>
+      <c r="A267" s="72"/>
+      <c r="B267" s="52"/>
+      <c r="C267" s="52"/>
       <c r="D267" s="11" t="s">
         <v>254</v>
       </c>
@@ -10948,9 +10946,9 @@
       <c r="AA267" s="1"/>
     </row>
     <row r="268" spans="1:27" ht="17.399999999999999">
-      <c r="A268" s="67"/>
-      <c r="B268" s="58"/>
-      <c r="C268" s="58"/>
+      <c r="A268" s="72"/>
+      <c r="B268" s="52"/>
+      <c r="C268" s="52"/>
       <c r="D268" s="11" t="s">
         <v>255</v>
       </c>
@@ -10979,11 +10977,11 @@
       <c r="AA268" s="1"/>
     </row>
     <row r="269" spans="1:27" ht="17.399999999999999">
-      <c r="A269" s="67"/>
-      <c r="B269" s="57" t="s">
+      <c r="A269" s="72"/>
+      <c r="B269" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C269" s="58"/>
+      <c r="C269" s="52"/>
       <c r="D269" s="11" t="s">
         <v>257</v>
       </c>
@@ -11012,9 +11010,9 @@
       <c r="AA269" s="1"/>
     </row>
     <row r="270" spans="1:27" ht="17.399999999999999">
-      <c r="A270" s="67"/>
-      <c r="B270" s="58"/>
-      <c r="C270" s="58"/>
+      <c r="A270" s="72"/>
+      <c r="B270" s="52"/>
+      <c r="C270" s="52"/>
       <c r="D270" s="11" t="s">
         <v>258</v>
       </c>
@@ -11043,9 +11041,9 @@
       <c r="AA270" s="1"/>
     </row>
     <row r="271" spans="1:27" ht="17.399999999999999">
-      <c r="A271" s="67"/>
-      <c r="B271" s="58"/>
-      <c r="C271" s="58"/>
+      <c r="A271" s="72"/>
+      <c r="B271" s="52"/>
+      <c r="C271" s="52"/>
       <c r="D271" s="11" t="s">
         <v>259</v>
       </c>
@@ -11074,9 +11072,9 @@
       <c r="AA271" s="1"/>
     </row>
     <row r="272" spans="1:27" ht="17.399999999999999">
-      <c r="A272" s="67"/>
-      <c r="B272" s="58"/>
-      <c r="C272" s="58"/>
+      <c r="A272" s="72"/>
+      <c r="B272" s="52"/>
+      <c r="C272" s="52"/>
       <c r="D272" s="11" t="s">
         <v>260</v>
       </c>
@@ -11105,9 +11103,9 @@
       <c r="AA272" s="1"/>
     </row>
     <row r="273" spans="1:27" ht="17.399999999999999">
-      <c r="A273" s="67"/>
-      <c r="B273" s="58"/>
-      <c r="C273" s="58"/>
+      <c r="A273" s="72"/>
+      <c r="B273" s="52"/>
+      <c r="C273" s="52"/>
       <c r="D273" s="11" t="s">
         <v>261</v>
       </c>
@@ -11136,11 +11134,11 @@
       <c r="AA273" s="1"/>
     </row>
     <row r="274" spans="1:27" ht="17.399999999999999">
-      <c r="A274" s="67"/>
-      <c r="B274" s="69" t="s">
+      <c r="A274" s="72"/>
+      <c r="B274" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="C274" s="58"/>
+      <c r="C274" s="52"/>
       <c r="D274" s="11" t="s">
         <v>263</v>
       </c>
@@ -11169,9 +11167,9 @@
       <c r="AA274" s="1"/>
     </row>
     <row r="275" spans="1:27" ht="17.399999999999999">
-      <c r="A275" s="67"/>
-      <c r="B275" s="58"/>
-      <c r="C275" s="58"/>
+      <c r="A275" s="72"/>
+      <c r="B275" s="52"/>
+      <c r="C275" s="52"/>
       <c r="D275" s="11" t="s">
         <v>264</v>
       </c>
@@ -11200,9 +11198,9 @@
       <c r="AA275" s="1"/>
     </row>
     <row r="276" spans="1:27" ht="17.399999999999999">
-      <c r="A276" s="67"/>
-      <c r="B276" s="58"/>
-      <c r="C276" s="58"/>
+      <c r="A276" s="72"/>
+      <c r="B276" s="52"/>
+      <c r="C276" s="52"/>
       <c r="D276" s="11" t="s">
         <v>265</v>
       </c>
@@ -11231,9 +11229,9 @@
       <c r="AA276" s="1"/>
     </row>
     <row r="277" spans="1:27" ht="17.399999999999999">
-      <c r="A277" s="67"/>
-      <c r="B277" s="58"/>
-      <c r="C277" s="58"/>
+      <c r="A277" s="72"/>
+      <c r="B277" s="52"/>
+      <c r="C277" s="52"/>
       <c r="D277" s="11" t="s">
         <v>266</v>
       </c>
@@ -11262,9 +11260,9 @@
       <c r="AA277" s="1"/>
     </row>
     <row r="278" spans="1:27" ht="17.399999999999999">
-      <c r="A278" s="67"/>
-      <c r="B278" s="58"/>
-      <c r="C278" s="58"/>
+      <c r="A278" s="72"/>
+      <c r="B278" s="52"/>
+      <c r="C278" s="52"/>
       <c r="D278" s="11" t="s">
         <v>267</v>
       </c>
@@ -11293,9 +11291,9 @@
       <c r="AA278" s="1"/>
     </row>
     <row r="279" spans="1:27" ht="17.399999999999999">
-      <c r="A279" s="67"/>
-      <c r="B279" s="58"/>
-      <c r="C279" s="58"/>
+      <c r="A279" s="72"/>
+      <c r="B279" s="52"/>
+      <c r="C279" s="52"/>
       <c r="D279" s="11" t="s">
         <v>268</v>
       </c>
@@ -11324,9 +11322,9 @@
       <c r="AA279" s="1"/>
     </row>
     <row r="280" spans="1:27" ht="17.399999999999999">
-      <c r="A280" s="67"/>
-      <c r="B280" s="58"/>
-      <c r="C280" s="58"/>
+      <c r="A280" s="72"/>
+      <c r="B280" s="52"/>
+      <c r="C280" s="52"/>
       <c r="D280" s="11" t="s">
         <v>269</v>
       </c>
@@ -11355,9 +11353,9 @@
       <c r="AA280" s="1"/>
     </row>
     <row r="281" spans="1:27" ht="17.399999999999999">
-      <c r="A281" s="67"/>
-      <c r="B281" s="58"/>
-      <c r="C281" s="58"/>
+      <c r="A281" s="72"/>
+      <c r="B281" s="52"/>
+      <c r="C281" s="52"/>
       <c r="D281" s="11" t="s">
         <v>270</v>
       </c>
@@ -11386,9 +11384,9 @@
       <c r="AA281" s="1"/>
     </row>
     <row r="282" spans="1:27" ht="18" thickBot="1">
-      <c r="A282" s="68"/>
-      <c r="B282" s="71"/>
-      <c r="C282" s="71"/>
+      <c r="A282" s="73"/>
+      <c r="B282" s="63"/>
+      <c r="C282" s="63"/>
       <c r="D282" s="25" t="s">
         <v>271</v>
       </c>
@@ -11417,11 +11415,11 @@
       <c r="AA282" s="1"/>
     </row>
     <row r="283" spans="1:27" ht="17.399999999999999">
-      <c r="A283" s="75" t="s">
+      <c r="A283" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="B283" s="76"/>
-      <c r="C283" s="76"/>
+      <c r="B283" s="65"/>
+      <c r="C283" s="65"/>
       <c r="D283" s="34"/>
       <c r="E283" s="42" t="s">
         <v>298</v>
@@ -11456,9 +11454,9 @@
       <c r="AA283" s="1"/>
     </row>
     <row r="284" spans="1:27" ht="17.399999999999999">
-      <c r="A284" s="77"/>
-      <c r="B284" s="78"/>
-      <c r="C284" s="78"/>
+      <c r="A284" s="66"/>
+      <c r="B284" s="67"/>
+      <c r="C284" s="67"/>
       <c r="D284" s="35" t="s">
         <v>273</v>
       </c>
@@ -11487,9 +11485,9 @@
       <c r="AA284" s="1"/>
     </row>
     <row r="285" spans="1:27" ht="17.399999999999999">
-      <c r="A285" s="77"/>
-      <c r="B285" s="78"/>
-      <c r="C285" s="78"/>
+      <c r="A285" s="66"/>
+      <c r="B285" s="67"/>
+      <c r="C285" s="67"/>
       <c r="D285" s="35" t="s">
         <v>274</v>
       </c>
@@ -11518,9 +11516,9 @@
       <c r="AA285" s="1"/>
     </row>
     <row r="286" spans="1:27" ht="17.399999999999999">
-      <c r="A286" s="77"/>
-      <c r="B286" s="78"/>
-      <c r="C286" s="78"/>
+      <c r="A286" s="66"/>
+      <c r="B286" s="67"/>
+      <c r="C286" s="67"/>
       <c r="D286" s="35" t="s">
         <v>275</v>
       </c>
@@ -11549,9 +11547,9 @@
       <c r="AA286" s="1"/>
     </row>
     <row r="287" spans="1:27" ht="17.399999999999999">
-      <c r="A287" s="77"/>
-      <c r="B287" s="78"/>
-      <c r="C287" s="78"/>
+      <c r="A287" s="66"/>
+      <c r="B287" s="67"/>
+      <c r="C287" s="67"/>
       <c r="D287" s="35" t="s">
         <v>276</v>
       </c>
@@ -11580,9 +11578,9 @@
       <c r="AA287" s="1"/>
     </row>
     <row r="288" spans="1:27" ht="17.399999999999999">
-      <c r="A288" s="77"/>
-      <c r="B288" s="78"/>
-      <c r="C288" s="78"/>
+      <c r="A288" s="66"/>
+      <c r="B288" s="67"/>
+      <c r="C288" s="67"/>
       <c r="D288" s="35" t="s">
         <v>277</v>
       </c>
@@ -11611,9 +11609,9 @@
       <c r="AA288" s="1"/>
     </row>
     <row r="289" spans="1:27" ht="18" thickBot="1">
-      <c r="A289" s="79"/>
-      <c r="B289" s="80"/>
-      <c r="C289" s="80"/>
+      <c r="A289" s="68"/>
+      <c r="B289" s="69"/>
+      <c r="C289" s="69"/>
       <c r="D289" s="36" t="s">
         <v>278</v>
       </c>
@@ -11642,17 +11640,17 @@
       <c r="AA289" s="1"/>
     </row>
     <row r="290" spans="1:27" ht="75" customHeight="1" thickBot="1">
-      <c r="A290" s="72" t="s">
+      <c r="A290" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="B290" s="73"/>
-      <c r="C290" s="73"/>
-      <c r="D290" s="73"/>
-      <c r="E290" s="73"/>
-      <c r="F290" s="73"/>
-      <c r="G290" s="73"/>
-      <c r="H290" s="73"/>
-      <c r="I290" s="74"/>
+      <c r="B290" s="60"/>
+      <c r="C290" s="60"/>
+      <c r="D290" s="60"/>
+      <c r="E290" s="60"/>
+      <c r="F290" s="60"/>
+      <c r="G290" s="60"/>
+      <c r="H290" s="60"/>
+      <c r="I290" s="61"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
       <c r="L290" s="1"/>
@@ -14255,19 +14253,38 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C125:C130"/>
-    <mergeCell ref="B269:C273"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B97:B103"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C240:C242"/>
-    <mergeCell ref="B254:B263"/>
-    <mergeCell ref="C254:C258"/>
-    <mergeCell ref="C259:C263"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A4:A104"/>
+    <mergeCell ref="B5:C27"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B63:B96"/>
+    <mergeCell ref="C63:C71"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C84"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="B28:B62"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="B247:C253"/>
+    <mergeCell ref="C133:C138"/>
+    <mergeCell ref="B106:B139"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C223:C227"/>
+    <mergeCell ref="B223:B246"/>
+    <mergeCell ref="C228:C233"/>
+    <mergeCell ref="C236:C239"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C46:C53"/>
+    <mergeCell ref="C184:C196"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="B104:C104"/>
     <mergeCell ref="A290:I290"/>
     <mergeCell ref="C171:C183"/>
     <mergeCell ref="B171:B222"/>
@@ -14284,38 +14301,19 @@
     <mergeCell ref="B140:C170"/>
     <mergeCell ref="C131:C132"/>
     <mergeCell ref="C120:C124"/>
-    <mergeCell ref="B28:B62"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="B247:C253"/>
-    <mergeCell ref="C133:C138"/>
-    <mergeCell ref="B106:B139"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C223:C227"/>
-    <mergeCell ref="B223:B246"/>
-    <mergeCell ref="C228:C233"/>
-    <mergeCell ref="C236:C239"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C46:C53"/>
-    <mergeCell ref="C184:C196"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A4:A104"/>
-    <mergeCell ref="B5:C27"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B63:B96"/>
-    <mergeCell ref="C63:C71"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C84"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C125:C130"/>
+    <mergeCell ref="B269:C273"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B97:B103"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C240:C242"/>
+    <mergeCell ref="B254:B263"/>
+    <mergeCell ref="C254:C258"/>
+    <mergeCell ref="C259:C263"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BDSM-Basic.xlsx
+++ b/BDSM-Basic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\XP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF13F6D4-5A32-42CF-88A2-BF1A28C104FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007B8144-6EA7-47FB-B2F3-7A6209D23B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="310">
   <si>
     <t>分类1</t>
   </si>
@@ -134,9 +134,6 @@
     <t>炮机</t>
   </si>
   <si>
-    <t>塞班鞍</t>
-  </si>
-  <si>
     <t>对头部或脸部</t>
   </si>
   <si>
@@ -590,9 +587,6 @@
     <t>排泄控制</t>
   </si>
   <si>
-    <t>sp</t>
-  </si>
-  <si>
     <t>人体家具</t>
   </si>
   <si>
@@ -717,18 +711,6 @@
   </si>
   <si>
     <t>放血</t>
-  </si>
-  <si>
-    <t>饮血（M对S）</t>
-  </si>
-  <si>
-    <t>指M喝下S的血液</t>
-  </si>
-  <si>
-    <t>饮血（S对M）</t>
-  </si>
-  <si>
-    <t>指S喝下M的血液</t>
   </si>
   <si>
     <t>语言与心理</t>
@@ -1114,14 +1096,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>除特别说明否则均为S对M使用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>除特别说明否则均为S对M使用或M自身行为</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>作为S时是否有经验</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1137,10 +1111,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>私家车内</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>作为攻方时的喜好程度</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1197,8 +1167,42 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>XP统计表-BDSM基础版    ver1.1.1    220822</t>
+    <t>spanking</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞭打</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>腹虐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击打</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>XP统计表-BDSM基础版    ver1.2.0    220824</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼牙套</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>私人车内</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>除特别说明否则
+均为S对M使用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>除特别说明否则均为
+S对M使用或M自身行为</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1373,7 +1377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1920,13 +1924,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1978,16 +2000,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2080,6 +2096,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2102,6 +2127,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2157,6 +2194,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2505,11 +2545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA379"/>
+  <dimension ref="A1:AA377"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G281" sqref="G281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2521,23 +2561,23 @@
     <col min="5" max="5" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="26" style="2" customWidth="1"/>
-    <col min="9" max="9" width="48.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="27" width="14" style="2" customWidth="1"/>
     <col min="28" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.600000000000001" thickBot="1">
-      <c r="A1" s="78" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="80"/>
+      <c r="A1" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -2558,17 +2598,17 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="36" customHeight="1" thickBot="1">
-      <c r="A2" s="81" t="s">
-        <v>289</v>
-      </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="83"/>
+      <c r="A2" s="87" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2601,12 +2641,12 @@
       <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="16" t="s">
         <v>5</v>
       </c>
@@ -2629,27 +2669,27 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="17.399999999999999">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:27" ht="34.799999999999997">
+      <c r="A4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="22" t="s">
-        <v>292</v>
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="20" t="s">
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>290</v>
+      <c r="I4" s="50" t="s">
+        <v>308</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2671,18 +2711,18 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="17.399999999999999">
-      <c r="A5" s="72"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="21"/>
       <c r="G5" s="5"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="18"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2703,17 +2743,17 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="17.399999999999999">
-      <c r="A6" s="72"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="18"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2734,17 +2774,17 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27" ht="17.399999999999999">
-      <c r="A7" s="72"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2765,17 +2805,17 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" ht="17.399999999999999">
-      <c r="A8" s="72"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2796,17 +2836,17 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" ht="17.399999999999999">
-      <c r="A9" s="72"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2827,17 +2867,17 @@
       <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="1:27" ht="17.399999999999999">
-      <c r="A10" s="72"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="18"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -2858,17 +2898,17 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" ht="17.399999999999999">
-      <c r="A11" s="72"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2889,17 +2929,17 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="17.399999999999999">
-      <c r="A12" s="72"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2920,17 +2960,17 @@
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="1:27" ht="17.399999999999999">
-      <c r="A13" s="72"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="23"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -2951,17 +2991,17 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="17.399999999999999">
-      <c r="A14" s="72"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="18"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -2982,17 +3022,17 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" ht="17.399999999999999">
-      <c r="A15" s="72"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="23"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="18"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3013,17 +3053,17 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" ht="17.399999999999999">
-      <c r="A16" s="72"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="18"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -3044,17 +3084,17 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" ht="17.399999999999999">
-      <c r="A17" s="72"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="23"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="18"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3075,17 +3115,17 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" ht="17.399999999999999">
-      <c r="A18" s="72"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="23"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="18"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3106,17 +3146,17 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" ht="17.399999999999999">
-      <c r="A19" s="72"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="23"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="18"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3137,17 +3177,17 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="17.399999999999999">
-      <c r="A20" s="72"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="23"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="18"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3168,17 +3208,17 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="17.399999999999999">
-      <c r="A21" s="72"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="23"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="18"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3199,17 +3239,17 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="17.399999999999999">
-      <c r="A22" s="72"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="23"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="18"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -3230,17 +3270,17 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="17.399999999999999">
-      <c r="A23" s="72"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="23"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="18"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -3261,17 +3301,17 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="17.399999999999999">
-      <c r="A24" s="72"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="23"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="18"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -3292,17 +3332,17 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="17.399999999999999">
-      <c r="A25" s="72"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -3323,17 +3363,17 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="17.399999999999999">
-      <c r="A26" s="72"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="18"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -3354,17 +3394,17 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="17.399999999999999">
-      <c r="A27" s="72"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="23"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="18"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -3385,21 +3425,21 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="17.399999999999999">
-      <c r="A28" s="72"/>
-      <c r="B28" s="62" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="52" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="23"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="18"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -3420,17 +3460,17 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" ht="17.399999999999999">
-      <c r="A29" s="72"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="23"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="18"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -3451,17 +3491,17 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" ht="17.399999999999999">
-      <c r="A30" s="72"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="E30" s="23"/>
+        <v>280</v>
+      </c>
+      <c r="E30" s="21"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="18"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3482,17 +3522,17 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="17.399999999999999">
-      <c r="A31" s="72"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="23"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="18"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3513,17 +3553,17 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="17.399999999999999">
-      <c r="A32" s="72"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="18"/>
+        <v>306</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3544,19 +3584,19 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" ht="17.399999999999999">
-      <c r="A33" s="72"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="51" t="s">
+      <c r="A33" s="77"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="23"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="18"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3577,17 +3617,17 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" ht="17.399999999999999">
-      <c r="A34" s="72"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="E34" s="21"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="18"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3608,17 +3648,17 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27" ht="17.399999999999999">
-      <c r="A35" s="72"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
       <c r="D35" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="23"/>
+        <v>40</v>
+      </c>
+      <c r="E35" s="21"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="18"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -3639,19 +3679,19 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27" ht="17.399999999999999">
-      <c r="A36" s="72"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="51" t="s">
+      <c r="A36" s="77"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="23"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="18"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -3672,17 +3712,17 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" ht="17.399999999999999">
-      <c r="A37" s="72"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="E37" s="21"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="18"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -3703,17 +3743,17 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="1:27" ht="17.399999999999999">
-      <c r="A38" s="72"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="23"/>
+        <v>44</v>
+      </c>
+      <c r="E38" s="21"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="18"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -3734,17 +3774,17 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="1:27" ht="17.399999999999999">
-      <c r="A39" s="72"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="23"/>
+        <v>45</v>
+      </c>
+      <c r="E39" s="21"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="18"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -3765,19 +3805,19 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="1:27" ht="17.399999999999999">
-      <c r="A40" s="72"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="51" t="s">
+      <c r="A40" s="77"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="23"/>
+      <c r="E40" s="21"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="18"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3798,17 +3838,17 @@
       <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="1:27" ht="17.399999999999999">
-      <c r="A41" s="72"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="23"/>
+        <v>48</v>
+      </c>
+      <c r="E41" s="21"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="18"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -3829,17 +3869,17 @@
       <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="1:27" ht="17.399999999999999">
-      <c r="A42" s="72"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="23"/>
+        <v>49</v>
+      </c>
+      <c r="E42" s="21"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="13"/>
-      <c r="I42" s="18"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -3860,19 +3900,19 @@
       <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="1:27" ht="17.399999999999999">
-      <c r="A43" s="72"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="51" t="s">
+      <c r="A43" s="77"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="23"/>
+      <c r="E43" s="21"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="13"/>
-      <c r="I43" s="18"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -3893,17 +3933,17 @@
       <c r="AA43" s="1"/>
     </row>
     <row r="44" spans="1:27" ht="17.399999999999999">
-      <c r="A44" s="72"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="E44" s="21"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="18"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -3924,17 +3964,17 @@
       <c r="AA44" s="1"/>
     </row>
     <row r="45" spans="1:27" ht="17.399999999999999">
-      <c r="A45" s="72"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
+      <c r="A45" s="77"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="23"/>
+        <v>53</v>
+      </c>
+      <c r="E45" s="21"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="13"/>
-      <c r="I45" s="18"/>
+      <c r="I45" s="17"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -3955,19 +3995,19 @@
       <c r="AA45" s="1"/>
     </row>
     <row r="46" spans="1:27" ht="17.399999999999999">
-      <c r="A46" s="72"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="51" t="s">
+      <c r="A46" s="77"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="23"/>
+      <c r="E46" s="21"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="13"/>
-      <c r="I46" s="18"/>
+      <c r="I46" s="17"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -3988,17 +4028,17 @@
       <c r="AA46" s="1"/>
     </row>
     <row r="47" spans="1:27" ht="17.399999999999999">
-      <c r="A47" s="72"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
       <c r="D47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="23"/>
+        <v>56</v>
+      </c>
+      <c r="E47" s="21"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="13"/>
-      <c r="I47" s="18"/>
+      <c r="I47" s="17"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -4019,17 +4059,17 @@
       <c r="AA47" s="1"/>
     </row>
     <row r="48" spans="1:27" ht="17.399999999999999">
-      <c r="A48" s="72"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
+      <c r="A48" s="77"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
       <c r="D48" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="E48" s="21"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="13"/>
-      <c r="I48" s="18"/>
+      <c r="I48" s="17"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -4050,17 +4090,17 @@
       <c r="AA48" s="1"/>
     </row>
     <row r="49" spans="1:27" ht="17.399999999999999">
-      <c r="A49" s="72"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="23"/>
+        <v>58</v>
+      </c>
+      <c r="E49" s="21"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="13"/>
-      <c r="I49" s="18"/>
+      <c r="I49" s="17"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -4081,17 +4121,17 @@
       <c r="AA49" s="1"/>
     </row>
     <row r="50" spans="1:27" ht="17.399999999999999">
-      <c r="A50" s="72"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="23"/>
+        <v>59</v>
+      </c>
+      <c r="E50" s="21"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="13"/>
-      <c r="I50" s="18"/>
+      <c r="I50" s="17"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -4112,17 +4152,17 @@
       <c r="AA50" s="1"/>
     </row>
     <row r="51" spans="1:27" ht="17.399999999999999">
-      <c r="A51" s="72"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
+      <c r="A51" s="77"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
       <c r="D51" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="23"/>
+        <v>60</v>
+      </c>
+      <c r="E51" s="21"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="13"/>
-      <c r="I51" s="18"/>
+      <c r="I51" s="17"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4143,17 +4183,17 @@
       <c r="AA51" s="1"/>
     </row>
     <row r="52" spans="1:27" ht="17.399999999999999">
-      <c r="A52" s="72"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
+      <c r="A52" s="77"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="23"/>
+        <v>61</v>
+      </c>
+      <c r="E52" s="21"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="13"/>
-      <c r="I52" s="18"/>
+      <c r="I52" s="17"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -4174,17 +4214,17 @@
       <c r="AA52" s="1"/>
     </row>
     <row r="53" spans="1:27" ht="17.399999999999999">
-      <c r="A53" s="72"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
+      <c r="A53" s="77"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E53" s="23"/>
+        <v>62</v>
+      </c>
+      <c r="E53" s="21"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="13"/>
-      <c r="I53" s="18"/>
+      <c r="I53" s="17"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -4205,19 +4245,19 @@
       <c r="AA53" s="1"/>
     </row>
     <row r="54" spans="1:27" ht="17.399999999999999">
-      <c r="A54" s="72"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="51" t="s">
+      <c r="A54" s="77"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E54" s="23"/>
+      <c r="E54" s="21"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="13"/>
-      <c r="I54" s="18"/>
+      <c r="I54" s="17"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -4238,17 +4278,17 @@
       <c r="AA54" s="1"/>
     </row>
     <row r="55" spans="1:27" ht="17.399999999999999">
-      <c r="A55" s="72"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
+      <c r="A55" s="77"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E55" s="23"/>
+        <v>65</v>
+      </c>
+      <c r="E55" s="21"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="13"/>
-      <c r="I55" s="18"/>
+      <c r="I55" s="17"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -4269,17 +4309,17 @@
       <c r="AA55" s="1"/>
     </row>
     <row r="56" spans="1:27" ht="17.399999999999999">
-      <c r="A56" s="72"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
+      <c r="A56" s="77"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="E56" s="23"/>
+        <v>281</v>
+      </c>
+      <c r="E56" s="21"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="13"/>
-      <c r="I56" s="18"/>
+      <c r="I56" s="17"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -4300,17 +4340,17 @@
       <c r="AA56" s="1"/>
     </row>
     <row r="57" spans="1:27" ht="17.399999999999999">
-      <c r="A57" s="72"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
+      <c r="A57" s="77"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" s="23"/>
+        <v>66</v>
+      </c>
+      <c r="E57" s="21"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="13"/>
-      <c r="I57" s="18"/>
+      <c r="I57" s="17"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -4331,19 +4371,19 @@
       <c r="AA57" s="1"/>
     </row>
     <row r="58" spans="1:27" ht="17.399999999999999">
-      <c r="A58" s="72"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="51" t="s">
+      <c r="A58" s="77"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E58" s="23"/>
+      <c r="E58" s="21"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="13"/>
-      <c r="I58" s="18"/>
+      <c r="I58" s="17"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -4364,17 +4404,17 @@
       <c r="AA58" s="1"/>
     </row>
     <row r="59" spans="1:27" ht="17.399999999999999">
-      <c r="A59" s="72"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
+      <c r="A59" s="77"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59" s="23"/>
+        <v>69</v>
+      </c>
+      <c r="E59" s="21"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="13"/>
-      <c r="I59" s="18"/>
+      <c r="I59" s="17"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -4395,17 +4435,17 @@
       <c r="AA59" s="1"/>
     </row>
     <row r="60" spans="1:27" ht="17.399999999999999">
-      <c r="A60" s="72"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="52"/>
+      <c r="A60" s="77"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E60" s="23"/>
+        <v>70</v>
+      </c>
+      <c r="E60" s="21"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="13"/>
-      <c r="I60" s="18"/>
+      <c r="I60" s="17"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -4426,17 +4466,17 @@
       <c r="AA60" s="1"/>
     </row>
     <row r="61" spans="1:27" ht="17.399999999999999">
-      <c r="A61" s="72"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="52"/>
+      <c r="A61" s="77"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61" s="23"/>
+        <v>71</v>
+      </c>
+      <c r="E61" s="21"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="13"/>
-      <c r="I61" s="18"/>
+      <c r="I61" s="17"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -4457,17 +4497,17 @@
       <c r="AA61" s="1"/>
     </row>
     <row r="62" spans="1:27" ht="17.399999999999999">
-      <c r="A62" s="72"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
+      <c r="A62" s="77"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
       <c r="D62" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="E62" s="23"/>
+        <v>282</v>
+      </c>
+      <c r="E62" s="21"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="13"/>
-      <c r="I62" s="18"/>
+      <c r="I62" s="17"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -4488,21 +4528,21 @@
       <c r="AA62" s="1"/>
     </row>
     <row r="63" spans="1:27" ht="17.399999999999999">
-      <c r="A63" s="72"/>
-      <c r="B63" s="51" t="s">
+      <c r="A63" s="77"/>
+      <c r="B63" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E63" s="23"/>
+      <c r="E63" s="21"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="13"/>
-      <c r="I63" s="18"/>
+      <c r="I63" s="17"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -4523,17 +4563,17 @@
       <c r="AA63" s="1"/>
     </row>
     <row r="64" spans="1:27" ht="17.399999999999999">
-      <c r="A64" s="72"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="52"/>
+      <c r="A64" s="77"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E64" s="23"/>
+        <v>74</v>
+      </c>
+      <c r="E64" s="21"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="13"/>
-      <c r="I64" s="18"/>
+      <c r="I64" s="17"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -4554,17 +4594,17 @@
       <c r="AA64" s="1"/>
     </row>
     <row r="65" spans="1:27" ht="17.399999999999999">
-      <c r="A65" s="72"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
+      <c r="A65" s="77"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
       <c r="D65" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E65" s="23"/>
+        <v>75</v>
+      </c>
+      <c r="E65" s="21"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="13"/>
-      <c r="I65" s="18"/>
+      <c r="I65" s="17"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -4585,17 +4625,17 @@
       <c r="AA65" s="1"/>
     </row>
     <row r="66" spans="1:27" ht="17.399999999999999">
-      <c r="A66" s="72"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="52"/>
+      <c r="A66" s="77"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
       <c r="D66" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E66" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="E66" s="21"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="13"/>
-      <c r="I66" s="18"/>
+      <c r="I66" s="17"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -4616,17 +4656,17 @@
       <c r="AA66" s="1"/>
     </row>
     <row r="67" spans="1:27" ht="17.399999999999999">
-      <c r="A67" s="72"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="52"/>
+      <c r="A67" s="77"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
       <c r="D67" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E67" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="E67" s="21"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="13"/>
-      <c r="I67" s="18"/>
+      <c r="I67" s="17"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -4647,17 +4687,17 @@
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="1:27" ht="17.399999999999999">
-      <c r="A68" s="72"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="52"/>
+      <c r="A68" s="77"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
       <c r="D68" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E68" s="23"/>
+        <v>78</v>
+      </c>
+      <c r="E68" s="21"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="13"/>
-      <c r="I68" s="18"/>
+      <c r="I68" s="17"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -4678,17 +4718,17 @@
       <c r="AA68" s="1"/>
     </row>
     <row r="69" spans="1:27" ht="17.399999999999999">
-      <c r="A69" s="72"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
+      <c r="A69" s="77"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E69" s="23"/>
+        <v>79</v>
+      </c>
+      <c r="E69" s="21"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="13"/>
-      <c r="I69" s="18"/>
+      <c r="I69" s="17"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -4709,17 +4749,17 @@
       <c r="AA69" s="1"/>
     </row>
     <row r="70" spans="1:27" ht="17.399999999999999">
-      <c r="A70" s="72"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
+      <c r="A70" s="77"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
       <c r="D70" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E70" s="23"/>
+        <v>80</v>
+      </c>
+      <c r="E70" s="21"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="13"/>
-      <c r="I70" s="18"/>
+      <c r="I70" s="17"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -4740,17 +4780,17 @@
       <c r="AA70" s="1"/>
     </row>
     <row r="71" spans="1:27" ht="17.399999999999999">
-      <c r="A71" s="72"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
+      <c r="A71" s="77"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
       <c r="D71" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E71" s="23"/>
+        <v>81</v>
+      </c>
+      <c r="E71" s="21"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="13"/>
-      <c r="I71" s="18"/>
+      <c r="I71" s="17"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -4771,19 +4811,19 @@
       <c r="AA71" s="1"/>
     </row>
     <row r="72" spans="1:27" ht="17.399999999999999">
-      <c r="A72" s="72"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="51" t="s">
+      <c r="A72" s="77"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D72" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E72" s="23"/>
+      <c r="E72" s="21"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="13"/>
-      <c r="I72" s="18"/>
+      <c r="I72" s="17"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -4804,17 +4844,17 @@
       <c r="AA72" s="1"/>
     </row>
     <row r="73" spans="1:27" ht="17.399999999999999">
-      <c r="A73" s="72"/>
-      <c r="B73" s="52"/>
-      <c r="C73" s="52"/>
+      <c r="A73" s="77"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
       <c r="D73" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E73" s="23"/>
+        <v>84</v>
+      </c>
+      <c r="E73" s="21"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="13"/>
-      <c r="I73" s="18"/>
+      <c r="I73" s="17"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -4835,19 +4875,19 @@
       <c r="AA73" s="1"/>
     </row>
     <row r="74" spans="1:27" ht="17.399999999999999">
-      <c r="A74" s="72"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="51" t="s">
+      <c r="A74" s="77"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D74" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E74" s="23"/>
+      <c r="E74" s="21"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="13"/>
-      <c r="I74" s="18"/>
+      <c r="I74" s="17"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -4868,17 +4908,17 @@
       <c r="AA74" s="1"/>
     </row>
     <row r="75" spans="1:27" ht="17.399999999999999">
-      <c r="A75" s="72"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52"/>
+      <c r="A75" s="77"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
       <c r="D75" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" s="23"/>
+        <v>87</v>
+      </c>
+      <c r="E75" s="21"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="13"/>
-      <c r="I75" s="18"/>
+      <c r="I75" s="17"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -4899,17 +4939,17 @@
       <c r="AA75" s="1"/>
     </row>
     <row r="76" spans="1:27" ht="17.399999999999999">
-      <c r="A76" s="72"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="52"/>
+      <c r="A76" s="77"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="53"/>
       <c r="D76" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E76" s="23"/>
+        <v>88</v>
+      </c>
+      <c r="E76" s="21"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="13"/>
-      <c r="I76" s="18"/>
+      <c r="I76" s="17"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -4930,17 +4970,17 @@
       <c r="AA76" s="1"/>
     </row>
     <row r="77" spans="1:27" ht="17.399999999999999">
-      <c r="A77" s="72"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
+      <c r="A77" s="77"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77" s="23"/>
+        <v>89</v>
+      </c>
+      <c r="E77" s="21"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="13"/>
-      <c r="I77" s="18"/>
+      <c r="I77" s="17"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -4961,17 +5001,17 @@
       <c r="AA77" s="1"/>
     </row>
     <row r="78" spans="1:27" ht="17.399999999999999">
-      <c r="A78" s="72"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="52"/>
+      <c r="A78" s="77"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
       <c r="D78" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="23"/>
+        <v>90</v>
+      </c>
+      <c r="E78" s="21"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="13"/>
-      <c r="I78" s="18"/>
+      <c r="I78" s="17"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -4992,17 +5032,17 @@
       <c r="AA78" s="1"/>
     </row>
     <row r="79" spans="1:27" ht="17.399999999999999">
-      <c r="A79" s="72"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
+      <c r="A79" s="77"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
       <c r="D79" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E79" s="23"/>
+        <v>91</v>
+      </c>
+      <c r="E79" s="21"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="13"/>
-      <c r="I79" s="18"/>
+      <c r="I79" s="17"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -5023,17 +5063,17 @@
       <c r="AA79" s="1"/>
     </row>
     <row r="80" spans="1:27" ht="17.399999999999999">
-      <c r="A80" s="72"/>
-      <c r="B80" s="52"/>
-      <c r="C80" s="52"/>
+      <c r="A80" s="77"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
       <c r="D80" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E80" s="23"/>
+        <v>92</v>
+      </c>
+      <c r="E80" s="21"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="13"/>
-      <c r="I80" s="18"/>
+      <c r="I80" s="17"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -5054,17 +5094,17 @@
       <c r="AA80" s="1"/>
     </row>
     <row r="81" spans="1:27" ht="17.399999999999999">
-      <c r="A81" s="72"/>
-      <c r="B81" s="52"/>
-      <c r="C81" s="52"/>
+      <c r="A81" s="77"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="53"/>
       <c r="D81" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E81" s="23"/>
+        <v>93</v>
+      </c>
+      <c r="E81" s="21"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="13"/>
-      <c r="I81" s="18"/>
+      <c r="I81" s="17"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -5085,17 +5125,17 @@
       <c r="AA81" s="1"/>
     </row>
     <row r="82" spans="1:27" ht="17.399999999999999">
-      <c r="A82" s="72"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="52"/>
+      <c r="A82" s="77"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
       <c r="D82" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E82" s="23"/>
+        <v>94</v>
+      </c>
+      <c r="E82" s="21"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="13"/>
-      <c r="I82" s="18"/>
+      <c r="I82" s="17"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -5116,17 +5156,17 @@
       <c r="AA82" s="1"/>
     </row>
     <row r="83" spans="1:27" ht="17.399999999999999">
-      <c r="A83" s="72"/>
-      <c r="B83" s="52"/>
-      <c r="C83" s="52"/>
+      <c r="A83" s="77"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="53"/>
       <c r="D83" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E83" s="23"/>
+        <v>95</v>
+      </c>
+      <c r="E83" s="21"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="13"/>
-      <c r="I83" s="18"/>
+      <c r="I83" s="17"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
@@ -5147,17 +5187,17 @@
       <c r="AA83" s="1"/>
     </row>
     <row r="84" spans="1:27" ht="17.399999999999999">
-      <c r="A84" s="72"/>
-      <c r="B84" s="52"/>
-      <c r="C84" s="52"/>
+      <c r="A84" s="77"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53"/>
       <c r="D84" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E84" s="23"/>
+        <v>96</v>
+      </c>
+      <c r="E84" s="21"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="13"/>
-      <c r="I84" s="18"/>
+      <c r="I84" s="17"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -5178,19 +5218,19 @@
       <c r="AA84" s="1"/>
     </row>
     <row r="85" spans="1:27" ht="17.399999999999999">
-      <c r="A85" s="72"/>
-      <c r="B85" s="52"/>
+      <c r="A85" s="77"/>
+      <c r="B85" s="53"/>
       <c r="C85" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E85" s="23"/>
+      <c r="E85" s="21"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="13"/>
-      <c r="I85" s="18"/>
+      <c r="I85" s="17"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -5211,19 +5251,19 @@
       <c r="AA85" s="1"/>
     </row>
     <row r="86" spans="1:27" ht="17.399999999999999">
-      <c r="A86" s="72"/>
-      <c r="B86" s="52"/>
-      <c r="C86" s="51" t="s">
+      <c r="A86" s="77"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D86" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E86" s="23"/>
+      <c r="E86" s="21"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="13"/>
-      <c r="I86" s="18"/>
+      <c r="I86" s="17"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -5244,17 +5284,17 @@
       <c r="AA86" s="1"/>
     </row>
     <row r="87" spans="1:27" ht="17.399999999999999">
-      <c r="A87" s="72"/>
-      <c r="B87" s="52"/>
-      <c r="C87" s="52"/>
+      <c r="A87" s="77"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
       <c r="D87" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E87" s="23"/>
+        <v>101</v>
+      </c>
+      <c r="E87" s="21"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="13"/>
-      <c r="I87" s="18"/>
+      <c r="I87" s="17"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -5275,19 +5315,19 @@
       <c r="AA87" s="1"/>
     </row>
     <row r="88" spans="1:27" ht="17.399999999999999">
-      <c r="A88" s="72"/>
-      <c r="B88" s="52"/>
-      <c r="C88" s="51" t="s">
+      <c r="A88" s="77"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D88" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E88" s="23"/>
+      <c r="E88" s="21"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="13"/>
-      <c r="I88" s="18"/>
+      <c r="I88" s="17"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -5308,17 +5348,17 @@
       <c r="AA88" s="1"/>
     </row>
     <row r="89" spans="1:27" ht="17.399999999999999">
-      <c r="A89" s="72"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="52"/>
+      <c r="A89" s="77"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
       <c r="D89" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E89" s="23"/>
+        <v>104</v>
+      </c>
+      <c r="E89" s="21"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="13"/>
-      <c r="I89" s="18"/>
+      <c r="I89" s="17"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -5339,19 +5379,19 @@
       <c r="AA89" s="1"/>
     </row>
     <row r="90" spans="1:27" ht="17.399999999999999">
-      <c r="A90" s="72"/>
-      <c r="B90" s="52"/>
-      <c r="C90" s="51" t="s">
+      <c r="A90" s="77"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D90" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E90" s="23"/>
+      <c r="E90" s="21"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="13"/>
-      <c r="I90" s="18"/>
+      <c r="I90" s="17"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -5372,17 +5412,17 @@
       <c r="AA90" s="1"/>
     </row>
     <row r="91" spans="1:27" ht="17.399999999999999">
-      <c r="A91" s="72"/>
-      <c r="B91" s="52"/>
-      <c r="C91" s="52"/>
+      <c r="A91" s="77"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
       <c r="D91" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E91" s="23"/>
+        <v>107</v>
+      </c>
+      <c r="E91" s="21"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="13"/>
-      <c r="I91" s="18"/>
+      <c r="I91" s="17"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -5403,19 +5443,19 @@
       <c r="AA91" s="1"/>
     </row>
     <row r="92" spans="1:27" ht="17.399999999999999">
-      <c r="A92" s="72"/>
-      <c r="B92" s="52"/>
-      <c r="C92" s="51" t="s">
+      <c r="A92" s="77"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D92" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D92" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E92" s="23"/>
+      <c r="E92" s="21"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="13"/>
-      <c r="I92" s="18"/>
+      <c r="I92" s="17"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -5436,17 +5476,17 @@
       <c r="AA92" s="1"/>
     </row>
     <row r="93" spans="1:27" ht="17.399999999999999">
-      <c r="A93" s="72"/>
-      <c r="B93" s="52"/>
-      <c r="C93" s="52"/>
+      <c r="A93" s="77"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="53"/>
       <c r="D93" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E93" s="23"/>
+        <v>110</v>
+      </c>
+      <c r="E93" s="21"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="13"/>
-      <c r="I93" s="18"/>
+      <c r="I93" s="17"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -5467,17 +5507,17 @@
       <c r="AA93" s="1"/>
     </row>
     <row r="94" spans="1:27" ht="17.399999999999999">
-      <c r="A94" s="72"/>
-      <c r="B94" s="52"/>
-      <c r="C94" s="52"/>
+      <c r="A94" s="77"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
       <c r="D94" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E94" s="23"/>
+        <v>111</v>
+      </c>
+      <c r="E94" s="21"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="13"/>
-      <c r="I94" s="18"/>
+      <c r="I94" s="17"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -5498,17 +5538,17 @@
       <c r="AA94" s="1"/>
     </row>
     <row r="95" spans="1:27" ht="17.399999999999999">
-      <c r="A95" s="72"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="52"/>
+      <c r="A95" s="77"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="53"/>
       <c r="D95" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E95" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="E95" s="21"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="13"/>
-      <c r="I95" s="18"/>
+      <c r="I95" s="17"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -5529,17 +5569,17 @@
       <c r="AA95" s="1"/>
     </row>
     <row r="96" spans="1:27" ht="17.399999999999999">
-      <c r="A96" s="72"/>
-      <c r="B96" s="52"/>
-      <c r="C96" s="52"/>
+      <c r="A96" s="77"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="53"/>
       <c r="D96" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E96" s="23"/>
+        <v>113</v>
+      </c>
+      <c r="E96" s="21"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="13"/>
-      <c r="I96" s="18"/>
+      <c r="I96" s="17"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -5560,21 +5600,21 @@
       <c r="AA96" s="1"/>
     </row>
     <row r="97" spans="1:27" ht="17.399999999999999">
-      <c r="A97" s="72"/>
-      <c r="B97" s="51" t="s">
+      <c r="A97" s="77"/>
+      <c r="B97" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="C97" s="51" t="s">
+      <c r="D97" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D97" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E97" s="23"/>
+      <c r="E97" s="21"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="13"/>
-      <c r="I97" s="18"/>
+      <c r="I97" s="17"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -5595,17 +5635,17 @@
       <c r="AA97" s="1"/>
     </row>
     <row r="98" spans="1:27" ht="17.399999999999999">
-      <c r="A98" s="72"/>
-      <c r="B98" s="52"/>
-      <c r="C98" s="52"/>
+      <c r="A98" s="77"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
       <c r="D98" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E98" s="23"/>
+        <v>117</v>
+      </c>
+      <c r="E98" s="21"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="13"/>
-      <c r="I98" s="18"/>
+      <c r="I98" s="17"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -5626,19 +5666,19 @@
       <c r="AA98" s="1"/>
     </row>
     <row r="99" spans="1:27" ht="17.399999999999999">
-      <c r="A99" s="72"/>
-      <c r="B99" s="52"/>
-      <c r="C99" s="51" t="s">
+      <c r="A99" s="77"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D99" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E99" s="23"/>
+      <c r="E99" s="21"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="13"/>
-      <c r="I99" s="18"/>
+      <c r="I99" s="17"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -5659,17 +5699,17 @@
       <c r="AA99" s="1"/>
     </row>
     <row r="100" spans="1:27" ht="17.399999999999999">
-      <c r="A100" s="72"/>
-      <c r="B100" s="52"/>
-      <c r="C100" s="52"/>
+      <c r="A100" s="77"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="53"/>
       <c r="D100" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E100" s="23"/>
+        <v>120</v>
+      </c>
+      <c r="E100" s="21"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="13"/>
-      <c r="I100" s="18"/>
+      <c r="I100" s="17"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -5690,17 +5730,17 @@
       <c r="AA100" s="1"/>
     </row>
     <row r="101" spans="1:27" ht="17.399999999999999">
-      <c r="A101" s="72"/>
-      <c r="B101" s="52"/>
-      <c r="C101" s="52"/>
+      <c r="A101" s="77"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="53"/>
       <c r="D101" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E101" s="23"/>
+        <v>121</v>
+      </c>
+      <c r="E101" s="21"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="13"/>
-      <c r="I101" s="18"/>
+      <c r="I101" s="17"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -5721,19 +5761,19 @@
       <c r="AA101" s="1"/>
     </row>
     <row r="102" spans="1:27" ht="17.399999999999999">
-      <c r="A102" s="72"/>
-      <c r="B102" s="52"/>
-      <c r="C102" s="51" t="s">
+      <c r="A102" s="77"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E102" s="23"/>
+        <v>122</v>
+      </c>
+      <c r="E102" s="21"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="13"/>
-      <c r="I102" s="18"/>
+      <c r="I102" s="17"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -5754,17 +5794,17 @@
       <c r="AA102" s="1"/>
     </row>
     <row r="103" spans="1:27" ht="17.399999999999999">
-      <c r="A103" s="72"/>
-      <c r="B103" s="52"/>
-      <c r="C103" s="52"/>
+      <c r="A103" s="77"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="53"/>
       <c r="D103" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E103" s="23"/>
+        <v>123</v>
+      </c>
+      <c r="E103" s="21"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="13"/>
-      <c r="I103" s="18"/>
+      <c r="I103" s="17"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -5785,19 +5825,19 @@
       <c r="AA103" s="1"/>
     </row>
     <row r="104" spans="1:27" ht="18" thickBot="1">
-      <c r="A104" s="73"/>
-      <c r="B104" s="77" t="s">
+      <c r="A104" s="78"/>
+      <c r="B104" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="63"/>
-      <c r="D104" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E104" s="24"/>
+      <c r="C104" s="68"/>
+      <c r="D104" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E104" s="22"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="14"/>
-      <c r="I104" s="19"/>
+      <c r="I104" s="18"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -5817,27 +5857,27 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="1:27" ht="17.399999999999999">
-      <c r="A105" s="71" t="s">
+    <row r="105" spans="1:27" ht="34.799999999999997">
+      <c r="A105" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" s="79"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B105" s="74"/>
-      <c r="C105" s="75"/>
-      <c r="D105" s="76"/>
-      <c r="E105" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="F105" s="3" t="s">
+      <c r="G105" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H105" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G105" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H105" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="I105" s="20" t="s">
-        <v>291</v>
+      <c r="I105" s="51" t="s">
+        <v>309</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -5859,20 +5899,20 @@
       <c r="AA105" s="1"/>
     </row>
     <row r="106" spans="1:27" ht="17.399999999999999">
-      <c r="A106" s="72"/>
-      <c r="B106" s="51" t="s">
+      <c r="A106" s="77"/>
+      <c r="B106" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C106" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C106" s="51" t="s">
+      <c r="D106" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D106" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E106" s="23"/>
+      <c r="E106" s="21"/>
       <c r="G106" s="5"/>
       <c r="H106" s="13"/>
-      <c r="I106" s="18"/>
+      <c r="I106" s="17"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -5893,17 +5933,17 @@
       <c r="AA106" s="1"/>
     </row>
     <row r="107" spans="1:27" ht="17.399999999999999">
-      <c r="A107" s="72"/>
-      <c r="B107" s="51"/>
-      <c r="C107" s="51"/>
+      <c r="A107" s="77"/>
+      <c r="B107" s="52"/>
+      <c r="C107" s="52"/>
       <c r="D107" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="E107" s="28"/>
-      <c r="F107" s="50"/>
-      <c r="G107" s="50"/>
-      <c r="H107" s="30"/>
-      <c r="I107" s="18"/>
+        <v>295</v>
+      </c>
+      <c r="E107" s="26"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="17"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -5924,17 +5964,17 @@
       <c r="AA107" s="1"/>
     </row>
     <row r="108" spans="1:27" ht="17.399999999999999">
-      <c r="A108" s="72"/>
-      <c r="B108" s="51"/>
-      <c r="C108" s="51"/>
+      <c r="A108" s="77"/>
+      <c r="B108" s="52"/>
+      <c r="C108" s="52"/>
       <c r="D108" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="E108" s="28"/>
-      <c r="F108" s="50"/>
-      <c r="G108" s="50"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="18"/>
+        <v>296</v>
+      </c>
+      <c r="E108" s="26"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="17"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -5955,17 +5995,17 @@
       <c r="AA108" s="1"/>
     </row>
     <row r="109" spans="1:27" ht="17.399999999999999">
-      <c r="A109" s="72"/>
-      <c r="B109" s="52"/>
-      <c r="C109" s="52"/>
+      <c r="A109" s="77"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="53"/>
       <c r="D109" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E109" s="23"/>
+        <v>131</v>
+      </c>
+      <c r="E109" s="21"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="13"/>
-      <c r="I109" s="18"/>
+      <c r="I109" s="17"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -5986,19 +6026,19 @@
       <c r="AA109" s="1"/>
     </row>
     <row r="110" spans="1:27" ht="17.399999999999999">
-      <c r="A110" s="72"/>
-      <c r="B110" s="52"/>
-      <c r="C110" s="51" t="s">
+      <c r="A110" s="77"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D110" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D110" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E110" s="23"/>
+      <c r="E110" s="21"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="13"/>
-      <c r="I110" s="18"/>
+      <c r="I110" s="17"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -6019,17 +6059,17 @@
       <c r="AA110" s="1"/>
     </row>
     <row r="111" spans="1:27" ht="17.399999999999999">
-      <c r="A111" s="72"/>
-      <c r="B111" s="52"/>
-      <c r="C111" s="52"/>
+      <c r="A111" s="77"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="53"/>
       <c r="D111" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E111" s="23"/>
+        <v>134</v>
+      </c>
+      <c r="E111" s="21"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="13"/>
-      <c r="I111" s="18"/>
+      <c r="I111" s="17"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -6050,19 +6090,19 @@
       <c r="AA111" s="1"/>
     </row>
     <row r="112" spans="1:27" ht="17.399999999999999">
-      <c r="A112" s="72"/>
-      <c r="B112" s="52"/>
+      <c r="A112" s="77"/>
+      <c r="B112" s="53"/>
       <c r="C112" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D112" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D112" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E112" s="23"/>
+      <c r="E112" s="21"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="13"/>
-      <c r="I112" s="18"/>
+      <c r="I112" s="17"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
@@ -6083,19 +6123,19 @@
       <c r="AA112" s="1"/>
     </row>
     <row r="113" spans="1:27" ht="17.399999999999999">
-      <c r="A113" s="72"/>
-      <c r="B113" s="52"/>
-      <c r="C113" s="51" t="s">
+      <c r="A113" s="77"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D113" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D113" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E113" s="23"/>
+      <c r="E113" s="21"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="13"/>
-      <c r="I113" s="18"/>
+      <c r="I113" s="17"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -6116,17 +6156,17 @@
       <c r="AA113" s="1"/>
     </row>
     <row r="114" spans="1:27" ht="17.399999999999999">
-      <c r="A114" s="72"/>
-      <c r="B114" s="52"/>
-      <c r="C114" s="52"/>
+      <c r="A114" s="77"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="53"/>
       <c r="D114" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E114" s="23"/>
+        <v>139</v>
+      </c>
+      <c r="E114" s="21"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="13"/>
-      <c r="I114" s="18"/>
+      <c r="I114" s="17"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
@@ -6147,17 +6187,17 @@
       <c r="AA114" s="1"/>
     </row>
     <row r="115" spans="1:27" ht="17.399999999999999">
-      <c r="A115" s="72"/>
-      <c r="B115" s="52"/>
-      <c r="C115" s="52"/>
+      <c r="A115" s="77"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="53"/>
       <c r="D115" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E115" s="23"/>
+        <v>140</v>
+      </c>
+      <c r="E115" s="21"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="13"/>
-      <c r="I115" s="18"/>
+      <c r="I115" s="17"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -6178,17 +6218,17 @@
       <c r="AA115" s="1"/>
     </row>
     <row r="116" spans="1:27" ht="17.399999999999999">
-      <c r="A116" s="72"/>
-      <c r="B116" s="52"/>
-      <c r="C116" s="52"/>
+      <c r="A116" s="77"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="53"/>
       <c r="D116" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E116" s="23"/>
+        <v>141</v>
+      </c>
+      <c r="E116" s="21"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="13"/>
-      <c r="I116" s="18"/>
+      <c r="I116" s="17"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -6209,19 +6249,19 @@
       <c r="AA116" s="1"/>
     </row>
     <row r="117" spans="1:27" ht="17.399999999999999">
-      <c r="A117" s="72"/>
-      <c r="B117" s="52"/>
-      <c r="C117" s="51" t="s">
-        <v>42</v>
+      <c r="A117" s="77"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="52" t="s">
+        <v>41</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E117" s="23"/>
+        <v>142</v>
+      </c>
+      <c r="E117" s="21"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="13"/>
-      <c r="I117" s="18"/>
+      <c r="I117" s="17"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
@@ -6242,17 +6282,17 @@
       <c r="AA117" s="1"/>
     </row>
     <row r="118" spans="1:27" ht="17.399999999999999">
-      <c r="A118" s="72"/>
-      <c r="B118" s="52"/>
-      <c r="C118" s="52"/>
+      <c r="A118" s="77"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="53"/>
       <c r="D118" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E118" s="23"/>
+        <v>143</v>
+      </c>
+      <c r="E118" s="21"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="13"/>
-      <c r="I118" s="18"/>
+      <c r="I118" s="17"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
@@ -6273,17 +6313,17 @@
       <c r="AA118" s="1"/>
     </row>
     <row r="119" spans="1:27" ht="17.399999999999999">
-      <c r="A119" s="72"/>
-      <c r="B119" s="52"/>
-      <c r="C119" s="52"/>
+      <c r="A119" s="77"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="53"/>
       <c r="D119" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E119" s="23"/>
+        <v>144</v>
+      </c>
+      <c r="E119" s="21"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="13"/>
-      <c r="I119" s="18"/>
+      <c r="I119" s="17"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -6304,19 +6344,19 @@
       <c r="AA119" s="1"/>
     </row>
     <row r="120" spans="1:27" ht="17.399999999999999">
-      <c r="A120" s="72"/>
-      <c r="B120" s="52"/>
-      <c r="C120" s="51" t="s">
+      <c r="A120" s="77"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D120" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D120" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E120" s="23"/>
+      <c r="E120" s="21"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="13"/>
-      <c r="I120" s="18"/>
+      <c r="I120" s="17"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -6337,17 +6377,17 @@
       <c r="AA120" s="1"/>
     </row>
     <row r="121" spans="1:27" ht="17.399999999999999">
-      <c r="A121" s="72"/>
-      <c r="B121" s="52"/>
-      <c r="C121" s="52"/>
+      <c r="A121" s="77"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="53"/>
       <c r="D121" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E121" s="23"/>
+        <v>147</v>
+      </c>
+      <c r="E121" s="21"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="13"/>
-      <c r="I121" s="18"/>
+      <c r="I121" s="17"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
@@ -6368,17 +6408,17 @@
       <c r="AA121" s="1"/>
     </row>
     <row r="122" spans="1:27" ht="17.399999999999999">
-      <c r="A122" s="72"/>
-      <c r="B122" s="52"/>
-      <c r="C122" s="52"/>
+      <c r="A122" s="77"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="53"/>
       <c r="D122" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E122" s="23"/>
+        <v>148</v>
+      </c>
+      <c r="E122" s="21"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="13"/>
-      <c r="I122" s="18"/>
+      <c r="I122" s="17"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
@@ -6399,17 +6439,17 @@
       <c r="AA122" s="1"/>
     </row>
     <row r="123" spans="1:27" ht="17.399999999999999">
-      <c r="A123" s="72"/>
-      <c r="B123" s="52"/>
-      <c r="C123" s="52"/>
+      <c r="A123" s="77"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="53"/>
       <c r="D123" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E123" s="23"/>
+        <v>149</v>
+      </c>
+      <c r="E123" s="21"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="13"/>
-      <c r="I123" s="18"/>
+      <c r="I123" s="17"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
@@ -6430,17 +6470,17 @@
       <c r="AA123" s="1"/>
     </row>
     <row r="124" spans="1:27" ht="17.399999999999999">
-      <c r="A124" s="72"/>
-      <c r="B124" s="52"/>
-      <c r="C124" s="52"/>
+      <c r="A124" s="77"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="53"/>
       <c r="D124" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E124" s="23"/>
+        <v>150</v>
+      </c>
+      <c r="E124" s="21"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="13"/>
-      <c r="I124" s="18"/>
+      <c r="I124" s="17"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
@@ -6461,19 +6501,19 @@
       <c r="AA124" s="1"/>
     </row>
     <row r="125" spans="1:27" ht="17.399999999999999">
-      <c r="A125" s="72"/>
-      <c r="B125" s="52"/>
-      <c r="C125" s="51" t="s">
+      <c r="A125" s="77"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D125" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D125" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E125" s="23"/>
+      <c r="E125" s="21"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="13"/>
-      <c r="I125" s="18"/>
+      <c r="I125" s="17"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
@@ -6494,17 +6534,17 @@
       <c r="AA125" s="1"/>
     </row>
     <row r="126" spans="1:27" ht="17.399999999999999">
-      <c r="A126" s="72"/>
-      <c r="B126" s="52"/>
-      <c r="C126" s="52"/>
+      <c r="A126" s="77"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="53"/>
       <c r="D126" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E126" s="23"/>
+        <v>153</v>
+      </c>
+      <c r="E126" s="21"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="13"/>
-      <c r="I126" s="18"/>
+      <c r="I126" s="17"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -6525,17 +6565,17 @@
       <c r="AA126" s="1"/>
     </row>
     <row r="127" spans="1:27" ht="17.399999999999999">
-      <c r="A127" s="72"/>
-      <c r="B127" s="52"/>
-      <c r="C127" s="52"/>
+      <c r="A127" s="77"/>
+      <c r="B127" s="53"/>
+      <c r="C127" s="53"/>
       <c r="D127" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E127" s="23"/>
+        <v>154</v>
+      </c>
+      <c r="E127" s="21"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="13"/>
-      <c r="I127" s="18"/>
+      <c r="I127" s="17"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
@@ -6556,17 +6596,17 @@
       <c r="AA127" s="1"/>
     </row>
     <row r="128" spans="1:27" ht="17.399999999999999">
-      <c r="A128" s="72"/>
-      <c r="B128" s="52"/>
-      <c r="C128" s="52"/>
+      <c r="A128" s="77"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="53"/>
       <c r="D128" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E128" s="23"/>
+        <v>155</v>
+      </c>
+      <c r="E128" s="21"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="13"/>
-      <c r="I128" s="18"/>
+      <c r="I128" s="17"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
@@ -6587,17 +6627,17 @@
       <c r="AA128" s="1"/>
     </row>
     <row r="129" spans="1:27" ht="17.399999999999999">
-      <c r="A129" s="72"/>
-      <c r="B129" s="52"/>
-      <c r="C129" s="52"/>
+      <c r="A129" s="77"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="53"/>
       <c r="D129" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E129" s="23"/>
+        <v>156</v>
+      </c>
+      <c r="E129" s="21"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="13"/>
-      <c r="I129" s="18"/>
+      <c r="I129" s="17"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -6618,17 +6658,17 @@
       <c r="AA129" s="1"/>
     </row>
     <row r="130" spans="1:27" ht="17.399999999999999">
-      <c r="A130" s="72"/>
-      <c r="B130" s="52"/>
-      <c r="C130" s="52"/>
+      <c r="A130" s="77"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="53"/>
       <c r="D130" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E130" s="23"/>
+        <v>150</v>
+      </c>
+      <c r="E130" s="21"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="13"/>
-      <c r="I130" s="18"/>
+      <c r="I130" s="17"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -6649,19 +6689,19 @@
       <c r="AA130" s="1"/>
     </row>
     <row r="131" spans="1:27" ht="17.399999999999999">
-      <c r="A131" s="72"/>
-      <c r="B131" s="52"/>
-      <c r="C131" s="51" t="s">
+      <c r="A131" s="77"/>
+      <c r="B131" s="53"/>
+      <c r="C131" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D131" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D131" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E131" s="23"/>
+      <c r="E131" s="21"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="13"/>
-      <c r="I131" s="18"/>
+      <c r="I131" s="17"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -6682,17 +6722,17 @@
       <c r="AA131" s="1"/>
     </row>
     <row r="132" spans="1:27" ht="17.399999999999999">
-      <c r="A132" s="72"/>
-      <c r="B132" s="52"/>
-      <c r="C132" s="52"/>
+      <c r="A132" s="77"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
       <c r="D132" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E132" s="23"/>
+        <v>159</v>
+      </c>
+      <c r="E132" s="21"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
       <c r="H132" s="13"/>
-      <c r="I132" s="18"/>
+      <c r="I132" s="17"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -6713,19 +6753,19 @@
       <c r="AA132" s="1"/>
     </row>
     <row r="133" spans="1:27" ht="17.399999999999999">
-      <c r="A133" s="72"/>
-      <c r="B133" s="52"/>
-      <c r="C133" s="51" t="s">
+      <c r="A133" s="77"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D133" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D133" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E133" s="23"/>
+      <c r="E133" s="21"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
       <c r="H133" s="13"/>
-      <c r="I133" s="18"/>
+      <c r="I133" s="17"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
@@ -6746,17 +6786,17 @@
       <c r="AA133" s="1"/>
     </row>
     <row r="134" spans="1:27" ht="17.399999999999999">
-      <c r="A134" s="72"/>
-      <c r="B134" s="52"/>
-      <c r="C134" s="52"/>
+      <c r="A134" s="77"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="53"/>
       <c r="D134" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E134" s="23"/>
+        <v>162</v>
+      </c>
+      <c r="E134" s="21"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="13"/>
-      <c r="I134" s="18"/>
+      <c r="I134" s="17"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
@@ -6777,17 +6817,17 @@
       <c r="AA134" s="1"/>
     </row>
     <row r="135" spans="1:27" ht="17.399999999999999">
-      <c r="A135" s="72"/>
-      <c r="B135" s="52"/>
-      <c r="C135" s="52"/>
+      <c r="A135" s="77"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="53"/>
       <c r="D135" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E135" s="23"/>
+        <v>163</v>
+      </c>
+      <c r="E135" s="21"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="13"/>
-      <c r="I135" s="18"/>
+      <c r="I135" s="17"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
@@ -6808,17 +6848,17 @@
       <c r="AA135" s="1"/>
     </row>
     <row r="136" spans="1:27" ht="17.399999999999999">
-      <c r="A136" s="72"/>
-      <c r="B136" s="52"/>
-      <c r="C136" s="52"/>
+      <c r="A136" s="77"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="53"/>
       <c r="D136" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E136" s="23"/>
+        <v>164</v>
+      </c>
+      <c r="E136" s="21"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
       <c r="H136" s="13"/>
-      <c r="I136" s="18"/>
+      <c r="I136" s="17"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
@@ -6839,17 +6879,17 @@
       <c r="AA136" s="1"/>
     </row>
     <row r="137" spans="1:27" ht="17.399999999999999">
-      <c r="A137" s="72"/>
-      <c r="B137" s="52"/>
-      <c r="C137" s="52"/>
+      <c r="A137" s="77"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="53"/>
       <c r="D137" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E137" s="23"/>
+        <v>154</v>
+      </c>
+      <c r="E137" s="21"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
       <c r="H137" s="13"/>
-      <c r="I137" s="18"/>
+      <c r="I137" s="17"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
@@ -6870,17 +6910,17 @@
       <c r="AA137" s="1"/>
     </row>
     <row r="138" spans="1:27" ht="17.399999999999999">
-      <c r="A138" s="72"/>
-      <c r="B138" s="52"/>
-      <c r="C138" s="52"/>
+      <c r="A138" s="77"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="53"/>
       <c r="D138" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E138" s="23"/>
+        <v>155</v>
+      </c>
+      <c r="E138" s="21"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
       <c r="H138" s="13"/>
-      <c r="I138" s="18"/>
+      <c r="I138" s="17"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
@@ -6901,19 +6941,19 @@
       <c r="AA138" s="1"/>
     </row>
     <row r="139" spans="1:27" ht="17.399999999999999">
-      <c r="A139" s="72"/>
-      <c r="B139" s="52"/>
+      <c r="A139" s="77"/>
+      <c r="B139" s="53"/>
       <c r="C139" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E139" s="23"/>
+        <v>165</v>
+      </c>
+      <c r="E139" s="21"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
       <c r="H139" s="13"/>
-      <c r="I139" s="18"/>
+      <c r="I139" s="17"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
@@ -6934,19 +6974,19 @@
       <c r="AA139" s="1"/>
     </row>
     <row r="140" spans="1:27" ht="17.399999999999999">
-      <c r="A140" s="72"/>
-      <c r="B140" s="51" t="s">
+      <c r="A140" s="77"/>
+      <c r="B140" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="C140" s="53"/>
+      <c r="D140" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C140" s="52"/>
-      <c r="D140" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="E140" s="23"/>
+      <c r="E140" s="21"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
       <c r="H140" s="13"/>
-      <c r="I140" s="18"/>
+      <c r="I140" s="17"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
@@ -6967,17 +7007,17 @@
       <c r="AA140" s="1"/>
     </row>
     <row r="141" spans="1:27" ht="17.399999999999999">
-      <c r="A141" s="72"/>
-      <c r="B141" s="52"/>
-      <c r="C141" s="52"/>
+      <c r="A141" s="77"/>
+      <c r="B141" s="53"/>
+      <c r="C141" s="53"/>
       <c r="D141" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E141" s="23"/>
+        <v>168</v>
+      </c>
+      <c r="E141" s="21"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="13"/>
-      <c r="I141" s="18"/>
+      <c r="I141" s="17"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
@@ -6998,17 +7038,17 @@
       <c r="AA141" s="1"/>
     </row>
     <row r="142" spans="1:27" ht="17.399999999999999">
-      <c r="A142" s="72"/>
-      <c r="B142" s="52"/>
-      <c r="C142" s="52"/>
+      <c r="A142" s="77"/>
+      <c r="B142" s="53"/>
+      <c r="C142" s="53"/>
       <c r="D142" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E142" s="23"/>
+        <v>169</v>
+      </c>
+      <c r="E142" s="21"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
       <c r="H142" s="13"/>
-      <c r="I142" s="18"/>
+      <c r="I142" s="17"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -7029,17 +7069,17 @@
       <c r="AA142" s="1"/>
     </row>
     <row r="143" spans="1:27" ht="17.399999999999999">
-      <c r="A143" s="72"/>
-      <c r="B143" s="52"/>
-      <c r="C143" s="52"/>
+      <c r="A143" s="77"/>
+      <c r="B143" s="53"/>
+      <c r="C143" s="53"/>
       <c r="D143" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E143" s="23"/>
+        <v>170</v>
+      </c>
+      <c r="E143" s="21"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="13"/>
-      <c r="I143" s="18"/>
+      <c r="I143" s="17"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
@@ -7060,17 +7100,17 @@
       <c r="AA143" s="1"/>
     </row>
     <row r="144" spans="1:27" ht="17.399999999999999">
-      <c r="A144" s="72"/>
-      <c r="B144" s="52"/>
-      <c r="C144" s="52"/>
+      <c r="A144" s="77"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="53"/>
       <c r="D144" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E144" s="23"/>
+        <v>171</v>
+      </c>
+      <c r="E144" s="21"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
       <c r="H144" s="13"/>
-      <c r="I144" s="18"/>
+      <c r="I144" s="17"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -7091,17 +7131,17 @@
       <c r="AA144" s="1"/>
     </row>
     <row r="145" spans="1:27" ht="17.399999999999999">
-      <c r="A145" s="72"/>
-      <c r="B145" s="52"/>
-      <c r="C145" s="52"/>
+      <c r="A145" s="77"/>
+      <c r="B145" s="53"/>
+      <c r="C145" s="53"/>
       <c r="D145" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="E145" s="23"/>
+        <v>172</v>
+      </c>
+      <c r="E145" s="21"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
       <c r="H145" s="13"/>
-      <c r="I145" s="18"/>
+      <c r="I145" s="17"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -7122,17 +7162,17 @@
       <c r="AA145" s="1"/>
     </row>
     <row r="146" spans="1:27" ht="17.399999999999999">
-      <c r="A146" s="72"/>
-      <c r="B146" s="52"/>
-      <c r="C146" s="52"/>
+      <c r="A146" s="77"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="53"/>
       <c r="D146" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E146" s="23"/>
+        <v>173</v>
+      </c>
+      <c r="E146" s="21"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
       <c r="H146" s="13"/>
-      <c r="I146" s="18"/>
+      <c r="I146" s="17"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -7153,17 +7193,17 @@
       <c r="AA146" s="1"/>
     </row>
     <row r="147" spans="1:27" ht="17.399999999999999">
-      <c r="A147" s="72"/>
-      <c r="B147" s="52"/>
-      <c r="C147" s="52"/>
+      <c r="A147" s="77"/>
+      <c r="B147" s="53"/>
+      <c r="C147" s="53"/>
       <c r="D147" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="E147" s="23"/>
+        <v>174</v>
+      </c>
+      <c r="E147" s="21"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
       <c r="H147" s="13"/>
-      <c r="I147" s="18"/>
+      <c r="I147" s="17"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -7184,17 +7224,17 @@
       <c r="AA147" s="1"/>
     </row>
     <row r="148" spans="1:27" ht="17.399999999999999">
-      <c r="A148" s="72"/>
-      <c r="B148" s="52"/>
-      <c r="C148" s="52"/>
+      <c r="A148" s="77"/>
+      <c r="B148" s="53"/>
+      <c r="C148" s="53"/>
       <c r="D148" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E148" s="23"/>
+        <v>175</v>
+      </c>
+      <c r="E148" s="21"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
       <c r="H148" s="13"/>
-      <c r="I148" s="18"/>
+      <c r="I148" s="17"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -7215,17 +7255,17 @@
       <c r="AA148" s="1"/>
     </row>
     <row r="149" spans="1:27" ht="17.399999999999999">
-      <c r="A149" s="72"/>
-      <c r="B149" s="52"/>
-      <c r="C149" s="52"/>
+      <c r="A149" s="77"/>
+      <c r="B149" s="53"/>
+      <c r="C149" s="53"/>
       <c r="D149" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E149" s="23"/>
+        <v>176</v>
+      </c>
+      <c r="E149" s="21"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
       <c r="H149" s="13"/>
-      <c r="I149" s="18"/>
+      <c r="I149" s="17"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -7246,17 +7286,17 @@
       <c r="AA149" s="1"/>
     </row>
     <row r="150" spans="1:27" ht="17.399999999999999">
-      <c r="A150" s="72"/>
-      <c r="B150" s="52"/>
-      <c r="C150" s="52"/>
+      <c r="A150" s="77"/>
+      <c r="B150" s="53"/>
+      <c r="C150" s="53"/>
       <c r="D150" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="E150" s="23"/>
+        <v>177</v>
+      </c>
+      <c r="E150" s="21"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
       <c r="H150" s="13"/>
-      <c r="I150" s="18"/>
+      <c r="I150" s="17"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
@@ -7277,17 +7317,17 @@
       <c r="AA150" s="1"/>
     </row>
     <row r="151" spans="1:27" ht="17.399999999999999">
-      <c r="A151" s="72"/>
-      <c r="B151" s="52"/>
-      <c r="C151" s="52"/>
+      <c r="A151" s="77"/>
+      <c r="B151" s="53"/>
+      <c r="C151" s="53"/>
       <c r="D151" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E151" s="23"/>
+        <v>178</v>
+      </c>
+      <c r="E151" s="21"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
       <c r="H151" s="13"/>
-      <c r="I151" s="18"/>
+      <c r="I151" s="17"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
@@ -7308,17 +7348,17 @@
       <c r="AA151" s="1"/>
     </row>
     <row r="152" spans="1:27" ht="17.399999999999999">
-      <c r="A152" s="72"/>
-      <c r="B152" s="52"/>
-      <c r="C152" s="52"/>
+      <c r="A152" s="77"/>
+      <c r="B152" s="53"/>
+      <c r="C152" s="53"/>
       <c r="D152" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E152" s="23"/>
+        <v>179</v>
+      </c>
+      <c r="E152" s="21"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="13"/>
-      <c r="I152" s="18"/>
+      <c r="I152" s="17"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
@@ -7339,17 +7379,17 @@
       <c r="AA152" s="1"/>
     </row>
     <row r="153" spans="1:27" ht="17.399999999999999">
-      <c r="A153" s="72"/>
-      <c r="B153" s="52"/>
-      <c r="C153" s="52"/>
+      <c r="A153" s="77"/>
+      <c r="B153" s="53"/>
+      <c r="C153" s="53"/>
       <c r="D153" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E153" s="23"/>
+        <v>180</v>
+      </c>
+      <c r="E153" s="21"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="13"/>
-      <c r="I153" s="18"/>
+      <c r="I153" s="17"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
@@ -7370,17 +7410,17 @@
       <c r="AA153" s="1"/>
     </row>
     <row r="154" spans="1:27" ht="17.399999999999999">
-      <c r="A154" s="72"/>
-      <c r="B154" s="52"/>
-      <c r="C154" s="52"/>
+      <c r="A154" s="77"/>
+      <c r="B154" s="53"/>
+      <c r="C154" s="53"/>
       <c r="D154" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E154" s="23"/>
+        <v>181</v>
+      </c>
+      <c r="E154" s="21"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
       <c r="H154" s="13"/>
-      <c r="I154" s="18"/>
+      <c r="I154" s="17"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -7401,17 +7441,17 @@
       <c r="AA154" s="1"/>
     </row>
     <row r="155" spans="1:27" ht="17.399999999999999">
-      <c r="A155" s="72"/>
-      <c r="B155" s="52"/>
-      <c r="C155" s="52"/>
+      <c r="A155" s="77"/>
+      <c r="B155" s="53"/>
+      <c r="C155" s="53"/>
       <c r="D155" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="E155" s="23"/>
+        <v>182</v>
+      </c>
+      <c r="E155" s="21"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
       <c r="H155" s="13"/>
-      <c r="I155" s="18"/>
+      <c r="I155" s="17"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
@@ -7432,17 +7472,17 @@
       <c r="AA155" s="1"/>
     </row>
     <row r="156" spans="1:27" ht="17.399999999999999">
-      <c r="A156" s="72"/>
-      <c r="B156" s="52"/>
-      <c r="C156" s="52"/>
+      <c r="A156" s="77"/>
+      <c r="B156" s="53"/>
+      <c r="C156" s="53"/>
       <c r="D156" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="E156" s="23"/>
+        <v>183</v>
+      </c>
+      <c r="E156" s="21"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
       <c r="H156" s="13"/>
-      <c r="I156" s="18"/>
+      <c r="I156" s="17"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
@@ -7463,17 +7503,17 @@
       <c r="AA156" s="1"/>
     </row>
     <row r="157" spans="1:27" ht="17.399999999999999">
-      <c r="A157" s="72"/>
-      <c r="B157" s="52"/>
-      <c r="C157" s="52"/>
+      <c r="A157" s="77"/>
+      <c r="B157" s="53"/>
+      <c r="C157" s="53"/>
       <c r="D157" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E157" s="23"/>
+        <v>184</v>
+      </c>
+      <c r="E157" s="21"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
       <c r="H157" s="13"/>
-      <c r="I157" s="18"/>
+      <c r="I157" s="17"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
@@ -7494,17 +7534,17 @@
       <c r="AA157" s="1"/>
     </row>
     <row r="158" spans="1:27" ht="17.399999999999999">
-      <c r="A158" s="72"/>
-      <c r="B158" s="52"/>
-      <c r="C158" s="52"/>
+      <c r="A158" s="77"/>
+      <c r="B158" s="53"/>
+      <c r="C158" s="53"/>
       <c r="D158" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E158" s="23"/>
+        <v>185</v>
+      </c>
+      <c r="E158" s="21"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="13"/>
-      <c r="I158" s="18"/>
+      <c r="I158" s="17"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -7525,17 +7565,17 @@
       <c r="AA158" s="1"/>
     </row>
     <row r="159" spans="1:27" ht="17.399999999999999">
-      <c r="A159" s="72"/>
-      <c r="B159" s="52"/>
-      <c r="C159" s="52"/>
+      <c r="A159" s="77"/>
+      <c r="B159" s="53"/>
+      <c r="C159" s="53"/>
       <c r="D159" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E159" s="23"/>
+        <v>186</v>
+      </c>
+      <c r="E159" s="21"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
       <c r="H159" s="13"/>
-      <c r="I159" s="18"/>
+      <c r="I159" s="17"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
@@ -7556,17 +7596,17 @@
       <c r="AA159" s="1"/>
     </row>
     <row r="160" spans="1:27" ht="17.399999999999999">
-      <c r="A160" s="72"/>
-      <c r="B160" s="52"/>
-      <c r="C160" s="52"/>
+      <c r="A160" s="77"/>
+      <c r="B160" s="53"/>
+      <c r="C160" s="53"/>
       <c r="D160" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E160" s="23"/>
+        <v>187</v>
+      </c>
+      <c r="E160" s="21"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="13"/>
-      <c r="I160" s="18"/>
+      <c r="I160" s="17"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
@@ -7587,17 +7627,17 @@
       <c r="AA160" s="1"/>
     </row>
     <row r="161" spans="1:27" ht="17.399999999999999">
-      <c r="A161" s="72"/>
-      <c r="B161" s="52"/>
-      <c r="C161" s="52"/>
+      <c r="A161" s="77"/>
+      <c r="B161" s="53"/>
+      <c r="C161" s="53"/>
       <c r="D161" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E161" s="23"/>
+        <v>188</v>
+      </c>
+      <c r="E161" s="21"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="13"/>
-      <c r="I161" s="18"/>
+      <c r="I161" s="17"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
@@ -7618,17 +7658,17 @@
       <c r="AA161" s="1"/>
     </row>
     <row r="162" spans="1:27" ht="17.399999999999999">
-      <c r="A162" s="72"/>
-      <c r="B162" s="52"/>
-      <c r="C162" s="52"/>
+      <c r="A162" s="77"/>
+      <c r="B162" s="53"/>
+      <c r="C162" s="53"/>
       <c r="D162" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E162" s="23"/>
+        <v>189</v>
+      </c>
+      <c r="E162" s="21"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="13"/>
-      <c r="I162" s="18"/>
+      <c r="I162" s="17"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
@@ -7649,17 +7689,17 @@
       <c r="AA162" s="1"/>
     </row>
     <row r="163" spans="1:27" ht="17.399999999999999">
-      <c r="A163" s="72"/>
-      <c r="B163" s="52"/>
-      <c r="C163" s="52"/>
+      <c r="A163" s="77"/>
+      <c r="B163" s="53"/>
+      <c r="C163" s="53"/>
       <c r="D163" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E163" s="23"/>
+        <v>190</v>
+      </c>
+      <c r="E163" s="21"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="13"/>
-      <c r="I163" s="18"/>
+      <c r="I163" s="17"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
@@ -7680,17 +7720,17 @@
       <c r="AA163" s="1"/>
     </row>
     <row r="164" spans="1:27" ht="17.399999999999999">
-      <c r="A164" s="72"/>
-      <c r="B164" s="52"/>
-      <c r="C164" s="52"/>
+      <c r="A164" s="77"/>
+      <c r="B164" s="53"/>
+      <c r="C164" s="53"/>
       <c r="D164" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E164" s="23"/>
+        <v>191</v>
+      </c>
+      <c r="E164" s="21"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="13"/>
-      <c r="I164" s="18"/>
+      <c r="I164" s="17"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
@@ -7711,17 +7751,17 @@
       <c r="AA164" s="1"/>
     </row>
     <row r="165" spans="1:27" ht="17.399999999999999">
-      <c r="A165" s="72"/>
-      <c r="B165" s="52"/>
-      <c r="C165" s="52"/>
+      <c r="A165" s="77"/>
+      <c r="B165" s="53"/>
+      <c r="C165" s="53"/>
       <c r="D165" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E165" s="23"/>
+        <v>192</v>
+      </c>
+      <c r="E165" s="21"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="13"/>
-      <c r="I165" s="18"/>
+      <c r="I165" s="17"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
@@ -7742,17 +7782,17 @@
       <c r="AA165" s="1"/>
     </row>
     <row r="166" spans="1:27" ht="17.399999999999999">
-      <c r="A166" s="72"/>
-      <c r="B166" s="52"/>
-      <c r="C166" s="52"/>
+      <c r="A166" s="77"/>
+      <c r="B166" s="53"/>
+      <c r="C166" s="53"/>
       <c r="D166" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E166" s="23"/>
+        <v>193</v>
+      </c>
+      <c r="E166" s="21"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
       <c r="H166" s="13"/>
-      <c r="I166" s="18"/>
+      <c r="I166" s="17"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
@@ -7773,17 +7813,17 @@
       <c r="AA166" s="1"/>
     </row>
     <row r="167" spans="1:27" ht="17.399999999999999">
-      <c r="A167" s="72"/>
-      <c r="B167" s="52"/>
-      <c r="C167" s="52"/>
+      <c r="A167" s="77"/>
+      <c r="B167" s="53"/>
+      <c r="C167" s="53"/>
       <c r="D167" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="E167" s="23"/>
+        <v>194</v>
+      </c>
+      <c r="E167" s="21"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="13"/>
-      <c r="I167" s="18"/>
+      <c r="I167" s="17"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
@@ -7804,17 +7844,17 @@
       <c r="AA167" s="1"/>
     </row>
     <row r="168" spans="1:27" ht="17.399999999999999">
-      <c r="A168" s="72"/>
-      <c r="B168" s="52"/>
-      <c r="C168" s="52"/>
+      <c r="A168" s="77"/>
+      <c r="B168" s="53"/>
+      <c r="C168" s="53"/>
       <c r="D168" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E168" s="23"/>
+        <v>279</v>
+      </c>
+      <c r="E168" s="21"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="13"/>
-      <c r="I168" s="18"/>
+      <c r="I168" s="17"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -7835,17 +7875,17 @@
       <c r="AA168" s="1"/>
     </row>
     <row r="169" spans="1:27" ht="17.399999999999999">
-      <c r="A169" s="72"/>
-      <c r="B169" s="52"/>
-      <c r="C169" s="52"/>
+      <c r="A169" s="77"/>
+      <c r="B169" s="53"/>
+      <c r="C169" s="53"/>
       <c r="D169" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E169" s="23"/>
+        <v>195</v>
+      </c>
+      <c r="E169" s="21"/>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
       <c r="H169" s="13"/>
-      <c r="I169" s="18"/>
+      <c r="I169" s="17"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
@@ -7866,17 +7906,19 @@
       <c r="AA169" s="1"/>
     </row>
     <row r="170" spans="1:27" ht="17.399999999999999">
-      <c r="A170" s="72"/>
-      <c r="B170" s="52"/>
-      <c r="C170" s="52"/>
+      <c r="A170" s="77"/>
+      <c r="B170" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="C170" s="61"/>
       <c r="D170" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E170" s="23"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="13"/>
-      <c r="I170" s="18"/>
+        <v>301</v>
+      </c>
+      <c r="E170" s="26"/>
+      <c r="F170" s="49"/>
+      <c r="G170" s="49"/>
+      <c r="H170" s="28"/>
+      <c r="I170" s="17"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
@@ -7897,21 +7939,17 @@
       <c r="AA170" s="1"/>
     </row>
     <row r="171" spans="1:27" ht="17.399999999999999">
-      <c r="A171" s="72"/>
-      <c r="B171" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="C171" s="51" t="s">
-        <v>199</v>
-      </c>
+      <c r="A171" s="77"/>
+      <c r="B171" s="62"/>
+      <c r="C171" s="63"/>
       <c r="D171" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E171" s="23"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="13"/>
-      <c r="I171" s="18"/>
+        <v>302</v>
+      </c>
+      <c r="E171" s="26"/>
+      <c r="F171" s="49"/>
+      <c r="G171" s="49"/>
+      <c r="H171" s="28"/>
+      <c r="I171" s="17"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
@@ -7932,17 +7970,17 @@
       <c r="AA171" s="1"/>
     </row>
     <row r="172" spans="1:27" ht="17.399999999999999">
-      <c r="A172" s="72"/>
-      <c r="B172" s="52"/>
-      <c r="C172" s="52"/>
+      <c r="A172" s="77"/>
+      <c r="B172" s="62"/>
+      <c r="C172" s="63"/>
       <c r="D172" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E172" s="23"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="13"/>
-      <c r="I172" s="18"/>
+        <v>303</v>
+      </c>
+      <c r="E172" s="26"/>
+      <c r="F172" s="49"/>
+      <c r="G172" s="49"/>
+      <c r="H172" s="28"/>
+      <c r="I172" s="17"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
@@ -7963,17 +8001,21 @@
       <c r="AA172" s="1"/>
     </row>
     <row r="173" spans="1:27" ht="17.399999999999999">
-      <c r="A173" s="72"/>
-      <c r="B173" s="52"/>
-      <c r="C173" s="52"/>
+      <c r="A173" s="77"/>
+      <c r="B173" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="C173" s="52" t="s">
+        <v>197</v>
+      </c>
       <c r="D173" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="E173" s="23"/>
+        <v>198</v>
+      </c>
+      <c r="E173" s="21"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
       <c r="H173" s="13"/>
-      <c r="I173" s="18"/>
+      <c r="I173" s="17"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
@@ -7994,17 +8036,17 @@
       <c r="AA173" s="1"/>
     </row>
     <row r="174" spans="1:27" ht="17.399999999999999">
-      <c r="A174" s="72"/>
-      <c r="B174" s="52"/>
-      <c r="C174" s="52"/>
+      <c r="A174" s="77"/>
+      <c r="B174" s="53"/>
+      <c r="C174" s="53"/>
       <c r="D174" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E174" s="23"/>
+        <v>199</v>
+      </c>
+      <c r="E174" s="21"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
       <c r="H174" s="13"/>
-      <c r="I174" s="18"/>
+      <c r="I174" s="17"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
@@ -8025,17 +8067,17 @@
       <c r="AA174" s="1"/>
     </row>
     <row r="175" spans="1:27" ht="17.399999999999999">
-      <c r="A175" s="72"/>
-      <c r="B175" s="52"/>
-      <c r="C175" s="52"/>
+      <c r="A175" s="77"/>
+      <c r="B175" s="53"/>
+      <c r="C175" s="53"/>
       <c r="D175" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E175" s="23"/>
+        <v>200</v>
+      </c>
+      <c r="E175" s="21"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
       <c r="H175" s="13"/>
-      <c r="I175" s="18"/>
+      <c r="I175" s="17"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
@@ -8056,17 +8098,17 @@
       <c r="AA175" s="1"/>
     </row>
     <row r="176" spans="1:27" ht="17.399999999999999">
-      <c r="A176" s="72"/>
-      <c r="B176" s="52"/>
-      <c r="C176" s="52"/>
+      <c r="A176" s="77"/>
+      <c r="B176" s="53"/>
+      <c r="C176" s="53"/>
       <c r="D176" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E176" s="23"/>
+        <v>201</v>
+      </c>
+      <c r="E176" s="21"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
       <c r="H176" s="13"/>
-      <c r="I176" s="18"/>
+      <c r="I176" s="17"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
@@ -8087,17 +8129,17 @@
       <c r="AA176" s="1"/>
     </row>
     <row r="177" spans="1:27" ht="17.399999999999999">
-      <c r="A177" s="72"/>
-      <c r="B177" s="52"/>
-      <c r="C177" s="52"/>
-      <c r="D177" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="E177" s="23"/>
+      <c r="A177" s="77"/>
+      <c r="B177" s="53"/>
+      <c r="C177" s="53"/>
+      <c r="D177" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E177" s="21"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
       <c r="H177" s="13"/>
-      <c r="I177" s="18"/>
+      <c r="I177" s="17"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
@@ -8118,17 +8160,17 @@
       <c r="AA177" s="1"/>
     </row>
     <row r="178" spans="1:27" ht="17.399999999999999">
-      <c r="A178" s="72"/>
-      <c r="B178" s="52"/>
-      <c r="C178" s="52"/>
-      <c r="D178" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="E178" s="23"/>
+      <c r="A178" s="77"/>
+      <c r="B178" s="53"/>
+      <c r="C178" s="53"/>
+      <c r="D178" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E178" s="21"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
       <c r="H178" s="13"/>
-      <c r="I178" s="18"/>
+      <c r="I178" s="17"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
@@ -8149,17 +8191,17 @@
       <c r="AA178" s="1"/>
     </row>
     <row r="179" spans="1:27" ht="17.399999999999999">
-      <c r="A179" s="72"/>
-      <c r="B179" s="52"/>
-      <c r="C179" s="52"/>
-      <c r="D179" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="E179" s="23"/>
+      <c r="A179" s="77"/>
+      <c r="B179" s="53"/>
+      <c r="C179" s="53"/>
+      <c r="D179" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E179" s="21"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
       <c r="H179" s="13"/>
-      <c r="I179" s="18"/>
+      <c r="I179" s="17"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
@@ -8180,17 +8222,17 @@
       <c r="AA179" s="1"/>
     </row>
     <row r="180" spans="1:27" ht="17.399999999999999">
-      <c r="A180" s="72"/>
-      <c r="B180" s="52"/>
-      <c r="C180" s="52"/>
-      <c r="D180" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="E180" s="23"/>
+      <c r="A180" s="77"/>
+      <c r="B180" s="53"/>
+      <c r="C180" s="53"/>
+      <c r="D180" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="E180" s="21"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
       <c r="H180" s="13"/>
-      <c r="I180" s="18"/>
+      <c r="I180" s="17"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
@@ -8211,17 +8253,17 @@
       <c r="AA180" s="1"/>
     </row>
     <row r="181" spans="1:27" ht="17.399999999999999">
-      <c r="A181" s="72"/>
-      <c r="B181" s="52"/>
-      <c r="C181" s="52"/>
-      <c r="D181" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="E181" s="23"/>
+      <c r="A181" s="77"/>
+      <c r="B181" s="53"/>
+      <c r="C181" s="53"/>
+      <c r="D181" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="E181" s="21"/>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
       <c r="H181" s="13"/>
-      <c r="I181" s="18"/>
+      <c r="I181" s="17"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
@@ -8242,17 +8284,17 @@
       <c r="AA181" s="1"/>
     </row>
     <row r="182" spans="1:27" ht="17.399999999999999">
-      <c r="A182" s="72"/>
-      <c r="B182" s="52"/>
-      <c r="C182" s="52"/>
-      <c r="D182" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="E182" s="23"/>
+      <c r="A182" s="77"/>
+      <c r="B182" s="53"/>
+      <c r="C182" s="53"/>
+      <c r="D182" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E182" s="21"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
       <c r="H182" s="13"/>
-      <c r="I182" s="18"/>
+      <c r="I182" s="17"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
@@ -8273,17 +8315,17 @@
       <c r="AA182" s="1"/>
     </row>
     <row r="183" spans="1:27" ht="17.399999999999999">
-      <c r="A183" s="72"/>
-      <c r="B183" s="52"/>
-      <c r="C183" s="52"/>
-      <c r="D183" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E183" s="23"/>
+      <c r="A183" s="77"/>
+      <c r="B183" s="53"/>
+      <c r="C183" s="53"/>
+      <c r="D183" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="E183" s="21"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
       <c r="H183" s="13"/>
-      <c r="I183" s="18"/>
+      <c r="I183" s="17"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
@@ -8304,19 +8346,17 @@
       <c r="AA183" s="1"/>
     </row>
     <row r="184" spans="1:27" ht="17.399999999999999">
-      <c r="A184" s="72"/>
-      <c r="B184" s="52"/>
-      <c r="C184" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="D184" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E184" s="28"/>
-      <c r="F184" s="29"/>
-      <c r="G184" s="29"/>
-      <c r="H184" s="30"/>
-      <c r="I184" s="18"/>
+      <c r="A184" s="77"/>
+      <c r="B184" s="53"/>
+      <c r="C184" s="53"/>
+      <c r="D184" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="E184" s="21"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="13"/>
+      <c r="I184" s="17"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
@@ -8337,17 +8377,17 @@
       <c r="AA184" s="1"/>
     </row>
     <row r="185" spans="1:27" ht="17.399999999999999">
-      <c r="A185" s="72"/>
-      <c r="B185" s="52"/>
-      <c r="C185" s="52"/>
+      <c r="A185" s="77"/>
+      <c r="B185" s="53"/>
+      <c r="C185" s="53"/>
       <c r="D185" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E185" s="28"/>
-      <c r="F185" s="29"/>
-      <c r="G185" s="29"/>
-      <c r="H185" s="30"/>
-      <c r="I185" s="18"/>
+        <v>203</v>
+      </c>
+      <c r="E185" s="21"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="13"/>
+      <c r="I185" s="17"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
@@ -8368,17 +8408,19 @@
       <c r="AA185" s="1"/>
     </row>
     <row r="186" spans="1:27" ht="17.399999999999999">
-      <c r="A186" s="72"/>
-      <c r="B186" s="52"/>
-      <c r="C186" s="52"/>
+      <c r="A186" s="77"/>
+      <c r="B186" s="53"/>
+      <c r="C186" s="82" t="s">
+        <v>307</v>
+      </c>
       <c r="D186" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="E186" s="28"/>
-      <c r="F186" s="29"/>
-      <c r="G186" s="29"/>
-      <c r="H186" s="30"/>
-      <c r="I186" s="18"/>
+        <v>199</v>
+      </c>
+      <c r="E186" s="26"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="28"/>
+      <c r="I186" s="17"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
@@ -8399,17 +8441,17 @@
       <c r="AA186" s="1"/>
     </row>
     <row r="187" spans="1:27" ht="17.399999999999999">
-      <c r="A187" s="72"/>
-      <c r="B187" s="52"/>
-      <c r="C187" s="52"/>
+      <c r="A187" s="77"/>
+      <c r="B187" s="53"/>
+      <c r="C187" s="82"/>
       <c r="D187" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E187" s="28"/>
-      <c r="F187" s="29"/>
-      <c r="G187" s="29"/>
-      <c r="H187" s="30"/>
-      <c r="I187" s="18"/>
+        <v>200</v>
+      </c>
+      <c r="E187" s="26"/>
+      <c r="F187" s="27"/>
+      <c r="G187" s="27"/>
+      <c r="H187" s="28"/>
+      <c r="I187" s="17"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
@@ -8430,17 +8472,17 @@
       <c r="AA187" s="1"/>
     </row>
     <row r="188" spans="1:27" ht="17.399999999999999">
-      <c r="A188" s="72"/>
-      <c r="B188" s="52"/>
-      <c r="C188" s="52"/>
+      <c r="A188" s="77"/>
+      <c r="B188" s="53"/>
+      <c r="C188" s="82"/>
       <c r="D188" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E188" s="28"/>
-      <c r="F188" s="29"/>
-      <c r="G188" s="29"/>
-      <c r="H188" s="30"/>
-      <c r="I188" s="18"/>
+        <v>201</v>
+      </c>
+      <c r="E188" s="26"/>
+      <c r="F188" s="27"/>
+      <c r="G188" s="27"/>
+      <c r="H188" s="28"/>
+      <c r="I188" s="17"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
@@ -8461,17 +8503,17 @@
       <c r="AA188" s="1"/>
     </row>
     <row r="189" spans="1:27" ht="17.399999999999999">
-      <c r="A189" s="72"/>
-      <c r="B189" s="52"/>
-      <c r="C189" s="52"/>
+      <c r="A189" s="77"/>
+      <c r="B189" s="53"/>
+      <c r="C189" s="82"/>
       <c r="D189" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E189" s="28"/>
-      <c r="F189" s="29"/>
-      <c r="G189" s="29"/>
-      <c r="H189" s="30"/>
-      <c r="I189" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E189" s="26"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="27"/>
+      <c r="H189" s="28"/>
+      <c r="I189" s="17"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
@@ -8492,17 +8534,17 @@
       <c r="AA189" s="1"/>
     </row>
     <row r="190" spans="1:27" ht="17.399999999999999">
-      <c r="A190" s="72"/>
-      <c r="B190" s="52"/>
-      <c r="C190" s="52"/>
-      <c r="D190" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="E190" s="28"/>
-      <c r="F190" s="29"/>
-      <c r="G190" s="29"/>
-      <c r="H190" s="30"/>
-      <c r="I190" s="18"/>
+      <c r="A190" s="77"/>
+      <c r="B190" s="53"/>
+      <c r="C190" s="82"/>
+      <c r="D190" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E190" s="26"/>
+      <c r="F190" s="27"/>
+      <c r="G190" s="27"/>
+      <c r="H190" s="28"/>
+      <c r="I190" s="17"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
@@ -8523,17 +8565,17 @@
       <c r="AA190" s="1"/>
     </row>
     <row r="191" spans="1:27" ht="17.399999999999999">
-      <c r="A191" s="72"/>
-      <c r="B191" s="52"/>
-      <c r="C191" s="52"/>
-      <c r="D191" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="E191" s="28"/>
-      <c r="F191" s="29"/>
-      <c r="G191" s="29"/>
-      <c r="H191" s="30"/>
-      <c r="I191" s="18"/>
+      <c r="A191" s="77"/>
+      <c r="B191" s="53"/>
+      <c r="C191" s="82"/>
+      <c r="D191" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="E191" s="26"/>
+      <c r="F191" s="27"/>
+      <c r="G191" s="27"/>
+      <c r="H191" s="28"/>
+      <c r="I191" s="17"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
@@ -8554,17 +8596,17 @@
       <c r="AA191" s="1"/>
     </row>
     <row r="192" spans="1:27" ht="17.399999999999999">
-      <c r="A192" s="72"/>
-      <c r="B192" s="52"/>
-      <c r="C192" s="52"/>
-      <c r="D192" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="E192" s="28"/>
-      <c r="F192" s="29"/>
-      <c r="G192" s="29"/>
-      <c r="H192" s="30"/>
-      <c r="I192" s="18"/>
+      <c r="A192" s="77"/>
+      <c r="B192" s="53"/>
+      <c r="C192" s="82"/>
+      <c r="D192" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="E192" s="26"/>
+      <c r="F192" s="27"/>
+      <c r="G192" s="27"/>
+      <c r="H192" s="28"/>
+      <c r="I192" s="17"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
@@ -8585,17 +8627,17 @@
       <c r="AA192" s="1"/>
     </row>
     <row r="193" spans="1:27" ht="17.399999999999999">
-      <c r="A193" s="72"/>
-      <c r="B193" s="52"/>
-      <c r="C193" s="52"/>
-      <c r="D193" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="E193" s="28"/>
-      <c r="F193" s="29"/>
-      <c r="G193" s="29"/>
-      <c r="H193" s="30"/>
-      <c r="I193" s="18"/>
+      <c r="A193" s="77"/>
+      <c r="B193" s="53"/>
+      <c r="C193" s="82"/>
+      <c r="D193" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E193" s="26"/>
+      <c r="F193" s="27"/>
+      <c r="G193" s="27"/>
+      <c r="H193" s="28"/>
+      <c r="I193" s="17"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
@@ -8616,17 +8658,17 @@
       <c r="AA193" s="1"/>
     </row>
     <row r="194" spans="1:27" ht="17.399999999999999">
-      <c r="A194" s="72"/>
-      <c r="B194" s="52"/>
-      <c r="C194" s="52"/>
-      <c r="D194" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="E194" s="28"/>
-      <c r="F194" s="29"/>
-      <c r="G194" s="29"/>
-      <c r="H194" s="30"/>
-      <c r="I194" s="18"/>
+      <c r="A194" s="77"/>
+      <c r="B194" s="53"/>
+      <c r="C194" s="82"/>
+      <c r="D194" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="E194" s="26"/>
+      <c r="F194" s="27"/>
+      <c r="G194" s="27"/>
+      <c r="H194" s="28"/>
+      <c r="I194" s="17"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
@@ -8647,17 +8689,17 @@
       <c r="AA194" s="1"/>
     </row>
     <row r="195" spans="1:27" ht="17.399999999999999">
-      <c r="A195" s="72"/>
-      <c r="B195" s="52"/>
-      <c r="C195" s="52"/>
-      <c r="D195" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="E195" s="28"/>
-      <c r="F195" s="29"/>
-      <c r="G195" s="29"/>
-      <c r="H195" s="30"/>
-      <c r="I195" s="18"/>
+      <c r="A195" s="77"/>
+      <c r="B195" s="53"/>
+      <c r="C195" s="82"/>
+      <c r="D195" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="E195" s="26"/>
+      <c r="F195" s="27"/>
+      <c r="G195" s="27"/>
+      <c r="H195" s="28"/>
+      <c r="I195" s="17"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
@@ -8678,17 +8720,17 @@
       <c r="AA195" s="1"/>
     </row>
     <row r="196" spans="1:27" ht="17.399999999999999">
-      <c r="A196" s="72"/>
-      <c r="B196" s="52"/>
-      <c r="C196" s="52"/>
+      <c r="A196" s="77"/>
+      <c r="B196" s="53"/>
+      <c r="C196" s="82"/>
       <c r="D196" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E196" s="28"/>
-      <c r="F196" s="29"/>
-      <c r="G196" s="29"/>
-      <c r="H196" s="30"/>
-      <c r="I196" s="18"/>
+        <v>203</v>
+      </c>
+      <c r="E196" s="26"/>
+      <c r="F196" s="27"/>
+      <c r="G196" s="27"/>
+      <c r="H196" s="28"/>
+      <c r="I196" s="17"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
@@ -8709,19 +8751,19 @@
       <c r="AA196" s="1"/>
     </row>
     <row r="197" spans="1:27" ht="17.399999999999999">
-      <c r="A197" s="72"/>
-      <c r="B197" s="52"/>
-      <c r="C197" s="51" t="s">
-        <v>206</v>
+      <c r="A197" s="77"/>
+      <c r="B197" s="53"/>
+      <c r="C197" s="52" t="s">
+        <v>204</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E197" s="23"/>
+        <v>198</v>
+      </c>
+      <c r="E197" s="21"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="13"/>
-      <c r="I197" s="18"/>
+      <c r="I197" s="17"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
@@ -8742,17 +8784,17 @@
       <c r="AA197" s="1"/>
     </row>
     <row r="198" spans="1:27" ht="17.399999999999999">
-      <c r="A198" s="72"/>
-      <c r="B198" s="52"/>
-      <c r="C198" s="52"/>
+      <c r="A198" s="77"/>
+      <c r="B198" s="53"/>
+      <c r="C198" s="53"/>
       <c r="D198" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E198" s="23"/>
+        <v>199</v>
+      </c>
+      <c r="E198" s="21"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="13"/>
-      <c r="I198" s="18"/>
+      <c r="I198" s="17"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
@@ -8773,17 +8815,17 @@
       <c r="AA198" s="1"/>
     </row>
     <row r="199" spans="1:27" ht="17.399999999999999">
-      <c r="A199" s="72"/>
-      <c r="B199" s="52"/>
-      <c r="C199" s="52"/>
+      <c r="A199" s="77"/>
+      <c r="B199" s="53"/>
+      <c r="C199" s="53"/>
       <c r="D199" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="E199" s="23"/>
+        <v>200</v>
+      </c>
+      <c r="E199" s="21"/>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
       <c r="H199" s="13"/>
-      <c r="I199" s="18"/>
+      <c r="I199" s="17"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
@@ -8804,17 +8846,17 @@
       <c r="AA199" s="1"/>
     </row>
     <row r="200" spans="1:27" ht="17.399999999999999">
-      <c r="A200" s="72"/>
-      <c r="B200" s="52"/>
-      <c r="C200" s="52"/>
+      <c r="A200" s="77"/>
+      <c r="B200" s="53"/>
+      <c r="C200" s="53"/>
       <c r="D200" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E200" s="23"/>
+        <v>201</v>
+      </c>
+      <c r="E200" s="21"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="13"/>
-      <c r="I200" s="18"/>
+      <c r="I200" s="17"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
@@ -8835,17 +8877,17 @@
       <c r="AA200" s="1"/>
     </row>
     <row r="201" spans="1:27" ht="17.399999999999999">
-      <c r="A201" s="72"/>
-      <c r="B201" s="52"/>
-      <c r="C201" s="52"/>
+      <c r="A201" s="77"/>
+      <c r="B201" s="53"/>
+      <c r="C201" s="53"/>
       <c r="D201" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E201" s="23"/>
+        <v>175</v>
+      </c>
+      <c r="E201" s="21"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="13"/>
-      <c r="I201" s="18"/>
+      <c r="I201" s="17"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
@@ -8866,17 +8908,17 @@
       <c r="AA201" s="1"/>
     </row>
     <row r="202" spans="1:27" ht="17.399999999999999">
-      <c r="A202" s="72"/>
-      <c r="B202" s="52"/>
-      <c r="C202" s="52"/>
+      <c r="A202" s="77"/>
+      <c r="B202" s="53"/>
+      <c r="C202" s="53"/>
       <c r="D202" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E202" s="23"/>
+        <v>202</v>
+      </c>
+      <c r="E202" s="21"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
       <c r="H202" s="13"/>
-      <c r="I202" s="18"/>
+      <c r="I202" s="17"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
@@ -8897,17 +8939,17 @@
       <c r="AA202" s="1"/>
     </row>
     <row r="203" spans="1:27" ht="17.399999999999999">
-      <c r="A203" s="72"/>
-      <c r="B203" s="52"/>
-      <c r="C203" s="52"/>
-      <c r="D203" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="E203" s="23"/>
+      <c r="A203" s="77"/>
+      <c r="B203" s="53"/>
+      <c r="C203" s="53"/>
+      <c r="D203" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E203" s="21"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="13"/>
-      <c r="I203" s="18"/>
+      <c r="I203" s="17"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
@@ -8928,17 +8970,17 @@
       <c r="AA203" s="1"/>
     </row>
     <row r="204" spans="1:27" ht="17.399999999999999">
-      <c r="A204" s="72"/>
-      <c r="B204" s="52"/>
-      <c r="C204" s="52"/>
-      <c r="D204" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="E204" s="23"/>
+      <c r="A204" s="77"/>
+      <c r="B204" s="53"/>
+      <c r="C204" s="53"/>
+      <c r="D204" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="E204" s="21"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="13"/>
-      <c r="I204" s="18"/>
+      <c r="I204" s="17"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
@@ -8959,17 +9001,17 @@
       <c r="AA204" s="1"/>
     </row>
     <row r="205" spans="1:27" ht="17.399999999999999">
-      <c r="A205" s="72"/>
-      <c r="B205" s="52"/>
-      <c r="C205" s="52"/>
-      <c r="D205" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="E205" s="23"/>
+      <c r="A205" s="77"/>
+      <c r="B205" s="53"/>
+      <c r="C205" s="53"/>
+      <c r="D205" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="E205" s="21"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="13"/>
-      <c r="I205" s="18"/>
+      <c r="I205" s="17"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
@@ -8990,17 +9032,17 @@
       <c r="AA205" s="1"/>
     </row>
     <row r="206" spans="1:27" ht="17.399999999999999">
-      <c r="A206" s="72"/>
-      <c r="B206" s="52"/>
-      <c r="C206" s="52"/>
-      <c r="D206" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="E206" s="23"/>
+      <c r="A206" s="77"/>
+      <c r="B206" s="53"/>
+      <c r="C206" s="53"/>
+      <c r="D206" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E206" s="21"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="13"/>
-      <c r="I206" s="18"/>
+      <c r="I206" s="17"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
@@ -9021,17 +9063,17 @@
       <c r="AA206" s="1"/>
     </row>
     <row r="207" spans="1:27" ht="17.399999999999999">
-      <c r="A207" s="72"/>
-      <c r="B207" s="52"/>
-      <c r="C207" s="52"/>
-      <c r="D207" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="E207" s="23"/>
+      <c r="A207" s="77"/>
+      <c r="B207" s="53"/>
+      <c r="C207" s="53"/>
+      <c r="D207" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="E207" s="21"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="13"/>
-      <c r="I207" s="18"/>
+      <c r="I207" s="17"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
@@ -9052,17 +9094,17 @@
       <c r="AA207" s="1"/>
     </row>
     <row r="208" spans="1:27" ht="17.399999999999999">
-      <c r="A208" s="72"/>
-      <c r="B208" s="52"/>
-      <c r="C208" s="52"/>
-      <c r="D208" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="E208" s="23"/>
+      <c r="A208" s="77"/>
+      <c r="B208" s="53"/>
+      <c r="C208" s="53"/>
+      <c r="D208" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="E208" s="21"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="13"/>
-      <c r="I208" s="18"/>
+      <c r="I208" s="17"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
@@ -9083,17 +9125,17 @@
       <c r="AA208" s="1"/>
     </row>
     <row r="209" spans="1:27" ht="17.399999999999999">
-      <c r="A209" s="72"/>
-      <c r="B209" s="52"/>
-      <c r="C209" s="52"/>
+      <c r="A209" s="77"/>
+      <c r="B209" s="53"/>
+      <c r="C209" s="53"/>
       <c r="D209" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E209" s="23"/>
+        <v>203</v>
+      </c>
+      <c r="E209" s="21"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="13"/>
-      <c r="I209" s="18"/>
+      <c r="I209" s="17"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
@@ -9114,19 +9156,19 @@
       <c r="AA209" s="1"/>
     </row>
     <row r="210" spans="1:27" ht="17.399999999999999">
-      <c r="A210" s="72"/>
-      <c r="B210" s="52"/>
-      <c r="C210" s="51" t="s">
-        <v>207</v>
+      <c r="A210" s="77"/>
+      <c r="B210" s="53"/>
+      <c r="C210" s="52" t="s">
+        <v>205</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E210" s="23"/>
+        <v>198</v>
+      </c>
+      <c r="E210" s="21"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="13"/>
-      <c r="I210" s="18"/>
+      <c r="I210" s="17"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
@@ -9147,17 +9189,17 @@
       <c r="AA210" s="1"/>
     </row>
     <row r="211" spans="1:27" ht="17.399999999999999">
-      <c r="A211" s="72"/>
-      <c r="B211" s="52"/>
-      <c r="C211" s="52"/>
+      <c r="A211" s="77"/>
+      <c r="B211" s="53"/>
+      <c r="C211" s="53"/>
       <c r="D211" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E211" s="23"/>
+        <v>199</v>
+      </c>
+      <c r="E211" s="21"/>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
       <c r="H211" s="13"/>
-      <c r="I211" s="18"/>
+      <c r="I211" s="17"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
@@ -9178,17 +9220,17 @@
       <c r="AA211" s="1"/>
     </row>
     <row r="212" spans="1:27" ht="17.399999999999999">
-      <c r="A212" s="72"/>
-      <c r="B212" s="52"/>
-      <c r="C212" s="52"/>
+      <c r="A212" s="77"/>
+      <c r="B212" s="53"/>
+      <c r="C212" s="53"/>
       <c r="D212" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="E212" s="23"/>
+        <v>200</v>
+      </c>
+      <c r="E212" s="21"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
       <c r="H212" s="13"/>
-      <c r="I212" s="18"/>
+      <c r="I212" s="17"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
@@ -9209,17 +9251,17 @@
       <c r="AA212" s="1"/>
     </row>
     <row r="213" spans="1:27" ht="17.399999999999999">
-      <c r="A213" s="72"/>
-      <c r="B213" s="52"/>
-      <c r="C213" s="52"/>
+      <c r="A213" s="77"/>
+      <c r="B213" s="53"/>
+      <c r="C213" s="53"/>
       <c r="D213" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E213" s="23"/>
+        <v>201</v>
+      </c>
+      <c r="E213" s="21"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
       <c r="H213" s="13"/>
-      <c r="I213" s="18"/>
+      <c r="I213" s="17"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
@@ -9240,17 +9282,17 @@
       <c r="AA213" s="1"/>
     </row>
     <row r="214" spans="1:27" ht="17.399999999999999">
-      <c r="A214" s="72"/>
-      <c r="B214" s="52"/>
-      <c r="C214" s="52"/>
+      <c r="A214" s="77"/>
+      <c r="B214" s="53"/>
+      <c r="C214" s="53"/>
       <c r="D214" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E214" s="23"/>
+        <v>175</v>
+      </c>
+      <c r="E214" s="21"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
       <c r="H214" s="13"/>
-      <c r="I214" s="18"/>
+      <c r="I214" s="17"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
@@ -9271,17 +9313,17 @@
       <c r="AA214" s="1"/>
     </row>
     <row r="215" spans="1:27" ht="17.399999999999999">
-      <c r="A215" s="72"/>
-      <c r="B215" s="52"/>
-      <c r="C215" s="52"/>
+      <c r="A215" s="77"/>
+      <c r="B215" s="53"/>
+      <c r="C215" s="53"/>
       <c r="D215" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E215" s="23"/>
+        <v>202</v>
+      </c>
+      <c r="E215" s="21"/>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
       <c r="H215" s="13"/>
-      <c r="I215" s="18"/>
+      <c r="I215" s="17"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
@@ -9302,17 +9344,17 @@
       <c r="AA215" s="1"/>
     </row>
     <row r="216" spans="1:27" ht="17.399999999999999">
-      <c r="A216" s="72"/>
-      <c r="B216" s="52"/>
-      <c r="C216" s="52"/>
-      <c r="D216" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="E216" s="23"/>
+      <c r="A216" s="77"/>
+      <c r="B216" s="53"/>
+      <c r="C216" s="53"/>
+      <c r="D216" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E216" s="21"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="13"/>
-      <c r="I216" s="18"/>
+      <c r="I216" s="17"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
@@ -9333,17 +9375,17 @@
       <c r="AA216" s="1"/>
     </row>
     <row r="217" spans="1:27" ht="17.399999999999999">
-      <c r="A217" s="72"/>
-      <c r="B217" s="52"/>
-      <c r="C217" s="52"/>
-      <c r="D217" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="E217" s="23"/>
+      <c r="A217" s="77"/>
+      <c r="B217" s="53"/>
+      <c r="C217" s="53"/>
+      <c r="D217" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="E217" s="21"/>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
       <c r="H217" s="13"/>
-      <c r="I217" s="18"/>
+      <c r="I217" s="17"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
@@ -9364,17 +9406,17 @@
       <c r="AA217" s="1"/>
     </row>
     <row r="218" spans="1:27" ht="17.399999999999999">
-      <c r="A218" s="72"/>
-      <c r="B218" s="52"/>
-      <c r="C218" s="52"/>
-      <c r="D218" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="E218" s="23"/>
+      <c r="A218" s="77"/>
+      <c r="B218" s="53"/>
+      <c r="C218" s="53"/>
+      <c r="D218" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="E218" s="21"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="13"/>
-      <c r="I218" s="18"/>
+      <c r="I218" s="17"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
@@ -9395,17 +9437,17 @@
       <c r="AA218" s="1"/>
     </row>
     <row r="219" spans="1:27" ht="17.399999999999999">
-      <c r="A219" s="72"/>
-      <c r="B219" s="52"/>
-      <c r="C219" s="52"/>
-      <c r="D219" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="E219" s="23"/>
+      <c r="A219" s="77"/>
+      <c r="B219" s="53"/>
+      <c r="C219" s="53"/>
+      <c r="D219" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E219" s="21"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
       <c r="H219" s="13"/>
-      <c r="I219" s="18"/>
+      <c r="I219" s="17"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
@@ -9426,17 +9468,17 @@
       <c r="AA219" s="1"/>
     </row>
     <row r="220" spans="1:27" ht="17.399999999999999">
-      <c r="A220" s="72"/>
-      <c r="B220" s="52"/>
-      <c r="C220" s="52"/>
-      <c r="D220" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="E220" s="23"/>
+      <c r="A220" s="77"/>
+      <c r="B220" s="53"/>
+      <c r="C220" s="53"/>
+      <c r="D220" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="E220" s="21"/>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
       <c r="H220" s="13"/>
-      <c r="I220" s="18"/>
+      <c r="I220" s="17"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
@@ -9457,17 +9499,17 @@
       <c r="AA220" s="1"/>
     </row>
     <row r="221" spans="1:27" ht="17.399999999999999">
-      <c r="A221" s="72"/>
-      <c r="B221" s="52"/>
-      <c r="C221" s="52"/>
-      <c r="D221" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="E221" s="23"/>
+      <c r="A221" s="77"/>
+      <c r="B221" s="53"/>
+      <c r="C221" s="53"/>
+      <c r="D221" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="E221" s="21"/>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
       <c r="H221" s="13"/>
-      <c r="I221" s="18"/>
+      <c r="I221" s="17"/>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
@@ -9488,17 +9530,17 @@
       <c r="AA221" s="1"/>
     </row>
     <row r="222" spans="1:27" ht="17.399999999999999">
-      <c r="A222" s="72"/>
-      <c r="B222" s="52"/>
-      <c r="C222" s="52"/>
+      <c r="A222" s="77"/>
+      <c r="B222" s="53"/>
+      <c r="C222" s="53"/>
       <c r="D222" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E222" s="23"/>
+        <v>203</v>
+      </c>
+      <c r="E222" s="21"/>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
       <c r="H222" s="13"/>
-      <c r="I222" s="18"/>
+      <c r="I222" s="17"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
@@ -9519,21 +9561,21 @@
       <c r="AA222" s="1"/>
     </row>
     <row r="223" spans="1:27" ht="17.399999999999999">
-      <c r="A223" s="72"/>
-      <c r="B223" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C223" s="51" t="s">
-        <v>209</v>
+      <c r="A223" s="77"/>
+      <c r="B223" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="C223" s="52" t="s">
+        <v>207</v>
       </c>
       <c r="D223" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="E223" s="23"/>
+        <v>300</v>
+      </c>
+      <c r="E223" s="21"/>
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
       <c r="H223" s="13"/>
-      <c r="I223" s="18"/>
+      <c r="I223" s="17"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
@@ -9554,18 +9596,18 @@
       <c r="AA223" s="1"/>
     </row>
     <row r="224" spans="1:27" ht="17.399999999999999">
-      <c r="A224" s="72"/>
-      <c r="B224" s="52"/>
-      <c r="C224" s="52"/>
+      <c r="A224" s="77"/>
+      <c r="B224" s="53"/>
+      <c r="C224" s="53"/>
       <c r="D224" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E224" s="23"/>
+        <v>208</v>
+      </c>
+      <c r="E224" s="21"/>
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
       <c r="H224" s="13"/>
-      <c r="I224" s="21" t="s">
-        <v>211</v>
+      <c r="I224" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
@@ -9587,18 +9629,18 @@
       <c r="AA224" s="1"/>
     </row>
     <row r="225" spans="1:27" ht="17.399999999999999">
-      <c r="A225" s="72"/>
-      <c r="B225" s="52"/>
-      <c r="C225" s="52"/>
+      <c r="A225" s="77"/>
+      <c r="B225" s="53"/>
+      <c r="C225" s="53"/>
       <c r="D225" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E225" s="23"/>
+        <v>210</v>
+      </c>
+      <c r="E225" s="21"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
       <c r="H225" s="13"/>
-      <c r="I225" s="21" t="s">
-        <v>213</v>
+      <c r="I225" s="19" t="s">
+        <v>211</v>
       </c>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
@@ -9620,17 +9662,17 @@
       <c r="AA225" s="1"/>
     </row>
     <row r="226" spans="1:27" ht="17.399999999999999">
-      <c r="A226" s="72"/>
-      <c r="B226" s="52"/>
-      <c r="C226" s="52"/>
+      <c r="A226" s="77"/>
+      <c r="B226" s="53"/>
+      <c r="C226" s="53"/>
       <c r="D226" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E226" s="23"/>
+        <v>212</v>
+      </c>
+      <c r="E226" s="21"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
       <c r="H226" s="13"/>
-      <c r="I226" s="18"/>
+      <c r="I226" s="17"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
@@ -9651,17 +9693,17 @@
       <c r="AA226" s="1"/>
     </row>
     <row r="227" spans="1:27" ht="17.399999999999999">
-      <c r="A227" s="72"/>
-      <c r="B227" s="52"/>
-      <c r="C227" s="52"/>
+      <c r="A227" s="77"/>
+      <c r="B227" s="53"/>
+      <c r="C227" s="53"/>
       <c r="D227" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E227" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="E227" s="21"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
       <c r="H227" s="13"/>
-      <c r="I227" s="18"/>
+      <c r="I227" s="17"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
@@ -9682,19 +9724,19 @@
       <c r="AA227" s="1"/>
     </row>
     <row r="228" spans="1:27" ht="17.399999999999999">
-      <c r="A228" s="72"/>
-      <c r="B228" s="52"/>
-      <c r="C228" s="51" t="s">
-        <v>216</v>
+      <c r="A228" s="77"/>
+      <c r="B228" s="53"/>
+      <c r="C228" s="52" t="s">
+        <v>214</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E228" s="23"/>
+        <v>215</v>
+      </c>
+      <c r="E228" s="21"/>
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
       <c r="H228" s="13"/>
-      <c r="I228" s="18"/>
+      <c r="I228" s="17"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
@@ -9715,17 +9757,17 @@
       <c r="AA228" s="1"/>
     </row>
     <row r="229" spans="1:27" ht="17.399999999999999">
-      <c r="A229" s="72"/>
-      <c r="B229" s="52"/>
-      <c r="C229" s="52"/>
+      <c r="A229" s="77"/>
+      <c r="B229" s="53"/>
+      <c r="C229" s="53"/>
       <c r="D229" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E229" s="23"/>
+        <v>216</v>
+      </c>
+      <c r="E229" s="21"/>
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
       <c r="H229" s="13"/>
-      <c r="I229" s="18"/>
+      <c r="I229" s="17"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
@@ -9746,17 +9788,17 @@
       <c r="AA229" s="1"/>
     </row>
     <row r="230" spans="1:27" ht="17.399999999999999">
-      <c r="A230" s="72"/>
-      <c r="B230" s="52"/>
-      <c r="C230" s="52"/>
+      <c r="A230" s="77"/>
+      <c r="B230" s="53"/>
+      <c r="C230" s="53"/>
       <c r="D230" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E230" s="23"/>
+        <v>138</v>
+      </c>
+      <c r="E230" s="21"/>
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
       <c r="H230" s="13"/>
-      <c r="I230" s="18"/>
+      <c r="I230" s="17"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
@@ -9777,17 +9819,17 @@
       <c r="AA230" s="1"/>
     </row>
     <row r="231" spans="1:27" ht="17.399999999999999">
-      <c r="A231" s="72"/>
-      <c r="B231" s="52"/>
-      <c r="C231" s="52"/>
+      <c r="A231" s="77"/>
+      <c r="B231" s="53"/>
+      <c r="C231" s="53"/>
       <c r="D231" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E231" s="23"/>
+        <v>217</v>
+      </c>
+      <c r="E231" s="21"/>
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
       <c r="H231" s="13"/>
-      <c r="I231" s="18"/>
+      <c r="I231" s="17"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
@@ -9808,17 +9850,17 @@
       <c r="AA231" s="1"/>
     </row>
     <row r="232" spans="1:27" ht="17.399999999999999">
-      <c r="A232" s="72"/>
-      <c r="B232" s="52"/>
-      <c r="C232" s="52"/>
+      <c r="A232" s="77"/>
+      <c r="B232" s="53"/>
+      <c r="C232" s="53"/>
       <c r="D232" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E232" s="23"/>
+        <v>218</v>
+      </c>
+      <c r="E232" s="21"/>
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
       <c r="H232" s="13"/>
-      <c r="I232" s="18"/>
+      <c r="I232" s="17"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
       <c r="L232" s="1"/>
@@ -9839,17 +9881,17 @@
       <c r="AA232" s="1"/>
     </row>
     <row r="233" spans="1:27" ht="17.399999999999999">
-      <c r="A233" s="72"/>
-      <c r="B233" s="52"/>
-      <c r="C233" s="52"/>
+      <c r="A233" s="77"/>
+      <c r="B233" s="53"/>
+      <c r="C233" s="53"/>
       <c r="D233" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E233" s="23"/>
+        <v>219</v>
+      </c>
+      <c r="E233" s="21"/>
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
       <c r="H233" s="13"/>
-      <c r="I233" s="18"/>
+      <c r="I233" s="17"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
@@ -9870,19 +9912,19 @@
       <c r="AA233" s="1"/>
     </row>
     <row r="234" spans="1:27" ht="17.399999999999999">
-      <c r="A234" s="72"/>
-      <c r="B234" s="52"/>
-      <c r="C234" s="51" t="s">
-        <v>222</v>
+      <c r="A234" s="77"/>
+      <c r="B234" s="53"/>
+      <c r="C234" s="52" t="s">
+        <v>220</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="E234" s="23"/>
+        <v>221</v>
+      </c>
+      <c r="E234" s="21"/>
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
       <c r="H234" s="13"/>
-      <c r="I234" s="18"/>
+      <c r="I234" s="17"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
@@ -9903,17 +9945,17 @@
       <c r="AA234" s="1"/>
     </row>
     <row r="235" spans="1:27" ht="17.399999999999999">
-      <c r="A235" s="72"/>
-      <c r="B235" s="52"/>
-      <c r="C235" s="70"/>
+      <c r="A235" s="77"/>
+      <c r="B235" s="53"/>
+      <c r="C235" s="75"/>
       <c r="D235" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E235" s="23"/>
+        <v>222</v>
+      </c>
+      <c r="E235" s="21"/>
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
       <c r="H235" s="13"/>
-      <c r="I235" s="18"/>
+      <c r="I235" s="17"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
@@ -9934,19 +9976,19 @@
       <c r="AA235" s="1"/>
     </row>
     <row r="236" spans="1:27" ht="17.399999999999999">
-      <c r="A236" s="72"/>
-      <c r="B236" s="52"/>
-      <c r="C236" s="51" t="s">
-        <v>225</v>
+      <c r="A236" s="77"/>
+      <c r="B236" s="53"/>
+      <c r="C236" s="52" t="s">
+        <v>223</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="E236" s="23"/>
+        <v>299</v>
+      </c>
+      <c r="E236" s="21"/>
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
       <c r="H236" s="13"/>
-      <c r="I236" s="18"/>
+      <c r="I236" s="17"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
@@ -9967,17 +10009,17 @@
       <c r="AA236" s="1"/>
     </row>
     <row r="237" spans="1:27" ht="17.399999999999999">
-      <c r="A237" s="72"/>
-      <c r="B237" s="52"/>
-      <c r="C237" s="52"/>
+      <c r="A237" s="77"/>
+      <c r="B237" s="53"/>
+      <c r="C237" s="53"/>
       <c r="D237" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="E237" s="23"/>
+        <v>224</v>
+      </c>
+      <c r="E237" s="21"/>
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
       <c r="H237" s="13"/>
-      <c r="I237" s="18"/>
+      <c r="I237" s="17"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
@@ -9998,17 +10040,17 @@
       <c r="AA237" s="1"/>
     </row>
     <row r="238" spans="1:27" ht="17.399999999999999">
-      <c r="A238" s="72"/>
-      <c r="B238" s="52"/>
-      <c r="C238" s="52"/>
+      <c r="A238" s="77"/>
+      <c r="B238" s="53"/>
+      <c r="C238" s="53"/>
       <c r="D238" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E238" s="23"/>
+        <v>225</v>
+      </c>
+      <c r="E238" s="21"/>
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
       <c r="H238" s="13"/>
-      <c r="I238" s="18"/>
+      <c r="I238" s="17"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
@@ -10029,17 +10071,17 @@
       <c r="AA238" s="1"/>
     </row>
     <row r="239" spans="1:27" ht="17.399999999999999">
-      <c r="A239" s="72"/>
-      <c r="B239" s="52"/>
-      <c r="C239" s="52"/>
+      <c r="A239" s="77"/>
+      <c r="B239" s="53"/>
+      <c r="C239" s="53"/>
       <c r="D239" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E239" s="23"/>
+        <v>226</v>
+      </c>
+      <c r="E239" s="21"/>
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
       <c r="H239" s="13"/>
-      <c r="I239" s="18"/>
+      <c r="I239" s="17"/>
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
@@ -10060,19 +10102,19 @@
       <c r="AA239" s="1"/>
     </row>
     <row r="240" spans="1:27" ht="17.399999999999999">
-      <c r="A240" s="72"/>
-      <c r="B240" s="52"/>
-      <c r="C240" s="53" t="s">
-        <v>300</v>
+      <c r="A240" s="77"/>
+      <c r="B240" s="53"/>
+      <c r="C240" s="54" t="s">
+        <v>291</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="E240" s="28"/>
-      <c r="F240" s="50"/>
-      <c r="G240" s="50"/>
-      <c r="H240" s="30"/>
-      <c r="I240" s="18"/>
+        <v>292</v>
+      </c>
+      <c r="E240" s="26"/>
+      <c r="F240" s="48"/>
+      <c r="G240" s="48"/>
+      <c r="H240" s="28"/>
+      <c r="I240" s="17"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
@@ -10093,17 +10135,17 @@
       <c r="AA240" s="1"/>
     </row>
     <row r="241" spans="1:27" ht="17.399999999999999">
-      <c r="A241" s="72"/>
-      <c r="B241" s="52"/>
-      <c r="C241" s="54"/>
+      <c r="A241" s="77"/>
+      <c r="B241" s="53"/>
+      <c r="C241" s="55"/>
       <c r="D241" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E241" s="28"/>
-      <c r="F241" s="50"/>
-      <c r="G241" s="50"/>
-      <c r="H241" s="30"/>
-      <c r="I241" s="18"/>
+        <v>293</v>
+      </c>
+      <c r="E241" s="26"/>
+      <c r="F241" s="48"/>
+      <c r="G241" s="48"/>
+      <c r="H241" s="28"/>
+      <c r="I241" s="17"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
@@ -10124,17 +10166,17 @@
       <c r="AA241" s="1"/>
     </row>
     <row r="242" spans="1:27" ht="17.399999999999999">
-      <c r="A242" s="72"/>
-      <c r="B242" s="52"/>
-      <c r="C242" s="55"/>
+      <c r="A242" s="77"/>
+      <c r="B242" s="53"/>
+      <c r="C242" s="56"/>
       <c r="D242" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E242" s="28"/>
-      <c r="F242" s="50"/>
-      <c r="G242" s="50"/>
-      <c r="H242" s="30"/>
-      <c r="I242" s="18"/>
+        <v>294</v>
+      </c>
+      <c r="E242" s="26"/>
+      <c r="F242" s="48"/>
+      <c r="G242" s="48"/>
+      <c r="H242" s="28"/>
+      <c r="I242" s="17"/>
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
@@ -10155,19 +10197,19 @@
       <c r="AA242" s="1"/>
     </row>
     <row r="243" spans="1:27" ht="17.399999999999999">
-      <c r="A243" s="72"/>
-      <c r="B243" s="52"/>
-      <c r="C243" s="51" t="s">
-        <v>229</v>
+      <c r="A243" s="77"/>
+      <c r="B243" s="53"/>
+      <c r="C243" s="57" t="s">
+        <v>227</v>
       </c>
       <c r="D243" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E243" s="23"/>
+        <v>228</v>
+      </c>
+      <c r="E243" s="21"/>
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
       <c r="H243" s="13"/>
-      <c r="I243" s="18"/>
+      <c r="I243" s="17"/>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
@@ -10188,17 +10230,17 @@
       <c r="AA243" s="1"/>
     </row>
     <row r="244" spans="1:27" ht="17.399999999999999">
-      <c r="A244" s="72"/>
-      <c r="B244" s="52"/>
-      <c r="C244" s="52"/>
+      <c r="A244" s="77"/>
+      <c r="B244" s="53"/>
+      <c r="C244" s="58"/>
       <c r="D244" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E244" s="23"/>
+        <v>229</v>
+      </c>
+      <c r="E244" s="21"/>
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
       <c r="H244" s="13"/>
-      <c r="I244" s="18"/>
+      <c r="I244" s="17"/>
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
@@ -10219,19 +10261,19 @@
       <c r="AA244" s="1"/>
     </row>
     <row r="245" spans="1:27" ht="17.399999999999999">
-      <c r="A245" s="72"/>
-      <c r="B245" s="52"/>
-      <c r="C245" s="52"/>
+      <c r="A245" s="77"/>
+      <c r="B245" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="C245" s="53"/>
       <c r="D245" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E245" s="23"/>
+        <v>231</v>
+      </c>
+      <c r="E245" s="21"/>
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
       <c r="H245" s="13"/>
-      <c r="I245" s="21" t="s">
-        <v>233</v>
-      </c>
+      <c r="I245" s="17"/>
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
@@ -10252,19 +10294,17 @@
       <c r="AA245" s="1"/>
     </row>
     <row r="246" spans="1:27" ht="17.399999999999999">
-      <c r="A246" s="72"/>
-      <c r="B246" s="52"/>
-      <c r="C246" s="52"/>
+      <c r="A246" s="77"/>
+      <c r="B246" s="53"/>
+      <c r="C246" s="53"/>
       <c r="D246" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E246" s="23"/>
+        <v>232</v>
+      </c>
+      <c r="E246" s="21"/>
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
       <c r="H246" s="13"/>
-      <c r="I246" s="21" t="s">
-        <v>235</v>
-      </c>
+      <c r="I246" s="17"/>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
@@ -10285,19 +10325,17 @@
       <c r="AA246" s="1"/>
     </row>
     <row r="247" spans="1:27" ht="17.399999999999999">
-      <c r="A247" s="72"/>
-      <c r="B247" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="C247" s="52"/>
+      <c r="A247" s="77"/>
+      <c r="B247" s="53"/>
+      <c r="C247" s="53"/>
       <c r="D247" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="E247" s="23"/>
+        <v>233</v>
+      </c>
+      <c r="E247" s="21"/>
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
       <c r="H247" s="13"/>
-      <c r="I247" s="18"/>
+      <c r="I247" s="17"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
       <c r="L247" s="1"/>
@@ -10318,17 +10356,17 @@
       <c r="AA247" s="1"/>
     </row>
     <row r="248" spans="1:27" ht="17.399999999999999">
-      <c r="A248" s="72"/>
-      <c r="B248" s="52"/>
-      <c r="C248" s="52"/>
+      <c r="A248" s="77"/>
+      <c r="B248" s="53"/>
+      <c r="C248" s="53"/>
       <c r="D248" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E248" s="23"/>
+        <v>234</v>
+      </c>
+      <c r="E248" s="21"/>
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
       <c r="H248" s="13"/>
-      <c r="I248" s="18"/>
+      <c r="I248" s="17"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
@@ -10349,17 +10387,17 @@
       <c r="AA248" s="1"/>
     </row>
     <row r="249" spans="1:27" ht="17.399999999999999">
-      <c r="A249" s="72"/>
-      <c r="B249" s="52"/>
-      <c r="C249" s="52"/>
+      <c r="A249" s="77"/>
+      <c r="B249" s="53"/>
+      <c r="C249" s="53"/>
       <c r="D249" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="E249" s="23"/>
+        <v>235</v>
+      </c>
+      <c r="E249" s="21"/>
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
       <c r="H249" s="13"/>
-      <c r="I249" s="18"/>
+      <c r="I249" s="17"/>
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
@@ -10380,17 +10418,17 @@
       <c r="AA249" s="1"/>
     </row>
     <row r="250" spans="1:27" ht="17.399999999999999">
-      <c r="A250" s="72"/>
-      <c r="B250" s="52"/>
-      <c r="C250" s="52"/>
+      <c r="A250" s="77"/>
+      <c r="B250" s="53"/>
+      <c r="C250" s="53"/>
       <c r="D250" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E250" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="E250" s="21"/>
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
       <c r="H250" s="13"/>
-      <c r="I250" s="18"/>
+      <c r="I250" s="17"/>
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
@@ -10411,17 +10449,17 @@
       <c r="AA250" s="1"/>
     </row>
     <row r="251" spans="1:27" ht="17.399999999999999">
-      <c r="A251" s="72"/>
-      <c r="B251" s="52"/>
-      <c r="C251" s="52"/>
+      <c r="A251" s="77"/>
+      <c r="B251" s="53"/>
+      <c r="C251" s="53"/>
       <c r="D251" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="E251" s="23"/>
+        <v>237</v>
+      </c>
+      <c r="E251" s="21"/>
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
       <c r="H251" s="13"/>
-      <c r="I251" s="18"/>
+      <c r="I251" s="17"/>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
       <c r="L251" s="1"/>
@@ -10442,17 +10480,21 @@
       <c r="AA251" s="1"/>
     </row>
     <row r="252" spans="1:27" ht="17.399999999999999">
-      <c r="A252" s="72"/>
-      <c r="B252" s="52"/>
-      <c r="C252" s="52"/>
+      <c r="A252" s="77"/>
+      <c r="B252" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="C252" s="54" t="s">
+        <v>297</v>
+      </c>
       <c r="D252" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E252" s="23"/>
-      <c r="F252" s="5"/>
-      <c r="G252" s="5"/>
-      <c r="H252" s="13"/>
-      <c r="I252" s="18"/>
+        <v>239</v>
+      </c>
+      <c r="E252" s="26"/>
+      <c r="F252" s="48"/>
+      <c r="G252" s="48"/>
+      <c r="H252" s="28"/>
+      <c r="I252" s="17"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
@@ -10473,17 +10515,17 @@
       <c r="AA252" s="1"/>
     </row>
     <row r="253" spans="1:27" ht="17.399999999999999">
-      <c r="A253" s="72"/>
-      <c r="B253" s="52"/>
-      <c r="C253" s="52"/>
+      <c r="A253" s="77"/>
+      <c r="B253" s="58"/>
+      <c r="C253" s="55"/>
       <c r="D253" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="E253" s="23"/>
-      <c r="F253" s="5"/>
-      <c r="G253" s="5"/>
-      <c r="H253" s="13"/>
-      <c r="I253" s="18"/>
+        <v>240</v>
+      </c>
+      <c r="E253" s="26"/>
+      <c r="F253" s="48"/>
+      <c r="G253" s="48"/>
+      <c r="H253" s="28"/>
+      <c r="I253" s="17"/>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
       <c r="L253" s="1"/>
@@ -10504,21 +10546,17 @@
       <c r="AA253" s="1"/>
     </row>
     <row r="254" spans="1:27" ht="17.399999999999999">
-      <c r="A254" s="72"/>
-      <c r="B254" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="C254" s="53" t="s">
-        <v>306</v>
-      </c>
+      <c r="A254" s="77"/>
+      <c r="B254" s="58"/>
+      <c r="C254" s="55"/>
       <c r="D254" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E254" s="28"/>
-      <c r="F254" s="50"/>
-      <c r="G254" s="50"/>
-      <c r="H254" s="30"/>
-      <c r="I254" s="18"/>
+        <v>241</v>
+      </c>
+      <c r="E254" s="26"/>
+      <c r="F254" s="48"/>
+      <c r="G254" s="48"/>
+      <c r="H254" s="28"/>
+      <c r="I254" s="17"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
       <c r="L254" s="1"/>
@@ -10539,17 +10577,17 @@
       <c r="AA254" s="1"/>
     </row>
     <row r="255" spans="1:27" ht="17.399999999999999">
-      <c r="A255" s="72"/>
-      <c r="B255" s="57"/>
-      <c r="C255" s="54"/>
+      <c r="A255" s="77"/>
+      <c r="B255" s="58"/>
+      <c r="C255" s="55"/>
       <c r="D255" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="E255" s="28"/>
-      <c r="F255" s="50"/>
-      <c r="G255" s="50"/>
-      <c r="H255" s="30"/>
-      <c r="I255" s="18"/>
+        <v>242</v>
+      </c>
+      <c r="E255" s="26"/>
+      <c r="F255" s="48"/>
+      <c r="G255" s="48"/>
+      <c r="H255" s="28"/>
+      <c r="I255" s="17"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
@@ -10570,17 +10608,17 @@
       <c r="AA255" s="1"/>
     </row>
     <row r="256" spans="1:27" ht="17.399999999999999">
-      <c r="A256" s="72"/>
-      <c r="B256" s="57"/>
-      <c r="C256" s="54"/>
+      <c r="A256" s="77"/>
+      <c r="B256" s="58"/>
+      <c r="C256" s="56"/>
       <c r="D256" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E256" s="28"/>
-      <c r="F256" s="50"/>
-      <c r="G256" s="50"/>
-      <c r="H256" s="30"/>
-      <c r="I256" s="18"/>
+        <v>243</v>
+      </c>
+      <c r="E256" s="26"/>
+      <c r="F256" s="48"/>
+      <c r="G256" s="48"/>
+      <c r="H256" s="28"/>
+      <c r="I256" s="17"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
       <c r="L256" s="1"/>
@@ -10601,17 +10639,19 @@
       <c r="AA256" s="1"/>
     </row>
     <row r="257" spans="1:27" ht="17.399999999999999">
-      <c r="A257" s="72"/>
-      <c r="B257" s="57"/>
-      <c r="C257" s="54"/>
+      <c r="A257" s="77"/>
+      <c r="B257" s="58"/>
+      <c r="C257" s="54" t="s">
+        <v>298</v>
+      </c>
       <c r="D257" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E257" s="28"/>
-      <c r="F257" s="50"/>
-      <c r="G257" s="50"/>
-      <c r="H257" s="30"/>
-      <c r="I257" s="18"/>
+        <v>239</v>
+      </c>
+      <c r="E257" s="21"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="13"/>
+      <c r="I257" s="17"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
@@ -10632,17 +10672,17 @@
       <c r="AA257" s="1"/>
     </row>
     <row r="258" spans="1:27" ht="17.399999999999999">
-      <c r="A258" s="72"/>
-      <c r="B258" s="57"/>
+      <c r="A258" s="77"/>
+      <c r="B258" s="58"/>
       <c r="C258" s="55"/>
       <c r="D258" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="E258" s="28"/>
-      <c r="F258" s="50"/>
-      <c r="G258" s="50"/>
-      <c r="H258" s="30"/>
-      <c r="I258" s="18"/>
+        <v>240</v>
+      </c>
+      <c r="E258" s="21"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="13"/>
+      <c r="I258" s="17"/>
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
       <c r="L258" s="1"/>
@@ -10663,19 +10703,17 @@
       <c r="AA258" s="1"/>
     </row>
     <row r="259" spans="1:27" ht="17.399999999999999">
-      <c r="A259" s="72"/>
-      <c r="B259" s="57"/>
-      <c r="C259" s="53" t="s">
-        <v>307</v>
-      </c>
+      <c r="A259" s="77"/>
+      <c r="B259" s="58"/>
+      <c r="C259" s="55"/>
       <c r="D259" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E259" s="23"/>
+        <v>241</v>
+      </c>
+      <c r="E259" s="21"/>
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
       <c r="H259" s="13"/>
-      <c r="I259" s="18"/>
+      <c r="I259" s="17"/>
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
       <c r="L259" s="1"/>
@@ -10696,17 +10734,17 @@
       <c r="AA259" s="1"/>
     </row>
     <row r="260" spans="1:27" ht="17.399999999999999">
-      <c r="A260" s="72"/>
-      <c r="B260" s="57"/>
-      <c r="C260" s="54"/>
+      <c r="A260" s="77"/>
+      <c r="B260" s="58"/>
+      <c r="C260" s="55"/>
       <c r="D260" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="E260" s="23"/>
+        <v>242</v>
+      </c>
+      <c r="E260" s="21"/>
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
       <c r="H260" s="13"/>
-      <c r="I260" s="18"/>
+      <c r="I260" s="17"/>
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
       <c r="L260" s="1"/>
@@ -10727,17 +10765,17 @@
       <c r="AA260" s="1"/>
     </row>
     <row r="261" spans="1:27" ht="17.399999999999999">
-      <c r="A261" s="72"/>
-      <c r="B261" s="57"/>
-      <c r="C261" s="54"/>
+      <c r="A261" s="77"/>
+      <c r="B261" s="59"/>
+      <c r="C261" s="56"/>
       <c r="D261" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E261" s="23"/>
+        <v>243</v>
+      </c>
+      <c r="E261" s="21"/>
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
       <c r="H261" s="13"/>
-      <c r="I261" s="18"/>
+      <c r="I261" s="17"/>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
       <c r="L261" s="1"/>
@@ -10758,17 +10796,19 @@
       <c r="AA261" s="1"/>
     </row>
     <row r="262" spans="1:27" ht="17.399999999999999">
-      <c r="A262" s="72"/>
-      <c r="B262" s="57"/>
-      <c r="C262" s="54"/>
+      <c r="A262" s="77"/>
+      <c r="B262" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="C262" s="53"/>
       <c r="D262" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E262" s="23"/>
+        <v>245</v>
+      </c>
+      <c r="E262" s="21"/>
       <c r="F262" s="5"/>
       <c r="G262" s="5"/>
       <c r="H262" s="13"/>
-      <c r="I262" s="18"/>
+      <c r="I262" s="17"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
       <c r="L262" s="1"/>
@@ -10789,17 +10829,17 @@
       <c r="AA262" s="1"/>
     </row>
     <row r="263" spans="1:27" ht="17.399999999999999">
-      <c r="A263" s="72"/>
-      <c r="B263" s="58"/>
-      <c r="C263" s="55"/>
+      <c r="A263" s="77"/>
+      <c r="B263" s="53"/>
+      <c r="C263" s="53"/>
       <c r="D263" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="E263" s="23"/>
+        <v>246</v>
+      </c>
+      <c r="E263" s="21"/>
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
       <c r="H263" s="13"/>
-      <c r="I263" s="18"/>
+      <c r="I263" s="17"/>
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
       <c r="L263" s="1"/>
@@ -10820,19 +10860,17 @@
       <c r="AA263" s="1"/>
     </row>
     <row r="264" spans="1:27" ht="17.399999999999999">
-      <c r="A264" s="72"/>
-      <c r="B264" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="C264" s="52"/>
+      <c r="A264" s="77"/>
+      <c r="B264" s="53"/>
+      <c r="C264" s="53"/>
       <c r="D264" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E264" s="23"/>
+        <v>247</v>
+      </c>
+      <c r="E264" s="21"/>
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
       <c r="H264" s="13"/>
-      <c r="I264" s="18"/>
+      <c r="I264" s="17"/>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
       <c r="L264" s="1"/>
@@ -10853,17 +10891,17 @@
       <c r="AA264" s="1"/>
     </row>
     <row r="265" spans="1:27" ht="17.399999999999999">
-      <c r="A265" s="72"/>
-      <c r="B265" s="52"/>
-      <c r="C265" s="52"/>
+      <c r="A265" s="77"/>
+      <c r="B265" s="53"/>
+      <c r="C265" s="53"/>
       <c r="D265" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="E265" s="23"/>
+        <v>248</v>
+      </c>
+      <c r="E265" s="21"/>
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
       <c r="H265" s="13"/>
-      <c r="I265" s="18"/>
+      <c r="I265" s="17"/>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
       <c r="L265" s="1"/>
@@ -10884,17 +10922,17 @@
       <c r="AA265" s="1"/>
     </row>
     <row r="266" spans="1:27" ht="17.399999999999999">
-      <c r="A266" s="72"/>
-      <c r="B266" s="52"/>
-      <c r="C266" s="52"/>
+      <c r="A266" s="77"/>
+      <c r="B266" s="53"/>
+      <c r="C266" s="53"/>
       <c r="D266" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E266" s="23"/>
+        <v>249</v>
+      </c>
+      <c r="E266" s="21"/>
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
       <c r="H266" s="13"/>
-      <c r="I266" s="18"/>
+      <c r="I266" s="17"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
       <c r="L266" s="1"/>
@@ -10915,17 +10953,19 @@
       <c r="AA266" s="1"/>
     </row>
     <row r="267" spans="1:27" ht="17.399999999999999">
-      <c r="A267" s="72"/>
-      <c r="B267" s="52"/>
-      <c r="C267" s="52"/>
+      <c r="A267" s="77"/>
+      <c r="B267" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="C267" s="53"/>
       <c r="D267" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E267" s="23"/>
+        <v>251</v>
+      </c>
+      <c r="E267" s="21"/>
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
       <c r="H267" s="13"/>
-      <c r="I267" s="18"/>
+      <c r="I267" s="17"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
       <c r="L267" s="1"/>
@@ -10946,17 +10986,17 @@
       <c r="AA267" s="1"/>
     </row>
     <row r="268" spans="1:27" ht="17.399999999999999">
-      <c r="A268" s="72"/>
-      <c r="B268" s="52"/>
-      <c r="C268" s="52"/>
+      <c r="A268" s="77"/>
+      <c r="B268" s="53"/>
+      <c r="C268" s="53"/>
       <c r="D268" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E268" s="23"/>
+        <v>252</v>
+      </c>
+      <c r="E268" s="21"/>
       <c r="F268" s="5"/>
       <c r="G268" s="5"/>
       <c r="H268" s="13"/>
-      <c r="I268" s="18"/>
+      <c r="I268" s="17"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
       <c r="L268" s="1"/>
@@ -10977,19 +11017,17 @@
       <c r="AA268" s="1"/>
     </row>
     <row r="269" spans="1:27" ht="17.399999999999999">
-      <c r="A269" s="72"/>
-      <c r="B269" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="C269" s="52"/>
+      <c r="A269" s="77"/>
+      <c r="B269" s="53"/>
+      <c r="C269" s="53"/>
       <c r="D269" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E269" s="23"/>
+        <v>253</v>
+      </c>
+      <c r="E269" s="21"/>
       <c r="F269" s="5"/>
       <c r="G269" s="5"/>
       <c r="H269" s="13"/>
-      <c r="I269" s="18"/>
+      <c r="I269" s="17"/>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
       <c r="L269" s="1"/>
@@ -11010,17 +11048,17 @@
       <c r="AA269" s="1"/>
     </row>
     <row r="270" spans="1:27" ht="17.399999999999999">
-      <c r="A270" s="72"/>
-      <c r="B270" s="52"/>
-      <c r="C270" s="52"/>
+      <c r="A270" s="77"/>
+      <c r="B270" s="53"/>
+      <c r="C270" s="53"/>
       <c r="D270" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="E270" s="23"/>
+        <v>254</v>
+      </c>
+      <c r="E270" s="21"/>
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
       <c r="H270" s="13"/>
-      <c r="I270" s="18"/>
+      <c r="I270" s="17"/>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
@@ -11041,17 +11079,17 @@
       <c r="AA270" s="1"/>
     </row>
     <row r="271" spans="1:27" ht="17.399999999999999">
-      <c r="A271" s="72"/>
-      <c r="B271" s="52"/>
-      <c r="C271" s="52"/>
+      <c r="A271" s="77"/>
+      <c r="B271" s="53"/>
+      <c r="C271" s="53"/>
       <c r="D271" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="E271" s="23"/>
+        <v>255</v>
+      </c>
+      <c r="E271" s="21"/>
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
       <c r="H271" s="13"/>
-      <c r="I271" s="18"/>
+      <c r="I271" s="17"/>
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
       <c r="L271" s="1"/>
@@ -11072,17 +11110,19 @@
       <c r="AA271" s="1"/>
     </row>
     <row r="272" spans="1:27" ht="17.399999999999999">
-      <c r="A272" s="72"/>
-      <c r="B272" s="52"/>
-      <c r="C272" s="52"/>
+      <c r="A272" s="77"/>
+      <c r="B272" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="C272" s="53"/>
       <c r="D272" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="E272" s="23"/>
+        <v>257</v>
+      </c>
+      <c r="E272" s="21"/>
       <c r="F272" s="5"/>
       <c r="G272" s="5"/>
       <c r="H272" s="13"/>
-      <c r="I272" s="18"/>
+      <c r="I272" s="17"/>
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
@@ -11103,17 +11143,17 @@
       <c r="AA272" s="1"/>
     </row>
     <row r="273" spans="1:27" ht="17.399999999999999">
-      <c r="A273" s="72"/>
-      <c r="B273" s="52"/>
-      <c r="C273" s="52"/>
+      <c r="A273" s="77"/>
+      <c r="B273" s="53"/>
+      <c r="C273" s="53"/>
       <c r="D273" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E273" s="23"/>
+        <v>258</v>
+      </c>
+      <c r="E273" s="21"/>
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
       <c r="H273" s="13"/>
-      <c r="I273" s="18"/>
+      <c r="I273" s="17"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
@@ -11134,19 +11174,17 @@
       <c r="AA273" s="1"/>
     </row>
     <row r="274" spans="1:27" ht="17.399999999999999">
-      <c r="A274" s="72"/>
-      <c r="B274" s="62" t="s">
-        <v>262</v>
-      </c>
-      <c r="C274" s="52"/>
+      <c r="A274" s="77"/>
+      <c r="B274" s="53"/>
+      <c r="C274" s="53"/>
       <c r="D274" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E274" s="23"/>
+        <v>259</v>
+      </c>
+      <c r="E274" s="21"/>
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
       <c r="H274" s="13"/>
-      <c r="I274" s="18"/>
+      <c r="I274" s="17"/>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
@@ -11167,17 +11205,17 @@
       <c r="AA274" s="1"/>
     </row>
     <row r="275" spans="1:27" ht="17.399999999999999">
-      <c r="A275" s="72"/>
-      <c r="B275" s="52"/>
-      <c r="C275" s="52"/>
+      <c r="A275" s="77"/>
+      <c r="B275" s="53"/>
+      <c r="C275" s="53"/>
       <c r="D275" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="E275" s="23"/>
+        <v>260</v>
+      </c>
+      <c r="E275" s="21"/>
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
       <c r="H275" s="13"/>
-      <c r="I275" s="18"/>
+      <c r="I275" s="17"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
@@ -11198,17 +11236,17 @@
       <c r="AA275" s="1"/>
     </row>
     <row r="276" spans="1:27" ht="17.399999999999999">
-      <c r="A276" s="72"/>
-      <c r="B276" s="52"/>
-      <c r="C276" s="52"/>
+      <c r="A276" s="77"/>
+      <c r="B276" s="53"/>
+      <c r="C276" s="53"/>
       <c r="D276" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E276" s="23"/>
+        <v>261</v>
+      </c>
+      <c r="E276" s="21"/>
       <c r="F276" s="5"/>
       <c r="G276" s="5"/>
       <c r="H276" s="13"/>
-      <c r="I276" s="18"/>
+      <c r="I276" s="17"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
@@ -11229,17 +11267,17 @@
       <c r="AA276" s="1"/>
     </row>
     <row r="277" spans="1:27" ht="17.399999999999999">
-      <c r="A277" s="72"/>
-      <c r="B277" s="52"/>
-      <c r="C277" s="52"/>
+      <c r="A277" s="77"/>
+      <c r="B277" s="53"/>
+      <c r="C277" s="53"/>
       <c r="D277" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E277" s="23"/>
+        <v>262</v>
+      </c>
+      <c r="E277" s="21"/>
       <c r="F277" s="5"/>
       <c r="G277" s="5"/>
       <c r="H277" s="13"/>
-      <c r="I277" s="18"/>
+      <c r="I277" s="17"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
@@ -11260,17 +11298,17 @@
       <c r="AA277" s="1"/>
     </row>
     <row r="278" spans="1:27" ht="17.399999999999999">
-      <c r="A278" s="72"/>
-      <c r="B278" s="52"/>
-      <c r="C278" s="52"/>
+      <c r="A278" s="77"/>
+      <c r="B278" s="53"/>
+      <c r="C278" s="53"/>
       <c r="D278" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="E278" s="23"/>
+        <v>263</v>
+      </c>
+      <c r="E278" s="21"/>
       <c r="F278" s="5"/>
       <c r="G278" s="5"/>
       <c r="H278" s="13"/>
-      <c r="I278" s="18"/>
+      <c r="I278" s="17"/>
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
@@ -11291,17 +11329,17 @@
       <c r="AA278" s="1"/>
     </row>
     <row r="279" spans="1:27" ht="17.399999999999999">
-      <c r="A279" s="72"/>
-      <c r="B279" s="52"/>
-      <c r="C279" s="52"/>
+      <c r="A279" s="77"/>
+      <c r="B279" s="53"/>
+      <c r="C279" s="53"/>
       <c r="D279" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="E279" s="23"/>
+        <v>264</v>
+      </c>
+      <c r="E279" s="21"/>
       <c r="F279" s="5"/>
       <c r="G279" s="5"/>
       <c r="H279" s="13"/>
-      <c r="I279" s="18"/>
+      <c r="I279" s="17"/>
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
       <c r="L279" s="1"/>
@@ -11321,17 +11359,17 @@
       <c r="Z279" s="1"/>
       <c r="AA279" s="1"/>
     </row>
-    <row r="280" spans="1:27" ht="17.399999999999999">
-      <c r="A280" s="72"/>
-      <c r="B280" s="52"/>
-      <c r="C280" s="52"/>
-      <c r="D280" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="E280" s="23"/>
-      <c r="F280" s="5"/>
-      <c r="G280" s="5"/>
-      <c r="H280" s="13"/>
+    <row r="280" spans="1:27" ht="18" thickBot="1">
+      <c r="A280" s="78"/>
+      <c r="B280" s="68"/>
+      <c r="C280" s="68"/>
+      <c r="D280" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E280" s="37"/>
+      <c r="F280" s="38"/>
+      <c r="G280" s="38"/>
+      <c r="H280" s="39"/>
       <c r="I280" s="18"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
@@ -11353,17 +11391,25 @@
       <c r="AA280" s="1"/>
     </row>
     <row r="281" spans="1:27" ht="17.399999999999999">
-      <c r="A281" s="72"/>
-      <c r="B281" s="52"/>
-      <c r="C281" s="52"/>
-      <c r="D281" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="E281" s="23"/>
-      <c r="F281" s="5"/>
-      <c r="G281" s="5"/>
-      <c r="H281" s="13"/>
-      <c r="I281" s="18"/>
+      <c r="A281" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="B281" s="70"/>
+      <c r="C281" s="70"/>
+      <c r="D281" s="32"/>
+      <c r="E281" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="F281" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="G281" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="H281" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="I281" s="29"/>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
       <c r="L281" s="1"/>
@@ -11383,18 +11429,18 @@
       <c r="Z281" s="1"/>
       <c r="AA281" s="1"/>
     </row>
-    <row r="282" spans="1:27" ht="18" thickBot="1">
-      <c r="A282" s="73"/>
-      <c r="B282" s="63"/>
-      <c r="C282" s="63"/>
-      <c r="D282" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="E282" s="39"/>
-      <c r="F282" s="40"/>
-      <c r="G282" s="40"/>
-      <c r="H282" s="41"/>
-      <c r="I282" s="19"/>
+    <row r="282" spans="1:27" ht="17.399999999999999">
+      <c r="A282" s="71"/>
+      <c r="B282" s="72"/>
+      <c r="C282" s="72"/>
+      <c r="D282" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E282" s="44"/>
+      <c r="F282" s="30"/>
+      <c r="G282" s="30"/>
+      <c r="H282" s="45"/>
+      <c r="I282" s="35"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
@@ -11415,25 +11461,17 @@
       <c r="AA282" s="1"/>
     </row>
     <row r="283" spans="1:27" ht="17.399999999999999">
-      <c r="A283" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="B283" s="65"/>
-      <c r="C283" s="65"/>
-      <c r="D283" s="34"/>
-      <c r="E283" s="42" t="s">
-        <v>298</v>
-      </c>
-      <c r="F283" s="43" t="s">
-        <v>296</v>
-      </c>
-      <c r="G283" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="H283" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="I283" s="31"/>
+      <c r="A283" s="71"/>
+      <c r="B283" s="72"/>
+      <c r="C283" s="72"/>
+      <c r="D283" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="E283" s="44"/>
+      <c r="F283" s="30"/>
+      <c r="G283" s="30"/>
+      <c r="H283" s="45"/>
+      <c r="I283" s="35"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
       <c r="L283" s="1"/>
@@ -11454,17 +11492,17 @@
       <c r="AA283" s="1"/>
     </row>
     <row r="284" spans="1:27" ht="17.399999999999999">
-      <c r="A284" s="66"/>
-      <c r="B284" s="67"/>
-      <c r="C284" s="67"/>
-      <c r="D284" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="E284" s="46"/>
-      <c r="F284" s="32"/>
-      <c r="G284" s="32"/>
-      <c r="H284" s="47"/>
-      <c r="I284" s="37"/>
+      <c r="A284" s="71"/>
+      <c r="B284" s="72"/>
+      <c r="C284" s="72"/>
+      <c r="D284" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="E284" s="44"/>
+      <c r="F284" s="30"/>
+      <c r="G284" s="30"/>
+      <c r="H284" s="45"/>
+      <c r="I284" s="35"/>
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
@@ -11485,17 +11523,17 @@
       <c r="AA284" s="1"/>
     </row>
     <row r="285" spans="1:27" ht="17.399999999999999">
-      <c r="A285" s="66"/>
-      <c r="B285" s="67"/>
-      <c r="C285" s="67"/>
-      <c r="D285" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="E285" s="46"/>
-      <c r="F285" s="32"/>
-      <c r="G285" s="32"/>
-      <c r="H285" s="47"/>
-      <c r="I285" s="37"/>
+      <c r="A285" s="71"/>
+      <c r="B285" s="72"/>
+      <c r="C285" s="72"/>
+      <c r="D285" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="E285" s="44"/>
+      <c r="F285" s="30"/>
+      <c r="G285" s="30"/>
+      <c r="H285" s="45"/>
+      <c r="I285" s="35"/>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
       <c r="L285" s="1"/>
@@ -11516,17 +11554,17 @@
       <c r="AA285" s="1"/>
     </row>
     <row r="286" spans="1:27" ht="17.399999999999999">
-      <c r="A286" s="66"/>
-      <c r="B286" s="67"/>
-      <c r="C286" s="67"/>
-      <c r="D286" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="E286" s="46"/>
-      <c r="F286" s="32"/>
-      <c r="G286" s="32"/>
-      <c r="H286" s="47"/>
-      <c r="I286" s="37"/>
+      <c r="A286" s="71"/>
+      <c r="B286" s="72"/>
+      <c r="C286" s="72"/>
+      <c r="D286" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="E286" s="44"/>
+      <c r="F286" s="30"/>
+      <c r="G286" s="30"/>
+      <c r="H286" s="45"/>
+      <c r="I286" s="35"/>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
       <c r="L286" s="1"/>
@@ -11546,18 +11584,18 @@
       <c r="Z286" s="1"/>
       <c r="AA286" s="1"/>
     </row>
-    <row r="287" spans="1:27" ht="17.399999999999999">
-      <c r="A287" s="66"/>
-      <c r="B287" s="67"/>
-      <c r="C287" s="67"/>
-      <c r="D287" s="35" t="s">
-        <v>276</v>
+    <row r="287" spans="1:27" ht="18" thickBot="1">
+      <c r="A287" s="73"/>
+      <c r="B287" s="74"/>
+      <c r="C287" s="74"/>
+      <c r="D287" s="34" t="s">
+        <v>272</v>
       </c>
       <c r="E287" s="46"/>
-      <c r="F287" s="32"/>
-      <c r="G287" s="32"/>
+      <c r="F287" s="31"/>
+      <c r="G287" s="31"/>
       <c r="H287" s="47"/>
-      <c r="I287" s="37"/>
+      <c r="I287" s="36"/>
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
       <c r="L287" s="1"/>
@@ -11577,18 +11615,18 @@
       <c r="Z287" s="1"/>
       <c r="AA287" s="1"/>
     </row>
-    <row r="288" spans="1:27" ht="17.399999999999999">
-      <c r="A288" s="66"/>
-      <c r="B288" s="67"/>
-      <c r="C288" s="67"/>
-      <c r="D288" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="E288" s="46"/>
-      <c r="F288" s="32"/>
-      <c r="G288" s="32"/>
-      <c r="H288" s="47"/>
-      <c r="I288" s="37"/>
+    <row r="288" spans="1:27" ht="75" customHeight="1" thickBot="1">
+      <c r="A288" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="B288" s="65"/>
+      <c r="C288" s="65"/>
+      <c r="D288" s="65"/>
+      <c r="E288" s="65"/>
+      <c r="F288" s="65"/>
+      <c r="G288" s="65"/>
+      <c r="H288" s="65"/>
+      <c r="I288" s="66"/>
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
       <c r="L288" s="1"/>
@@ -11608,18 +11646,16 @@
       <c r="Z288" s="1"/>
       <c r="AA288" s="1"/>
     </row>
-    <row r="289" spans="1:27" ht="18" thickBot="1">
-      <c r="A289" s="68"/>
-      <c r="B289" s="69"/>
-      <c r="C289" s="69"/>
-      <c r="D289" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="E289" s="48"/>
-      <c r="F289" s="33"/>
-      <c r="G289" s="33"/>
-      <c r="H289" s="49"/>
-      <c r="I289" s="38"/>
+    <row r="289" spans="1:27" ht="17.399999999999999">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+      <c r="H289" s="1"/>
+      <c r="I289" s="1"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
       <c r="L289" s="1"/>
@@ -11639,18 +11675,16 @@
       <c r="Z289" s="1"/>
       <c r="AA289" s="1"/>
     </row>
-    <row r="290" spans="1:27" ht="75" customHeight="1" thickBot="1">
-      <c r="A290" s="59" t="s">
-        <v>294</v>
-      </c>
-      <c r="B290" s="60"/>
-      <c r="C290" s="60"/>
-      <c r="D290" s="60"/>
-      <c r="E290" s="60"/>
-      <c r="F290" s="60"/>
-      <c r="G290" s="60"/>
-      <c r="H290" s="60"/>
-      <c r="I290" s="61"/>
+    <row r="290" spans="1:27" ht="17.399999999999999">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1"/>
+      <c r="I290" s="1"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
       <c r="L290" s="1"/>
@@ -14193,66 +14227,8 @@
       <c r="Z377" s="1"/>
       <c r="AA377" s="1"/>
     </row>
-    <row r="378" spans="1:27" ht="17.399999999999999">
-      <c r="A378" s="1"/>
-      <c r="B378" s="1"/>
-      <c r="C378" s="1"/>
-      <c r="D378" s="1"/>
-      <c r="E378" s="1"/>
-      <c r="F378" s="1"/>
-      <c r="G378" s="1"/>
-      <c r="H378" s="1"/>
-      <c r="I378" s="1"/>
-      <c r="J378" s="1"/>
-      <c r="K378" s="1"/>
-      <c r="L378" s="1"/>
-      <c r="M378" s="1"/>
-      <c r="N378" s="1"/>
-      <c r="O378" s="1"/>
-      <c r="P378" s="1"/>
-      <c r="Q378" s="1"/>
-      <c r="R378" s="1"/>
-      <c r="S378" s="1"/>
-      <c r="T378" s="1"/>
-      <c r="U378" s="1"/>
-      <c r="V378" s="1"/>
-      <c r="W378" s="1"/>
-      <c r="X378" s="1"/>
-      <c r="Y378" s="1"/>
-      <c r="Z378" s="1"/>
-      <c r="AA378" s="1"/>
-    </row>
-    <row r="379" spans="1:27" ht="17.399999999999999">
-      <c r="A379" s="1"/>
-      <c r="B379" s="1"/>
-      <c r="C379" s="1"/>
-      <c r="D379" s="1"/>
-      <c r="E379" s="1"/>
-      <c r="F379" s="1"/>
-      <c r="G379" s="1"/>
-      <c r="H379" s="1"/>
-      <c r="I379" s="1"/>
-      <c r="J379" s="1"/>
-      <c r="K379" s="1"/>
-      <c r="L379" s="1"/>
-      <c r="M379" s="1"/>
-      <c r="N379" s="1"/>
-      <c r="O379" s="1"/>
-      <c r="P379" s="1"/>
-      <c r="Q379" s="1"/>
-      <c r="R379" s="1"/>
-      <c r="S379" s="1"/>
-      <c r="T379" s="1"/>
-      <c r="U379" s="1"/>
-      <c r="V379" s="1"/>
-      <c r="W379" s="1"/>
-      <c r="X379" s="1"/>
-      <c r="Y379" s="1"/>
-      <c r="Z379" s="1"/>
-      <c r="AA379" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="62">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C117:C119"/>
@@ -14271,38 +14247,38 @@
     <mergeCell ref="C110:C111"/>
     <mergeCell ref="B28:B62"/>
     <mergeCell ref="C28:C32"/>
-    <mergeCell ref="B247:C253"/>
+    <mergeCell ref="B245:C251"/>
     <mergeCell ref="C133:C138"/>
     <mergeCell ref="B106:B139"/>
     <mergeCell ref="C36:C39"/>
     <mergeCell ref="C223:C227"/>
-    <mergeCell ref="B223:B246"/>
+    <mergeCell ref="B223:B244"/>
     <mergeCell ref="C228:C233"/>
     <mergeCell ref="C236:C239"/>
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="C40:C42"/>
     <mergeCell ref="C46:C53"/>
-    <mergeCell ref="C184:C196"/>
+    <mergeCell ref="C186:C196"/>
     <mergeCell ref="C113:C116"/>
     <mergeCell ref="B104:C104"/>
-    <mergeCell ref="A290:I290"/>
-    <mergeCell ref="C171:C183"/>
-    <mergeCell ref="B171:B222"/>
+    <mergeCell ref="A288:I288"/>
+    <mergeCell ref="C173:C185"/>
+    <mergeCell ref="B173:B222"/>
     <mergeCell ref="C197:C209"/>
-    <mergeCell ref="B274:C282"/>
-    <mergeCell ref="A283:C289"/>
+    <mergeCell ref="B272:C280"/>
+    <mergeCell ref="A281:C287"/>
     <mergeCell ref="C234:C235"/>
-    <mergeCell ref="C243:C246"/>
-    <mergeCell ref="B264:C268"/>
-    <mergeCell ref="A105:A282"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="B262:C266"/>
+    <mergeCell ref="A105:A280"/>
     <mergeCell ref="B105:D105"/>
     <mergeCell ref="C106:C109"/>
     <mergeCell ref="C210:C222"/>
-    <mergeCell ref="B140:C170"/>
+    <mergeCell ref="B140:C169"/>
     <mergeCell ref="C131:C132"/>
     <mergeCell ref="C120:C124"/>
     <mergeCell ref="C125:C130"/>
-    <mergeCell ref="B269:C273"/>
+    <mergeCell ref="B267:C271"/>
     <mergeCell ref="C88:C89"/>
     <mergeCell ref="C90:C91"/>
     <mergeCell ref="C92:C96"/>
@@ -14311,9 +14287,10 @@
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="C102:C103"/>
     <mergeCell ref="C240:C242"/>
-    <mergeCell ref="B254:B263"/>
-    <mergeCell ref="C254:C258"/>
-    <mergeCell ref="C259:C263"/>
+    <mergeCell ref="B252:B261"/>
+    <mergeCell ref="C252:C256"/>
+    <mergeCell ref="C257:C261"/>
+    <mergeCell ref="B170:C172"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
